--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="3100" windowWidth="27520" windowHeight="14540" tabRatio="883" activeTab="5"/>
+    <workbookView xWindow="5820" yWindow="4840" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="116">
   <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>buyArchon</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>member</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -382,14 +378,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>editAllianceBasicInfo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>editAllianceTerrian</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>BOOL_upgradeAllianceVillage</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -472,10 +460,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>activeShrineStageEvent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_value</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -484,7 +468,39 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>createAlliance</t>
+    <t>BOOL_findAllianceToFight</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightTotalFightTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightTimePerFight</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightPrepareTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeShrineStageEventTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>editAllianceTerrianHonour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>editAllianceBasicInfoGem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyArchonGem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAllianceGem</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +663,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="186">
+  <cellStyleXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -662,6 +678,102 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -875,7 +987,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="186">
+  <cellStyles count="282">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -971,6 +1083,54 @@
     <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1059,6 +1219,54 @@
     <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1508,15 +1716,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
@@ -1524,13 +1733,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1">
         <v>50</v>
@@ -1538,7 +1747,7 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2">
         <v>100</v>
@@ -1546,7 +1755,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1554,7 +1763,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -1562,10 +1771,34 @@
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="1">
-        <v>3600</v>
+      <c r="B8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1831,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -1622,10 +1855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R7"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1637,7 +1870,7 @@
     <col min="14" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1645,7 +1878,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>10</v>
@@ -1660,7 +1893,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>13</v>
@@ -1675,25 +1908,28 @@
         <v>17</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="P1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="20" customHeight="1">
+    <row r="2" spans="1:19" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1748,8 +1984,11 @@
       <c r="R2" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="20" customHeight="1">
+      <c r="S2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1804,8 +2043,11 @@
       <c r="R3" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="20" customHeight="1">
+      <c r="S3" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1860,8 +2102,11 @@
       <c r="R4" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="20" customHeight="1">
+      <c r="S4" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1899,10 +2144,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>1</v>
@@ -1916,8 +2161,11 @@
       <c r="R5" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="20" customHeight="1">
+      <c r="S5" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1972,8 +2220,11 @@
       <c r="R6" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="20" customHeight="1">
+      <c r="S6" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2028,8 +2279,11 @@
       <c r="R7" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="20" customHeight="1">
+      <c r="S7" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="20" customHeight="1">
       <c r="M8" s="7"/>
     </row>
   </sheetData>
@@ -2063,24 +2317,24 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -2089,7 +2343,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E2" s="8">
         <v>120</v>
@@ -2104,7 +2358,7 @@
     </row>
     <row r="3" spans="1:13" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2113,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E3" s="8">
         <v>80</v>
@@ -2128,7 +2382,7 @@
     </row>
     <row r="4" spans="1:13" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -2137,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E4" s="8">
         <v>40</v>
@@ -2152,7 +2406,7 @@
     </row>
     <row r="5" spans="1:13" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2161,7 +2415,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8">
         <v>20</v>
@@ -2176,7 +2430,7 @@
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -2185,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="8">
         <v>20</v>
@@ -2200,7 +2454,7 @@
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2209,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E7" s="8">
         <v>20</v>
@@ -2224,7 +2478,7 @@
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2233,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
@@ -2249,7 +2503,7 @@
     </row>
     <row r="9" spans="1:13" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2258,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
@@ -2274,7 +2528,7 @@
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -2283,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
@@ -2299,7 +2553,7 @@
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -2308,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11" s="8">
         <v>0</v>
@@ -2316,7 +2570,7 @@
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2325,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -2333,16 +2587,16 @@
     </row>
     <row r="13" spans="1:13" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E13" s="8">
         <v>0</v>
@@ -2350,7 +2604,7 @@
     </row>
     <row r="14" spans="1:13" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2359,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
@@ -2395,34 +2649,34 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2449,10 +2703,10 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2479,10 +2733,10 @@
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -2509,10 +2763,10 @@
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -2539,10 +2793,10 @@
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -2569,10 +2823,10 @@
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -2599,10 +2853,10 @@
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -2629,10 +2883,10 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -2661,10 +2915,10 @@
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -2693,10 +2947,10 @@
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -2725,10 +2979,10 @@
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -2757,10 +3011,10 @@
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -2780,10 +3034,10 @@
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -2803,10 +3057,10 @@
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -2826,10 +3080,10 @@
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -2849,10 +3103,10 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -2872,10 +3126,10 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -2895,10 +3149,10 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1">
         <v>6</v>
@@ -2918,10 +3172,10 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2941,10 +3195,10 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -2964,10 +3218,10 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -2987,10 +3241,10 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -3010,10 +3264,10 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -3033,10 +3287,10 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -3056,10 +3310,10 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -3079,10 +3333,10 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -3102,10 +3356,10 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -3125,10 +3379,10 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -3148,10 +3402,10 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -3171,10 +3425,10 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -3194,10 +3448,10 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -3217,10 +3471,10 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -3240,10 +3494,10 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -3263,10 +3517,10 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -3286,10 +3540,10 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1">
         <v>5</v>
@@ -3309,10 +3563,10 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -3346,7 +3600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3360,13 +3614,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -3374,7 +3628,7 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
@@ -3382,7 +3636,7 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -3390,7 +3644,7 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -3398,7 +3652,7 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
@@ -3406,7 +3660,7 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1">
         <v>15</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="4840" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
+    <workbookView xWindow="4760" yWindow="2920" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1719,7 +1719,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1782,7 +1782,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
@@ -1790,7 +1790,7 @@
         <v>108</v>
       </c>
       <c r="B8" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -1798,7 +1798,7 @@
         <v>109</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="2920" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
+    <workbookView xWindow="5320" yWindow="1520" windowWidth="27520" windowHeight="18140" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
   <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -501,6 +501,21 @@
   </si>
   <si>
     <t>createAllianceGem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceHelpDefenceTroopsMaxCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceRevengeMaxTime</t>
+  </si>
+  <si>
+    <t>BOOL_revengeAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonStrikeHpDecreasedPercent</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -663,7 +678,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="282">
+  <cellStyleXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -678,6 +693,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -987,7 +1008,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="282">
+  <cellStyles count="288">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1131,6 +1152,9 @@
     <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1267,6 +1291,9 @@
     <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1716,7 +1743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -1782,7 +1809,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
@@ -1790,7 +1817,7 @@
         <v>108</v>
       </c>
       <c r="B8" s="1">
-        <v>60</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -1799,6 +1826,30 @@
       </c>
       <c r="B9" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1855,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="T2" sqref="T2:T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1870,7 +1921,7 @@
     <col min="14" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1928,8 +1979,11 @@
       <c r="S1" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="20" customHeight="1">
+      <c r="T1" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1987,8 +2041,11 @@
       <c r="S2" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="20" customHeight="1">
+      <c r="T2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2046,8 +2103,11 @@
       <c r="S3" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="20" customHeight="1">
+      <c r="T3" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2105,8 +2165,11 @@
       <c r="S4" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="20" customHeight="1">
+      <c r="T4" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2164,8 +2227,11 @@
       <c r="S5" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="20" customHeight="1">
+      <c r="T5" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2223,8 +2289,11 @@
       <c r="S6" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="20" customHeight="1">
+      <c r="T6" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2282,8 +2351,11 @@
       <c r="S7" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="20" customHeight="1">
+      <c r="T7" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="M8" s="7"/>
     </row>
   </sheetData>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,43 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="1520" windowWidth="27520" windowHeight="18140" tabRatio="883"/>
+    <workbookView xWindow="4240" yWindow="1880" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
-    <sheet name="stringInit" sheetId="10" r:id="rId2"/>
-    <sheet name="right" sheetId="4" r:id="rId3"/>
-    <sheet name="buildingType" sheetId="6" r:id="rId4"/>
-    <sheet name="donate" sheetId="8" r:id="rId5"/>
-    <sheet name="decorateCount" sheetId="9" r:id="rId6"/>
+    <sheet name="floatInit" sheetId="11" r:id="rId2"/>
+    <sheet name="stringInit" sheetId="10" r:id="rId3"/>
+    <sheet name="right" sheetId="4" r:id="rId4"/>
+    <sheet name="buildingType" sheetId="6" r:id="rId5"/>
+    <sheet name="donate" sheetId="8" r:id="rId6"/>
+    <sheet name="decorateCount" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -50,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="140">
   <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -476,10 +481,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>allianceFightTimePerFight</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>allianceFightPrepareTime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -515,7 +516,91 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>dragonStrikeHpDecreasedPercent</t>
+    <t>allianceRegionMapWidth</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceRegionMapHeight</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonExpByKilledCitizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bloodByKilledCitizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenPerLeadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectedWoodCountPerExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectedStoneCountPerExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectedIronCountPerExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectedFoodCountPerExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectedCoinCountPerExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerHatchDragonNeedHours</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_addItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>killScorePerWallHp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_giveLoyaltyToAllianceMember</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -523,8 +608,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0\%"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -678,7 +764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="288">
+  <cellStyleXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -971,8 +1057,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,8 +1115,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="288">
+  <cellStyles count="310">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1155,6 +1272,17 @@
     <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1294,6 +1422,17 @@
     <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1743,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1766,7 +1905,7 @@
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1">
         <v>50</v>
@@ -1774,7 +1913,7 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2">
         <v>100</v>
@@ -1782,7 +1921,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1790,7 +1929,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -1798,18 +1937,18 @@
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
@@ -1822,10 +1961,10 @@
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -1833,15 +1972,15 @@
         <v>116</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1">
-        <v>300</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -1849,7 +1988,55 @@
         <v>119</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1866,31 +2053,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="13"/>
+    <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>105</v>
+      <c r="B1" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="F1" s="4"/>
     </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="B3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="B4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -1906,457 +2121,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="5" width="20.6640625" style="6"/>
-    <col min="6" max="12" width="20.6640625" style="1"/>
-    <col min="13" max="13" width="20.6640625" style="6"/>
-    <col min="14" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="20" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="20" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="20" customHeight="1">
-      <c r="M8" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2372,9 +2161,519 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="5" width="20.6640625" style="6"/>
+    <col min="6" max="12" width="20.6640625" style="1"/>
+    <col min="13" max="13" width="20.6640625" style="6"/>
+    <col min="14" max="21" width="20.6640625" style="1"/>
+    <col min="22" max="22" width="20.6640625" style="6"/>
+    <col min="23" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="20" customHeight="1">
+      <c r="M8" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2703,11 +3002,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3668,11 +3967,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="1880" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6080" yWindow="2000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="141">
   <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -602,6 +602,9 @@
   <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonStrikeHpDecreasedPercent</t>
   </si>
 </sst>
 </file>
@@ -1882,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2037,6 +2040,14 @@
       </c>
       <c r="B18" s="1">
         <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,45 +4,40 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="2000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6460" yWindow="2220" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
-    <sheet name="floatInit" sheetId="11" r:id="rId2"/>
-    <sheet name="stringInit" sheetId="10" r:id="rId3"/>
-    <sheet name="right" sheetId="4" r:id="rId4"/>
-    <sheet name="buildingType" sheetId="6" r:id="rId5"/>
-    <sheet name="donate" sheetId="8" r:id="rId6"/>
-    <sheet name="decorateCount" sheetId="9" r:id="rId7"/>
+    <sheet name="stringInit" sheetId="10" r:id="rId2"/>
+    <sheet name="right" sheetId="4" r:id="rId3"/>
+    <sheet name="buildingType" sheetId="6" r:id="rId4"/>
+    <sheet name="donate" sheetId="8" r:id="rId5"/>
+    <sheet name="decorateCount" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -55,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
   <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -111,10 +106,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BOOL_handleJoinAllianceRequest</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>BOOL_editAllianceJoinType</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -524,18 +515,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>FLOAT_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonExpByKilledCitizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>bloodByKilledCitizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>citizenPerLeadership</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -560,10 +539,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>playerHatchDragonNeedHours</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -580,10 +555,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>killScorePerWallHp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>BOOL_giveLoyaltyToAllianceMember</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -605,15 +576,122 @@
   </si>
   <si>
     <t>dragonStrikeHpDecreasedPercent</t>
+  </si>
+  <si>
+    <t>allianceFightFaiedProtectMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_approveJoinAllianceRequest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_removeJoinAllianceReqeusts</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建联盟所需宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞选盟主所需宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑联盟基础信息所需宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑联盟地形所需荣耀值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣地战激活后持续时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战准备期时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战战争期时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>协防玩家最大数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇最大时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟地图宽度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟地图高度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一点龙的领导力带领多少兵力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集多少点资源增长一点采集经验</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙突袭每次减少的血量百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战失败保护期时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>KilledCitizenPerDragonExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀多少兵力获得一点龙经验</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀多少兵力获得一点英雄之血</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>KilledCitizenPerBlood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>KilledCitizenPerWallHp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>损失一点城墙血量算多少击杀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightSuccessProtectMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战成功保护期时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0\%"/>
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -767,7 +845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="310">
+  <cellStyleXfs count="380">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1082,8 +1160,78 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,17 +1266,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="310">
+  <cellStyles count="380">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1286,6 +1428,41 @@
     <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1436,6 +1613,41 @@
     <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1885,169 +2097,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="20.6640625" style="6"/>
+    <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>106</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="1">
+        <v>113</v>
+      </c>
+      <c r="B2" s="6">
         <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="2">
+        <v>112</v>
+      </c>
+      <c r="B3" s="12">
         <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="2">
+        <v>111</v>
+      </c>
+      <c r="B4" s="12">
         <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="1">
+        <v>110</v>
+      </c>
+      <c r="B5" s="6">
         <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="1">
+        <v>109</v>
+      </c>
+      <c r="B6" s="6">
         <v>120</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="1">
+        <v>108</v>
+      </c>
+      <c r="B7" s="6">
         <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="1">
+        <v>107</v>
+      </c>
+      <c r="B8" s="6">
         <v>300</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="1">
+        <v>114</v>
+      </c>
+      <c r="B9" s="6">
         <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="1">
+        <v>115</v>
+      </c>
+      <c r="B10" s="6">
         <v>300</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="1">
+        <v>117</v>
+      </c>
+      <c r="B11" s="6">
         <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="1">
+        <v>118</v>
+      </c>
+      <c r="B12" s="6">
         <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="1">
+        <v>119</v>
+      </c>
+      <c r="B13" s="6">
         <v>100</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="1">
+        <v>120</v>
+      </c>
+      <c r="B14" s="6">
         <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="1">
+        <v>121</v>
+      </c>
+      <c r="B15" s="6">
         <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="1">
+        <v>122</v>
+      </c>
+      <c r="B16" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="1">
+        <v>123</v>
+      </c>
+      <c r="B17" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="1">
+        <v>124</v>
+      </c>
+      <c r="B18" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="1">
+        <v>134</v>
+      </c>
+      <c r="B19" s="6">
         <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="8">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2064,59 +2389,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="13"/>
-    <col min="3" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="13">
-        <v>0.5</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="14">
-        <v>0.5</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="13">
-        <v>0.1</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2132,31 +2429,522 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showRuler="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="5" width="20.6640625" style="6"/>
+    <col min="6" max="13" width="20.6640625" style="1"/>
+    <col min="14" max="14" width="20.6640625" style="6"/>
+    <col min="15" max="22" width="20.6640625" style="1"/>
+    <col min="23" max="23" width="20.6640625" style="6"/>
+    <col min="24" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="B4" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="20" customHeight="1">
+      <c r="N8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2171,516 +2959,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
-  <sheetViews>
-    <sheetView showRuler="0" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="5" width="20.6640625" style="6"/>
-    <col min="6" max="12" width="20.6640625" style="1"/>
-    <col min="13" max="13" width="20.6640625" style="6"/>
-    <col min="14" max="21" width="20.6640625" style="1"/>
-    <col min="22" max="22" width="20.6640625" style="6"/>
-    <col min="23" max="16384" width="20.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="20" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="20" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="20" customHeight="1">
-      <c r="M8" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
@@ -2699,24 +2977,24 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -2725,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="8">
         <v>120</v>
@@ -2740,7 +3018,7 @@
     </row>
     <row r="3" spans="1:13" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2749,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="8">
         <v>80</v>
@@ -2764,7 +3042,7 @@
     </row>
     <row r="4" spans="1:13" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -2773,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="8">
         <v>40</v>
@@ -2788,7 +3066,7 @@
     </row>
     <row r="5" spans="1:13" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2797,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="8">
         <v>20</v>
@@ -2812,7 +3090,7 @@
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -2821,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="8">
         <v>20</v>
@@ -2836,7 +3114,7 @@
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2845,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="8">
         <v>20</v>
@@ -2860,7 +3138,7 @@
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2869,7 +3147,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="9">
         <v>0</v>
@@ -2885,7 +3163,7 @@
     </row>
     <row r="9" spans="1:13" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2894,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="9">
         <v>0</v>
@@ -2910,7 +3188,7 @@
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -2919,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
@@ -2935,7 +3213,7 @@
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -2944,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="8">
         <v>0</v>
@@ -2952,7 +3230,7 @@
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2961,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="8">
         <v>0</v>
@@ -2969,7 +3247,7 @@
     </row>
     <row r="13" spans="1:13" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -2978,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="8">
         <v>0</v>
@@ -2986,7 +3264,7 @@
     </row>
     <row r="14" spans="1:13" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2995,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
@@ -3013,7 +3291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
@@ -3031,34 +3309,34 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -3085,10 +3363,10 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -3115,10 +3393,10 @@
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -3145,10 +3423,10 @@
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -3175,10 +3453,10 @@
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -3205,10 +3483,10 @@
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -3235,10 +3513,10 @@
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -3265,10 +3543,10 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -3297,10 +3575,10 @@
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -3329,10 +3607,10 @@
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -3361,10 +3639,10 @@
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -3393,10 +3671,10 @@
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -3416,10 +3694,10 @@
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -3439,10 +3717,10 @@
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -3462,10 +3740,10 @@
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -3485,10 +3763,10 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -3508,10 +3786,10 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -3531,10 +3809,10 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1">
         <v>6</v>
@@ -3554,10 +3832,10 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -3577,10 +3855,10 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -3600,10 +3878,10 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -3623,10 +3901,10 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -3646,10 +3924,10 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -3669,10 +3947,10 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -3692,10 +3970,10 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -3715,10 +3993,10 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -3738,10 +4016,10 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -3761,10 +4039,10 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -3784,10 +4062,10 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -3807,10 +4085,10 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -3830,10 +4108,10 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -3853,10 +4131,10 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -3876,10 +4154,10 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -3899,10 +4177,10 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -3922,10 +4200,10 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1">
         <v>5</v>
@@ -3945,10 +4223,10 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -3978,7 +4256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -3993,16 +4271,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -4010,7 +4288,7 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
@@ -4018,7 +4296,7 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -4026,7 +4304,7 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -4034,7 +4312,7 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1">
         <v>15</v>
@@ -4042,7 +4320,7 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1">
         <v>15</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2220" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5120" yWindow="1760" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -468,18 +468,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>allianceFightTotalFightTime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceFightPrepareTime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>activeShrineStageEventTime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>editAllianceTerrianHonour</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -500,9 +488,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>allianceRevengeMaxTime</t>
-  </si>
-  <si>
     <t>BOOL_revengeAlliance</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -658,14 +643,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>击杀多少兵力获得一点龙经验</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀多少兵力获得一点英雄之血</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>KilledCitizenPerBlood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -674,15 +651,39 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>损失一点城墙血量算多少击杀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>allianceFightSuccessProtectMinutes</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>联盟战成功保护期时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeShrineStageEventMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceRevengeMaxMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightPrepareMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightTotalFightMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少击杀积分获得一点龙经验</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少击杀积分获得一点英雄之血</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>损失一点城墙血量获得多少击杀积分</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +846,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="380">
+  <cellStyleXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -860,6 +861,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1266,11 +1283,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="380">
+  <cellStyles count="396">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1463,6 +1480,14 @@
     <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1648,6 +1673,14 @@
     <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2100,13 +2133,13 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="6"/>
+    <col min="2" max="2" width="20.6640625" style="8"/>
     <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -2114,265 +2147,265 @@
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="6">
+        <v>110</v>
+      </c>
+      <c r="B2" s="8">
         <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" s="12">
         <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" s="12">
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="6">
+        <v>107</v>
+      </c>
+      <c r="B5" s="8">
         <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="6">
-        <v>120</v>
+        <v>155</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
+        <v>157</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="6">
-        <v>300</v>
+        <v>158</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="6">
+        <v>111</v>
+      </c>
+      <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="6">
-        <v>300</v>
+        <v>156</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="6">
+        <v>113</v>
+      </c>
+      <c r="B11" s="8">
         <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="6">
+        <v>114</v>
+      </c>
+      <c r="B12" s="8">
         <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="6">
+        <v>115</v>
+      </c>
+      <c r="B13" s="8">
         <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="6">
+        <v>116</v>
+      </c>
+      <c r="B14" s="8">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="6">
+        <v>117</v>
+      </c>
+      <c r="B15" s="8">
         <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="6">
+        <v>118</v>
+      </c>
+      <c r="B16" s="8">
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="6">
+        <v>119</v>
+      </c>
+      <c r="B17" s="8">
         <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="6">
+        <v>120</v>
+      </c>
+      <c r="B18" s="8">
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="6">
+        <v>130</v>
+      </c>
+      <c r="B19" s="8">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B20" s="8">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="6">
+        <v>150</v>
+      </c>
+      <c r="B22" s="8">
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23" s="6">
+        <v>151</v>
+      </c>
+      <c r="B23" s="8">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="6">
+        <v>152</v>
+      </c>
+      <c r="B24" s="8">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2478,10 +2511,10 @@
         <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
@@ -2508,13 +2541,13 @@
         <v>106</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="20" customHeight="1">
@@ -2546,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>0</v>
@@ -2585,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="20" customHeight="1">
@@ -2602,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
@@ -2614,49 +2647,49 @@
         <v>1</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="20" customHeight="1">
@@ -2673,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
@@ -2685,34 +2718,34 @@
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>1</v>
@@ -2727,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="20" customHeight="1">
@@ -2750,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>1</v>
@@ -2765,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>79</v>
@@ -2798,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="20" customHeight="1">
@@ -2869,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="20" customHeight="1">
@@ -2940,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="W7" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="20" customHeight="1">

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,38 +4,38 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1760" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5040" yWindow="2620" windowWidth="25600" windowHeight="16060" tabRatio="591" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
     <sheet name="stringInit" sheetId="10" r:id="rId2"/>
     <sheet name="right" sheetId="4" r:id="rId3"/>
-    <sheet name="buildingType" sheetId="6" r:id="rId4"/>
-    <sheet name="donate" sheetId="8" r:id="rId5"/>
-    <sheet name="decorateCount" sheetId="9" r:id="rId6"/>
+    <sheet name="donate" sheetId="8" r:id="rId4"/>
+    <sheet name="buildingName" sheetId="6" r:id="rId5"/>
+    <sheet name="buildings" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="169">
   <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -158,35 +158,528 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>INT_loyalty</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_honour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_extra</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_20k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_50k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_100k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_500k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_20k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_50k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_100k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_1m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_20k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_50k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_100k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_500k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_50k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_100k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_500k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_1m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_20k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_50k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_100k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_500k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_1m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_100</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_1000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_200k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_200k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_200k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_200k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_200k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_200</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>STR_type</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_loyalty</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_honour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_extra</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_20k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_50k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_100k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_500k</t>
+    <t>INT_count</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_resource</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_1m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_upgradeAllianceBuilding</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_editAllianceTerrian</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_upgradeAllianceVillage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodVillage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneVillage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironVillage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodVillage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinVillage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_editAllianceTitleName</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_editAllianceMemberTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_moveAllianceBuilding</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_activateAllianceShrineStage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_value</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_findAllianceToFight</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_revengeAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_addItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_giveLoyaltyToAllianceMember</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonStrikeHpDecreasedPercent</t>
+  </si>
+  <si>
+    <t>BOOL_approveJoinAllianceRequest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_removeJoinAllianceReqeusts</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_locationX</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_locationY</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>palace</t>
+  </si>
+  <si>
+    <t>moonGate</t>
+  </si>
+  <si>
+    <t>orderHall</t>
+  </si>
+  <si>
+    <t>shrine</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>decorate_lake_2</t>
+  </si>
+  <si>
+    <t>STR_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_moveNeedHonour</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceRevengeMaxMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>复仇最大时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceRegionMapWidth</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟地图宽度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceRegionMapHeight</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟地图高度</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectedStoneCountPerExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集多少点资源增长一点采集经验</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectedIronCountPerExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectedFoodCountPerExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectedCoinCountPerExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙突袭每次减少的血量百分比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightFaiedProtectMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战失败保护期时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAllianceGem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建联盟所需宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyArchonGem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞选盟主所需宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>editAllianceBasicInfoGem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑联盟基础信息所需宝石</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>editAllianceTerrianHonour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑联盟地形所需荣耀值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeShrineStageEventMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣地战激活后持续时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightPrepareMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战准备期时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightTotalFightMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战战争期时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceHelpDefenceTroopsMaxCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>协防玩家最大数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>citizenPerLeadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一点龙的领导力带领多少兵力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectedWoodCountPerExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightSuccessProtectMinutes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战成功保护期时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>KilledCitizenPerDragonExp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少击杀积分获得一点龙经验</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>KilledCitizenPerBlood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少击杀积分获得一点英雄之血</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>KilledCitizenPerWallHp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>损失一点城墙血量获得多少击杀积分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_500k</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -194,79 +687,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>stone_20k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone_50k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone_100k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone_500k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron_1m</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron_20k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron_50k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron_100k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron_500k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>food_20k</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>food_50k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_100k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_500k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_1m</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_20k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_50k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_100k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_500k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_1m</t>
+    <t>food</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -274,110 +699,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>gem_50</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_500</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_1000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_level</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_200k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone_200k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron_200k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_200k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_200k</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>food</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_count</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_resource</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_1m</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_upgradeAllianceBuilding</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_editAllianceTerrian</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_upgradeAllianceVillage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>woodVillage</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -390,300 +711,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>foodVillage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinVillage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>decorate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>village</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_category</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>decorate_lake_1</t>
-  </si>
-  <si>
-    <t>decorate_lake_2</t>
-  </si>
-  <si>
-    <t>decorate_mountain_1</t>
-  </si>
-  <si>
-    <t>decorate_mountain_2</t>
-  </si>
-  <si>
-    <t>decorate_tree_1</t>
-  </si>
-  <si>
-    <t>decorate_tree_2</t>
-  </si>
-  <si>
-    <t>INT_count</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_editAllianceTitleName</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_editAllianceMemberTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_moveAllianceBuilding</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_distroyAllianceDecorate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_distroyNeedHonour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_activateAllianceShrineStage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_value</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_findAllianceToFight</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>editAllianceTerrianHonour</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>editAllianceBasicInfoGem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyArchonGem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>createAllianceGem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceHelpDefenceTroopsMaxCount</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_revengeAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceRegionMapWidth</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceRegionMapHeight</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>citizenPerLeadership</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectedWoodCountPerExp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectedStoneCountPerExp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectedIronCountPerExp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectedFoodCountPerExp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectedCoinCountPerExp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_addItem</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_giveLoyaltyToAllianceMember</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonStrikeHpDecreasedPercent</t>
-  </si>
-  <si>
-    <t>allianceFightFaiedProtectMinutes</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_approveJoinAllianceRequest</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_removeJoinAllianceReqeusts</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_desc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建联盟所需宝石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞选盟主所需宝石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑联盟基础信息所需宝石</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑联盟地形所需荣耀值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣地战激活后持续时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟战准备期时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟战战争期时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>协防玩家最大数量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>复仇最大时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟地图宽度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟地图高度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一点龙的领导力带领多少兵力</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集多少点资源增长一点采集经验</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙突袭每次减少的血量百分比</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟战失败保护期时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>KilledCitizenPerDragonExp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>KilledCitizenPerBlood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>KilledCitizenPerWallHp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceFightSuccessProtectMinutes</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟战成功保护期时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>activeShrineStageEventMinutes</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceRevengeMaxMinutes</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceFightPrepareMinutes</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceFightTotalFightMinutes</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>多少击杀积分获得一点龙经验</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>多少击杀积分获得一点英雄之血</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>损失一点城墙血量获得多少击杀积分</t>
+    <t>tree</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +722,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0\%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
@@ -769,6 +797,13 @@
       <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -846,7 +881,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="396">
+  <cellStyleXfs count="472">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -861,6 +896,82 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1287,7 +1398,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="396">
+  <cellStyles count="472">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1488,6 +1599,44 @@
     <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1681,6 +1830,44 @@
     <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2132,15 +2319,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" style="8"/>
-    <col min="3" max="16384" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="47.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
@@ -2148,38 +2336,38 @@
         <v>17</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B2" s="8">
         <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B3" s="12">
         <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="B4" s="12">
         <v>50</v>
@@ -2190,222 +2378,222 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B5" s="8">
         <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B6" s="8">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B8" s="8">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B11" s="8">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B12" s="8">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B13" s="8">
         <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="B14" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B15" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B16" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B17" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B18" s="8">
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B19" s="8">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="8">
         <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B21" s="8">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B23" s="8">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2425,7 +2613,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2438,7 +2626,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -2462,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2474,12 +2662,12 @@
     <col min="3" max="5" width="20.6640625" style="6"/>
     <col min="6" max="13" width="20.6640625" style="1"/>
     <col min="14" max="14" width="20.6640625" style="6"/>
-    <col min="15" max="22" width="20.6640625" style="1"/>
-    <col min="23" max="23" width="20.6640625" style="6"/>
-    <col min="24" max="16384" width="20.6640625" style="1"/>
+    <col min="15" max="21" width="20.6640625" style="1"/>
+    <col min="22" max="22" width="20.6640625" style="6"/>
+    <col min="23" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2487,7 +2675,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>10</v>
@@ -2502,7 +2690,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>13</v>
@@ -2511,46 +2699,43 @@
         <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="20" customHeight="1">
+        <v>95</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2579,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>0</v>
@@ -2615,13 +2800,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="20" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2635,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
@@ -2647,52 +2829,49 @@
         <v>1</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="V3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="20" customHeight="1">
+      <c r="V3" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2706,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
@@ -2718,34 +2897,34 @@
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>1</v>
@@ -2754,16 +2933,13 @@
         <v>1</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="20" customHeight="1">
+      <c r="V4" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2783,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>1</v>
@@ -2798,16 +2974,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>1</v>
@@ -2827,14 +3003,11 @@
       <c r="U5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="20" customHeight="1">
+      <c r="V5" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2898,14 +3071,11 @@
       <c r="U6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="20" customHeight="1">
+      <c r="V6" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2969,14 +3139,11 @@
       <c r="U7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="20" customHeight="1">
+      <c r="V7" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="20" customHeight="1">
       <c r="N8" s="7"/>
     </row>
   </sheetData>
@@ -2993,323 +3160,955 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="20.6640625" style="8"/>
-    <col min="4" max="4" width="20.6640625" style="1"/>
-    <col min="5" max="5" width="20.6640625" style="8"/>
-    <col min="6" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="5" width="20.6640625" style="1"/>
+    <col min="6" max="6" width="20.6640625" style="8"/>
+    <col min="7" max="8" width="20.6640625" style="6"/>
+    <col min="9" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="20" customHeight="1">
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="8">
-        <v>120</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="20" customHeight="1">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="8">
-        <v>80</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="D3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.05</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" ht="20" customHeight="1">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="8">
-        <v>40</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="D4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.1</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="8">
-        <v>20</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.15</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="8">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="11">
+        <v>50000</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.2</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="8">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.3</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="9">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.05</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="20" customHeight="1">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.1</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="20" customHeight="1">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="8">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" ht="20" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F12" s="11">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="20" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F13" s="11">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="20" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="20" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="8">
+    <row r="15" spans="1:16" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F17" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F18" s="11">
+        <v>50000</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="11">
+        <v>100000</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="20" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="8">
+    <row r="21" spans="1:7" ht="20" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F21" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F23" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F24" s="11">
+        <v>50000</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20" customHeight="1">
+      <c r="A25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F25" s="11">
+        <v>100000</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="8">
+    <row r="27" spans="1:7" ht="20" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F27" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F28" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F29" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F30" s="11">
+        <v>50000</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F31" s="11">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F33" s="11">
+        <v>5000</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>100</v>
+      </c>
+      <c r="E34" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F34" s="11">
+        <v>10000</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <v>200</v>
+      </c>
+      <c r="E35" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F35" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="20" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>500</v>
+      </c>
+      <c r="E36" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F36" s="11">
+        <v>50000</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F37" s="11">
+        <v>100000</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -3326,956 +4125,423 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="20.6640625" style="1"/>
-    <col min="6" max="6" width="20.6640625" style="8"/>
-    <col min="7" max="8" width="20.6640625" style="6"/>
-    <col min="9" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20000</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" ht="20" customHeight="1">
+    </row>
+    <row r="3" spans="1:13" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>50000</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E3" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F3" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.05</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" ht="20" customHeight="1">
+    </row>
+    <row r="4" spans="1:13" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100000</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" ht="20" customHeight="1">
+    </row>
+    <row r="5" spans="1:13" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>200000</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E5" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="11">
-        <v>20000</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.15</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" ht="20" customHeight="1">
+    </row>
+    <row r="6" spans="1:13" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>500000</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F6" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" ht="20" customHeight="1">
+    </row>
+    <row r="7" spans="1:13" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1000000</v>
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F7" s="11">
-        <v>100000</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" ht="20" customHeight="1">
+    </row>
+    <row r="8" spans="1:13" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20000</v>
+        <v>108</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" ht="20" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>50000</v>
+        <v>109</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F9" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.05</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" ht="20" customHeight="1">
+    </row>
+    <row r="10" spans="1:13" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="1">
+        <v>110</v>
+      </c>
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
-        <v>100000</v>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F10" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" ht="20" customHeight="1">
+    </row>
+    <row r="11" spans="1:13" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>200000</v>
+        <v>111</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F11" s="11">
-        <v>20000</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.15</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" ht="20" customHeight="1">
+    </row>
+    <row r="12" spans="1:13" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>500000</v>
+        <v>112</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F12" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="20" customHeight="1">
+    </row>
+    <row r="13" spans="1:13" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1000000</v>
+        <v>77</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E13" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F13" s="11">
-        <v>100000</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="20" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20000</v>
+        <v>78</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E14" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="20" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="20" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="20" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>50000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F15" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="20" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F16" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>200000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F17" s="11">
-        <v>20000</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>500000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F18" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F19" s="11">
-        <v>100000</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>50000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F21" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F22" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>200000</v>
-      </c>
-      <c r="E23" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F23" s="11">
-        <v>20000</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>500000</v>
-      </c>
-      <c r="E24" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F24" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E25" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F25" s="11">
-        <v>100000</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>50000</v>
-      </c>
-      <c r="E27" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F27" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="1">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E28" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F28" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="20" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="1">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
-        <v>200000</v>
-      </c>
-      <c r="E29" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F29" s="11">
-        <v>20000</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="20" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1">
-        <v>500000</v>
-      </c>
-      <c r="E30" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F30" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="20" customHeight="1">
-      <c r="A31" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="1">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E31" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F31" s="11">
-        <v>100000</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="20" customHeight="1">
-      <c r="A32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>20</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>50</v>
-      </c>
-      <c r="E33" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F33" s="11">
-        <v>5000</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="20" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>100</v>
-      </c>
-      <c r="E34" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F34" s="11">
-        <v>10000</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="20" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>200</v>
-      </c>
-      <c r="E35" s="1">
-        <v>20000</v>
-      </c>
-      <c r="F35" s="11">
-        <v>20000</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="20" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>500</v>
-      </c>
-      <c r="E36" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F36" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="20" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="1">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E37" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F37" s="11">
-        <v>100000</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0.3</v>
-      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4291,72 +4557,3363 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showRuler="0" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D2" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="1">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="1">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="1">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="1">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="1">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="1">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="1">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="1">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="1">
+        <v>36</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="1">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="1">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="1">
+        <v>36</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="20" customHeight="1">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="1">
+        <v>39</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="20" customHeight="1">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="1">
+        <v>36</v>
+      </c>
+      <c r="D44" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20" customHeight="1">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="1">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="20" customHeight="1">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="1">
+        <v>39</v>
+      </c>
+      <c r="D46" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="20" customHeight="1">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="20" customHeight="1">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="20" customHeight="1">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="20" customHeight="1">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="20" customHeight="1">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20" customHeight="1">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="1">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20" customHeight="1">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20" customHeight="1">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="20" customHeight="1">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="1">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="20" customHeight="1">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="1">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="20" customHeight="1">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20" customHeight="1">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="20" customHeight="1">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="1">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="20" customHeight="1">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="1">
+        <v>12</v>
+      </c>
+      <c r="D60" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20" customHeight="1">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="1">
+        <v>15</v>
+      </c>
+      <c r="D61" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20" customHeight="1">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="1">
+        <v>39</v>
+      </c>
+      <c r="D62" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20" customHeight="1">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="1">
+        <v>36</v>
+      </c>
+      <c r="D63" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20" customHeight="1">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="1">
+        <v>39</v>
+      </c>
+      <c r="D64" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20" customHeight="1">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="1">
+        <v>33</v>
+      </c>
+      <c r="D65" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20" customHeight="1">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="1">
+        <v>36</v>
+      </c>
+      <c r="D66" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20" customHeight="1">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="1">
+        <v>39</v>
+      </c>
+      <c r="D67" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="20" customHeight="1">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="1">
+        <v>30</v>
+      </c>
+      <c r="D68" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="20" customHeight="1">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="1">
+        <v>33</v>
+      </c>
+      <c r="D69" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20" customHeight="1">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="1">
+        <v>36</v>
+      </c>
+      <c r="D70" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20" customHeight="1">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="1">
+        <v>39</v>
+      </c>
+      <c r="D71" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20" customHeight="1">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" s="1">
+        <v>27</v>
+      </c>
+      <c r="D72" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="20" customHeight="1">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="1">
+        <v>30</v>
+      </c>
+      <c r="D73" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20" customHeight="1">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="1">
+        <v>33</v>
+      </c>
+      <c r="D74" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20" customHeight="1">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="1">
+        <v>36</v>
+      </c>
+      <c r="D75" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20" customHeight="1">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="1">
+        <v>39</v>
+      </c>
+      <c r="D76" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="20" customHeight="1">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="20" customHeight="1">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="20" customHeight="1">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="1">
+        <v>17</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="20" customHeight="1">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="1">
+        <v>18</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20" customHeight="1">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="1">
+        <v>19</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="20" customHeight="1">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="1">
+        <v>20</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="20" customHeight="1">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="1">
+        <v>23</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="20" customHeight="1">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="1">
+        <v>39</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="20" customHeight="1">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="1">
+        <v>41</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="20" customHeight="1">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="20" customHeight="1">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="1">
+        <v>21</v>
+      </c>
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="20" customHeight="1">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="1">
+        <v>22</v>
+      </c>
+      <c r="D88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="20" customHeight="1">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="1">
+        <v>23</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="20" customHeight="1">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" s="1">
+        <v>25</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="20" customHeight="1">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="1">
+        <v>40</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="20" customHeight="1">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="20" customHeight="1">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="1">
+        <v>21</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="20" customHeight="1">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="1">
+        <v>23</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="20" customHeight="1">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="20" customHeight="1">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="1">
+        <v>21</v>
+      </c>
+      <c r="D96" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="20" customHeight="1">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="1">
+        <v>22</v>
+      </c>
+      <c r="D97" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="20" customHeight="1">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" s="1">
+        <v>23</v>
+      </c>
+      <c r="D98" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="20" customHeight="1">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" s="1">
+        <v>41</v>
+      </c>
+      <c r="D99" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="20" customHeight="1">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="1">
+        <v>20</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="20" customHeight="1">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" s="1">
+        <v>21</v>
+      </c>
+      <c r="D101" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="20" customHeight="1">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="1">
+        <v>22</v>
+      </c>
+      <c r="D102" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="20" customHeight="1">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" s="1">
+        <v>41</v>
+      </c>
+      <c r="D103" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="20" customHeight="1">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="1">
+        <v>19</v>
+      </c>
+      <c r="D104" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="20" customHeight="1">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" s="1">
+        <v>20</v>
+      </c>
+      <c r="D105" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="20" customHeight="1">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" s="1">
+        <v>21</v>
+      </c>
+      <c r="D106" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="20" customHeight="1">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" s="1">
+        <v>20</v>
+      </c>
+      <c r="D107" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="20" customHeight="1">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="1">
+        <v>21</v>
+      </c>
+      <c r="D108" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="20" customHeight="1">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" s="1">
+        <v>20</v>
+      </c>
+      <c r="D109" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="20" customHeight="1">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="1">
+        <v>19</v>
+      </c>
+      <c r="D110" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="20" customHeight="1">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="1">
+        <v>17</v>
+      </c>
+      <c r="D111" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="20" customHeight="1">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" s="1">
+        <v>18</v>
+      </c>
+      <c r="D112" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="20" customHeight="1">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" s="1">
+        <v>17</v>
+      </c>
+      <c r="D113" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="20" customHeight="1">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C114" s="1">
+        <v>18</v>
+      </c>
+      <c r="D114" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="20" customHeight="1">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" s="1">
+        <v>22</v>
+      </c>
+      <c r="D115" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="20" customHeight="1">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C116" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="D116" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="20" customHeight="1">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" s="1">
+        <v>21</v>
+      </c>
+      <c r="D117" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="20" customHeight="1">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118" s="1">
+        <v>22</v>
+      </c>
+      <c r="D118" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="20" customHeight="1">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C119" s="1">
+        <v>41</v>
+      </c>
+      <c r="D119" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="20" customHeight="1">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="20" customHeight="1">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C121" s="1">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="20" customHeight="1">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="1">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="20" customHeight="1">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="D123" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="20" customHeight="1">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" s="1">
+        <v>30</v>
+      </c>
+      <c r="D124" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="20" customHeight="1">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="1">
+        <v>31</v>
+      </c>
+      <c r="D125" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="20" customHeight="1">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" s="1">
+        <v>39</v>
+      </c>
+      <c r="D126" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="20" customHeight="1">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C127" s="1">
+        <v>40</v>
+      </c>
+      <c r="D127" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="20" customHeight="1">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="20" customHeight="1">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="D129" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="20" customHeight="1">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="20" customHeight="1">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4</v>
+      </c>
+      <c r="D131" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="20" customHeight="1">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C132" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="D132" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="20" customHeight="1">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C133" s="1">
+        <v>6</v>
+      </c>
+      <c r="D133" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="20" customHeight="1">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C134" s="1">
+        <v>10</v>
+      </c>
+      <c r="D134" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="20" customHeight="1">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" s="1">
+        <v>12</v>
+      </c>
+      <c r="D135" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="20" customHeight="1">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" s="1">
+        <v>13</v>
+      </c>
+      <c r="D136" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="20" customHeight="1">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C137" s="1">
+        <v>14</v>
+      </c>
+      <c r="D137" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="20" customHeight="1">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" s="1">
+        <v>29</v>
+      </c>
+      <c r="D138" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="20" customHeight="1">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C139" s="1">
+        <v>30</v>
+      </c>
+      <c r="D139" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="20" customHeight="1">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" s="1">
+        <v>31</v>
+      </c>
+      <c r="D140" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="20" customHeight="1">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" s="1">
+        <v>37</v>
+      </c>
+      <c r="D141" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="20" customHeight="1">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C142" s="1">
+        <v>38</v>
+      </c>
+      <c r="D142" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="20" customHeight="1">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C143" s="1">
+        <v>39</v>
+      </c>
+      <c r="D143" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="20" customHeight="1">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" s="1">
+        <v>41</v>
+      </c>
+      <c r="D144" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="20" customHeight="1">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="20" customHeight="1">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="20" customHeight="1">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C147" s="1">
+        <v>6</v>
+      </c>
+      <c r="D147" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="20" customHeight="1">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C148" s="1">
+        <v>7</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="20" customHeight="1">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C149" s="1">
+        <v>8</v>
+      </c>
+      <c r="D149" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="20" customHeight="1">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C150" s="1">
+        <v>9</v>
+      </c>
+      <c r="D150" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="20" customHeight="1">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C151" s="1">
+        <v>10</v>
+      </c>
+      <c r="D151" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="20" customHeight="1">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" s="1">
+        <v>11</v>
+      </c>
+      <c r="D152" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="20" customHeight="1">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C153" s="1">
+        <v>12</v>
+      </c>
+      <c r="D153" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="20" customHeight="1">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C154" s="1">
+        <v>13</v>
+      </c>
+      <c r="D154" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="20" customHeight="1">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155" s="1">
+        <v>14</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="20" customHeight="1">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C156" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15</v>
+      <c r="D156" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="20" customHeight="1">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C157" s="1">
+        <v>23</v>
+      </c>
+      <c r="D157" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="20" customHeight="1">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158" s="1">
+        <v>24</v>
+      </c>
+      <c r="D158" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="20" customHeight="1">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C159" s="1">
+        <v>31</v>
+      </c>
+      <c r="D159" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="20" customHeight="1">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C160" s="1">
+        <v>32</v>
+      </c>
+      <c r="D160" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="20" customHeight="1">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" s="1">
+        <v>36</v>
+      </c>
+      <c r="D161" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="20" customHeight="1">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C162" s="1">
+        <v>37</v>
+      </c>
+      <c r="D162" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="20" customHeight="1">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C163" s="1">
+        <v>38</v>
+      </c>
+      <c r="D163" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="20" customHeight="1">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164" s="1">
+        <v>41</v>
+      </c>
+      <c r="D164" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="20" customHeight="1">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2</v>
+      </c>
+      <c r="D165" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="20" customHeight="1">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" s="1">
+        <v>6</v>
+      </c>
+      <c r="D166" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="20" customHeight="1">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167" s="1">
+        <v>7</v>
+      </c>
+      <c r="D167" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="20" customHeight="1">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" s="1">
+        <v>8</v>
+      </c>
+      <c r="D168" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="20" customHeight="1">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C169" s="1">
+        <v>10</v>
+      </c>
+      <c r="D169" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="20" customHeight="1">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C170" s="1">
+        <v>11</v>
+      </c>
+      <c r="D170" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="20" customHeight="1">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C171" s="1">
+        <v>13</v>
+      </c>
+      <c r="D171" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="20" customHeight="1">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C172" s="1">
+        <v>14</v>
+      </c>
+      <c r="D172" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="20" customHeight="1">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C173" s="1">
+        <v>23</v>
+      </c>
+      <c r="D173" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="20" customHeight="1">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174" s="1">
+        <v>33</v>
+      </c>
+      <c r="D174" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="20" customHeight="1">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C175" s="1">
+        <v>34</v>
+      </c>
+      <c r="D175" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="20" customHeight="1">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C176" s="1">
+        <v>35</v>
+      </c>
+      <c r="D176" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="20" customHeight="1">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="1">
+        <v>36</v>
+      </c>
+      <c r="D177" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="20" customHeight="1">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C178" s="1">
+        <v>38</v>
+      </c>
+      <c r="D178" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="20" customHeight="1">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C179" s="1">
+        <v>39</v>
+      </c>
+      <c r="D179" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="20" customHeight="1">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C180" s="1">
+        <v>40</v>
+      </c>
+      <c r="D180" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="20" customHeight="1">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C181" s="1">
+        <v>41</v>
+      </c>
+      <c r="D181" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="20" customHeight="1">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2</v>
+      </c>
+      <c r="D182" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="20" customHeight="1">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C183" s="1">
+        <v>6</v>
+      </c>
+      <c r="D183" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="20" customHeight="1">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C184" s="1">
+        <v>7</v>
+      </c>
+      <c r="D184" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="20" customHeight="1">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C185" s="1">
+        <v>35</v>
+      </c>
+      <c r="D185" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="20" customHeight="1">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C186" s="1">
+        <v>36</v>
+      </c>
+      <c r="D186" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="20" customHeight="1">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C187" s="1">
+        <v>37</v>
+      </c>
+      <c r="D187" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="20" customHeight="1">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C188" s="1">
+        <v>41</v>
+      </c>
+      <c r="D188" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="20" customHeight="1">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="20" customHeight="1">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2</v>
+      </c>
+      <c r="D190" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="20" customHeight="1">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C191" s="1">
+        <v>6</v>
+      </c>
+      <c r="D191" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="20" customHeight="1">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C192" s="1">
+        <v>18</v>
+      </c>
+      <c r="D192" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="20" customHeight="1">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C193" s="1">
+        <v>19</v>
+      </c>
+      <c r="D193" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="20" customHeight="1">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C194" s="1">
+        <v>40</v>
+      </c>
+      <c r="D194" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="20" customHeight="1">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C195" s="1">
+        <v>41</v>
+      </c>
+      <c r="D195" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="20" customHeight="1">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="20" customHeight="1">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C197" s="1">
+        <v>18</v>
+      </c>
+      <c r="D197" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="20" customHeight="1">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C198" s="1">
+        <v>39</v>
+      </c>
+      <c r="D198" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="20" customHeight="1">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C199" s="1">
+        <v>32</v>
+      </c>
+      <c r="D199" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="20" customHeight="1">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C200" s="1">
+        <v>32</v>
+      </c>
+      <c r="D200" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="20" customHeight="1">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C201" s="1">
+        <v>26</v>
+      </c>
+      <c r="D201" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="20" customHeight="1">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C202" s="1">
+        <v>27</v>
+      </c>
+      <c r="D202" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="20" customHeight="1">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C203" s="1">
+        <v>28</v>
+      </c>
+      <c r="D203" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="20" customHeight="1">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C204" s="1">
+        <v>27</v>
+      </c>
+      <c r="D204" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="20" customHeight="1">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C205" s="1">
+        <v>19</v>
+      </c>
+      <c r="D205" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="20" customHeight="1">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C206" s="1">
+        <v>20</v>
+      </c>
+      <c r="D206" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="20" customHeight="1">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C207" s="1">
+        <v>17</v>
+      </c>
+      <c r="D207" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="20" customHeight="1">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C208" s="1">
+        <v>18</v>
+      </c>
+      <c r="D208" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="20" customHeight="1">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C209" s="1">
+        <v>19</v>
+      </c>
+      <c r="D209" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="20" customHeight="1">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C210" s="1">
+        <v>20</v>
+      </c>
+      <c r="D210" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="20" customHeight="1">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C211" s="1">
+        <v>17</v>
+      </c>
+      <c r="D211" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="20" customHeight="1">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C212" s="1">
+        <v>20</v>
+      </c>
+      <c r="D212" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="20" customHeight="1">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C213" s="1">
+        <v>21</v>
+      </c>
+      <c r="D213" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="20" customHeight="1">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C214" s="1">
+        <v>17</v>
+      </c>
+      <c r="D214" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="20" customHeight="1">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C215" s="1">
+        <v>20</v>
+      </c>
+      <c r="D215" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="20" customHeight="1">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C216" s="1">
+        <v>21</v>
+      </c>
+      <c r="D216" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="20" customHeight="1">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C217" s="1">
+        <v>21</v>
+      </c>
+      <c r="D217" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="20" customHeight="1">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C218" s="1">
+        <v>22</v>
+      </c>
+      <c r="D218" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="20" customHeight="1">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C219" s="1">
+        <v>23</v>
+      </c>
+      <c r="D219" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="20" customHeight="1">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D220" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="20" customHeight="1">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1</v>
+      </c>
+      <c r="D221" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="20" customHeight="1">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C222" s="1">
+        <v>24</v>
+      </c>
+      <c r="D222" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="20" customHeight="1">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C223" s="1">
+        <v>40</v>
+      </c>
+      <c r="D223" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="20" customHeight="1">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C224" s="1">
+        <v>41</v>
+      </c>
+      <c r="D224" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="20" customHeight="1">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D225" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="20" customHeight="1">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C226" s="1">
+        <v>3</v>
+      </c>
+      <c r="D226" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="20" customHeight="1">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C227" s="1">
+        <v>17</v>
+      </c>
+      <c r="D227" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="20" customHeight="1">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C228" s="1">
+        <v>21</v>
+      </c>
+      <c r="D228" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="20" customHeight="1">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C229" s="1">
+        <v>22</v>
+      </c>
+      <c r="D229" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="20" customHeight="1">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C230" s="1">
+        <v>24</v>
+      </c>
+      <c r="D230" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="20" customHeight="1">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C231" s="1">
+        <v>41</v>
+      </c>
+      <c r="D231" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="20" customHeight="1">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C232" s="1">
+        <v>4</v>
+      </c>
+      <c r="D232" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="20" customHeight="1">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C233" s="1">
+        <v>18</v>
+      </c>
+      <c r="D233" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="20" customHeight="1">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C234" s="1">
+        <v>19</v>
+      </c>
+      <c r="D234" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="20" customHeight="1">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C235" s="1">
+        <v>20</v>
+      </c>
+      <c r="D235" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="20" customHeight="1">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C236" s="1">
+        <v>21</v>
+      </c>
+      <c r="D236" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="20" customHeight="1">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C237" s="1">
+        <v>22</v>
+      </c>
+      <c r="D237" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="20" customHeight="1">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C238" s="1">
+        <v>37</v>
+      </c>
+      <c r="D238" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="20" customHeight="1">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C239" s="1">
+        <v>39</v>
+      </c>
+      <c r="D239" s="1">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2620" windowWidth="25600" windowHeight="16060" tabRatio="591" activeTab="4"/>
+    <workbookView xWindow="3520" yWindow="1060" windowWidth="28940" windowHeight="17720" tabRatio="591" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="168">
   <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -699,20 +699,14 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>woodVillage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneVillage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironVillage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tree</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>decorate_lake_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorate_tree_1</t>
+  </si>
+  <si>
+    <t>decorate_tree_2</t>
   </si>
 </sst>
 </file>
@@ -881,7 +875,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="472">
+  <cellStyleXfs count="476">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -896,6 +890,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1398,7 +1396,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="472">
+  <cellStyles count="476">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1637,6 +1635,8 @@
     <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1868,6 +1868,8 @@
     <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2320,7 +2322,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2447,7 +2449,7 @@
         <v>120</v>
       </c>
       <c r="B11" s="8">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>121</v>
@@ -2458,7 +2460,7 @@
         <v>122</v>
       </c>
       <c r="B12" s="8">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>123</v>
@@ -4127,7 +4129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4557,10 +4559,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G239"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4592,10 +4594,10 @@
         <v>108</v>
       </c>
       <c r="C2" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -4606,10 +4608,10 @@
         <v>109</v>
       </c>
       <c r="C3" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -4620,10 +4622,10 @@
         <v>110</v>
       </c>
       <c r="C4" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -4634,10 +4636,10 @@
         <v>111</v>
       </c>
       <c r="C5" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -4648,10 +4650,10 @@
         <v>112</v>
       </c>
       <c r="C6" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -4659,13 +4661,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -4676,10 +4678,10 @@
         <v>113</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -4690,10 +4692,10 @@
         <v>113</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -4704,10 +4706,10 @@
         <v>113</v>
       </c>
       <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
         <v>26</v>
-      </c>
-      <c r="D10" s="1">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -4718,10 +4720,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -4732,10 +4734,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -4746,10 +4748,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -4760,10 +4762,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -4774,10 +4776,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -4788,10 +4790,10 @@
         <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -4799,13 +4801,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -4813,13 +4815,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -4827,10 +4829,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -4841,13 +4843,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -4855,13 +4857,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -4869,13 +4871,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -4883,10 +4885,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
@@ -4897,13 +4899,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
         <v>9</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -4911,13 +4913,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1">
         <v>12</v>
       </c>
       <c r="D25" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -4925,13 +4927,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -4939,13 +4941,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -4953,13 +4955,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -4967,13 +4969,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -4981,13 +4983,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -4995,13 +4997,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -5009,13 +5011,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -5023,13 +5025,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C33" s="1">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -5037,13 +5039,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -5051,10 +5053,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C35" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -5065,13 +5067,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C36" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D36" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -5079,13 +5081,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D37" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -5093,13 +5095,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -5107,13 +5109,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D39" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -5121,13 +5123,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1">
         <v>39</v>
       </c>
       <c r="D40" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -5135,13 +5137,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1">
         <v>33</v>
       </c>
       <c r="D41" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -5149,13 +5151,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D42" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -5163,13 +5165,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -5177,13 +5179,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -5191,13 +5193,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -5205,13 +5207,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="C46" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -5219,13 +5221,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C47" s="1">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D47" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -5233,13 +5235,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C48" s="1">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D48" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -5247,13 +5249,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C49" s="1">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D49" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -5261,13 +5263,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C50" s="1">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D50" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -5275,13 +5277,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C51" s="1">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -5289,13 +5291,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C52" s="1">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D52" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -5303,13 +5305,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -5317,13 +5319,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D54" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -5331,13 +5333,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C55" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D55" s="1">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -5345,13 +5347,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C56" s="1">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D56" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -5359,13 +5361,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C57" s="1">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D57" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -5373,13 +5375,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C58" s="1">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D58" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -5387,13 +5389,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C59" s="1">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D59" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -5401,13 +5403,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C60" s="1">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D60" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -5415,13 +5417,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="C61" s="1">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D61" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -5432,10 +5434,10 @@
         <v>80</v>
       </c>
       <c r="C62" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -5446,10 +5448,10 @@
         <v>80</v>
       </c>
       <c r="C63" s="1">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D63" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -5460,10 +5462,10 @@
         <v>80</v>
       </c>
       <c r="C64" s="1">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -5474,10 +5476,10 @@
         <v>80</v>
       </c>
       <c r="C65" s="1">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -5488,10 +5490,10 @@
         <v>80</v>
       </c>
       <c r="C66" s="1">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D66" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -5502,10 +5504,10 @@
         <v>80</v>
       </c>
       <c r="C67" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -5516,10 +5518,10 @@
         <v>80</v>
       </c>
       <c r="C68" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D68" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -5530,10 +5532,10 @@
         <v>80</v>
       </c>
       <c r="C69" s="1">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -5544,10 +5546,10 @@
         <v>80</v>
       </c>
       <c r="C70" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D70" s="1">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -5558,10 +5560,10 @@
         <v>80</v>
       </c>
       <c r="C71" s="1">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -5572,10 +5574,10 @@
         <v>80</v>
       </c>
       <c r="C72" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D72" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -5586,10 +5588,10 @@
         <v>80</v>
       </c>
       <c r="C73" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D73" s="1">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -5600,10 +5602,10 @@
         <v>80</v>
       </c>
       <c r="C74" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -5614,10 +5616,10 @@
         <v>80</v>
       </c>
       <c r="C75" s="1">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D75" s="1">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -5628,10 +5630,10 @@
         <v>80</v>
       </c>
       <c r="C76" s="1">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D76" s="1">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -5639,13 +5641,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C77" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -5653,13 +5655,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C78" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -5667,13 +5669,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C79" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -5681,13 +5683,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C80" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -5695,13 +5697,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C81" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -5709,13 +5711,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C82" s="1">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -5723,13 +5725,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C83" s="1">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -5737,10 +5739,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C84" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -5751,10 +5753,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C85" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -5765,13 +5767,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C86" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -5779,13 +5781,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C87" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -5793,10 +5795,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C88" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -5807,10 +5809,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C89" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
@@ -5821,13 +5823,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C90" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D90" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -5835,13 +5837,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C91" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D91" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -5849,10 +5851,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C92" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D92" s="1">
         <v>3</v>
@@ -5863,10 +5865,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C93" s="1">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
@@ -5877,10 +5879,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C94" s="1">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
@@ -5891,10 +5893,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C95" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
@@ -5905,10 +5907,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C96" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D96" s="1">
         <v>4</v>
@@ -5919,13 +5921,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C97" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D97" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -5933,13 +5935,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C98" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D98" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -5947,13 +5949,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C99" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D99" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -5961,13 +5963,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C100" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D100" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -5975,13 +5977,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C101" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D101" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">
@@ -5989,13 +5991,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C102" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D102" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="20" customHeight="1">
@@ -6003,13 +6005,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C103" s="1">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D103" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="20" customHeight="1">
@@ -6017,13 +6019,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C104" s="1">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D104" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="20" customHeight="1">
@@ -6031,13 +6033,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C105" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D105" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="20" customHeight="1">
@@ -6045,13 +6047,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C106" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D106" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="20" customHeight="1">
@@ -6059,13 +6061,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C107" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D107" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="20" customHeight="1">
@@ -6073,13 +6075,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C108" s="1">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D108" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="20" customHeight="1">
@@ -6087,13 +6089,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C109" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D109" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="20" customHeight="1">
@@ -6101,13 +6103,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C110" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="20" customHeight="1">
@@ -6115,13 +6117,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C111" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D111" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="20" customHeight="1">
@@ -6129,13 +6131,13 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C112" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D112" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="20" customHeight="1">
@@ -6143,13 +6145,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C113" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D113" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="20" customHeight="1">
@@ -6157,13 +6159,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C114" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="20" customHeight="1">
@@ -6171,13 +6173,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C115" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D115" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="20" customHeight="1">
@@ -6185,13 +6187,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C116" s="1">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D116" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="20" customHeight="1">
@@ -6199,13 +6201,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C117" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="20" customHeight="1">
@@ -6213,13 +6215,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C118" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D118" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="20" customHeight="1">
@@ -6227,13 +6229,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C119" s="1">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D119" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="20" customHeight="1">
@@ -6241,13 +6243,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C120" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D120" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="20" customHeight="1">
@@ -6255,13 +6257,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C121" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D121" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="20" customHeight="1">
@@ -6269,13 +6271,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C122" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D122" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="20" customHeight="1">
@@ -6283,13 +6285,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C123" s="1">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D123" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="20" customHeight="1">
@@ -6297,10 +6299,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C124" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D124" s="1">
         <v>18</v>
@@ -6311,10 +6313,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C125" s="1">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D125" s="1">
         <v>18</v>
@@ -6325,10 +6327,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C126" s="1">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D126" s="1">
         <v>18</v>
@@ -6339,13 +6341,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C127" s="1">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D127" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="20" customHeight="1">
@@ -6353,13 +6355,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C128" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D128" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="20" customHeight="1">
@@ -6367,13 +6369,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C129" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D129" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="20" customHeight="1">
@@ -6381,13 +6383,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C130" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D130" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="20" customHeight="1">
@@ -6395,13 +6397,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C131" s="1">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D131" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="20" customHeight="1">
@@ -6409,13 +6411,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C132" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D132" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="20" customHeight="1">
@@ -6423,13 +6425,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C133" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D133" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="20" customHeight="1">
@@ -6437,13 +6439,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C134" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D134" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="20" customHeight="1">
@@ -6451,13 +6453,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C135" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D135" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="20" customHeight="1">
@@ -6465,13 +6467,13 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C136" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D136" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="20" customHeight="1">
@@ -6479,13 +6481,13 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C137" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D137" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="20" customHeight="1">
@@ -6493,13 +6495,13 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C138" s="1">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D138" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="20" customHeight="1">
@@ -6507,13 +6509,13 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C139" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D139" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="20" customHeight="1">
@@ -6521,13 +6523,13 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C140" s="1">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D140" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="20" customHeight="1">
@@ -6535,13 +6537,13 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C141" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D141" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="20" customHeight="1">
@@ -6549,13 +6551,13 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C142" s="1">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D142" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="20" customHeight="1">
@@ -6563,13 +6565,13 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C143" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D143" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="20" customHeight="1">
@@ -6577,13 +6579,13 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C144" s="1">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D144" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="20" customHeight="1">
@@ -6591,13 +6593,13 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C145" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D145" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="20" customHeight="1">
@@ -6605,13 +6607,13 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C146" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D146" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="20" customHeight="1">
@@ -6619,13 +6621,13 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C147" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D147" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="20" customHeight="1">
@@ -6633,13 +6635,13 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C148" s="1">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D148" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="20" customHeight="1">
@@ -6647,13 +6649,13 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C149" s="1">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D149" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="20" customHeight="1">
@@ -6661,13 +6663,13 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C150" s="1">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D150" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="20" customHeight="1">
@@ -6675,13 +6677,13 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C151" s="1">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D151" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="20" customHeight="1">
@@ -6689,13 +6691,13 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C152" s="1">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D152" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="20" customHeight="1">
@@ -6703,13 +6705,13 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C153" s="1">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D153" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="20" customHeight="1">
@@ -6717,13 +6719,13 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C154" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D154" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="20" customHeight="1">
@@ -6731,13 +6733,13 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C155" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D155" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="20" customHeight="1">
@@ -6745,13 +6747,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C156" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D156" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="20" customHeight="1">
@@ -6759,13 +6761,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C157" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D157" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="20" customHeight="1">
@@ -6773,13 +6775,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C158" s="1">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D158" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="20" customHeight="1">
@@ -6787,13 +6789,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C159" s="1">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D159" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="20" customHeight="1">
@@ -6801,13 +6803,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C160" s="1">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D160" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="20" customHeight="1">
@@ -6815,13 +6817,13 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C161" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D161" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="20" customHeight="1">
@@ -6829,13 +6831,13 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C162" s="1">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D162" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="20" customHeight="1">
@@ -6843,13 +6845,13 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C163" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D163" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="20" customHeight="1">
@@ -6857,13 +6859,13 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C164" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D164" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="20" customHeight="1">
@@ -6871,13 +6873,13 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C165" s="1">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D165" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="20" customHeight="1">
@@ -6885,13 +6887,13 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C166" s="1">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D166" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="20" customHeight="1">
@@ -6899,13 +6901,13 @@
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C167" s="1">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D167" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="20" customHeight="1">
@@ -6913,13 +6915,13 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C168" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D168" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="20" customHeight="1">
@@ -6927,13 +6929,13 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C169" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D169" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="20" customHeight="1">
@@ -6941,13 +6943,13 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C170" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D170" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="20" customHeight="1">
@@ -6955,13 +6957,13 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C171" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D171" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="20" customHeight="1">
@@ -6969,13 +6971,13 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C172" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D172" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="20" customHeight="1">
@@ -6983,13 +6985,13 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C173" s="1">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D173" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="20" customHeight="1">
@@ -6997,13 +6999,13 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C174" s="1">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D174" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="20" customHeight="1">
@@ -7011,13 +7013,13 @@
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C175" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D175" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="20" customHeight="1">
@@ -7025,13 +7027,13 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C176" s="1">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D176" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="20" customHeight="1">
@@ -7039,13 +7041,13 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C177" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D177" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="20" customHeight="1">
@@ -7053,13 +7055,13 @@
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C178" s="1">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D178" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="20" customHeight="1">
@@ -7067,13 +7069,13 @@
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C179" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="D179" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="20" customHeight="1">
@@ -7081,13 +7083,13 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C180" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D180" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="20" customHeight="1">
@@ -7095,13 +7097,13 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C181" s="1">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D181" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="20" customHeight="1">
@@ -7109,13 +7111,13 @@
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C182" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D182" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="20" customHeight="1">
@@ -7123,13 +7125,13 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="C183" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D183" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="20" customHeight="1">
@@ -7137,13 +7139,13 @@
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="C184" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D184" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="20" customHeight="1">
@@ -7151,55 +7153,55 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C185" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D185" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="20" customHeight="1">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>168</v>
+      <c r="B186" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C186" s="1">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D186" s="1">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="20" customHeight="1">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>168</v>
+      <c r="B187" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C187" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D187" s="1">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="20" customHeight="1">
       <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>168</v>
+      <c r="B188" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C188" s="1">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D188" s="1">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="20" customHeight="1">
@@ -7207,55 +7209,55 @@
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C189" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D189" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="20" customHeight="1">
       <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>168</v>
+      <c r="B190" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C190" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D190" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="20" customHeight="1">
       <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>168</v>
+      <c r="B191" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C191" s="1">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D191" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="20" customHeight="1">
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>168</v>
+      <c r="B192" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C192" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D192" s="1">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="20" customHeight="1">
@@ -7263,55 +7265,55 @@
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C193" s="1">
         <v>19</v>
       </c>
       <c r="D193" s="1">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="20" customHeight="1">
       <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>168</v>
+      <c r="B194" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C194" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D194" s="1">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="20" customHeight="1">
       <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>168</v>
+      <c r="B195" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C195" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D195" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="20" customHeight="1">
       <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>168</v>
+      <c r="B196" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C196" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D196" s="1">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="20" customHeight="1">
@@ -7319,55 +7321,55 @@
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C197" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D197" s="1">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="20" customHeight="1">
       <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>168</v>
+      <c r="B198" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C198" s="1">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D198" s="1">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="20" customHeight="1">
       <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>168</v>
+      <c r="B199" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C199" s="1">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D199" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="20" customHeight="1">
       <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>168</v>
+      <c r="B200" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C200" s="1">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D200" s="1">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="20" customHeight="1">
@@ -7375,55 +7377,55 @@
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C201" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D201" s="1">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="20" customHeight="1">
       <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>168</v>
+      <c r="B202" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C202" s="1">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D202" s="1">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="20" customHeight="1">
       <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>168</v>
+      <c r="B203" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C203" s="1">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D203" s="1">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="20" customHeight="1">
       <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>168</v>
+      <c r="B204" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C204" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D204" s="1">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="20" customHeight="1">
@@ -7431,55 +7433,55 @@
         <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C205" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D205" s="1">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="20" customHeight="1">
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>168</v>
+      <c r="B206" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C206" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D206" s="1">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="20" customHeight="1">
       <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>168</v>
+      <c r="B207" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C207" s="1">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D207" s="1">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="20" customHeight="1">
       <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>168</v>
+      <c r="B208" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C208" s="1">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D208" s="1">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="20" customHeight="1">
@@ -7487,55 +7489,55 @@
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C209" s="1">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D209" s="1">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="20" customHeight="1">
       <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>168</v>
+      <c r="B210" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C210" s="1">
         <v>20</v>
       </c>
       <c r="D210" s="1">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="20" customHeight="1">
       <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>168</v>
+      <c r="B211" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C211" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D211" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="20" customHeight="1">
       <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>168</v>
+      <c r="B212" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C212" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D212" s="1">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="20" customHeight="1">
@@ -7543,55 +7545,55 @@
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C213" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D213" s="1">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="20" customHeight="1">
       <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>168</v>
+      <c r="B214" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C214" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D214" s="1">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="20" customHeight="1">
       <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>168</v>
+      <c r="B215" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C215" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D215" s="1">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="20" customHeight="1">
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>168</v>
+      <c r="B216" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C216" s="1">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D216" s="1">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="20" customHeight="1">
@@ -7599,55 +7601,55 @@
         <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C217" s="1">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D217" s="1">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="20" customHeight="1">
       <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>168</v>
+      <c r="B218" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C218" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D218" s="1">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="20" customHeight="1">
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>168</v>
+      <c r="B219" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C219" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D219" s="1">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="20" customHeight="1">
       <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>168</v>
+      <c r="B220" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C220" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D220" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="20" customHeight="1">
@@ -7655,55 +7657,55 @@
         <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C221" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D221" s="1">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="20" customHeight="1">
       <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>168</v>
+      <c r="B222" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C222" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D222" s="1">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="20" customHeight="1">
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>168</v>
+      <c r="B223" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C223" s="1">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D223" s="1">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="20" customHeight="1">
       <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>168</v>
+      <c r="B224" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C224" s="1">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D224" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="20" customHeight="1">
@@ -7711,209 +7713,41 @@
         <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C225" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D225" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="20" customHeight="1">
       <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>168</v>
+      <c r="B226" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C226" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D226" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="20" customHeight="1">
       <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>168</v>
+      <c r="B227" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C227" s="1">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D227" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="20" customHeight="1">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C228" s="1">
-        <v>21</v>
-      </c>
-      <c r="D228" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="20" customHeight="1">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C229" s="1">
-        <v>22</v>
-      </c>
-      <c r="D229" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="20" customHeight="1">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C230" s="1">
-        <v>24</v>
-      </c>
-      <c r="D230" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="20" customHeight="1">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C231" s="1">
-        <v>41</v>
-      </c>
-      <c r="D231" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="20" customHeight="1">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C232" s="1">
-        <v>4</v>
-      </c>
-      <c r="D232" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="20" customHeight="1">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C233" s="1">
-        <v>18</v>
-      </c>
-      <c r="D233" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="20" customHeight="1">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C234" s="1">
-        <v>19</v>
-      </c>
-      <c r="D234" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="20" customHeight="1">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C235" s="1">
-        <v>20</v>
-      </c>
-      <c r="D235" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="20" customHeight="1">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C236" s="1">
-        <v>21</v>
-      </c>
-      <c r="D236" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="20" customHeight="1">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C237" s="1">
-        <v>22</v>
-      </c>
-      <c r="D237" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="20" customHeight="1">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C238" s="1">
-        <v>37</v>
-      </c>
-      <c r="D238" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="20" customHeight="1">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C239" s="1">
-        <v>39</v>
-      </c>
-      <c r="D239" s="1">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3520" yWindow="1060" windowWidth="28940" windowHeight="17720" tabRatio="591" activeTab="5"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="168">
   <si>
     <t>true</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -4130,7 +4130,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4559,10 +4559,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G227"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4801,13 +4801,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -4815,13 +4815,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -4829,13 +4829,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -4843,13 +4843,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -4857,13 +4857,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -4871,13 +4871,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -4885,13 +4885,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -4899,13 +4899,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -4913,13 +4913,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -4927,13 +4927,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D26" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -4941,13 +4941,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -4955,13 +4955,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -4969,13 +4969,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -4983,13 +4983,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C30" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -4997,13 +4997,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -5011,13 +5011,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -5025,13 +5025,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -5039,13 +5039,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C34" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -5053,13 +5053,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C35" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -5067,13 +5067,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -5081,10 +5081,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
@@ -5095,13 +5095,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -5109,13 +5109,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -5123,13 +5123,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -5137,13 +5137,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D41" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -5151,13 +5151,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -5165,13 +5165,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C43" s="1">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -5179,13 +5179,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C44" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D44" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -5193,13 +5193,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C45" s="1">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D45" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -5207,13 +5207,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -5221,13 +5221,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -5235,13 +5235,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -5249,13 +5249,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D49" s="1">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -5263,13 +5263,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -5277,13 +5277,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D51" s="1">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -5291,13 +5291,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C52" s="1">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -5305,13 +5305,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D53" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -5319,13 +5319,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -5333,13 +5333,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D55" s="1">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -5347,13 +5347,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C56" s="1">
         <v>49</v>
       </c>
       <c r="D56" s="1">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -5361,13 +5361,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C57" s="1">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -5375,13 +5375,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D58" s="1">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -5389,13 +5389,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D59" s="1">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -5403,13 +5403,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C60" s="1">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D60" s="1">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -5417,13 +5417,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C61" s="1">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D61" s="1">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -5431,13 +5431,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D62" s="1">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -5445,13 +5445,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D63" s="1">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -5459,13 +5459,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C64" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -5473,13 +5473,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D65" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -5487,13 +5487,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D66" s="1">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -5501,13 +5501,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D67" s="1">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -5515,13 +5515,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D68" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -5529,13 +5529,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D69" s="1">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -5543,13 +5543,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C70" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D70" s="1">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -5557,13 +5557,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C71" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D71" s="1">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -5571,13 +5571,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C72" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -5585,13 +5585,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C73" s="1">
         <v>4</v>
       </c>
       <c r="D73" s="1">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20" customHeight="1">
@@ -5599,13 +5599,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C74" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D74" s="1">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -5613,13 +5613,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -5627,13 +5627,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C76" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -5644,10 +5644,10 @@
         <v>21</v>
       </c>
       <c r="C77" s="1">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -5658,10 +5658,10 @@
         <v>20</v>
       </c>
       <c r="C78" s="1">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -5672,10 +5672,10 @@
         <v>20</v>
       </c>
       <c r="C79" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -5686,10 +5686,10 @@
         <v>21</v>
       </c>
       <c r="C80" s="1">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1">
         <v>24</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -5700,10 +5700,10 @@
         <v>21</v>
       </c>
       <c r="C81" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -5714,10 +5714,10 @@
         <v>20</v>
       </c>
       <c r="C82" s="1">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -5728,10 +5728,10 @@
         <v>20</v>
       </c>
       <c r="C83" s="1">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -5742,10 +5742,10 @@
         <v>21</v>
       </c>
       <c r="C84" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -5756,10 +5756,10 @@
         <v>21</v>
       </c>
       <c r="C85" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D85" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -5770,10 +5770,10 @@
         <v>20</v>
       </c>
       <c r="C86" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D86" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -5784,10 +5784,10 @@
         <v>20</v>
       </c>
       <c r="C87" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D87" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -5798,10 +5798,10 @@
         <v>21</v>
       </c>
       <c r="C88" s="1">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D88" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -5812,10 +5812,10 @@
         <v>21</v>
       </c>
       <c r="C89" s="1">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D89" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -5826,10 +5826,10 @@
         <v>20</v>
       </c>
       <c r="C90" s="1">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D90" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -5840,10 +5840,10 @@
         <v>20</v>
       </c>
       <c r="C91" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D91" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -5854,10 +5854,10 @@
         <v>21</v>
       </c>
       <c r="C92" s="1">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D92" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -5868,10 +5868,10 @@
         <v>21</v>
       </c>
       <c r="C93" s="1">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D93" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -5882,10 +5882,10 @@
         <v>20</v>
       </c>
       <c r="C94" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -5896,10 +5896,10 @@
         <v>20</v>
       </c>
       <c r="C95" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D95" s="1">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -5910,10 +5910,10 @@
         <v>21</v>
       </c>
       <c r="C96" s="1">
+        <v>27</v>
+      </c>
+      <c r="D96" s="1">
         <v>25</v>
-      </c>
-      <c r="D96" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -5924,10 +5924,10 @@
         <v>21</v>
       </c>
       <c r="C97" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D97" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -5938,10 +5938,10 @@
         <v>20</v>
       </c>
       <c r="C98" s="1">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D98" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -5952,10 +5952,10 @@
         <v>20</v>
       </c>
       <c r="C99" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D99" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -5966,10 +5966,10 @@
         <v>21</v>
       </c>
       <c r="C100" s="1">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D100" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -5980,10 +5980,10 @@
         <v>21</v>
       </c>
       <c r="C101" s="1">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D101" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">
@@ -5994,10 +5994,10 @@
         <v>20</v>
       </c>
       <c r="C102" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D102" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="20" customHeight="1">
@@ -6008,10 +6008,10 @@
         <v>20</v>
       </c>
       <c r="C103" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D103" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="20" customHeight="1">
@@ -6022,10 +6022,10 @@
         <v>21</v>
       </c>
       <c r="C104" s="1">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D104" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="20" customHeight="1">
@@ -6036,10 +6036,10 @@
         <v>21</v>
       </c>
       <c r="C105" s="1">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D105" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="20" customHeight="1">
@@ -6050,10 +6050,10 @@
         <v>20</v>
       </c>
       <c r="C106" s="1">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D106" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="20" customHeight="1">
@@ -6064,10 +6064,10 @@
         <v>20</v>
       </c>
       <c r="C107" s="1">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D107" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="20" customHeight="1">
@@ -6078,10 +6078,10 @@
         <v>21</v>
       </c>
       <c r="C108" s="1">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="20" customHeight="1">
@@ -6092,10 +6092,10 @@
         <v>21</v>
       </c>
       <c r="C109" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="20" customHeight="1">
@@ -6106,10 +6106,10 @@
         <v>20</v>
       </c>
       <c r="C110" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D110" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="20" customHeight="1">
@@ -6120,10 +6120,10 @@
         <v>20</v>
       </c>
       <c r="C111" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D111" s="1">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="20" customHeight="1">
@@ -6137,7 +6137,7 @@
         <v>23</v>
       </c>
       <c r="D112" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="20" customHeight="1">
@@ -6148,10 +6148,10 @@
         <v>21</v>
       </c>
       <c r="C113" s="1">
+        <v>44</v>
+      </c>
+      <c r="D113" s="1">
         <v>27</v>
-      </c>
-      <c r="D113" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="20" customHeight="1">
@@ -6162,10 +6162,10 @@
         <v>20</v>
       </c>
       <c r="C114" s="1">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D114" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="20" customHeight="1">
@@ -6176,10 +6176,10 @@
         <v>20</v>
       </c>
       <c r="C115" s="1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D115" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="20" customHeight="1">
@@ -6190,10 +6190,10 @@
         <v>21</v>
       </c>
       <c r="C116" s="1">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D116" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="20" customHeight="1">
@@ -6204,10 +6204,10 @@
         <v>21</v>
       </c>
       <c r="C117" s="1">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D117" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="20" customHeight="1">
@@ -6218,10 +6218,10 @@
         <v>20</v>
       </c>
       <c r="C118" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D118" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="20" customHeight="1">
@@ -6232,10 +6232,10 @@
         <v>20</v>
       </c>
       <c r="C119" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D119" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="20" customHeight="1">
@@ -6246,10 +6246,10 @@
         <v>21</v>
       </c>
       <c r="C120" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D120" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="20" customHeight="1">
@@ -6260,10 +6260,10 @@
         <v>21</v>
       </c>
       <c r="C121" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D121" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="20" customHeight="1">
@@ -6274,10 +6274,10 @@
         <v>20</v>
       </c>
       <c r="C122" s="1">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D122" s="1">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="20" customHeight="1">
@@ -6288,10 +6288,10 @@
         <v>20</v>
       </c>
       <c r="C123" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D123" s="1">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="20" customHeight="1">
@@ -6302,10 +6302,10 @@
         <v>21</v>
       </c>
       <c r="C124" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D124" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="20" customHeight="1">
@@ -6313,55 +6313,55 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C125" s="1">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D125" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="20" customHeight="1">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>20</v>
+      <c r="B126" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C126" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D126" s="1">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="20" customHeight="1">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>20</v>
+      <c r="B127" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C127" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D127" s="1">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="20" customHeight="1">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>21</v>
+      <c r="B128" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C128" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D128" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="20" customHeight="1">
@@ -6369,55 +6369,55 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C129" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D129" s="1">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="20" customHeight="1">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>20</v>
+      <c r="B130" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C130" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D130" s="1">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="20" customHeight="1">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>20</v>
+      <c r="B131" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C131" s="1">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D131" s="1">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="20" customHeight="1">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>21</v>
+      <c r="B132" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C132" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D132" s="1">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="20" customHeight="1">
@@ -6425,55 +6425,55 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C133" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D133" s="1">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="20" customHeight="1">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>20</v>
+      <c r="B134" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C134" s="1">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D134" s="1">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="20" customHeight="1">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>20</v>
+      <c r="B135" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C135" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D135" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="20" customHeight="1">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>21</v>
+      <c r="B136" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C136" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D136" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="20" customHeight="1">
@@ -6481,55 +6481,55 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C137" s="1">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D137" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="20" customHeight="1">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>20</v>
+      <c r="B138" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C138" s="1">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D138" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="20" customHeight="1">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>20</v>
+      <c r="B139" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C139" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D139" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="20" customHeight="1">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>21</v>
+      <c r="B140" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C140" s="1">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D140" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="20" customHeight="1">
@@ -6537,55 +6537,55 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C141" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D141" s="1">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="20" customHeight="1">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>20</v>
+      <c r="B142" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C142" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D142" s="1">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="20" customHeight="1">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>20</v>
+      <c r="B143" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C143" s="1">
         <v>9</v>
       </c>
       <c r="D143" s="1">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="20" customHeight="1">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>21</v>
+      <c r="B144" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C144" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D144" s="1">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="20" customHeight="1">
@@ -6593,55 +6593,55 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C145" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D145" s="1">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="20" customHeight="1">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>20</v>
+      <c r="B146" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C146" s="1">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D146" s="1">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="20" customHeight="1">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>20</v>
+      <c r="B147" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C147" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D147" s="1">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="20" customHeight="1">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>21</v>
+      <c r="B148" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C148" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D148" s="1">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="20" customHeight="1">
@@ -6649,55 +6649,55 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C149" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D149" s="1">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="20" customHeight="1">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C150" s="1">
         <v>20</v>
       </c>
-      <c r="C150" s="1">
+      <c r="D150" s="1">
         <v>45</v>
-      </c>
-      <c r="D150" s="1">
-        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="20" customHeight="1">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>20</v>
+      <c r="B151" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C151" s="1">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D151" s="1">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="20" customHeight="1">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>21</v>
+      <c r="B152" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C152" s="1">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D152" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="20" customHeight="1">
@@ -6705,55 +6705,55 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C153" s="1">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D153" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="20" customHeight="1">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>20</v>
+      <c r="B154" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C154" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D154" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="20" customHeight="1">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>20</v>
+      <c r="B155" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C155" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D155" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="20" customHeight="1">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>21</v>
+      <c r="B156" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C156" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D156" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="20" customHeight="1">
@@ -6761,55 +6761,55 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C157" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D157" s="1">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="20" customHeight="1">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>20</v>
+      <c r="B158" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C158" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="D158" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="20" customHeight="1">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>20</v>
+      <c r="B159" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C159" s="1">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D159" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="20" customHeight="1">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>21</v>
+      <c r="B160" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C160" s="1">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D160" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="20" customHeight="1">
@@ -6817,55 +6817,55 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C161" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D161" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="20" customHeight="1">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>20</v>
+      <c r="B162" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C162" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D162" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="20" customHeight="1">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>20</v>
+      <c r="B163" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C163" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D163" s="1">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="20" customHeight="1">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>21</v>
+      <c r="B164" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="C164" s="1">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D164" s="1">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="20" customHeight="1">
@@ -6873,880 +6873,40 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="C165" s="1">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D165" s="1">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="20" customHeight="1">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>20</v>
+      <c r="B166" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C166" s="1">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D166" s="1">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="20" customHeight="1">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>20</v>
+      <c r="B167" s="11" t="s">
+        <v>167</v>
       </c>
       <c r="C167" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D167" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="20" customHeight="1">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C168" s="1">
-        <v>0</v>
-      </c>
-      <c r="D168" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="20" customHeight="1">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C169" s="1">
-        <v>1</v>
-      </c>
-      <c r="D169" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="20" customHeight="1">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C170" s="1">
-        <v>17</v>
-      </c>
-      <c r="D170" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="20" customHeight="1">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C171" s="1">
-        <v>22</v>
-      </c>
-      <c r="D171" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="20" customHeight="1">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C172" s="1">
-        <v>23</v>
-      </c>
-      <c r="D172" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="20" customHeight="1">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C173" s="1">
-        <v>44</v>
-      </c>
-      <c r="D173" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="20" customHeight="1">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C174" s="1">
-        <v>49</v>
-      </c>
-      <c r="D174" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="20" customHeight="1">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C175" s="1">
-        <v>0</v>
-      </c>
-      <c r="D175" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="20" customHeight="1">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C176" s="1">
-        <v>22</v>
-      </c>
-      <c r="D176" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="20" customHeight="1">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C177" s="1">
-        <v>48</v>
-      </c>
-      <c r="D177" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="20" customHeight="1">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C178" s="1">
-        <v>50</v>
-      </c>
-      <c r="D178" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="20" customHeight="1">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C179" s="1">
-        <v>4</v>
-      </c>
-      <c r="D179" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="20" customHeight="1">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C180" s="1">
-        <v>6</v>
-      </c>
-      <c r="D180" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="20" customHeight="1">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C181" s="1">
-        <v>36</v>
-      </c>
-      <c r="D181" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="20" customHeight="1">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C182" s="1">
-        <v>5</v>
-      </c>
-      <c r="D182" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="20" customHeight="1">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C183" s="1">
-        <v>36</v>
-      </c>
-      <c r="D183" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="20" customHeight="1">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C184" s="1">
-        <v>11</v>
-      </c>
-      <c r="D184" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="20" customHeight="1">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C185" s="1">
-        <v>45</v>
-      </c>
-      <c r="D185" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="20" customHeight="1">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C186" s="1">
-        <v>12</v>
-      </c>
-      <c r="D186" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="20" customHeight="1">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C187" s="1">
-        <v>30</v>
-      </c>
-      <c r="D187" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="20" customHeight="1">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C188" s="1">
-        <v>31</v>
-      </c>
-      <c r="D188" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="20" customHeight="1">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C189" s="1">
-        <v>32</v>
-      </c>
-      <c r="D189" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="20" customHeight="1">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C190" s="1">
-        <v>31</v>
-      </c>
-      <c r="D190" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="20" customHeight="1">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C191" s="1">
-        <v>41</v>
-      </c>
-      <c r="D191" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="20" customHeight="1">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C192" s="1">
-        <v>7</v>
-      </c>
-      <c r="D192" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="20" customHeight="1">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C193" s="1">
-        <v>19</v>
-      </c>
-      <c r="D193" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="20" customHeight="1">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C194" s="1">
-        <v>22</v>
-      </c>
-      <c r="D194" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="20" customHeight="1">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C195" s="1">
-        <v>21</v>
-      </c>
-      <c r="D195" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="20" customHeight="1">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C196" s="1">
-        <v>35</v>
-      </c>
-      <c r="D196" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="20" customHeight="1">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C197" s="1">
-        <v>22</v>
-      </c>
-      <c r="D197" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="20" customHeight="1">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C198" s="1">
-        <v>47</v>
-      </c>
-      <c r="D198" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="20" customHeight="1">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C199" s="1">
-        <v>13</v>
-      </c>
-      <c r="D199" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="20" customHeight="1">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C200" s="1">
-        <v>42</v>
-      </c>
-      <c r="D200" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="20" customHeight="1">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C201" s="1">
-        <v>3</v>
-      </c>
-      <c r="D201" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="20" customHeight="1">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C202" s="1">
-        <v>10</v>
-      </c>
-      <c r="D202" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="20" customHeight="1">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C203" s="1">
-        <v>9</v>
-      </c>
-      <c r="D203" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="20" customHeight="1">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C204" s="1">
-        <v>25</v>
-      </c>
-      <c r="D204" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="20" customHeight="1">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C205" s="1">
-        <v>26</v>
-      </c>
-      <c r="D205" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="20" customHeight="1">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C206" s="1">
-        <v>24</v>
-      </c>
-      <c r="D206" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="20" customHeight="1">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C207" s="1">
-        <v>38</v>
-      </c>
-      <c r="D207" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="20" customHeight="1">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C208" s="1">
-        <v>44</v>
-      </c>
-      <c r="D208" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="20" customHeight="1">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C209" s="1">
-        <v>50</v>
-      </c>
-      <c r="D209" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="20" customHeight="1">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C210" s="1">
-        <v>20</v>
-      </c>
-      <c r="D210" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="20" customHeight="1">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C211" s="1">
-        <v>27</v>
-      </c>
-      <c r="D211" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="20" customHeight="1">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C212" s="1">
-        <v>0</v>
-      </c>
-      <c r="D212" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="20" customHeight="1">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C213" s="1">
-        <v>6</v>
-      </c>
-      <c r="D213" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="20" customHeight="1">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C214" s="1">
-        <v>19</v>
-      </c>
-      <c r="D214" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="20" customHeight="1">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C215" s="1">
-        <v>28</v>
-      </c>
-      <c r="D215" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="20" customHeight="1">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C216" s="1">
-        <v>32</v>
-      </c>
-      <c r="D216" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="20" customHeight="1">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C217" s="1">
-        <v>41</v>
-      </c>
-      <c r="D217" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="20" customHeight="1">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C218" s="1">
-        <v>0</v>
-      </c>
-      <c r="D218" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="20" customHeight="1">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C219" s="1">
-        <v>2</v>
-      </c>
-      <c r="D219" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="20" customHeight="1">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C220" s="1">
-        <v>20</v>
-      </c>
-      <c r="D220" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="20" customHeight="1">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C221" s="1">
-        <v>24</v>
-      </c>
-      <c r="D221" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="20" customHeight="1">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C222" s="1">
-        <v>25</v>
-      </c>
-      <c r="D222" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="20" customHeight="1">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C223" s="1">
-        <v>29</v>
-      </c>
-      <c r="D223" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="20" customHeight="1">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C224" s="1">
-        <v>50</v>
-      </c>
-      <c r="D224" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="20" customHeight="1">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C225" s="1">
-        <v>3</v>
-      </c>
-      <c r="D225" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="20" customHeight="1">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C226" s="1">
-        <v>27</v>
-      </c>
-      <c r="D226" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="20" customHeight="1">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C227" s="1">
-        <v>48</v>
-      </c>
-      <c r="D227" s="1">
         <v>50</v>
       </c>
     </row>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="1120" windowWidth="20620" windowHeight="16200" tabRatio="591"/>
+    <workbookView xWindow="4060" yWindow="1280" windowWidth="29380" windowHeight="18360" tabRatio="591"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="392">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -360,26 +360,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>collectedStoneCountPerExp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集多少点资源增长一点采集经验</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectedIronCountPerExp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectedFoodCountPerExp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>collectedCoinCountPerExp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>龙突袭每次减少的血量百分比</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -464,10 +444,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>collectedWoodCountPerExp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>allianceFightSuccessProtectMinutes</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -510,1172 +486,902 @@
     <t>decorate_tree_2</t>
   </si>
   <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>4_4</t>
+  </si>
+  <si>
+    <t>4_5</t>
+  </si>
+  <si>
+    <t>4_6</t>
+  </si>
+  <si>
+    <t>decorate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorate_tree_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorate_tree_3</t>
+  </si>
+  <si>
+    <t>decorate_tree_4</t>
+  </si>
+  <si>
+    <t>decorate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodVillage</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironVillage</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodVillage</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinVillage</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>decorate_mountain_2</t>
+  </si>
+  <si>
+    <t>decorate_mountain_1</t>
+  </si>
+  <si>
+    <t>decorate_lake_1</t>
+  </si>
+  <si>
+    <t>wood_10k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_20k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_50k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_100k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_500k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_10k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_20k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_50k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_100k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_200k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_500k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_10k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_20k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_50k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_100k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron_500k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_10k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_20k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_50k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_100k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_200k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_500k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_10k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_20k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_50k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_100k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_200k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_500k</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_50</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_200</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_400</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_1000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>dragon_1_1,swordsman_1_16,lancer_1_6,catapult_1_2,ranger_1_4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1,dragonMaterials:redCrystal_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:1,dragonMaterials:redCrystal_1:1,allianceInfo:loyalty:3000</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>dragon_1_2,lancer_1_32,ballista_1_12,ranger_1_32,swordsman_1_16</t>
+  </si>
+  <si>
+    <t>dragon_1_3,catapult_1_44,crossbowman_1_132,sentinel_1_88,horseArcher_1_22</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:3,dragonMaterials:blueCrystal_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:3,dragonMaterials:blueCrystal_1:3,allianceInfo:loyalty:6000</t>
+  </si>
+  <si>
+    <t>dragon_1_4,crossbowman_1_352,sentinel_1_264,horseArcher_1_88,ballista_1_22</t>
+  </si>
+  <si>
+    <t>dragon_1_6,swordsman_1_640,lancer_1_240,catapult_1_80,ranger_1_160</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:5,dragonMaterials:greenCrystal_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_1:5,dragonMaterials:greenCrystal_1:5,allianceInfo:loyalty:10000</t>
+  </si>
+  <si>
+    <t>dragon_1_8,lancer_1_512,ballista_1_192,ranger_1_512,swordsman_1_256</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>dragon_2_11,catapult_1_392,crossbowman_1_1176,sentinel_1_784,horseArcher_1_196</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1,dragonMaterials:greenCrystal_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1,dragonMaterials:greenCrystal_2:1,allianceInfo:loyalty:16000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1,dragonMaterials:redCrystal_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1,dragonMaterials:redCrystal_2:1,allianceInfo:loyalty:16000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1,dragonMaterials:blueCrystal_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:1,dragonMaterials:blueCrystal_2:1,allianceInfo:loyalty:16000</t>
+  </si>
+  <si>
+    <t>dragon_2_12,crossbowman_1_2240,sentinel_1_1680,horseArcher_1_560,ballista_1_140</t>
+  </si>
+  <si>
+    <t>dragon_2_13,swordsman_1_3104,lancer_1_1164,catapult_1_388,ranger_1_776</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:3</t>
+  </si>
+  <si>
+    <t>dragon_2_14,lancer_1_2072,ballista_1_777,ranger_1_2072,swordsman_1_1036</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:greenSoul_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:greenSoul_2:4,allianceInfo:loyalty:26000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:redSoul_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:redSoul_2:4,allianceInfo:loyalty:26000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:blueSoul_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:blueSoul_2:4,allianceInfo:loyalty:26000</t>
+  </si>
+  <si>
+    <t>dragon_2_16,catapult_1_1348,crossbowman_1_4044,sentinel_1_2696,horseArcher_1_674</t>
+  </si>
+  <si>
+    <t>dragon_2_18,crossbowman_1_6848,sentinel_1_5136,horseArcher_1_1712,ballista_1_428</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:6,dragonMaterials:ingo_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:52000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:6,dragonMaterials:ingo_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:52000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:6,dragonMaterials:ingo_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:52000</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>dragon_3_21,swordsman_2_8544,lancer_2_3204,catapult_2_1068,ranger_2_2136</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1,dragonMaterials:greenCrystal_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1,dragonMaterials:greenCrystal_3:1,allianceInfo:loyalty:57000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1,dragonMaterials:redCrystal_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1,dragonMaterials:redCrystal_3:1,allianceInfo:loyalty:57000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1,dragonMaterials:blueCrystal_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:1,dragonMaterials:blueCrystal_3:1,allianceInfo:loyalty:57000</t>
+  </si>
+  <si>
+    <t>dragon_3_22,lancer_2_5248,ballista_2_1968,ranger_2_5248,swordsman_2_2624</t>
+  </si>
+  <si>
+    <t>dragon_3_23,catapult_2_3180,crossbowman_2_9540,sentinel_2_6360,horseArcher_2_1590</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:3</t>
+  </si>
+  <si>
+    <t>dragon_3_24,crossbowman_2_15216,sentinel_2_11412,horseArcher_2_3804,ballista_2_951</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:greenSoul_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:greenSoul_3:4,allianceInfo:loyalty:86000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:redSoul_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:redSoul_3:4,allianceInfo:loyalty:86000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:blueSoul_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:blueSoul_3:4,allianceInfo:loyalty:86000</t>
+  </si>
+  <si>
+    <t>dragon_3_26,swordsman_2_18016,lancer_2_6756,catapult_2_2252,ranger_2_4504</t>
+  </si>
+  <si>
+    <t>dragon_3_28,lancer_2_10560,ballista_2_3960,ranger_2_10560,swordsman_2_5280</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:6,dragonMaterials:ingo_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:137000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:6,dragonMaterials:ingo_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:137000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:6,dragonMaterials:ingo_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:137000</t>
+  </si>
+  <si>
     <t>4_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_5</t>
-  </si>
-  <si>
-    <t>3_4</t>
-  </si>
-  <si>
-    <t>3_3</t>
-  </si>
-  <si>
-    <t>3_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_5</t>
-  </si>
-  <si>
-    <t>2_4</t>
-  </si>
-  <si>
-    <t>2_3</t>
-  </si>
-  <si>
-    <t>1_5</t>
-  </si>
-  <si>
-    <t>1_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_31,catapult_2_6136,crossbowman_2_18408,sentinel_2_12272,horseArcher_2_3068</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1,dragonMaterials:greenCrystal_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1,dragonMaterials:greenCrystal_4:1,allianceInfo:loyalty:149000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1,dragonMaterials:redCrystal_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1,dragonMaterials:redCrystal_4:1,allianceInfo:loyalty:149000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1,dragonMaterials:blueCrystal_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:1,dragonMaterials:blueCrystal_4:1,allianceInfo:loyalty:149000</t>
+  </si>
+  <si>
+    <t>dragon_4_32,crossbowman_2_28320,sentinel_2_21240,horseArcher_2_7080,ballista_2_1770</t>
+  </si>
+  <si>
+    <t>dragon_4_33,swordsman_2_32448,lancer_2_12168,catapult_2_4056,ranger_2_8112</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:3</t>
+  </si>
+  <si>
+    <t>dragon_4_34,lancer_2_18472,ballista_2_6927,ranger_2_18472,swordsman_2_9236</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:greenSoul_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:greenSoul_4:4,loyalty:271000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:redSoul_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:redSoul_4:4,allianceInfo:loyalty:271000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:blueSoul_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:blueSoul_4:4,allianceInfo:loyalty:271000</t>
+  </si>
+  <si>
+    <t>dragon_4_36,catapult_2_10456,crossbowman_2_31368,sentinel_2_20912,horseArcher_2_5228</t>
+  </si>
+  <si>
+    <t>dragon_4_38,crossbowman_2_47088,sentinel_2_35316,horseArcher_2_11772,ballista_2_2943</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:6,dragonMaterials:ingo_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:347000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:6,dragonMaterials:ingo_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:347000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:6,dragonMaterials:ingo_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:347000</t>
+  </si>
+  <si>
+    <t>STR_stageName</t>
+  </si>
+  <si>
+    <t>INT_index</t>
+  </si>
+  <si>
+    <t>INT_stage</t>
+  </si>
+  <si>
+    <t>INT_subStage</t>
+  </si>
+  <si>
+    <t>INT_enemyPower</t>
+  </si>
+  <si>
+    <t>INT_needPerception</t>
+  </si>
+  <si>
+    <t>INT_suggestPlayer</t>
+  </si>
+  <si>
+    <t>INT_suggestPower</t>
+  </si>
+  <si>
+    <t>STR_troops</t>
+  </si>
+  <si>
+    <t>INT_star2DeathCitizen</t>
+  </si>
+  <si>
+    <t>INT_star1Honour</t>
+  </si>
+  <si>
+    <t>INT_star2Honour</t>
   </si>
   <si>
     <t>INT_star3Honour</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_star2Honour</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_star1Honour</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_star2DeathCitizen</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_troops</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_suggestPower</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_suggestPlayer</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_needPerception</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_enemyPower</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_subStage</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_stage</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_index</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_stageName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_3</t>
-  </si>
-  <si>
-    <t>1_4</t>
-  </si>
-  <si>
-    <t>1_6</t>
-  </si>
-  <si>
-    <t>2_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_2</t>
-  </si>
-  <si>
-    <t>2_6</t>
-  </si>
-  <si>
-    <t>3_2</t>
-  </si>
-  <si>
-    <t>3_6</t>
-  </si>
-  <si>
-    <t>4_2</t>
-  </si>
-  <si>
-    <t>4_3</t>
-  </si>
-  <si>
-    <t>4_4</t>
-  </si>
-  <si>
-    <t>4_5</t>
-  </si>
-  <si>
-    <t>4_6</t>
-  </si>
-  <si>
-    <t>dragon_1_1,swordsman_1_16,lancer_1_6,catapult_1_2,ranger_1_4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_2,lancer_1_32,ballista_1_12,ranger_1_32,swordsman_1_16</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_3,catapult_1_44,crossbowman_1_132,sentinel_1_88,horseArcher_1_22</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_4,crossbowman_1_352,sentinel_1_264,horseArcher_1_88,ballista_1_22</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_6,swordsman_1_640,lancer_1_240,catapult_1_80,ranger_1_160</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_8,lancer_1_512,ballista_1_192,ranger_1_512,swordsman_1_256</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_11,catapult_1_392,crossbowman_1_1176,sentinel_1_784,horseArcher_1_196</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_12,crossbowman_1_2240,sentinel_1_1680,horseArcher_1_560,ballista_1_140</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_13,swordsman_1_3104,lancer_1_1164,catapult_1_388,ranger_1_776</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_14,lancer_1_2072,ballista_1_777,ranger_1_2072,swordsman_1_1036</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_16,catapult_1_1348,crossbowman_1_4044,sentinel_1_2696,horseArcher_1_674</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_18,crossbowman_1_6848,sentinel_1_5136,horseArcher_1_1712,ballista_1_428</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_21,swordsman_2_8544,lancer_2_3204,catapult_2_1068,ranger_2_2136</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_22,lancer_2_5248,ballista_2_1968,ranger_2_5248,swordsman_2_2624</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_23,catapult_2_3180,crossbowman_2_9540,sentinel_2_6360,horseArcher_2_1590</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_24,crossbowman_2_15216,sentinel_2_11412,horseArcher_2_3804,ballista_2_951</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_26,swordsman_2_18016,lancer_2_6756,catapult_2_2252,ranger_2_4504</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_28,lancer_2_10560,ballista_2_3960,ranger_2_10560,swordsman_2_5280</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_31,catapult_2_6136,crossbowman_2_18408,sentinel_2_12272,horseArcher_2_3068</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_32,crossbowman_2_28320,sentinel_2_21240,horseArcher_2_7080,ballista_2_1770</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_33,swordsman_2_32448,lancer_2_12168,catapult_2_4056,ranger_2_8112</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_34,lancer_2_18472,ballista_2_6927,ranger_2_18472,swordsman_2_9236</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_36,catapult_2_10456,crossbowman_2_31368,sentinel_2_20912,horseArcher_2_5228</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_38,crossbowman_2_47088,sentinel_2_35316,horseArcher_2_11772,ballista_2_2943</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1,dragonMaterials:redCrystal_1:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_1:2,dragonMaterials:greenCrystal_1:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3,dragonMaterials:blueCrystal_1:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_1:4,dragonMaterials:blueCrystal_1:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:5,dragonMaterials:greenCrystal_1:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_1:6,dragonMaterials:redCrystal_1:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1,dragonMaterials:greenCrystal_2:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:2,dragonMaterials:greenSoul_2:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:3,dragonMaterials:rune_2:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:greenSoul_2:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:5,dragonMaterials:greenCrystal_2:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:6,dragonMaterials:ingo_2:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1,dragonMaterials:greenCrystal_3:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:2,dragonMaterials:greenSoul_3:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:3,dragonMaterials:rune_3:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:greenSoul_3:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:5,dragonMaterials:greenCrystal_3:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:6,dragonMaterials:ingo_3:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1,dragonMaterials:greenCrystal_4:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:2,dragonMaterials:greenSoul_4:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3,dragonMaterials:rune_4:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:greenSoul_4:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:5,dragonMaterials:greenCrystal_4:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:6,dragonMaterials:ingo_4:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_1:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_1:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_1:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:greenSoul_4:4,loyalty:271000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1,dragonMaterials:redCrystal_2:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:2,dragonMaterials:redSoul_2:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:3,dragonMaterials:rune_2:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:redSoul_2:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:5,dragonMaterials:redCrystal_2:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:6,dragonMaterials:ingo_2:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1,dragonMaterials:redCrystal_3:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:2,dragonMaterials:redSoul_3:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:3,dragonMaterials:rune_3:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:redSoul_3:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:5,dragonMaterials:redCrystal_3:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:6,dragonMaterials:ingo_3:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1,dragonMaterials:redCrystal_4:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:2,dragonMaterials:redSoul_4:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:redSoul_4:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:5,dragonMaterials:redCrystal_4:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:6,dragonMaterials:ingo_4:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_1:6,dragonMaterials:redCrystal_1:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1,dragonMaterials:blueCrystal_2:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:2,dragonMaterials:blueSoul_2:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:blueSoul_2:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:5,dragonMaterials:blueCrystal_2:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:6,dragonMaterials:ingo_2:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1,dragonMaterials:blueCrystal_3:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:2,dragonMaterials:blueSoul_3:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:blueSoul_3:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:5,dragonMaterials:blueCrystal_3:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:6,dragonMaterials:ingo_3:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1,dragonMaterials:blueCrystal_4:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:2,dragonMaterials:blueSoul_4:2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:blueSoul_4:4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:5,dragonMaterials:blueCrystal_4:5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:6,dragonMaterials:ingo_4:6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1,dragonMaterials:redCrystal_1:1,allianceInfo:loyalty:3000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_1:2,dragonMaterials:greenCrystal_1:2,allianceInfo:loyalty:5000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3,dragonMaterials:blueCrystal_1:3,allianceInfo:loyalty:6000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_1:4,dragonMaterials:blueCrystal_1:4,allianceInfo:loyalty:8000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:5,dragonMaterials:greenCrystal_1:5,allianceInfo:loyalty:10000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_1:6,dragonMaterials:redCrystal_1:6,allianceInfo:loyalty:11000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1,dragonMaterials:greenCrystal_2:1,allianceInfo:loyalty:16000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:2,dragonMaterials:greenSoul_2:2,allianceInfo:loyalty:21000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:3,dragonMaterials:rune_2:3,allianceInfo:loyalty:23000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:greenSoul_2:4,allianceInfo:loyalty:26000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:5,dragonMaterials:greenCrystal_2:5,allianceInfo:loyalty:29000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:52000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1,dragonMaterials:greenCrystal_3:1,allianceInfo:loyalty:57000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:2,dragonMaterials:greenSoul_3:2,allianceInfo:loyalty:63000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:3,dragonMaterials:rune_3:3,allianceInfo:loyalty:70000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:greenSoul_3:4,allianceInfo:loyalty:86000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:5,dragonMaterials:greenCrystal_3:5,allianceInfo:loyalty:125000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:137000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1,dragonMaterials:greenCrystal_4:1,allianceInfo:loyalty:149000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>rune_4:2,greenSoul_4:2,allianceInfo:loyalty:179000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3,dragonMaterials:rune_4:3,allianceInfo:loyalty:195000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:5,dragonMaterials:greenCrystal_4:5,allianceInfo:loyalty:292000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:347000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:3,dragonMaterials:blueCrystal_1:3,allianceInfo:loyalty:6000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1,dragonMaterials:redCrystal_2:1,allianceInfo:loyalty:16000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:2,dragonMaterials:redSoul_2:2,allianceInfo:loyalty:21000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:redSoul_2:4,allianceInfo:loyalty:26000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:5,dragonMaterials:redCrystal_2:5,allianceInfo:loyalty:29000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:52000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1,dragonMaterials:redCrystal_3:1,allianceInfo:loyalty:57000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:2,dragonMaterials:redSoul_3:2,allianceInfo:loyalty:63000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:3,dragonMaterials:rune_3:3,allianceInfo:loyalty:70000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:redSoul_3:4,allianceInfo:loyalty:86000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:5,dragonMaterials:redCrystal_3:5,allianceInfo:loyalty:125000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:137000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1,dragonMaterials:redCrystal_4:1,allianceInfo:loyalty:149000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:2,dragonMaterials:redSoul_4:2,allianceInfo:loyalty:179000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3,dragonMaterials:rune_4:3,allianceInfo:loyalty:195000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:redSoul_4:4,allianceInfo:loyalty:271000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:5,dragonMaterials:redCrystal_4:5,allianceInfo:loyalty:292000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:347000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_1:1,dragonMaterials:redCrystal_1:1,allianceInfo:loyalty:3000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_2:1,dragonMaterials:blueCrystal_2:1,allianceInfo:loyalty:16000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:2,dragonMaterials:blueSoul_2:2,allianceInfo:loyalty:21000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:blueSoul_2:4,allianceInfo:loyalty:26000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_2:5,dragonMaterials:blueCrystal_2:5,allianceInfo:loyalty:29000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:52000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_3:1,dragonMaterials:blueCrystal_3:1,allianceInfo:loyalty:57000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:2,dragonMaterials:blueSoul_3:2,allianceInfo:loyalty:63000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:blueSoul_3:4,allianceInfo:loyalty:86000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_3:5,dragonMaterials:blueCrystal_3:5,allianceInfo:loyalty:125000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:137000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:1,dragonMaterials:blueCrystal_4:1,allianceInfo:loyalty:149000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:2,dragonMaterials:blueSoul_4:2,allianceInfo:loyalty:179000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:ingo_4:3,dragonMaterials:rune_4:3,allianceInfo:loyalty:195000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:blueSoul_4:4,allianceInfo:loyalty:271000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:rune_4:5,dragonMaterials:blueCrystal_4:5,allianceInfo:loyalty:292000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:347000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>decorate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>decorate_tree_1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>decorate_tree_3</t>
-  </si>
-  <si>
-    <t>decorate_tree_4</t>
-  </si>
-  <si>
-    <t>decorate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodVillage</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>village</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ironVillage</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodVillage</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinVillage</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>decorate_mountain_2</t>
-  </si>
-  <si>
-    <t>decorate_mountain_1</t>
-  </si>
-  <si>
-    <t>decorate_lake_1</t>
-  </si>
-  <si>
-    <t>wood_10k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_20k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_50k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_100k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood_500k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone_10k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone_20k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone_50k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone_100k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone_200k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone_500k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron_10k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron_20k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron_50k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron_100k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>iron_500k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_10k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>food</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_20k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_50k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>food</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_100k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_200k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>food_500k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>food</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_10k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_20k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_50k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_100k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_200k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin_500k</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_50</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_100</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_200</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_400</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_1000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_playerKill_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>INT_playerKill_2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>INT_playerKill_3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>STR_playerRewards_1_grassLand</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>STR_playerRewards_2_grassLand</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>STR_playerRewards_3_grassLand</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>STR_playerRewards_1_desert</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>STR_playerRewards_2_desert</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>STR_playerRewards_3_desert</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>STR_playerRewards_1_iceField</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>STR_playerRewards_2_iceField</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>STR_playerRewards_3_iceField</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_1:2,dragonMaterials:greenCrystal_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_1:2,dragonMaterials:greenCrystal_1:2,allianceInfo:loyalty:5000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_1:4,dragonMaterials:blueCrystal_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_1:4,dragonMaterials:blueCrystal_1:4,allianceInfo:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_1:6,dragonMaterials:redCrystal_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_1:6,dragonMaterials:redCrystal_1:6,allianceInfo:loyalty:11000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:2,dragonMaterials:greenSoul_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:2,dragonMaterials:greenSoul_2:2,allianceInfo:loyalty:21000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:2,dragonMaterials:redSoul_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:2,dragonMaterials:redSoul_2:2,allianceInfo:loyalty:21000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:2,dragonMaterials:blueSoul_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:2,dragonMaterials:blueSoul_2:2,allianceInfo:loyalty:21000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:23000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:5,dragonMaterials:greenCrystal_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:5,dragonMaterials:greenCrystal_2:5,allianceInfo:loyalty:29000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:5,dragonMaterials:redCrystal_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:5,dragonMaterials:redCrystal_2:5,allianceInfo:loyalty:29000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:5,dragonMaterials:blueCrystal_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_2:5,dragonMaterials:blueCrystal_2:5,allianceInfo:loyalty:29000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:2,dragonMaterials:greenSoul_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:2,dragonMaterials:greenSoul_3:2,allianceInfo:loyalty:63000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:2,dragonMaterials:redSoul_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:2,dragonMaterials:redSoul_3:2,allianceInfo:loyalty:63000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:2,dragonMaterials:blueSoul_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:2,dragonMaterials:blueSoul_3:2,allianceInfo:loyalty:63000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:70000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:5,dragonMaterials:greenCrystal_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:5,dragonMaterials:greenCrystal_3:5,allianceInfo:loyalty:125000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:5,dragonMaterials:redCrystal_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:5,dragonMaterials:redCrystal_3:5,allianceInfo:loyalty:125000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:5,dragonMaterials:blueCrystal_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_3:5,dragonMaterials:blueCrystal_3:5,allianceInfo:loyalty:125000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:2,dragonMaterials:greenSoul_4:2</t>
+  </si>
+  <si>
+    <t>runes_4:2,greenSoul_4:2,allianceInfo:loyalty:179000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:2,dragonMaterials:redSoul_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:2,dragonMaterials:redSoul_4:2,allianceInfo:loyalty:179000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:2,dragonMaterials:blueSoul_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:2,dragonMaterials:blueSoul_4:2,allianceInfo:loyalty:179000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:ingo_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:195000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:5,dragonMaterials:greenCrystal_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:5,dragonMaterials:greenCrystal_4:5,allianceInfo:loyalty:292000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:5,dragonMaterials:redCrystal_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:5,dragonMaterials:redCrystal_4:5,allianceInfo:loyalty:292000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:5,dragonMaterials:blueCrystal_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:runes_4:5,dragonMaterials:blueCrystal_4:5,allianceInfo:loyalty:292000</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1570,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="481">
+  <cellStyleXfs count="489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2346,6 +2052,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2417,7 +2131,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="481">
+  <cellStyles count="489">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2660,6 +2374,10 @@
     <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2895,6 +2613,10 @@
     <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3345,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3373,90 +3095,90 @@
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B2" s="8">
         <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B3" s="12">
         <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B4" s="12">
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B5" s="8">
         <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B6" s="8">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B7" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B8" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -3494,134 +3216,79 @@
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B13" s="8">
         <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B14" s="8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="8">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B16" s="8">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B17" s="8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B18" s="8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B19" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="8">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="8">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="8">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4228,10 +3895,10 @@
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>355</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>356</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -4258,10 +3925,10 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>357</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>358</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -4288,10 +3955,10 @@
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>358</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -4318,10 +3985,10 @@
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>356</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -4351,7 +4018,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>356</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -4378,10 +4045,10 @@
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>361</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -4408,10 +4075,10 @@
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>363</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4438,10 +4105,10 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>364</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -4470,10 +4137,10 @@
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>366</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>364</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -4502,10 +4169,10 @@
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -4534,10 +4201,10 @@
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -4566,10 +4233,10 @@
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -4589,10 +4256,10 @@
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>372</v>
+        <v>162</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>373</v>
+        <v>163</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -4612,10 +4279,10 @@
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>374</v>
+        <v>164</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>373</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -4635,10 +4302,10 @@
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>375</v>
+        <v>165</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>376</v>
+        <v>166</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -4658,10 +4325,10 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>377</v>
+        <v>167</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>378</v>
+        <v>168</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -4684,7 +4351,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>378</v>
+        <v>168</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -4704,10 +4371,10 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>373</v>
+        <v>163</v>
       </c>
       <c r="C19" s="1">
         <v>6</v>
@@ -4727,10 +4394,10 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>381</v>
+        <v>171</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -4750,10 +4417,10 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>382</v>
+        <v>172</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>381</v>
+        <v>171</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -4773,10 +4440,10 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>383</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>384</v>
+        <v>174</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -4796,10 +4463,10 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>385</v>
+        <v>175</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -4819,10 +4486,10 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>386</v>
+        <v>176</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -4842,10 +4509,10 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>387</v>
+        <v>177</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>388</v>
+        <v>178</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -4865,10 +4532,10 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -4888,10 +4555,10 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -4911,10 +4578,10 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>392</v>
+        <v>182</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -4934,10 +4601,10 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>394</v>
+        <v>184</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -4957,10 +4624,10 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>395</v>
+        <v>185</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -4980,10 +4647,10 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>396</v>
+        <v>186</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -5003,10 +4670,10 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>397</v>
+        <v>187</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>398</v>
+        <v>188</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -5026,10 +4693,10 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>399</v>
+        <v>189</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>398</v>
+        <v>188</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -5049,10 +4716,10 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>400</v>
+        <v>190</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>398</v>
+        <v>188</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -5072,10 +4739,10 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>401</v>
+        <v>191</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>398</v>
+        <v>188</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -5095,10 +4762,10 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>402</v>
+        <v>192</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>398</v>
+        <v>188</v>
       </c>
       <c r="C36" s="1">
         <v>5</v>
@@ -5118,10 +4785,10 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>403</v>
+        <v>193</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>398</v>
+        <v>188</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -5155,8 +4822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView showRuler="0" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5170,84 +4837,84 @@
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="30">
       <c r="A1" s="15" t="s">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>138</v>
+        <v>312</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>137</v>
+        <v>313</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>135</v>
+        <v>315</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>132</v>
+        <v>318</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>128</v>
+        <v>322</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>405</v>
+        <v>324</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>407</v>
+        <v>326</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>408</v>
+        <v>327</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>409</v>
+        <v>328</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>410</v>
+        <v>329</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>412</v>
+        <v>331</v>
       </c>
       <c r="W1" s="15" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="X1" s="15" t="s">
-        <v>414</v>
+        <v>333</v>
       </c>
       <c r="Y1" s="15" t="s">
-        <v>415</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="75">
       <c r="A2" s="16" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -5271,10 +4938,9 @@
         <v>100</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="J2" s="16">
-        <f>E2/2/2*0.7*G2</f>
         <v>35</v>
       </c>
       <c r="K2" s="16">
@@ -5296,36 +4962,36 @@
         <v>28</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="75">
       <c r="A3" s="16" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="B3" s="16">
         <v>2</v>
@@ -5349,10 +5015,9 @@
         <v>400</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="J3" s="16">
-        <f t="shared" ref="J3:J25" si="0">E3/2/2*0.7*G3</f>
         <v>140</v>
       </c>
       <c r="K3" s="16">
@@ -5374,36 +5039,36 @@
         <v>112</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="75">
       <c r="A4" s="16" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B4" s="16">
         <v>3</v>
@@ -5427,10 +5092,9 @@
         <v>1100</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="J4" s="16">
-        <f t="shared" si="0"/>
         <v>385</v>
       </c>
       <c r="K4" s="16">
@@ -5452,36 +5116,36 @@
         <v>308</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>306</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="75">
       <c r="A5" s="16" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B5" s="16">
         <v>4</v>
@@ -5505,10 +5169,9 @@
         <v>2200</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="J5" s="16">
-        <f t="shared" si="0"/>
         <v>770</v>
       </c>
       <c r="K5" s="16">
@@ -5530,36 +5193,36 @@
         <v>616</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
       <c r="Y5" s="16" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="75">
       <c r="A6" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B6" s="16">
         <v>5</v>
@@ -5583,10 +5246,9 @@
         <v>4000</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="J6" s="16">
-        <f t="shared" si="0"/>
         <v>1400</v>
       </c>
       <c r="K6" s="16">
@@ -5611,33 +5273,33 @@
         <v>207</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="75">
       <c r="A7" s="16" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B7" s="16">
         <v>6</v>
@@ -5661,10 +5323,9 @@
         <v>6400</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="J7" s="16">
-        <f t="shared" si="0"/>
         <v>2240</v>
       </c>
       <c r="K7" s="16">
@@ -5686,36 +5347,36 @@
         <v>1792</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>184</v>
+        <v>342</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>184</v>
+        <v>342</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="Y7" s="16" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="75">
       <c r="A8" s="16" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="B8" s="16">
         <v>7</v>
@@ -5739,10 +5400,9 @@
         <v>9800</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="J8" s="16">
-        <f t="shared" si="0"/>
         <v>6860</v>
       </c>
       <c r="K8" s="16">
@@ -5764,36 +5424,36 @@
         <v>2744</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>325</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="75">
       <c r="A9" s="16" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="B9" s="16">
         <v>8</v>
@@ -5817,11 +5477,10 @@
         <v>14000</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="J9" s="16">
-        <f t="shared" si="0"/>
-        <v>9799.9999999999982</v>
+        <v>9800</v>
       </c>
       <c r="K9" s="16">
         <v>10500</v>
@@ -5842,36 +5501,36 @@
         <v>3920</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>186</v>
+        <v>345</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>243</v>
+        <v>347</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="60">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="75">
       <c r="A10" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B10" s="16">
         <v>9</v>
@@ -5895,10 +5554,9 @@
         <v>19400</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="J10" s="16">
-        <f t="shared" si="0"/>
         <v>13580</v>
       </c>
       <c r="K10" s="16">
@@ -5920,36 +5578,36 @@
         <v>5432</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>187</v>
+        <v>351</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>244</v>
+        <v>351</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>244</v>
+        <v>351</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="75">
       <c r="A11" s="16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B11" s="16">
         <v>10</v>
@@ -5973,11 +5631,10 @@
         <v>25900</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="J11" s="16">
-        <f t="shared" si="0"/>
-        <v>18129.999999999996</v>
+        <v>18130</v>
       </c>
       <c r="K11" s="16">
         <v>13000</v>
@@ -5998,36 +5655,36 @@
         <v>7252</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="75">
       <c r="A12" s="16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B12" s="16">
         <v>11</v>
@@ -6051,10 +5708,9 @@
         <v>33700</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="J12" s="16">
-        <f t="shared" si="0"/>
         <v>23590</v>
       </c>
       <c r="K12" s="16">
@@ -6076,36 +5732,36 @@
         <v>9436</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>189</v>
+        <v>354</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>271</v>
+        <v>358</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="75">
       <c r="A13" s="16" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B13" s="16">
         <v>12</v>
@@ -6129,10 +5785,9 @@
         <v>42800</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="J13" s="16">
-        <f t="shared" si="0"/>
         <v>29960</v>
       </c>
       <c r="K13" s="16">
@@ -6154,36 +5809,36 @@
         <v>11984</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>311</v>
+        <v>240</v>
       </c>
       <c r="W13" s="16" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="Y13" s="16" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="75">
       <c r="A14" s="16" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="B14" s="16">
         <v>13</v>
@@ -6207,11 +5862,10 @@
         <v>53400</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" si="0"/>
-        <v>56069.999999999993</v>
+        <v>56070</v>
       </c>
       <c r="K14" s="16">
         <v>28500</v>
@@ -6232,36 +5886,36 @@
         <v>14952</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="V14" s="16" t="s">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="W14" s="16" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="75">
       <c r="A15" s="16" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B15" s="16">
         <v>14</v>
@@ -6285,10 +5939,9 @@
         <v>65600</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="J15" s="16">
-        <f t="shared" si="0"/>
         <v>68880</v>
       </c>
       <c r="K15" s="16">
@@ -6310,36 +5963,36 @@
         <v>18368</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>192</v>
+        <v>361</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="W15" s="16" t="s">
-        <v>216</v>
+        <v>360</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>274</v>
+        <v>365</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="60">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="75">
       <c r="A16" s="16" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B16" s="16">
         <v>15</v>
@@ -6363,10 +6016,9 @@
         <v>79500</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="J16" s="16">
-        <f t="shared" si="0"/>
         <v>83475</v>
       </c>
       <c r="K16" s="16">
@@ -6388,36 +6040,36 @@
         <v>22260</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>297</v>
+        <v>368</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="W16" s="16" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="75">
       <c r="A17" s="16" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B17" s="16">
         <v>16</v>
@@ -6441,10 +6093,9 @@
         <v>95100</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="J17" s="16">
-        <f t="shared" si="0"/>
         <v>99855</v>
       </c>
       <c r="K17" s="16">
@@ -6466,36 +6117,36 @@
         <v>26628</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="W17" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>332</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="75">
       <c r="A18" s="16" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B18" s="16">
         <v>17</v>
@@ -6519,11 +6170,10 @@
         <v>112600</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="J18" s="16">
-        <f t="shared" si="0"/>
-        <v>118229.99999999999</v>
+        <v>118230</v>
       </c>
       <c r="K18" s="16">
         <v>62500</v>
@@ -6544,36 +6194,36 @@
         <v>31528</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>219</v>
+        <v>369</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>219</v>
+        <v>369</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="V18" s="16" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="W18" s="16" t="s">
-        <v>263</v>
+        <v>369</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>276</v>
+        <v>374</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="75">
       <c r="A19" s="16" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B19" s="16">
         <v>18</v>
@@ -6597,10 +6247,9 @@
         <v>132000</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>172</v>
+        <v>267</v>
       </c>
       <c r="J19" s="16">
-        <f t="shared" si="0"/>
         <v>138600</v>
       </c>
       <c r="K19" s="16">
@@ -6622,36 +6271,36 @@
         <v>36960</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="V19" s="16" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="W19" s="16" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Y19" s="16" t="s">
-        <v>334</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="75">
       <c r="A20" s="16" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="B20" s="16">
         <v>19</v>
@@ -6675,10 +6324,9 @@
         <v>153400</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="J20" s="16">
-        <f t="shared" si="0"/>
         <v>214760</v>
       </c>
       <c r="K20" s="16">
@@ -6700,36 +6348,36 @@
         <v>42952</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="V20" s="16" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="W20" s="16" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="75">
       <c r="A21" s="16" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B21" s="16">
         <v>20</v>
@@ -6753,10 +6401,9 @@
         <v>177000</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>174</v>
+        <v>286</v>
       </c>
       <c r="J21" s="16">
-        <f t="shared" si="0"/>
         <v>247800</v>
       </c>
       <c r="K21" s="16">
@@ -6778,36 +6425,36 @@
         <v>49560</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>222</v>
+        <v>376</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>198</v>
+        <v>377</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>237</v>
+        <v>376</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>255</v>
+        <v>379</v>
       </c>
       <c r="V21" s="16" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
       <c r="W21" s="16" t="s">
-        <v>222</v>
+        <v>376</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="Y21" s="16" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="75">
       <c r="A22" s="16" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B22" s="16">
         <v>21</v>
@@ -6831,10 +6478,9 @@
         <v>202800</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="J22" s="16">
-        <f t="shared" si="0"/>
         <v>283920</v>
       </c>
       <c r="K22" s="16">
@@ -6856,36 +6502,36 @@
         <v>56784</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>199</v>
+        <v>383</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>303</v>
+        <v>384</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>199</v>
+        <v>383</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>199</v>
+        <v>383</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="75">
       <c r="A23" s="16" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B23" s="16">
         <v>22</v>
@@ -6909,11 +6555,10 @@
         <v>230900</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="J23" s="16">
-        <f t="shared" si="0"/>
-        <v>323259.99999999994</v>
+        <v>323260</v>
       </c>
       <c r="K23" s="16">
         <v>135500</v>
@@ -6934,36 +6579,36 @@
         <v>64652</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="75">
       <c r="A24" s="16" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B24" s="16">
         <v>23</v>
@@ -6987,10 +6632,9 @@
         <v>261400</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>177</v>
+        <v>299</v>
       </c>
       <c r="J24" s="16">
-        <f t="shared" si="0"/>
         <v>365960</v>
       </c>
       <c r="K24" s="16">
@@ -7012,36 +6656,36 @@
         <v>73192</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>225</v>
+        <v>385</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>201</v>
+        <v>386</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>304</v>
+        <v>387</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>240</v>
+        <v>385</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>240</v>
+        <v>385</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>281</v>
+        <v>390</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="75">
       <c r="A25" s="16" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B25" s="16">
         <v>24</v>
@@ -7065,10 +6709,9 @@
         <v>294300</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="J25" s="16">
-        <f t="shared" si="0"/>
         <v>412020</v>
       </c>
       <c r="K25" s="16">
@@ -7090,31 +6733,31 @@
         <v>82404</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="S25" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="U25" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="T25" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>258</v>
-      </c>
       <c r="V25" s="16" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -7173,7 +6816,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1">
         <v>24000</v>
@@ -7197,7 +6840,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="E3" s="1">
         <v>24000</v>
@@ -7221,7 +6864,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1">
         <v>24000</v>
@@ -7245,7 +6888,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="E5" s="1">
         <v>24000</v>
@@ -7260,7 +6903,7 @@
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -7269,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="E6" s="1">
         <v>3000</v>
@@ -7293,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1">
         <v>3000</v>
@@ -7308,7 +6951,7 @@
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -7317,7 +6960,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>341</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1">
         <v>3000</v>
@@ -7333,7 +6976,7 @@
     </row>
     <row r="9" spans="1:13" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -7342,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>345</v>
+        <v>135</v>
       </c>
       <c r="E9" s="1">
         <v>3000</v>
@@ -7475,7 +7118,7 @@
     </row>
     <row r="15" spans="1:13" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>346</v>
+        <v>136</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -7484,7 +7127,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
@@ -7501,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="E16" s="1">
         <v>100</v>
@@ -7509,7 +7152,7 @@
     </row>
     <row r="17" spans="1:13" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>348</v>
+        <v>138</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -7518,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="E17" s="1">
         <v>100</v>
@@ -7526,7 +7169,7 @@
     </row>
     <row r="18" spans="1:13" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>349</v>
+        <v>139</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -7535,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="E18" s="1">
         <v>100</v>
@@ -7551,7 +7194,7 @@
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -7560,7 +7203,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
@@ -7568,7 +7211,7 @@
     </row>
     <row r="20" spans="1:13" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>351</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -7577,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>351</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -7629,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1">
         <v>26</v>
@@ -7643,7 +7286,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1">
         <v>47</v>
@@ -7657,7 +7300,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -7671,7 +7314,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -7685,7 +7328,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
@@ -7699,7 +7342,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1">
         <v>14</v>
@@ -7713,7 +7356,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1">
         <v>19</v>
@@ -7727,7 +7370,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1">
         <v>29</v>
@@ -7741,7 +7384,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C10" s="1">
         <v>30</v>
@@ -7755,7 +7398,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1">
         <v>39</v>
@@ -7769,7 +7412,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C12" s="1">
         <v>40</v>
@@ -7783,7 +7426,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1">
         <v>41</v>
@@ -7797,7 +7440,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -7811,7 +7454,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -7825,7 +7468,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1">
         <v>18</v>
@@ -7839,7 +7482,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1">
         <v>19</v>
@@ -7853,7 +7496,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1">
         <v>22</v>
@@ -7867,7 +7510,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1">
         <v>30</v>
@@ -7881,7 +7524,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1">
         <v>31</v>
@@ -7895,7 +7538,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C21" s="1">
         <v>39</v>
@@ -7909,7 +7552,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C22" s="1">
         <v>40</v>
@@ -7923,7 +7566,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
@@ -7937,7 +7580,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C24" s="1">
         <v>6</v>
@@ -7951,7 +7594,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1">
         <v>11</v>
@@ -7965,7 +7608,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1">
         <v>12</v>
@@ -7979,7 +7622,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
@@ -7993,7 +7636,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
@@ -8007,7 +7650,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C29" s="1">
         <v>45</v>
@@ -8021,7 +7664,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1">
         <v>46</v>
@@ -8035,7 +7678,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C31" s="1">
         <v>50</v>
@@ -8049,7 +7692,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -8063,7 +7706,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1">
         <v>11</v>
@@ -8077,7 +7720,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1">
         <v>20</v>
@@ -8091,7 +7734,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1">
         <v>24</v>
@@ -8105,7 +7748,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C36" s="1">
         <v>25</v>
@@ -8119,7 +7762,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="C37" s="1">
         <v>29</v>
@@ -8133,7 +7776,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
@@ -8147,7 +7790,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1">
         <v>47</v>
@@ -8161,7 +7804,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1">
         <v>11</v>
@@ -8175,7 +7818,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1">
         <v>19</v>
@@ -8189,7 +7832,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1">
         <v>21</v>
@@ -8203,7 +7846,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C43" s="1">
         <v>28</v>
@@ -8217,7 +7860,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1">
         <v>29</v>
@@ -8231,7 +7874,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C45" s="1">
         <v>30</v>
@@ -8245,7 +7888,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1">
         <v>35</v>
@@ -8259,7 +7902,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C47" s="1">
         <v>40</v>
@@ -8273,7 +7916,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="C48" s="1">
         <v>4</v>
@@ -8287,7 +7930,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C49" s="1">
         <v>15</v>
@@ -8301,7 +7944,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C50" s="1">
         <v>19</v>
@@ -8315,7 +7958,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C51" s="1">
         <v>29</v>
@@ -8329,7 +7972,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C52" s="1">
         <v>30</v>
@@ -8343,7 +7986,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C53" s="1">
         <v>31</v>
@@ -8357,7 +8000,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C54" s="1">
         <v>35</v>
@@ -8371,7 +8014,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1">
         <v>38</v>
@@ -8385,7 +8028,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C56" s="1">
         <v>39</v>
@@ -8399,7 +8042,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="C57" s="1">
         <v>46</v>
@@ -8413,7 +8056,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1">
         <v>35</v>
@@ -8427,7 +8070,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1">
         <v>36</v>
@@ -8441,7 +8084,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C60" s="1">
         <v>48</v>
@@ -8455,7 +8098,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C61" s="1">
         <v>49</v>
@@ -8469,7 +8112,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C62" s="1">
         <v>12</v>
@@ -8483,7 +8126,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C63" s="1">
         <v>36</v>
@@ -8497,7 +8140,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C64" s="1">
         <v>46</v>
@@ -8511,7 +8154,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C65" s="1">
         <v>47</v>
@@ -8525,7 +8168,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C66" s="1">
         <v>48</v>
@@ -8539,7 +8182,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C67" s="1">
         <v>2</v>
@@ -8553,7 +8196,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C68" s="1">
         <v>5</v>
@@ -8567,7 +8210,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C69" s="1">
         <v>6</v>
@@ -8581,7 +8224,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C70" s="1">
         <v>11</v>
@@ -8595,7 +8238,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C71" s="1">
         <v>12</v>
@@ -8609,7 +8252,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C72" s="1">
         <v>24</v>
@@ -8623,7 +8266,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C73" s="1">
         <v>25</v>
@@ -8637,7 +8280,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -8651,7 +8294,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C75" s="1">
         <v>2</v>
@@ -8665,7 +8308,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C76" s="1">
         <v>3</v>
@@ -8679,7 +8322,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C77" s="1">
         <v>4</v>
@@ -8693,7 +8336,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C78" s="1">
         <v>25</v>
@@ -8707,7 +8350,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C79" s="1">
         <v>26</v>
@@ -8721,7 +8364,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C80" s="1">
         <v>33</v>
@@ -8735,7 +8378,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C81" s="1">
         <v>34</v>
@@ -8749,7 +8392,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C82" s="1">
         <v>36</v>
@@ -8763,7 +8406,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C83" s="1">
         <v>43</v>
@@ -8777,7 +8420,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C84" s="1">
         <v>3</v>
@@ -8791,7 +8434,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C85" s="1">
         <v>5</v>
@@ -8805,7 +8448,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C86" s="1">
         <v>14</v>
@@ -8819,7 +8462,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C87" s="1">
         <v>18</v>
@@ -8833,7 +8476,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C88" s="1">
         <v>19</v>
@@ -8847,7 +8490,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C89" s="1">
         <v>26</v>
@@ -8861,7 +8504,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C90" s="1">
         <v>30</v>
@@ -8875,7 +8518,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C91" s="1">
         <v>34</v>
@@ -8889,7 +8532,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C92" s="1">
         <v>41</v>
@@ -8903,7 +8546,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C93" s="1">
         <v>42</v>
@@ -8931,7 +8574,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C95" s="1">
         <v>14</v>
@@ -8945,7 +8588,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C96" s="1">
         <v>15</v>
@@ -8959,7 +8602,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C97" s="1">
         <v>18</v>
@@ -8973,7 +8616,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C98" s="1">
         <v>19</v>
@@ -8987,7 +8630,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C99" s="1">
         <v>20</v>
@@ -9001,7 +8644,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C100" s="1">
         <v>21</v>
@@ -9015,7 +8658,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C101" s="1">
         <v>29</v>
@@ -9029,7 +8672,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C102" s="1">
         <v>30</v>
@@ -9043,7 +8686,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C103" s="1">
         <v>40</v>
@@ -9057,7 +8700,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C104" s="1">
         <v>41</v>
@@ -9071,7 +8714,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C105" s="1">
         <v>43</v>
@@ -9085,7 +8728,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C106" s="1">
         <v>47</v>
@@ -9099,7 +8742,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C107" s="1">
         <v>48</v>
@@ -9113,7 +8756,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C108" s="1">
         <v>8</v>
@@ -9127,7 +8770,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C109" s="1">
         <v>13</v>
@@ -9141,7 +8784,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C110" s="1">
         <v>19</v>
@@ -9155,7 +8798,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C111" s="1">
         <v>20</v>
@@ -9169,7 +8812,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C112" s="1">
         <v>48</v>
@@ -9183,7 +8826,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C113" s="1">
         <v>3</v>
@@ -9197,7 +8840,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C114" s="1">
         <v>8</v>
@@ -9211,7 +8854,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C115" s="1">
         <v>9</v>
@@ -9225,7 +8868,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C116" s="1">
         <v>31</v>
@@ -9239,7 +8882,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C117" s="1">
         <v>47</v>
@@ -9253,7 +8896,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C118" s="1">
         <v>48</v>
@@ -9267,7 +8910,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C119" s="1">
         <v>49</v>
@@ -9281,7 +8924,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C120" s="1">
         <v>2</v>
@@ -9295,7 +8938,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C121" s="1">
         <v>7</v>
@@ -9309,7 +8952,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C122" s="1">
         <v>25</v>
@@ -9323,7 +8966,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C123" s="1">
         <v>30</v>
@@ -9337,7 +8980,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C124" s="1">
         <v>31</v>
@@ -9351,7 +8994,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C125" s="1">
         <v>32</v>
@@ -9379,7 +9022,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C127" s="1">
         <v>39</v>
@@ -9393,7 +9036,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C128" s="1">
         <v>3</v>
@@ -9407,7 +9050,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C129" s="1">
         <v>14</v>
@@ -9421,7 +9064,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C130" s="1">
         <v>19</v>
@@ -9435,7 +9078,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C131" s="1">
         <v>35</v>
@@ -9449,7 +9092,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C132" s="1">
         <v>36</v>
@@ -9463,7 +9106,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C133" s="1">
         <v>45</v>
@@ -9477,7 +9120,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C134" s="1">
         <v>4</v>
@@ -9491,7 +9134,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C135" s="1">
         <v>13</v>
@@ -9505,7 +9148,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C136" s="1">
         <v>14</v>
@@ -9519,7 +9162,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C137" s="1">
         <v>36</v>
@@ -9533,7 +9176,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C138" s="1">
         <v>44</v>
@@ -9547,7 +9190,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C139" s="1">
         <v>45</v>
@@ -9561,7 +9204,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C140" s="1">
         <v>49</v>
@@ -9575,7 +9218,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C141" s="1">
         <v>3</v>
@@ -9589,7 +9232,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C142" s="1">
         <v>14</v>
@@ -9603,7 +9246,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C143" s="1">
         <v>15</v>
@@ -9617,7 +9260,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C144" s="1">
         <v>19</v>
@@ -9631,7 +9274,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C145" s="1">
         <v>20</v>
@@ -9645,7 +9288,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C146" s="1">
         <v>21</v>
@@ -9659,7 +9302,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C147" s="1">
         <v>30</v>
@@ -9673,7 +9316,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C148" s="1">
         <v>32</v>
@@ -9687,7 +9330,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C149" s="1">
         <v>35</v>
@@ -9701,7 +9344,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C150" s="1">
         <v>45</v>
@@ -9715,7 +9358,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C151" s="1">
         <v>9</v>
@@ -9729,7 +9372,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C152" s="1">
         <v>18</v>
@@ -9743,7 +9386,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C153" s="1">
         <v>29</v>
@@ -9757,7 +9400,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C154" s="1">
         <v>30</v>
@@ -9771,7 +9414,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C155" s="1">
         <v>31</v>
@@ -9785,7 +9428,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C156" s="1">
         <v>33</v>
@@ -9799,7 +9442,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="C157" s="1">
         <v>24</v>
@@ -9813,7 +9456,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C158" s="1">
         <v>30</v>
@@ -9827,7 +9470,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C159" s="1">
         <v>40</v>
@@ -9841,7 +9484,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C160" s="1">
         <v>41</v>
@@ -9855,7 +9498,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C161" s="1">
         <v>1</v>
@@ -9869,7 +9512,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C162" s="1">
         <v>13</v>
@@ -9883,7 +9526,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C163" s="1">
         <v>17</v>
@@ -9897,7 +9540,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C164" s="1">
         <v>18</v>
@@ -9911,7 +9554,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="C165" s="1">
         <v>21</v>
@@ -9925,7 +9568,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C166" s="1">
         <v>22</v>
@@ -9939,7 +9582,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C167" s="1">
         <v>31</v>
@@ -9953,7 +9596,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C168" s="1">
         <v>39</v>
@@ -9967,7 +9610,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C169" s="1">
         <v>40</v>
@@ -9981,7 +9624,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C170" s="1">
         <v>48</v>
@@ -9995,7 +9638,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C171" s="1">
         <v>4</v>
@@ -10009,7 +9652,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C172" s="1">
         <v>7</v>
@@ -10023,7 +9666,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C173" s="1">
         <v>14</v>
@@ -10037,7 +9680,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C174" s="1">
         <v>17</v>
@@ -10051,7 +9694,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C175" s="1">
         <v>21</v>
@@ -10065,7 +9708,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C176" s="1">
         <v>22</v>
@@ -10079,7 +9722,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C177" s="1">
         <v>23</v>
@@ -10107,7 +9750,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C179" s="1">
         <v>36</v>
@@ -10121,7 +9764,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C180" s="1">
         <v>40</v>
@@ -10135,7 +9778,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="C181" s="1">
         <v>47</v>
@@ -10149,7 +9792,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C182" s="1">
         <v>49</v>
@@ -10163,7 +9806,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C183" s="1">
         <v>3</v>
@@ -10177,7 +9820,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C184" s="1">
         <v>4</v>
@@ -10191,7 +9834,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C185" s="1">
         <v>8</v>
@@ -10205,7 +9848,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C186" s="1">
         <v>16</v>
@@ -10219,7 +9862,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C187" s="1">
         <v>21</v>
@@ -10247,7 +9890,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C189" s="1">
         <v>46</v>
@@ -10261,7 +9904,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C190" s="1">
         <v>5</v>
@@ -10275,7 +9918,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C191" s="1">
         <v>7</v>
@@ -10289,7 +9932,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C192" s="1">
         <v>8</v>
@@ -10303,7 +9946,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C193" s="1">
         <v>9</v>
@@ -10317,7 +9960,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="C194" s="1">
         <v>20</v>
@@ -10331,7 +9974,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C195" s="1">
         <v>21</v>
@@ -10345,7 +9988,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C196" s="1">
         <v>34</v>
@@ -10359,7 +10002,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C197" s="1">
         <v>35</v>
@@ -10373,7 +10016,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C198" s="1">
         <v>43</v>
@@ -10387,7 +10030,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C199" s="1">
         <v>45</v>
@@ -10401,7 +10044,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C200" s="1">
         <v>46</v>
@@ -10415,7 +10058,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C201" s="1">
         <v>5</v>
@@ -10429,7 +10072,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C202" s="1">
         <v>18</v>
@@ -10443,7 +10086,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C203" s="1">
         <v>19</v>
@@ -10457,7 +10100,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C204" s="1">
         <v>20</v>
@@ -10485,7 +10128,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C206" s="1">
         <v>31</v>
@@ -10499,7 +10142,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C207" s="1">
         <v>34</v>
@@ -10513,7 +10156,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C208" s="1">
         <v>36</v>
@@ -10527,7 +10170,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C209" s="1">
         <v>37</v>
@@ -10541,7 +10184,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C210" s="1">
         <v>44</v>
@@ -10555,7 +10198,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C211" s="1">
         <v>45</v>
@@ -10569,7 +10212,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C212" s="1">
         <v>47</v>
@@ -10583,7 +10226,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C213" s="1">
         <v>48</v>
@@ -10597,7 +10240,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C214" s="1">
         <v>14</v>
@@ -10611,7 +10254,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C215" s="1">
         <v>18</v>
@@ -10625,7 +10268,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>354</v>
+        <v>144</v>
       </c>
       <c r="C216" s="1">
         <v>26</v>
@@ -10639,7 +10282,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C217" s="1">
         <v>30</v>
@@ -10653,7 +10296,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C218" s="1">
         <v>37</v>
@@ -10667,7 +10310,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C219" s="1">
         <v>38</v>
@@ -10681,7 +10324,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C220" s="1">
         <v>1</v>
@@ -10695,7 +10338,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="C221" s="1">
         <v>8</v>
@@ -10709,7 +10352,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C222" s="1">
         <v>14</v>
@@ -10723,7 +10366,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C223" s="1">
         <v>15</v>
@@ -10751,7 +10394,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C225" s="1">
         <v>9</v>
@@ -10765,7 +10408,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C226" s="1">
         <v>10</v>
@@ -10793,7 +10436,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C228" s="1">
         <v>33</v>
@@ -10807,7 +10450,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C229" s="1">
         <v>43</v>
@@ -10821,7 +10464,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C230" s="1">
         <v>45</v>
@@ -10835,7 +10478,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C231" s="1">
         <v>46</v>
@@ -10849,7 +10492,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C232" s="1">
         <v>18</v>
@@ -10863,7 +10506,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C233" s="1">
         <v>20</v>
@@ -10877,7 +10520,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C234" s="1">
         <v>29</v>
@@ -10891,7 +10534,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C235" s="1">
         <v>32</v>
@@ -10905,7 +10548,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C236" s="1">
         <v>33</v>
@@ -10919,7 +10562,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C237" s="1">
         <v>34</v>
@@ -10933,7 +10576,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C238" s="1">
         <v>46</v>
@@ -10947,7 +10590,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C239" s="1">
         <v>47</v>
@@ -10961,7 +10604,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C240" s="1">
         <v>4</v>
@@ -10975,7 +10618,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C241" s="1">
         <v>6</v>
@@ -10989,7 +10632,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C242" s="1">
         <v>19</v>
@@ -11003,7 +10646,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C243" s="1">
         <v>33</v>
@@ -11017,7 +10660,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C244" s="1">
         <v>40</v>
@@ -11031,7 +10674,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C245" s="1">
         <v>46</v>
@@ -11045,7 +10688,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C246" s="1">
         <v>47</v>
@@ -11059,7 +10702,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C247" s="1">
         <v>5</v>
@@ -11073,7 +10716,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C248" s="1">
         <v>12</v>
@@ -11087,7 +10730,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C249" s="1">
         <v>13</v>
@@ -11101,7 +10744,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C250" s="1">
         <v>18</v>
@@ -11115,7 +10758,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C251" s="1">
         <v>19</v>
@@ -11129,7 +10772,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C252" s="1">
         <v>25</v>
@@ -11143,7 +10786,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C253" s="1">
         <v>29</v>
@@ -11157,7 +10800,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C254" s="1">
         <v>33</v>
@@ -11171,7 +10814,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C255" s="1">
         <v>37</v>
@@ -11185,7 +10828,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C256" s="1">
         <v>39</v>
@@ -11199,7 +10842,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C257" s="1">
         <v>45</v>
@@ -11213,7 +10856,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C258" s="1">
         <v>46</v>
@@ -11227,7 +10870,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C259" s="1">
         <v>5</v>
@@ -11241,7 +10884,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C260" s="1">
         <v>11</v>
@@ -11255,7 +10898,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C261" s="1">
         <v>12</v>
@@ -11269,7 +10912,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C262" s="1">
         <v>25</v>
@@ -11283,7 +10926,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C263" s="1">
         <v>29</v>
@@ -11297,7 +10940,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="C264" s="1">
         <v>32</v>
@@ -11311,7 +10954,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C265" s="1">
         <v>38</v>
@@ -11325,7 +10968,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C266" s="1">
         <v>39</v>
@@ -11339,7 +10982,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C267" s="1">
         <v>45</v>
@@ -11353,7 +10996,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C268" s="1">
         <v>1</v>
@@ -11367,7 +11010,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C269" s="1">
         <v>14</v>
@@ -11381,7 +11024,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C270" s="1">
         <v>24</v>
@@ -11395,7 +11038,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C271" s="1">
         <v>28</v>
@@ -11409,7 +11052,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C272" s="1">
         <v>30</v>
@@ -11423,7 +11066,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C273" s="1">
         <v>31</v>
@@ -11437,7 +11080,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C274" s="1">
         <v>49</v>
@@ -11451,7 +11094,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C275" s="1">
         <v>2</v>
@@ -11465,7 +11108,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C276" s="1">
         <v>30</v>
@@ -11479,7 +11122,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="C277" s="1">
         <v>35</v>
@@ -11493,7 +11136,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C278" s="1">
         <v>41</v>
@@ -11507,7 +11150,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C279" s="1">
         <v>49</v>
@@ -11521,7 +11164,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C280" s="1">
         <v>1</v>
@@ -11535,7 +11178,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C281" s="1">
         <v>2</v>
@@ -11549,7 +11192,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C282" s="1">
         <v>3</v>
@@ -11563,7 +11206,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C283" s="1">
         <v>15</v>
@@ -11577,7 +11220,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C284" s="1">
         <v>20</v>
@@ -11591,7 +11234,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C285" s="1">
         <v>21</v>
@@ -11605,7 +11248,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C286" s="1">
         <v>36</v>
@@ -11619,7 +11262,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C287" s="1">
         <v>2</v>
@@ -11633,7 +11276,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C288" s="1">
         <v>7</v>
@@ -11647,7 +11290,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C289" s="1">
         <v>8</v>
@@ -11675,7 +11318,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C291" s="1">
         <v>19</v>
@@ -11689,7 +11332,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C292" s="1">
         <v>22</v>
@@ -11703,7 +11346,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C293" s="1">
         <v>32</v>
@@ -11717,7 +11360,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C294" s="1">
         <v>37</v>
@@ -11731,7 +11374,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C295" s="1">
         <v>38</v>
@@ -11745,7 +11388,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C296" s="1">
         <v>42</v>
@@ -11759,7 +11402,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C297" s="1">
         <v>48</v>
@@ -11773,7 +11416,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C298" s="1">
         <v>3</v>
@@ -11787,7 +11430,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C299" s="1">
         <v>9</v>
@@ -11801,7 +11444,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C300" s="1">
         <v>21</v>
@@ -11815,7 +11458,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C301" s="1">
         <v>22</v>
@@ -11829,7 +11472,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C302" s="1">
         <v>35</v>
@@ -11843,7 +11486,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C303" s="1">
         <v>36</v>
@@ -11857,7 +11500,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C304" s="1">
         <v>37</v>
@@ -11871,7 +11514,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C305" s="1">
         <v>42</v>
@@ -11885,7 +11528,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C306" s="1">
         <v>43</v>
@@ -11913,7 +11556,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C308" s="1">
         <v>47</v>
@@ -11927,7 +11570,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C309" s="1">
         <v>48</v>
@@ -11941,7 +11584,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C310" s="1">
         <v>3</v>
@@ -11955,7 +11598,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C311" s="1">
         <v>28</v>
@@ -11969,7 +11612,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C312" s="1">
         <v>29</v>
@@ -11983,7 +11626,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C313" s="1">
         <v>46</v>
@@ -11997,7 +11640,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C314" s="1">
         <v>47</v>
@@ -12011,7 +11654,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C315" s="1">
         <v>3</v>
@@ -12025,7 +11668,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C316" s="1">
         <v>4</v>
@@ -12039,7 +11682,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C317" s="1">
         <v>29</v>
@@ -12053,7 +11696,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C318" s="1">
         <v>30</v>
@@ -12067,7 +11710,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C319" s="1">
         <v>32</v>
@@ -12081,7 +11724,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C320" s="1">
         <v>1</v>
@@ -12095,7 +11738,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C321" s="1">
         <v>16</v>
@@ -12109,7 +11752,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C322" s="1">
         <v>17</v>
@@ -12123,7 +11766,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C323" s="1">
         <v>28</v>
@@ -12137,7 +11780,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C324" s="1">
         <v>30</v>
@@ -12151,7 +11794,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C325" s="1">
         <v>31</v>
@@ -12165,7 +11808,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C326" s="1">
         <v>3</v>
@@ -12179,7 +11822,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C327" s="1">
         <v>10</v>
@@ -12193,7 +11836,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C328" s="1">
         <v>17</v>
@@ -12207,7 +11850,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C329" s="1">
         <v>21</v>
@@ -12221,7 +11864,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C330" s="1">
         <v>37</v>
@@ -12235,7 +11878,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C331" s="1">
         <v>9</v>
@@ -12249,7 +11892,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C332" s="1">
         <v>12</v>
@@ -12263,7 +11906,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C333" s="1">
         <v>20</v>
@@ -12277,7 +11920,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C334" s="1">
         <v>35</v>
@@ -12291,7 +11934,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C335" s="1">
         <v>36</v>
@@ -12305,7 +11948,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C336" s="1">
         <v>38</v>
@@ -12319,7 +11962,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C337" s="1">
         <v>39</v>
@@ -12333,7 +11976,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C338" s="1">
         <v>44</v>
@@ -12347,7 +11990,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C339" s="1">
         <v>45</v>
@@ -12361,7 +12004,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C340" s="1">
         <v>49</v>
@@ -12375,7 +12018,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="C341" s="1">
         <v>8</v>
@@ -12389,7 +12032,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C342" s="1">
         <v>9</v>
@@ -12403,7 +12046,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C343" s="1">
         <v>25</v>
@@ -12417,7 +12060,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C344" s="1">
         <v>26</v>
@@ -12431,7 +12074,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C345" s="1">
         <v>36</v>
@@ -12445,7 +12088,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C346" s="1">
         <v>43</v>
@@ -12459,7 +12102,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C347" s="1">
         <v>44</v>
@@ -12473,7 +12116,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C348" s="1">
         <v>1</v>
@@ -12487,7 +12130,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C349" s="1">
         <v>8</v>
@@ -12501,7 +12144,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C350" s="1">
         <v>9</v>
@@ -12515,7 +12158,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C351" s="1">
         <v>24</v>
@@ -12529,7 +12172,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C352" s="1">
         <v>25</v>
@@ -12543,7 +12186,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="C353" s="1">
         <v>29</v>
@@ -12557,7 +12200,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C354" s="1">
         <v>31</v>
@@ -12571,7 +12214,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C355" s="1">
         <v>32</v>
@@ -12585,7 +12228,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C356" s="1">
         <v>44</v>
@@ -12599,7 +12242,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C357" s="1">
         <v>13</v>
@@ -12613,7 +12256,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C358" s="1">
         <v>14</v>
@@ -12627,7 +12270,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C359" s="1">
         <v>19</v>
@@ -12641,7 +12284,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C360" s="1">
         <v>20</v>
@@ -12655,7 +12298,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C361" s="1">
         <v>25</v>
@@ -12669,7 +12312,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C362" s="1">
         <v>27</v>
@@ -12683,7 +12326,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C363" s="1">
         <v>32</v>
@@ -12697,7 +12340,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C364" s="1">
         <v>0</v>
@@ -12711,7 +12354,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C365" s="1">
         <v>3</v>
@@ -12725,7 +12368,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C366" s="1">
         <v>6</v>
@@ -12739,7 +12382,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C367" s="1">
         <v>14</v>
@@ -12753,7 +12396,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C368" s="1">
         <v>19</v>
@@ -12767,7 +12410,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C369" s="1">
         <v>27</v>
@@ -12781,7 +12424,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C370" s="1">
         <v>28</v>
@@ -12795,7 +12438,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C371" s="1">
         <v>32</v>
@@ -12809,7 +12452,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C372" s="1">
         <v>41</v>
@@ -12823,7 +12466,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C373" s="1">
         <v>42</v>
@@ -12837,7 +12480,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C374" s="1">
         <v>2</v>
@@ -12851,7 +12494,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C375" s="1">
         <v>3</v>
@@ -12865,7 +12508,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C376" s="1">
         <v>4</v>
@@ -12879,7 +12522,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C377" s="1">
         <v>5</v>
@@ -12893,7 +12536,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C378" s="1">
         <v>18</v>
@@ -12907,7 +12550,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C379" s="1">
         <v>19</v>
@@ -12921,7 +12564,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C380" s="1">
         <v>40</v>
@@ -12935,7 +12578,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C381" s="1">
         <v>41</v>
@@ -12949,7 +12592,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C382" s="1">
         <v>42</v>
@@ -12963,7 +12606,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C383" s="1">
         <v>4</v>
@@ -12977,7 +12620,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C384" s="1">
         <v>11</v>
@@ -12991,7 +12634,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C385" s="1">
         <v>12</v>
@@ -13005,7 +12648,7 @@
         <v>384</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C386" s="1">
         <v>18</v>
@@ -13019,7 +12662,7 @@
         <v>385</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C387" s="1">
         <v>32</v>
@@ -13033,7 +12676,7 @@
         <v>386</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C388" s="1">
         <v>35</v>
@@ -13047,7 +12690,7 @@
         <v>387</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C389" s="1">
         <v>39</v>
@@ -13061,7 +12704,7 @@
         <v>388</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C390" s="1">
         <v>40</v>
@@ -13075,7 +12718,7 @@
         <v>389</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C391" s="1">
         <v>43</v>
@@ -13089,7 +12732,7 @@
         <v>390</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="C392" s="1">
         <v>48</v>
@@ -13103,7 +12746,7 @@
         <v>391</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>344</v>
+        <v>134</v>
       </c>
       <c r="C393" s="1">
         <v>49</v>
@@ -13117,7 +12760,7 @@
         <v>392</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C394" s="1">
         <v>2</v>
@@ -13131,7 +12774,7 @@
         <v>393</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C395" s="1">
         <v>9</v>
@@ -13145,7 +12788,7 @@
         <v>394</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C396" s="1">
         <v>11</v>
@@ -13159,7 +12802,7 @@
         <v>395</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C397" s="1">
         <v>12</v>
@@ -13173,7 +12816,7 @@
         <v>396</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C398" s="1">
         <v>16</v>
@@ -13187,7 +12830,7 @@
         <v>397</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C399" s="1">
         <v>17</v>
@@ -13201,7 +12844,7 @@
         <v>398</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C400" s="1">
         <v>24</v>
@@ -13215,7 +12858,7 @@
         <v>399</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C401" s="1">
         <v>25</v>
@@ -13229,7 +12872,7 @@
         <v>400</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C402" s="1">
         <v>34</v>
@@ -13243,7 +12886,7 @@
         <v>401</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C403" s="1">
         <v>46</v>
@@ -13257,7 +12900,7 @@
         <v>402</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C404" s="1">
         <v>47</v>
@@ -13271,7 +12914,7 @@
         <v>403</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="C405" s="1">
         <v>48</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="1280" windowWidth="29380" windowHeight="18360" tabRatio="591"/>
+    <workbookView xWindow="4980" yWindow="1520" windowWidth="25600" windowHeight="16060" tabRatio="591"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="399">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1382,6 +1382,34 @@
   </si>
   <si>
     <t>dragonMaterials:runes_4:5,dragonMaterials:blueCrystal_4:5,allianceInfo:loyalty:292000</t>
+  </si>
+  <si>
+    <t>stoneVillageRefreshMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ironVillageRefreshMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodVillageRefreshMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落采空后多少分钟后刷新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinVillageRefreshMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightWillFinishedMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断联盟战即将结束的时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1570,7 +1598,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="489">
+  <cellStyleXfs count="503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2052,6 +2080,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2131,7 +2173,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="489">
+  <cellStyles count="503">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2378,6 +2420,13 @@
     <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2617,6 +2666,13 @@
     <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3067,10 +3123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3289,6 +3345,72 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B20" s="8">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" s="8">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22" s="8">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" s="8">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B24" s="8">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1520" windowWidth="25600" windowHeight="16060" tabRatio="591"/>
+    <workbookView xWindow="720" yWindow="220" windowWidth="25600" windowHeight="16060" tabRatio="591" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="503">
+  <cellStyleXfs count="505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2080,6 +2080,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2173,7 +2175,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="503">
+  <cellStyles count="505">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2427,6 +2429,7 @@
     <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2673,6 +2676,7 @@
     <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3125,7 +3129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3469,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3643,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>49</v>
@@ -3711,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>49</v>
@@ -3779,7 +3783,7 @@
         <v>49</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>49</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="220" windowWidth="25600" windowHeight="16060" tabRatio="591" activeTab="2"/>
+    <workbookView xWindow="5260" yWindow="2680" windowWidth="25600" windowHeight="16060" tabRatio="591"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -3129,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3202,7 +3202,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="8">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>92</v>
@@ -3473,7 +3473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="2680" windowWidth="25600" windowHeight="16060" tabRatio="591"/>
+    <workbookView xWindow="6440" yWindow="2500" windowWidth="25600" windowHeight="16060" tabRatio="591"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="505">
+  <cellStyleXfs count="509">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2080,6 +2080,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2175,7 +2179,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="505">
+  <cellStyles count="509">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2430,6 +2434,8 @@
     <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2677,6 +2683,8 @@
     <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3129,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2500" windowWidth="25600" windowHeight="16060" tabRatio="591"/>
+    <workbookView xWindow="4160" yWindow="2500" windowWidth="25600" windowHeight="16060" tabRatio="591"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -3138,7 +3138,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3232,7 +3232,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>96</v>
@@ -3309,7 +3309,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>82</v>
@@ -3320,7 +3320,7 @@
         <v>101</v>
       </c>
       <c r="B16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>102</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2500" windowWidth="25600" windowHeight="16060" tabRatio="591"/>
+    <workbookView xWindow="6040" yWindow="2420" windowWidth="25600" windowHeight="16060" tabRatio="591"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -14,29 +14,34 @@
     <sheet name="shrineStage" sheetId="12" r:id="rId5"/>
     <sheet name="buildingName" sheetId="6" r:id="rId6"/>
     <sheet name="buildings" sheetId="11" r:id="rId7"/>
+    <sheet name="fightRewards" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="406">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1410,6 +1415,28 @@
   <si>
     <t>判断联盟战即将结束的时间</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_gem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>platinum</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>master</t>
   </si>
 </sst>
 </file>
@@ -3138,7 +3165,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13067,4 +13094,107 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="1">
+        <v>32000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B6" s="1">
+        <v>70000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="1">
+        <v>120000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="2420" windowWidth="25600" windowHeight="16060" tabRatio="591"/>
+    <workbookView xWindow="2540" yWindow="1240" windowWidth="32700" windowHeight="17740" tabRatio="591" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="407">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1437,6 +1437,10 @@
   </si>
   <si>
     <t>master</t>
+  </si>
+  <si>
+    <t>BOOL_getJoinRequestEvents</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1625,7 +1629,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="509">
+  <cellStyleXfs count="511">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2107,6 +2111,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2206,7 +2212,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="509">
+  <cellStyles count="511">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2463,6 +2469,7 @@
     <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2712,6 +2719,7 @@
     <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3164,7 +3172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3506,24 +3514,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="20.6640625" style="1"/>
     <col min="3" max="5" width="20.6640625" style="6"/>
-    <col min="6" max="13" width="20.6640625" style="1"/>
-    <col min="14" max="14" width="20.6640625" style="6"/>
-    <col min="15" max="21" width="20.6640625" style="1"/>
-    <col min="22" max="22" width="20.6640625" style="6"/>
-    <col min="23" max="16384" width="20.6640625" style="1"/>
+    <col min="6" max="14" width="20.6640625" style="1"/>
+    <col min="15" max="15" width="20.6640625" style="6"/>
+    <col min="16" max="22" width="20.6640625" style="1"/>
+    <col min="23" max="23" width="20.6640625" style="6"/>
+    <col min="24" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3555,43 +3563,46 @@
         <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="20" customHeight="1">
+    <row r="2" spans="1:23" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3656,10 +3667,13 @@
         <v>0</v>
       </c>
       <c r="V2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="20" customHeight="1">
+    <row r="3" spans="1:23" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3694,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>49</v>
@@ -3703,10 +3717,10 @@
         <v>49</v>
       </c>
       <c r="O3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>49</v>
@@ -3721,13 +3735,16 @@
         <v>49</v>
       </c>
       <c r="U3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="20" customHeight="1">
+    <row r="4" spans="1:23" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3762,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>49</v>
@@ -3771,16 +3788,16 @@
         <v>49</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>1</v>
@@ -3789,13 +3806,16 @@
         <v>1</v>
       </c>
       <c r="U4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="20" customHeight="1">
+    <row r="5" spans="1:23" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3830,19 +3850,19 @@
         <v>0</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>1</v>
@@ -3859,11 +3879,14 @@
       <c r="U5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="20" customHeight="1">
+    <row r="6" spans="1:23" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3927,11 +3950,14 @@
       <c r="U6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="20" customHeight="1">
+    <row r="7" spans="1:23" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3995,12 +4021,15 @@
       <c r="U7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="20" customHeight="1">
-      <c r="N8" s="7"/>
+    <row r="8" spans="1:23" ht="20" customHeight="1">
+      <c r="O8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="2320" windowWidth="25600" windowHeight="16060" tabRatio="566"/>
+    <workbookView xWindow="3200" yWindow="1420" windowWidth="25600" windowHeight="16060" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="473">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -3522,7 +3522,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3594,7 +3594,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>92</v>
@@ -3616,7 +3616,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>96</v>
@@ -3649,7 +3649,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>77</v>
@@ -3660,7 +3660,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>79</v>
@@ -7748,10 +7748,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7780,13 +7780,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -7797,10 +7797,10 @@
         <v>134</v>
       </c>
       <c r="C3" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -7808,13 +7808,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -7822,13 +7822,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -7836,13 +7836,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -7850,13 +7850,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -7864,13 +7864,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -7881,10 +7881,10 @@
         <v>133</v>
       </c>
       <c r="C9" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -7892,13 +7892,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -7906,13 +7906,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -7920,13 +7920,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -7934,13 +7934,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -7948,13 +7948,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -7962,13 +7962,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -7976,13 +7976,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -7990,13 +7990,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -8007,10 +8007,10 @@
         <v>133</v>
       </c>
       <c r="C18" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -8018,13 +8018,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C19" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -8035,10 +8035,10 @@
         <v>134</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -8049,10 +8049,10 @@
         <v>111</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -8060,13 +8060,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
         <v>4</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -8077,10 +8077,10 @@
         <v>133</v>
       </c>
       <c r="C23" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -8091,10 +8091,10 @@
         <v>111</v>
       </c>
       <c r="C24" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -8102,10 +8102,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -8116,13 +8116,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C26" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -8130,10 +8130,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1">
         <v>5</v>
@@ -8144,10 +8144,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
@@ -8161,7 +8161,7 @@
         <v>111</v>
       </c>
       <c r="C29" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D29" s="1">
         <v>5</v>
@@ -8172,13 +8172,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -8186,13 +8186,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -8200,13 +8200,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -8214,13 +8214,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -8228,13 +8228,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C34" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -8242,13 +8242,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C35" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -8256,13 +8256,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -8270,13 +8270,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -8284,13 +8284,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -8298,13 +8298,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -8312,13 +8312,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -8326,13 +8326,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
@@ -8343,10 +8343,10 @@
         <v>111</v>
       </c>
       <c r="C42" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
@@ -8354,13 +8354,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C43" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D43" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
@@ -8368,13 +8368,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
@@ -8385,10 +8385,10 @@
         <v>110</v>
       </c>
       <c r="C45" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
@@ -8396,13 +8396,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
@@ -8410,13 +8410,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D47" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
@@ -8424,13 +8424,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D48" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
@@ -8438,13 +8438,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C49" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20" customHeight="1">
@@ -8452,13 +8452,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="C50" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20" customHeight="1">
@@ -8466,13 +8466,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20" customHeight="1">
@@ -8480,13 +8480,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="C52" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20" customHeight="1">
@@ -8494,13 +8494,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D53" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20" customHeight="1">
@@ -8511,10 +8511,10 @@
         <v>111</v>
       </c>
       <c r="C54" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D54" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20" customHeight="1">
@@ -8522,13 +8522,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20" customHeight="1">
@@ -8539,10 +8539,10 @@
         <v>111</v>
       </c>
       <c r="C56" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D56" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20" customHeight="1">
@@ -8553,10 +8553,10 @@
         <v>133</v>
       </c>
       <c r="C57" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D57" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20" customHeight="1">
@@ -8564,13 +8564,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C58" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D58" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20" customHeight="1">
@@ -8578,13 +8578,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C59" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20" customHeight="1">
@@ -8592,13 +8592,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="C60" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D60" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20" customHeight="1">
@@ -8606,13 +8606,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C61" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20" customHeight="1">
@@ -8620,13 +8620,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D62" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20" customHeight="1">
@@ -8634,13 +8634,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C63" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D63" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20" customHeight="1">
@@ -8648,13 +8648,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C64" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D64" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20" customHeight="1">
@@ -8662,13 +8662,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C65" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20" customHeight="1">
@@ -8676,13 +8676,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="C66" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D66" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20" customHeight="1">
@@ -8693,10 +8693,10 @@
         <v>65</v>
       </c>
       <c r="C67" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20" customHeight="1">
@@ -8704,13 +8704,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="C68" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D68" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20" customHeight="1">
@@ -8718,13 +8718,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C69" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D69" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20" customHeight="1">
@@ -8735,10 +8735,10 @@
         <v>134</v>
       </c>
       <c r="C70" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D70" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20" customHeight="1">
@@ -8746,13 +8746,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C71" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D71" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20" customHeight="1">
@@ -8760,13 +8760,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D72" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20" customHeight="1">
@@ -8774,10 +8774,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C73" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D73" s="1">
         <v>15</v>
@@ -8791,10 +8791,10 @@
         <v>134</v>
       </c>
       <c r="C74" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20" customHeight="1">
@@ -8802,13 +8802,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C75" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D75" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20" customHeight="1">
@@ -8819,10 +8819,10 @@
         <v>134</v>
       </c>
       <c r="C76" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20" customHeight="1">
@@ -8830,13 +8830,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20" customHeight="1">
@@ -8844,13 +8844,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C78" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D78" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20" customHeight="1">
@@ -8861,10 +8861,10 @@
         <v>134</v>
       </c>
       <c r="C79" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D79" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20" customHeight="1">
@@ -8872,13 +8872,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C80" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20" customHeight="1">
@@ -8886,13 +8886,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C81" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D81" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20" customHeight="1">
@@ -8900,13 +8900,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C82" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20" customHeight="1">
@@ -8914,13 +8914,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C83" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D83" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20" customHeight="1">
@@ -8928,13 +8928,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C84" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D84" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20" customHeight="1">
@@ -8942,13 +8942,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C85" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D85" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20" customHeight="1">
@@ -8956,13 +8956,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C86" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D86" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20" customHeight="1">
@@ -8970,13 +8970,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20" customHeight="1">
@@ -8990,7 +8990,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20" customHeight="1">
@@ -8998,13 +8998,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C89" s="1">
         <v>4</v>
       </c>
       <c r="D89" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20" customHeight="1">
@@ -9018,7 +9018,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20" customHeight="1">
@@ -9026,13 +9026,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D91" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20" customHeight="1">
@@ -9043,10 +9043,10 @@
         <v>133</v>
       </c>
       <c r="C92" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20" customHeight="1">
@@ -9057,10 +9057,10 @@
         <v>133</v>
       </c>
       <c r="C93" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D93" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20" customHeight="1">
@@ -9068,13 +9068,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C94" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D94" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20" customHeight="1">
@@ -9082,13 +9082,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C95" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D95" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20" customHeight="1">
@@ -9096,13 +9096,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C96" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20" customHeight="1">
@@ -9113,10 +9113,10 @@
         <v>134</v>
       </c>
       <c r="C97" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20" customHeight="1">
@@ -9124,13 +9124,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D98" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20" customHeight="1">
@@ -9138,13 +9138,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D99" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="20" customHeight="1">
@@ -9155,10 +9155,10 @@
         <v>134</v>
       </c>
       <c r="C100" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D100" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="20" customHeight="1">
@@ -9166,13 +9166,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C101" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D101" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="20" customHeight="1">
@@ -9183,10 +9183,10 @@
         <v>110</v>
       </c>
       <c r="C102" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="20" customHeight="1">
@@ -9194,13 +9194,125 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="1">
+        <v>12</v>
+      </c>
+      <c r="D103" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="20" customHeight="1">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="1">
+        <v>13</v>
+      </c>
+      <c r="D104" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="20" customHeight="1">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C105" s="1">
+        <v>19</v>
+      </c>
+      <c r="D105" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="20" customHeight="1">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="1">
+        <v>22</v>
+      </c>
+      <c r="D106" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="20" customHeight="1">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="1">
+        <v>6</v>
+      </c>
+      <c r="D107" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="20" customHeight="1">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="1">
+        <v>14</v>
+      </c>
+      <c r="D108" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="20" customHeight="1">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="1">
         <v>20</v>
       </c>
-      <c r="D103" s="1">
-        <v>20</v>
+      <c r="D109" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="20" customHeight="1">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="1">
+        <v>21</v>
+      </c>
+      <c r="D110" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="20" customHeight="1">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="1">
+        <v>23</v>
+      </c>
+      <c r="D111" s="1">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="1420" windowWidth="25600" windowHeight="16060" tabRatio="566"/>
+    <workbookView xWindow="360" yWindow="520" windowWidth="36540" windowHeight="18220" tabRatio="566" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1845,7 +1845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="579">
+  <cellStyleXfs count="587">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2327,6 +2327,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2493,7 +2501,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="579">
+  <cellStyles count="587">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2785,6 +2793,10 @@
     <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3069,6 +3081,10 @@
     <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="576" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3521,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5306,8 +5322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U29"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5419,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="16">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="F2" s="16">
         <v>50</v>
@@ -5428,13 +5444,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="17">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>240</v>
       </c>
       <c r="J2" s="16">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K2" s="16">
         <v>500</v>
@@ -5449,10 +5465,10 @@
         <v>40</v>
       </c>
       <c r="O2" s="16">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="P2" s="16">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>264</v>
@@ -5496,7 +5512,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="16">
-        <v>5067</v>
+        <v>2533</v>
       </c>
       <c r="F3" s="16">
         <v>50</v>
@@ -5505,13 +5521,13 @@
         <v>6</v>
       </c>
       <c r="H3" s="17">
-        <v>2111</v>
+        <v>844</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>241</v>
       </c>
       <c r="J3" s="16">
-        <v>528</v>
+        <v>130</v>
       </c>
       <c r="K3" s="16">
         <v>1000</v>
@@ -5523,13 +5539,13 @@
         <v>2000</v>
       </c>
       <c r="N3" s="16">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="O3" s="16">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="P3" s="16">
-        <v>590</v>
+        <v>330</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>265</v>
@@ -5573,7 +5589,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="16">
-        <v>13408</v>
+        <v>6704</v>
       </c>
       <c r="F4" s="16">
         <v>50</v>
@@ -5582,13 +5598,13 @@
         <v>6</v>
       </c>
       <c r="H4" s="17">
-        <v>5587</v>
+        <v>2235</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>242</v>
       </c>
       <c r="J4" s="16">
-        <v>1344</v>
+        <v>340</v>
       </c>
       <c r="K4" s="16">
         <v>1500</v>
@@ -5600,13 +5616,13 @@
         <v>3000</v>
       </c>
       <c r="N4" s="16">
-        <v>670</v>
+        <v>550</v>
       </c>
       <c r="O4" s="16">
-        <v>1110</v>
+        <v>720</v>
       </c>
       <c r="P4" s="16">
-        <v>1560</v>
+        <v>890</v>
       </c>
       <c r="Q4" s="16" t="s">
         <v>266</v>
@@ -5650,7 +5666,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="16">
-        <v>26743</v>
+        <v>13372</v>
       </c>
       <c r="F5" s="16">
         <v>50</v>
@@ -5659,13 +5675,13 @@
         <v>6</v>
       </c>
       <c r="H5" s="17">
-        <v>11143</v>
+        <v>4457</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>243</v>
       </c>
       <c r="J5" s="16">
-        <v>2688</v>
+        <v>670</v>
       </c>
       <c r="K5" s="16">
         <v>2000</v>
@@ -5677,13 +5693,13 @@
         <v>4000</v>
       </c>
       <c r="N5" s="16">
-        <v>1330</v>
+        <v>1110</v>
       </c>
       <c r="O5" s="16">
-        <v>2220</v>
+        <v>1440</v>
       </c>
       <c r="P5" s="16">
-        <v>3120</v>
+        <v>1780</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>267</v>
@@ -5727,7 +5743,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="16">
-        <v>45688</v>
+        <v>22844</v>
       </c>
       <c r="F6" s="16">
         <v>50</v>
@@ -5736,13 +5752,13 @@
         <v>6</v>
       </c>
       <c r="H6" s="17">
-        <v>19037</v>
+        <v>7615</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>244</v>
       </c>
       <c r="J6" s="16">
-        <v>4608</v>
+        <v>1150</v>
       </c>
       <c r="K6" s="16">
         <v>2500</v>
@@ -5754,13 +5770,13 @@
         <v>5000</v>
       </c>
       <c r="N6" s="16">
-        <v>2280</v>
+        <v>1900</v>
       </c>
       <c r="O6" s="16">
-        <v>3800</v>
+        <v>2470</v>
       </c>
       <c r="P6" s="16">
-        <v>5330</v>
+        <v>3040</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>268</v>
@@ -5804,7 +5820,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="16">
-        <v>70768</v>
+        <v>35384</v>
       </c>
       <c r="F7" s="16">
         <v>50</v>
@@ -5813,13 +5829,13 @@
         <v>6</v>
       </c>
       <c r="H7" s="17">
-        <v>29486</v>
+        <v>11795</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>245</v>
       </c>
       <c r="J7" s="16">
-        <v>7104</v>
+        <v>1770</v>
       </c>
       <c r="K7" s="16">
         <v>3000</v>
@@ -5831,13 +5847,13 @@
         <v>6000</v>
       </c>
       <c r="N7" s="16">
-        <v>3530</v>
+        <v>2940</v>
       </c>
       <c r="O7" s="16">
-        <v>5890</v>
+        <v>3830</v>
       </c>
       <c r="P7" s="16">
-        <v>8250</v>
+        <v>4710</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>269</v>
@@ -5881,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="16">
-        <v>136598</v>
+        <v>68299</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -5890,13 +5906,13 @@
         <v>8</v>
       </c>
       <c r="H8" s="17">
-        <v>42687</v>
+        <v>17075</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>246</v>
       </c>
       <c r="J8" s="16">
-        <v>13696</v>
+        <v>2570</v>
       </c>
       <c r="K8" s="16">
         <v>3500</v>
@@ -5908,13 +5924,13 @@
         <v>7000</v>
       </c>
       <c r="N8" s="16">
-        <v>5120</v>
+        <v>4260</v>
       </c>
       <c r="O8" s="16">
-        <v>8530</v>
+        <v>5540</v>
       </c>
       <c r="P8" s="16">
-        <v>11950</v>
+        <v>6820</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>270</v>
@@ -5958,7 +5974,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="16">
-        <v>188203</v>
+        <v>94101</v>
       </c>
       <c r="F9" s="16">
         <v>100</v>
@@ -5967,13 +5983,13 @@
         <v>8</v>
       </c>
       <c r="H9" s="17">
-        <v>58813</v>
+        <v>23525</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>247</v>
       </c>
       <c r="J9" s="16">
-        <v>18880</v>
+        <v>3530</v>
       </c>
       <c r="K9" s="16">
         <v>4000</v>
@@ -5985,13 +6001,13 @@
         <v>8000</v>
       </c>
       <c r="N9" s="16">
-        <v>7050</v>
+        <v>5880</v>
       </c>
       <c r="O9" s="16">
-        <v>11760</v>
+        <v>7640</v>
       </c>
       <c r="P9" s="16">
-        <v>16460</v>
+        <v>9410</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>271</v>
@@ -6035,7 +6051,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="16">
-        <v>249685</v>
+        <v>124842</v>
       </c>
       <c r="F10" s="16">
         <v>100</v>
@@ -6044,13 +6060,13 @@
         <v>8</v>
       </c>
       <c r="H10" s="17">
-        <v>78026</v>
+        <v>31211</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>248</v>
       </c>
       <c r="J10" s="16">
-        <v>25024</v>
+        <v>4690</v>
       </c>
       <c r="K10" s="16">
         <v>5000</v>
@@ -6062,13 +6078,13 @@
         <v>10000</v>
       </c>
       <c r="N10" s="16">
-        <v>9360</v>
+        <v>7800</v>
       </c>
       <c r="O10" s="16">
-        <v>15600</v>
+        <v>10140</v>
       </c>
       <c r="P10" s="16">
-        <v>21840</v>
+        <v>12480</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>272</v>
@@ -6112,7 +6128,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="16">
-        <v>321521</v>
+        <v>160761</v>
       </c>
       <c r="F11" s="16">
         <v>100</v>
@@ -6121,13 +6137,13 @@
         <v>8</v>
       </c>
       <c r="H11" s="17">
-        <v>100475</v>
+        <v>40190</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>249</v>
       </c>
       <c r="J11" s="16">
-        <v>32192</v>
+        <v>6030</v>
       </c>
       <c r="K11" s="16">
         <v>6000</v>
@@ -6139,13 +6155,13 @@
         <v>12000</v>
       </c>
       <c r="N11" s="16">
-        <v>12050</v>
+        <v>10040</v>
       </c>
       <c r="O11" s="16">
-        <v>20090</v>
+        <v>13060</v>
       </c>
       <c r="P11" s="16">
-        <v>28130</v>
+        <v>16070</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>196</v>
@@ -6189,7 +6205,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="16">
-        <v>404159</v>
+        <v>202080</v>
       </c>
       <c r="F12" s="16">
         <v>100</v>
@@ -6198,13 +6214,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="17">
-        <v>126300</v>
+        <v>50520</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>250</v>
       </c>
       <c r="J12" s="16">
-        <v>40448</v>
+        <v>7580</v>
       </c>
       <c r="K12" s="16">
         <v>8000</v>
@@ -6216,13 +6232,13 @@
         <v>16000</v>
       </c>
       <c r="N12" s="16">
-        <v>15150</v>
+        <v>12620</v>
       </c>
       <c r="O12" s="16">
-        <v>25250</v>
+        <v>16410</v>
       </c>
       <c r="P12" s="16">
-        <v>35360</v>
+        <v>20200</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>273</v>
@@ -6266,7 +6282,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="16">
-        <v>498018</v>
+        <v>249009</v>
       </c>
       <c r="F13" s="16">
         <v>100</v>
@@ -6275,13 +6291,13 @@
         <v>8</v>
       </c>
       <c r="H13" s="17">
-        <v>155631</v>
+        <v>62252</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>251</v>
       </c>
       <c r="J13" s="16">
-        <v>49856</v>
+        <v>9340</v>
       </c>
       <c r="K13" s="16">
         <v>10500</v>
@@ -6293,13 +6309,13 @@
         <v>21000</v>
       </c>
       <c r="N13" s="16">
-        <v>18670</v>
+        <v>15560</v>
       </c>
       <c r="O13" s="16">
-        <v>31120</v>
+        <v>20230</v>
       </c>
       <c r="P13" s="16">
-        <v>43570</v>
+        <v>24900</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>274</v>
@@ -6343,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="16">
-        <v>754369</v>
+        <v>377185</v>
       </c>
       <c r="F14" s="16">
         <v>150</v>
@@ -6352,13 +6368,13 @@
         <v>10</v>
       </c>
       <c r="H14" s="17">
-        <v>188592</v>
+        <v>75437</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>252</v>
       </c>
       <c r="J14" s="16">
-        <v>75440</v>
+        <v>11320</v>
       </c>
       <c r="K14" s="16">
         <v>15000</v>
@@ -6370,13 +6386,13 @@
         <v>30000</v>
       </c>
       <c r="N14" s="16">
-        <v>22630</v>
+        <v>18850</v>
       </c>
       <c r="O14" s="16">
-        <v>37710</v>
+        <v>24510</v>
       </c>
       <c r="P14" s="16">
-        <v>52800</v>
+        <v>30170</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>275</v>
@@ -6420,7 +6436,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="16">
-        <v>901213</v>
+        <v>450606</v>
       </c>
       <c r="F15" s="16">
         <v>150</v>
@@ -6429,13 +6445,13 @@
         <v>10</v>
       </c>
       <c r="H15" s="17">
-        <v>225303</v>
+        <v>90121</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>253</v>
       </c>
       <c r="J15" s="16">
-        <v>90160</v>
+        <v>13520</v>
       </c>
       <c r="K15" s="16">
         <v>18750</v>
@@ -6447,13 +6463,13 @@
         <v>37500</v>
       </c>
       <c r="N15" s="16">
-        <v>27030</v>
+        <v>22530</v>
       </c>
       <c r="O15" s="16">
-        <v>45060</v>
+        <v>29280</v>
       </c>
       <c r="P15" s="16">
-        <v>63080</v>
+        <v>36040</v>
       </c>
       <c r="Q15" s="16" t="s">
         <v>276</v>
@@ -6497,7 +6513,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="16">
-        <v>1063504</v>
+        <v>531752</v>
       </c>
       <c r="F16" s="16">
         <v>150</v>
@@ -6506,13 +6522,13 @@
         <v>10</v>
       </c>
       <c r="H16" s="17">
-        <v>265876</v>
+        <v>106350</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>254</v>
       </c>
       <c r="J16" s="16">
-        <v>106400</v>
+        <v>15960</v>
       </c>
       <c r="K16" s="16">
         <v>26250</v>
@@ -6524,13 +6540,13 @@
         <v>52500</v>
       </c>
       <c r="N16" s="16">
-        <v>31900</v>
+        <v>26580</v>
       </c>
       <c r="O16" s="16">
-        <v>53170</v>
+        <v>34560</v>
       </c>
       <c r="P16" s="16">
-        <v>74440</v>
+        <v>42540</v>
       </c>
       <c r="Q16" s="16" t="s">
         <v>277</v>
@@ -6574,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="16">
-        <v>1241675</v>
+        <v>620838</v>
       </c>
       <c r="F17" s="16">
         <v>150</v>
@@ -6583,13 +6599,13 @@
         <v>10</v>
       </c>
       <c r="H17" s="17">
-        <v>310419</v>
+        <v>124168</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>255</v>
       </c>
       <c r="J17" s="16">
-        <v>124240</v>
+        <v>18630</v>
       </c>
       <c r="K17" s="16">
         <v>32000</v>
@@ -6601,13 +6617,13 @@
         <v>64000</v>
       </c>
       <c r="N17" s="16">
-        <v>37250</v>
+        <v>31040</v>
       </c>
       <c r="O17" s="16">
-        <v>62080</v>
+        <v>40350</v>
       </c>
       <c r="P17" s="16">
-        <v>86910</v>
+        <v>49660</v>
       </c>
       <c r="Q17" s="16" t="s">
         <v>200</v>
@@ -6651,7 +6667,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="16">
-        <v>1436142</v>
+        <v>718071</v>
       </c>
       <c r="F18" s="16">
         <v>150</v>
@@ -6660,13 +6676,13 @@
         <v>10</v>
       </c>
       <c r="H18" s="17">
-        <v>359036</v>
+        <v>143614</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>256</v>
       </c>
       <c r="J18" s="16">
-        <v>143680</v>
+        <v>21550</v>
       </c>
       <c r="K18" s="16">
         <v>46750</v>
@@ -6678,13 +6694,13 @@
         <v>93500</v>
       </c>
       <c r="N18" s="16">
-        <v>43080</v>
+        <v>35900</v>
       </c>
       <c r="O18" s="16">
-        <v>71800</v>
+        <v>46670</v>
       </c>
       <c r="P18" s="16">
-        <v>100520</v>
+        <v>57440</v>
       </c>
       <c r="Q18" s="16" t="s">
         <v>278</v>
@@ -6728,7 +6744,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="16">
-        <v>1647305</v>
+        <v>823652</v>
       </c>
       <c r="F19" s="16">
         <v>150</v>
@@ -6737,13 +6753,13 @@
         <v>10</v>
       </c>
       <c r="H19" s="17">
-        <v>411826</v>
+        <v>164730</v>
       </c>
       <c r="I19" s="20" t="s">
         <v>257</v>
       </c>
       <c r="J19" s="16">
-        <v>164800</v>
+        <v>24710</v>
       </c>
       <c r="K19" s="16">
         <v>56250</v>
@@ -6755,13 +6771,13 @@
         <v>112500</v>
       </c>
       <c r="N19" s="16">
-        <v>49410</v>
+        <v>41180</v>
       </c>
       <c r="O19" s="16">
-        <v>82360</v>
+        <v>53530</v>
       </c>
       <c r="P19" s="16">
-        <v>115310</v>
+        <v>65890</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>279</v>
@@ -6805,7 +6821,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="16">
-        <v>2250660</v>
+        <v>1125330</v>
       </c>
       <c r="F20" s="16">
         <v>200</v>
@@ -6814,13 +6830,13 @@
         <v>12</v>
       </c>
       <c r="H20" s="17">
-        <v>468887</v>
+        <v>187555</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>258</v>
       </c>
       <c r="J20" s="16">
-        <v>225120</v>
+        <v>28140</v>
       </c>
       <c r="K20" s="16">
         <v>81750</v>
@@ -6832,13 +6848,13 @@
         <v>163500</v>
       </c>
       <c r="N20" s="16">
-        <v>56260</v>
+        <v>46880</v>
       </c>
       <c r="O20" s="16">
-        <v>93770</v>
+        <v>60950</v>
       </c>
       <c r="P20" s="16">
-        <v>131280</v>
+        <v>75020</v>
       </c>
       <c r="Q20" s="16" t="s">
         <v>280</v>
@@ -6882,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="16">
-        <v>2545501</v>
+        <v>1272750</v>
       </c>
       <c r="F21" s="16">
         <v>200</v>
@@ -6891,13 +6907,13 @@
         <v>12</v>
       </c>
       <c r="H21" s="17">
-        <v>530313</v>
+        <v>212125</v>
       </c>
       <c r="I21" s="20" t="s">
         <v>259</v>
       </c>
       <c r="J21" s="16">
-        <v>254592</v>
+        <v>31820</v>
       </c>
       <c r="K21" s="16">
         <v>98250</v>
@@ -6909,13 +6925,13 @@
         <v>196500</v>
       </c>
       <c r="N21" s="16">
-        <v>63630</v>
+        <v>53030</v>
       </c>
       <c r="O21" s="16">
-        <v>106060</v>
+        <v>68940</v>
       </c>
       <c r="P21" s="16">
-        <v>148480</v>
+        <v>84850</v>
       </c>
       <c r="Q21" s="16" t="s">
         <v>281</v>
@@ -6959,7 +6975,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="16">
-        <v>2861723</v>
+        <v>1430861</v>
       </c>
       <c r="F22" s="16">
         <v>200</v>
@@ -6968,13 +6984,13 @@
         <v>12</v>
       </c>
       <c r="H22" s="17">
-        <v>596192</v>
+        <v>238477</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>260</v>
       </c>
       <c r="J22" s="16">
-        <v>286176</v>
+        <v>35780</v>
       </c>
       <c r="K22" s="16">
         <v>141750</v>
@@ -6986,13 +7002,13 @@
         <v>283500</v>
       </c>
       <c r="N22" s="16">
-        <v>71540</v>
+        <v>59610</v>
       </c>
       <c r="O22" s="16">
-        <v>119230</v>
+        <v>77500</v>
       </c>
       <c r="P22" s="16">
-        <v>166930</v>
+        <v>95390</v>
       </c>
       <c r="Q22" s="16" t="s">
         <v>282</v>
@@ -7036,7 +7052,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="16">
-        <v>3199747</v>
+        <v>1599874</v>
       </c>
       <c r="F23" s="16">
         <v>200</v>
@@ -7045,13 +7061,13 @@
         <v>12</v>
       </c>
       <c r="H23" s="17">
-        <v>666614</v>
+        <v>266646</v>
       </c>
       <c r="I23" s="20" t="s">
         <v>261</v>
       </c>
       <c r="J23" s="16">
-        <v>320064</v>
+        <v>40000</v>
       </c>
       <c r="K23" s="16">
         <v>170000</v>
@@ -7063,13 +7079,13 @@
         <v>340000</v>
       </c>
       <c r="N23" s="16">
-        <v>79990</v>
+        <v>66660</v>
       </c>
       <c r="O23" s="16">
-        <v>133320</v>
+        <v>86650</v>
       </c>
       <c r="P23" s="16">
-        <v>186650</v>
+        <v>106650</v>
       </c>
       <c r="Q23" s="16" t="s">
         <v>204</v>
@@ -7112,8 +7128,8 @@
       <c r="D24" s="16">
         <v>5</v>
       </c>
-      <c r="E24" s="16">
-        <v>3559984</v>
+      <c r="E24" s="13">
+        <v>1779992</v>
       </c>
       <c r="F24" s="16">
         <v>200</v>
@@ -7121,14 +7137,14 @@
       <c r="G24" s="16">
         <v>12</v>
       </c>
-      <c r="H24" s="17">
-        <v>741663</v>
+      <c r="H24" s="13">
+        <v>296665</v>
       </c>
       <c r="I24" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="J24" s="16">
-        <v>356064</v>
+      <c r="J24" s="13">
+        <v>44500</v>
       </c>
       <c r="K24" s="16">
         <v>200000</v>
@@ -7139,14 +7155,14 @@
       <c r="M24" s="16">
         <v>400000</v>
       </c>
-      <c r="N24" s="16">
-        <v>88990</v>
-      </c>
-      <c r="O24" s="16">
-        <v>148330</v>
-      </c>
-      <c r="P24" s="16">
-        <v>207660</v>
+      <c r="N24" s="13">
+        <v>74160</v>
+      </c>
+      <c r="O24" s="13">
+        <v>96410</v>
+      </c>
+      <c r="P24" s="13">
+        <v>118660</v>
       </c>
       <c r="Q24" s="16" t="s">
         <v>283</v>
@@ -7190,7 +7206,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="13">
-        <v>3942831</v>
+        <v>1971416</v>
       </c>
       <c r="F25" s="16">
         <v>200</v>
@@ -7199,13 +7215,13 @@
         <v>12</v>
       </c>
       <c r="H25" s="13">
-        <v>821423</v>
+        <v>328569</v>
       </c>
       <c r="I25" s="20" t="s">
         <v>263</v>
       </c>
       <c r="J25" s="13">
-        <v>394368</v>
+        <v>49290</v>
       </c>
       <c r="K25" s="13">
         <v>250000</v>
@@ -7217,13 +7233,13 @@
         <v>500000</v>
       </c>
       <c r="N25" s="13">
-        <v>98570</v>
+        <v>82140</v>
       </c>
       <c r="O25" s="13">
-        <v>164280</v>
+        <v>106780</v>
       </c>
       <c r="P25" s="13">
-        <v>229990</v>
+        <v>131420</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>284</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="520" windowWidth="36540" windowHeight="18220" tabRatio="566" activeTab="4"/>
+    <workbookView xWindow="3700" yWindow="1840" windowWidth="25600" windowHeight="16060" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1845,7 +1845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="587">
+  <cellStyleXfs count="589">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2327,6 +2327,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2501,7 +2503,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="587">
+  <cellStyles count="589">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2797,6 +2799,7 @@
     <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3085,6 +3088,7 @@
     <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3537,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3610,7 +3614,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>92</v>
@@ -5322,8 +5326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P27"/>
+    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5450,7 +5454,7 @@
         <v>240</v>
       </c>
       <c r="J2" s="16">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K2" s="16">
         <v>500</v>
@@ -5527,7 +5531,7 @@
         <v>241</v>
       </c>
       <c r="J3" s="16">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="K3" s="16">
         <v>1000</v>
@@ -5604,7 +5608,7 @@
         <v>242</v>
       </c>
       <c r="J4" s="16">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="K4" s="16">
         <v>1500</v>
@@ -5681,7 +5685,7 @@
         <v>243</v>
       </c>
       <c r="J5" s="16">
-        <v>670</v>
+        <v>900</v>
       </c>
       <c r="K5" s="16">
         <v>2000</v>
@@ -5758,7 +5762,7 @@
         <v>244</v>
       </c>
       <c r="J6" s="16">
-        <v>1150</v>
+        <v>1530</v>
       </c>
       <c r="K6" s="16">
         <v>2500</v>
@@ -5835,7 +5839,7 @@
         <v>245</v>
       </c>
       <c r="J7" s="16">
-        <v>1770</v>
+        <v>2360</v>
       </c>
       <c r="K7" s="16">
         <v>3000</v>
@@ -5912,7 +5916,7 @@
         <v>246</v>
       </c>
       <c r="J8" s="16">
-        <v>2570</v>
+        <v>3420</v>
       </c>
       <c r="K8" s="16">
         <v>3500</v>
@@ -5989,7 +5993,7 @@
         <v>247</v>
       </c>
       <c r="J9" s="16">
-        <v>3530</v>
+        <v>4710</v>
       </c>
       <c r="K9" s="16">
         <v>4000</v>
@@ -6066,7 +6070,7 @@
         <v>248</v>
       </c>
       <c r="J10" s="16">
-        <v>4690</v>
+        <v>6250</v>
       </c>
       <c r="K10" s="16">
         <v>5000</v>
@@ -6143,7 +6147,7 @@
         <v>249</v>
       </c>
       <c r="J11" s="16">
-        <v>6030</v>
+        <v>8040</v>
       </c>
       <c r="K11" s="16">
         <v>6000</v>
@@ -6220,7 +6224,7 @@
         <v>250</v>
       </c>
       <c r="J12" s="16">
-        <v>7580</v>
+        <v>10110</v>
       </c>
       <c r="K12" s="16">
         <v>8000</v>
@@ -6297,7 +6301,7 @@
         <v>251</v>
       </c>
       <c r="J13" s="16">
-        <v>9340</v>
+        <v>12460</v>
       </c>
       <c r="K13" s="16">
         <v>10500</v>
@@ -6374,7 +6378,7 @@
         <v>252</v>
       </c>
       <c r="J14" s="16">
-        <v>11320</v>
+        <v>15090</v>
       </c>
       <c r="K14" s="16">
         <v>15000</v>
@@ -6451,7 +6455,7 @@
         <v>253</v>
       </c>
       <c r="J15" s="16">
-        <v>13520</v>
+        <v>18030</v>
       </c>
       <c r="K15" s="16">
         <v>18750</v>
@@ -6528,7 +6532,7 @@
         <v>254</v>
       </c>
       <c r="J16" s="16">
-        <v>15960</v>
+        <v>21280</v>
       </c>
       <c r="K16" s="16">
         <v>26250</v>
@@ -6605,7 +6609,7 @@
         <v>255</v>
       </c>
       <c r="J17" s="16">
-        <v>18630</v>
+        <v>24840</v>
       </c>
       <c r="K17" s="16">
         <v>32000</v>
@@ -6682,7 +6686,7 @@
         <v>256</v>
       </c>
       <c r="J18" s="16">
-        <v>21550</v>
+        <v>28730</v>
       </c>
       <c r="K18" s="16">
         <v>46750</v>
@@ -6759,7 +6763,7 @@
         <v>257</v>
       </c>
       <c r="J19" s="16">
-        <v>24710</v>
+        <v>32950</v>
       </c>
       <c r="K19" s="16">
         <v>56250</v>
@@ -6836,7 +6840,7 @@
         <v>258</v>
       </c>
       <c r="J20" s="16">
-        <v>28140</v>
+        <v>37520</v>
       </c>
       <c r="K20" s="16">
         <v>81750</v>
@@ -6913,7 +6917,7 @@
         <v>259</v>
       </c>
       <c r="J21" s="16">
-        <v>31820</v>
+        <v>42430</v>
       </c>
       <c r="K21" s="16">
         <v>98250</v>
@@ -6990,7 +6994,7 @@
         <v>260</v>
       </c>
       <c r="J22" s="16">
-        <v>35780</v>
+        <v>47700</v>
       </c>
       <c r="K22" s="16">
         <v>141750</v>
@@ -7066,8 +7070,8 @@
       <c r="I23" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="J23" s="16">
-        <v>40000</v>
+      <c r="J23" s="13">
+        <v>53330</v>
       </c>
       <c r="K23" s="16">
         <v>170000</v>
@@ -7144,7 +7148,7 @@
         <v>262</v>
       </c>
       <c r="J24" s="13">
-        <v>44500</v>
+        <v>59340</v>
       </c>
       <c r="K24" s="16">
         <v>200000</v>
@@ -7221,7 +7225,7 @@
         <v>263</v>
       </c>
       <c r="J25" s="13">
-        <v>49290</v>
+        <v>65720</v>
       </c>
       <c r="K25" s="13">
         <v>250000</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3700" yWindow="1840" windowWidth="25600" windowHeight="16060" tabRatio="566"/>
@@ -1845,7 +1845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="589">
+  <cellStyleXfs count="591">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2327,6 +2327,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2503,7 +2505,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="589">
+  <cellStyles count="591">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2800,6 +2802,7 @@
     <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3089,6 +3092,7 @@
     <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3542,7 +3546,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3592,7 +3596,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="12">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>88</v>
@@ -3603,7 +3607,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="8">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>90</v>
@@ -3658,7 +3662,7 @@
         <v>74</v>
       </c>
       <c r="B10" s="8">
-        <v>5</v>
+        <v>1440</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>75</v>
@@ -3702,7 +3706,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>80</v>
@@ -3768,7 +3772,7 @@
         <v>471</v>
       </c>
       <c r="B20" s="8">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>472</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="1840" windowWidth="25600" windowHeight="16060" tabRatio="566"/>
+    <workbookView xWindow="1000" yWindow="1320" windowWidth="25600" windowHeight="16060" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1845,7 +1845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="591">
+  <cellStyleXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2327,6 +2327,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2505,7 +2511,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="591">
+  <cellStyles count="597">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2803,6 +2809,9 @@
     <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3093,6 +3102,9 @@
     <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3546,7 +3558,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3618,7 +3630,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>92</v>
@@ -3629,7 +3641,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>94</v>
@@ -3640,7 +3652,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="8">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>96</v>
@@ -3717,7 +3729,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="8">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>82</v>
@@ -3728,7 +3740,7 @@
         <v>101</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>102</v>
@@ -3772,7 +3784,7 @@
         <v>471</v>
       </c>
       <c r="B20" s="8">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>472</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1320" windowWidth="25600" windowHeight="16060" tabRatio="566"/>
+    <workbookView xWindow="1040" yWindow="0" windowWidth="32120" windowHeight="17760" tabRatio="566" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -763,15 +763,875 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>gem_20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>gem</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>gem_50</t>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:4</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:4</t>
+  </si>
+  <si>
+    <t>4_1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:4</t>
+  </si>
+  <si>
+    <t>STR_stageName</t>
+  </si>
+  <si>
+    <t>INT_index</t>
+  </si>
+  <si>
+    <t>INT_stage</t>
+  </si>
+  <si>
+    <t>INT_subStage</t>
+  </si>
+  <si>
+    <t>INT_enemyPower</t>
+  </si>
+  <si>
+    <t>INT_needPerception</t>
+  </si>
+  <si>
+    <t>INT_suggestPlayer</t>
+  </si>
+  <si>
+    <t>INT_suggestPower</t>
+  </si>
+  <si>
+    <t>STR_troops</t>
+  </si>
+  <si>
+    <t>INT_star2DeathCitizen</t>
+  </si>
+  <si>
+    <t>INT_star1Honour</t>
+  </si>
+  <si>
+    <t>INT_star2Honour</t>
+  </si>
+  <si>
+    <t>INT_star3Honour</t>
+  </si>
+  <si>
+    <t>INT_playerKill_1</t>
+  </si>
+  <si>
+    <t>INT_playerKill_2</t>
+  </si>
+  <si>
+    <t>INT_playerKill_3</t>
+  </si>
+  <si>
+    <t>STR_playerRewards_1_grassLand</t>
+  </si>
+  <si>
+    <t>STR_playerRewards_2_grassLand</t>
+  </si>
+  <si>
+    <t>STR_playerRewards_3_grassLand</t>
+  </si>
+  <si>
+    <t>STR_playerRewards_1_desert</t>
+  </si>
+  <si>
+    <t>STR_playerRewards_2_desert</t>
+  </si>
+  <si>
+    <t>STR_playerRewards_3_desert</t>
+  </si>
+  <si>
+    <t>STR_playerRewards_1_iceField</t>
+  </si>
+  <si>
+    <t>STR_playerRewards_2_iceField</t>
+  </si>
+  <si>
+    <t>STR_playerRewards_3_iceField</t>
+  </si>
+  <si>
+    <t>INT_gem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>platinum</t>
+  </si>
+  <si>
+    <t>diamond</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>BOOL_getJoinRequestEvents</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_1,swordsman_1_16,lancer_1_6,catapult_1_2,ranger_1_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_2,lancer_1_42,ballista_1_16,ranger_1_42,swordsman_1_21</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_3,catapult_1_56,crossbowman_1_168,sentinel_1_112,horseArcher_1_28</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_4,crossbowman_1_446,sentinel_1_334,horseArcher_1_111,ballista_1_28</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_6,swordsman_1_761,lancer_1_286,catapult_1_95,ranger_1_190</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_8,lancer_1_590,ballista_1_221,ranger_1_590,swordsman_1_295</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_11,catapult_1_427,crossbowman_1_1281,sentinel_1_854,horseArcher_1_213</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_12,crossbowman_1_2353,sentinel_1_1764,horseArcher_1_588,ballista_1_147</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_13,swordsman_1_3121,lancer_1_1170,catapult_1_390,ranger_1_780</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_14,lancer_1_2010,ballista_1_754,ranger_1_2010,swordsman_1_1055</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_16,catapult_1_1263,crossbowman_1_3789,sentinel_1_2526,horseArcher_1_631</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_18,crossbowman_1_6225,sentinel_1_4669,horseArcher_1_1556,ballista_1_389</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_21,swordsman_2_7544,lancer_2_2829,catapult_2_943,ranger_2_1886</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_22,lancer_2_4506,ballista_2_1690,ranger_2_4506,swordsman_2_2253</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_23,catapult_2_2659,crossbowman_2_7976,sentinel_2_5318,horseArcher_2_1329</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_24,crossbowman_2_12417,sentinel_2_9313,horseArcher_2_3104,ballista_2_776</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_26,swordsman_2_14361,lancer_2_5386,catapult_2_1795,ranger_2_3590</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_28,lancer_2_8237,ballista_2_3089,ranger_2_8237,swordsman_2_4118</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_31,catapult_2_4689,crossbowman_2_14067,sentinel_2_9378,horseArcher_2_2344</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_32,crossbowman_2_21213,sentinel_2_15909,horseArcher_2_5303,ballista_2_1326</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_33,swordsman_2_23848,lancer_2_8943,catapult_2_2981,ranger_2_5962</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_34,lancer_2_13332,ballista_2_5000,ranger_2_13332,swordsman_2_6666</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_36,catapult_2_7417,crossbowman_2_22250,sentinel_2_14833,horseArcher_2_3708</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_38,crossbowman_2_32857,sentinel_2_24643,horseArcher_2_8214,ballista_2_2054</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6</t>
+  </si>
+  <si>
+    <t>villageRefreshMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落采空后多少分钟后刷新</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -783,7 +1643,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>gem_400</t>
+    <t>gem_500</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -791,871 +1651,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1_1</t>
-  </si>
-  <si>
-    <t>1_2</t>
-  </si>
-  <si>
-    <t>2_1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:4</t>
-  </si>
-  <si>
-    <t>3_1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:4</t>
-  </si>
-  <si>
-    <t>4_1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:4</t>
-  </si>
-  <si>
-    <t>STR_stageName</t>
-  </si>
-  <si>
-    <t>INT_index</t>
-  </si>
-  <si>
-    <t>INT_stage</t>
-  </si>
-  <si>
-    <t>INT_subStage</t>
-  </si>
-  <si>
-    <t>INT_enemyPower</t>
-  </si>
-  <si>
-    <t>INT_needPerception</t>
-  </si>
-  <si>
-    <t>INT_suggestPlayer</t>
-  </si>
-  <si>
-    <t>INT_suggestPower</t>
-  </si>
-  <si>
-    <t>STR_troops</t>
-  </si>
-  <si>
-    <t>INT_star2DeathCitizen</t>
-  </si>
-  <si>
-    <t>INT_star1Honour</t>
-  </si>
-  <si>
-    <t>INT_star2Honour</t>
-  </si>
-  <si>
-    <t>INT_star3Honour</t>
-  </si>
-  <si>
-    <t>INT_playerKill_1</t>
-  </si>
-  <si>
-    <t>INT_playerKill_2</t>
-  </si>
-  <si>
-    <t>INT_playerKill_3</t>
-  </si>
-  <si>
-    <t>STR_playerRewards_1_grassLand</t>
-  </si>
-  <si>
-    <t>STR_playerRewards_2_grassLand</t>
-  </si>
-  <si>
-    <t>STR_playerRewards_3_grassLand</t>
-  </si>
-  <si>
-    <t>STR_playerRewards_1_desert</t>
-  </si>
-  <si>
-    <t>STR_playerRewards_2_desert</t>
-  </si>
-  <si>
-    <t>STR_playerRewards_3_desert</t>
-  </si>
-  <si>
-    <t>STR_playerRewards_1_iceField</t>
-  </si>
-  <si>
-    <t>STR_playerRewards_2_iceField</t>
-  </si>
-  <si>
-    <t>STR_playerRewards_3_iceField</t>
-  </si>
-  <si>
-    <t>INT_gem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>bronze</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>platinum</t>
-  </si>
-  <si>
-    <t>diamond</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>BOOL_getJoinRequestEvents</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_1,swordsman_1_16,lancer_1_6,catapult_1_2,ranger_1_4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_2,lancer_1_42,ballista_1_16,ranger_1_42,swordsman_1_21</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_3,catapult_1_56,crossbowman_1_168,sentinel_1_112,horseArcher_1_28</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_4,crossbowman_1_446,sentinel_1_334,horseArcher_1_111,ballista_1_28</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_6,swordsman_1_761,lancer_1_286,catapult_1_95,ranger_1_190</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_8,lancer_1_590,ballista_1_221,ranger_1_590,swordsman_1_295</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_11,catapult_1_427,crossbowman_1_1281,sentinel_1_854,horseArcher_1_213</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_12,crossbowman_1_2353,sentinel_1_1764,horseArcher_1_588,ballista_1_147</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_13,swordsman_1_3121,lancer_1_1170,catapult_1_390,ranger_1_780</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_14,lancer_1_2010,ballista_1_754,ranger_1_2010,swordsman_1_1055</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_16,catapult_1_1263,crossbowman_1_3789,sentinel_1_2526,horseArcher_1_631</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_18,crossbowman_1_6225,sentinel_1_4669,horseArcher_1_1556,ballista_1_389</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_21,swordsman_2_7544,lancer_2_2829,catapult_2_943,ranger_2_1886</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_22,lancer_2_4506,ballista_2_1690,ranger_2_4506,swordsman_2_2253</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_23,catapult_2_2659,crossbowman_2_7976,sentinel_2_5318,horseArcher_2_1329</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_24,crossbowman_2_12417,sentinel_2_9313,horseArcher_2_3104,ballista_2_776</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_26,swordsman_2_14361,lancer_2_5386,catapult_2_1795,ranger_2_3590</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_28,lancer_2_8237,ballista_2_3089,ranger_2_8237,swordsman_2_4118</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_31,catapult_2_4689,crossbowman_2_14067,sentinel_2_9378,horseArcher_2_2344</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_32,crossbowman_2_21213,sentinel_2_15909,horseArcher_2_5303,ballista_2_1326</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_33,swordsman_2_23848,lancer_2_8943,catapult_2_2981,ranger_2_5962</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_34,lancer_2_13332,ballista_2_5000,ranger_2_13332,swordsman_2_6666</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_36,catapult_2_7417,crossbowman_2_22250,sentinel_2_14833,horseArcher_2_3708</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_38,crossbowman_2_32857,sentinel_2_24643,horseArcher_2_8214,ballista_2_2054</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6</t>
-  </si>
-  <si>
-    <t>villageRefreshMinutes</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>村落采空后多少分钟后刷新</t>
+    <t>gem_2000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_5000</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1845,7 +1845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="597">
+  <cellStyleXfs count="635">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2327,6 +2327,44 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2511,7 +2549,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="597">
+  <cellStyles count="635">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2812,6 +2850,25 @@
     <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3105,6 +3162,25 @@
     <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="634" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3557,7 +3633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3781,13 +3857,13 @@
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B20" s="8">
         <v>240</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3969,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>58</v>
@@ -4375,10 +4451,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G37" sqref="A2:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4427,10 +4503,10 @@
         <v>10000</v>
       </c>
       <c r="E2" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -4457,10 +4533,10 @@
         <v>20000</v>
       </c>
       <c r="E3" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F3" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G3" s="8">
         <v>0.05</v>
@@ -4487,10 +4563,10 @@
         <v>50000</v>
       </c>
       <c r="E4" s="11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F4" s="11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G4" s="8">
         <v>0.1</v>
@@ -4517,10 +4593,10 @@
         <v>100000</v>
       </c>
       <c r="E5" s="11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="8">
         <v>0.15</v>
@@ -4546,11 +4622,11 @@
       <c r="D6" s="1">
         <v>200000</v>
       </c>
-      <c r="E6" s="11">
-        <v>1000</v>
+      <c r="E6" s="1">
+        <v>2000</v>
       </c>
       <c r="F6" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G6" s="8">
         <v>0.2</v>
@@ -4576,11 +4652,11 @@
       <c r="D7" s="1">
         <v>500000</v>
       </c>
-      <c r="E7" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2500</v>
+      <c r="E7" s="11">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5000</v>
       </c>
       <c r="G7" s="8">
         <v>0.3</v>
@@ -4607,10 +4683,10 @@
         <v>10000</v>
       </c>
       <c r="E8" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F8" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -4637,10 +4713,10 @@
         <v>20000</v>
       </c>
       <c r="E9" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="8">
         <v>0.05</v>
@@ -4669,10 +4745,10 @@
         <v>50000</v>
       </c>
       <c r="E10" s="11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F10" s="11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G10" s="8">
         <v>0.1</v>
@@ -4701,10 +4777,10 @@
         <v>100000</v>
       </c>
       <c r="E11" s="11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="8">
         <v>0.15</v>
@@ -4732,11 +4808,11 @@
       <c r="D12" s="1">
         <v>200000</v>
       </c>
-      <c r="E12" s="11">
-        <v>1000</v>
+      <c r="E12" s="1">
+        <v>2000</v>
       </c>
       <c r="F12" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="8">
         <v>0.2</v>
@@ -4764,11 +4840,11 @@
       <c r="D13" s="1">
         <v>500000</v>
       </c>
-      <c r="E13" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2500</v>
+      <c r="E13" s="11">
+        <v>5000</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5000</v>
       </c>
       <c r="G13" s="8">
         <v>0.3</v>
@@ -4788,10 +4864,10 @@
         <v>10000</v>
       </c>
       <c r="E14" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F14" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
@@ -4811,10 +4887,10 @@
         <v>20000</v>
       </c>
       <c r="E15" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G15" s="8">
         <v>0.05</v>
@@ -4834,10 +4910,10 @@
         <v>50000</v>
       </c>
       <c r="E16" s="11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F16" s="11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G16" s="8">
         <v>0.1</v>
@@ -4857,10 +4933,10 @@
         <v>100000</v>
       </c>
       <c r="E17" s="11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="8">
         <v>0.15</v>
@@ -4879,11 +4955,11 @@
       <c r="D18" s="1">
         <v>200000</v>
       </c>
-      <c r="E18" s="11">
-        <v>1000</v>
+      <c r="E18" s="1">
+        <v>2000</v>
       </c>
       <c r="F18" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="8">
         <v>0.2</v>
@@ -4902,11 +4978,11 @@
       <c r="D19" s="1">
         <v>500000</v>
       </c>
-      <c r="E19" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2500</v>
+      <c r="E19" s="11">
+        <v>5000</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5000</v>
       </c>
       <c r="G19" s="8">
         <v>0.3</v>
@@ -4926,10 +5002,10 @@
         <v>10000</v>
       </c>
       <c r="E20" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F20" s="11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
@@ -4949,10 +5025,10 @@
         <v>20000</v>
       </c>
       <c r="E21" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F21" s="11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G21" s="8">
         <v>0.05</v>
@@ -4972,10 +5048,10 @@
         <v>50000</v>
       </c>
       <c r="E22" s="11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="F22" s="11">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G22" s="8">
         <v>0.1</v>
@@ -4995,10 +5071,10 @@
         <v>100000</v>
       </c>
       <c r="E23" s="11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="8">
         <v>0.15</v>
@@ -5017,11 +5093,11 @@
       <c r="D24" s="1">
         <v>200000</v>
       </c>
-      <c r="E24" s="11">
-        <v>1000</v>
+      <c r="E24" s="1">
+        <v>2000</v>
       </c>
       <c r="F24" s="11">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G24" s="8">
         <v>0.2</v>
@@ -5041,10 +5117,10 @@
         <v>500000</v>
       </c>
       <c r="E25" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2500</v>
+        <v>5000</v>
+      </c>
+      <c r="F25" s="11">
+        <v>5000</v>
       </c>
       <c r="G25" s="8">
         <v>0.3</v>
@@ -5064,10 +5140,10 @@
         <v>10000</v>
       </c>
       <c r="E26" s="1">
-        <v>100</v>
-      </c>
-      <c r="F26" s="1">
-        <v>100</v>
+        <v>200</v>
+      </c>
+      <c r="F26" s="11">
+        <v>200</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
@@ -5087,10 +5163,10 @@
         <v>20000</v>
       </c>
       <c r="E27" s="1">
-        <v>200</v>
-      </c>
-      <c r="F27" s="1">
-        <v>200</v>
+        <v>400</v>
+      </c>
+      <c r="F27" s="11">
+        <v>400</v>
       </c>
       <c r="G27" s="8">
         <v>0.05</v>
@@ -5110,10 +5186,10 @@
         <v>50000</v>
       </c>
       <c r="E28" s="1">
-        <v>500</v>
-      </c>
-      <c r="F28" s="1">
-        <v>500</v>
+        <v>1000</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1000</v>
       </c>
       <c r="G28" s="8">
         <v>0.1</v>
@@ -5133,10 +5209,10 @@
         <v>100000</v>
       </c>
       <c r="E29" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1000</v>
+        <v>2000</v>
+      </c>
+      <c r="F29" s="11">
+        <v>2000</v>
       </c>
       <c r="G29" s="8">
         <v>0.15</v>
@@ -5156,10 +5232,10 @@
         <v>200000</v>
       </c>
       <c r="E30" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2000</v>
+        <v>4000</v>
+      </c>
+      <c r="F30" s="11">
+        <v>4000</v>
       </c>
       <c r="G30" s="8">
         <v>0.2</v>
@@ -5179,10 +5255,10 @@
         <v>500000</v>
       </c>
       <c r="E31" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F31" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G31" s="8">
         <v>0.3</v>
@@ -5190,10 +5266,10 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -5202,10 +5278,10 @@
         <v>100</v>
       </c>
       <c r="E32" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="8">
         <v>0</v>
@@ -5213,10 +5289,10 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>188</v>
+        <v>468</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -5225,10 +5301,10 @@
         <v>200</v>
       </c>
       <c r="E33" s="1">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="F33" s="1">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="G33" s="8">
         <v>0.05</v>
@@ -5236,10 +5312,10 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>469</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -5248,10 +5324,10 @@
         <v>500</v>
       </c>
       <c r="E34" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="F34" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G34" s="8">
         <v>0.1</v>
@@ -5259,10 +5335,10 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -5271,10 +5347,10 @@
         <v>1000</v>
       </c>
       <c r="E35" s="1">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="F35" s="1">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="G35" s="8">
         <v>0.15</v>
@@ -5282,10 +5358,10 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>191</v>
+        <v>471</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C36" s="1">
         <v>5</v>
@@ -5294,10 +5370,10 @@
         <v>2000</v>
       </c>
       <c r="E36" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="F36" s="1">
-        <v>4000</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="8">
         <v>0.2</v>
@@ -5305,10 +5381,10 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -5317,14 +5393,23 @@
         <v>5000</v>
       </c>
       <c r="E37" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="F37" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="G37" s="8">
         <v>0.3</v>
       </c>
+    </row>
+    <row r="38" spans="1:7" ht="20" customHeight="1">
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="20" customHeight="1">
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="20" customHeight="1">
+      <c r="F40" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -5366,84 +5451,84 @@
   <sheetData>
     <row r="1" spans="1:25" s="14" customFormat="1" ht="30">
       <c r="A1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="45">
       <c r="A2" s="16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B2" s="16">
         <v>1</v>
@@ -5467,7 +5552,7 @@
         <v>160</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J2" s="16">
         <v>40</v>
@@ -5491,36 +5576,36 @@
         <v>60</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
       <c r="A3" s="16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B3" s="16">
         <v>2</v>
@@ -5544,7 +5629,7 @@
         <v>844</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J3" s="16">
         <v>170</v>
@@ -5568,31 +5653,31 @@
         <v>330</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
@@ -5621,7 +5706,7 @@
         <v>2235</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J4" s="16">
         <v>450</v>
@@ -5645,31 +5730,31 @@
         <v>890</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
@@ -5698,7 +5783,7 @@
         <v>4457</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J5" s="16">
         <v>900</v>
@@ -5722,31 +5807,31 @@
         <v>1780</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="Y5" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
@@ -5775,7 +5860,7 @@
         <v>7615</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J6" s="16">
         <v>1530</v>
@@ -5799,31 +5884,31 @@
         <v>3040</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
@@ -5852,7 +5937,7 @@
         <v>11795</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J7" s="16">
         <v>2360</v>
@@ -5876,36 +5961,36 @@
         <v>4710</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Y7" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
       <c r="A8" s="16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B8" s="16">
         <v>7</v>
@@ -5929,7 +6014,7 @@
         <v>17075</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J8" s="16">
         <v>3420</v>
@@ -5953,31 +6038,31 @@
         <v>6820</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
@@ -6006,7 +6091,7 @@
         <v>23525</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J9" s="16">
         <v>4710</v>
@@ -6030,31 +6115,31 @@
         <v>9410</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
@@ -6083,7 +6168,7 @@
         <v>31211</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J10" s="16">
         <v>6250</v>
@@ -6107,31 +6192,31 @@
         <v>12480</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
@@ -6160,7 +6245,7 @@
         <v>40190</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J11" s="16">
         <v>8040</v>
@@ -6184,31 +6269,31 @@
         <v>16070</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="W11" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
@@ -6237,7 +6322,7 @@
         <v>50520</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J12" s="16">
         <v>10110</v>
@@ -6261,31 +6346,31 @@
         <v>20200</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
@@ -6314,7 +6399,7 @@
         <v>62252</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J13" s="16">
         <v>12460</v>
@@ -6338,36 +6423,36 @@
         <v>24900</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="W13" s="16" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Y13" s="16" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
       <c r="A14" s="16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B14" s="16">
         <v>13</v>
@@ -6391,7 +6476,7 @@
         <v>75437</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J14" s="16">
         <v>15090</v>
@@ -6415,31 +6500,31 @@
         <v>30170</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="V14" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="W14" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
@@ -6468,7 +6553,7 @@
         <v>90121</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J15" s="16">
         <v>18030</v>
@@ -6492,31 +6577,31 @@
         <v>36040</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="W15" s="16" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
@@ -6545,7 +6630,7 @@
         <v>106350</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J16" s="16">
         <v>21280</v>
@@ -6569,31 +6654,31 @@
         <v>42540</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="W16" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
@@ -6622,7 +6707,7 @@
         <v>124168</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J17" s="16">
         <v>24840</v>
@@ -6646,31 +6731,31 @@
         <v>49660</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="W17" s="16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
@@ -6699,7 +6784,7 @@
         <v>143614</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J18" s="16">
         <v>28730</v>
@@ -6723,31 +6808,31 @@
         <v>57440</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="V18" s="16" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="W18" s="16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
@@ -6776,7 +6861,7 @@
         <v>164730</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J19" s="16">
         <v>32950</v>
@@ -6800,36 +6885,36 @@
         <v>65890</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="V19" s="16" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="W19" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Y19" s="16" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
       <c r="A20" s="16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B20" s="16">
         <v>19</v>
@@ -6853,7 +6938,7 @@
         <v>187555</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J20" s="16">
         <v>37520</v>
@@ -6877,31 +6962,31 @@
         <v>75020</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="V20" s="16" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="W20" s="16" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
@@ -6930,7 +7015,7 @@
         <v>212125</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J21" s="16">
         <v>42430</v>
@@ -6954,31 +7039,31 @@
         <v>84850</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="V21" s="16" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="W21" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="Y21" s="16" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
@@ -7007,7 +7092,7 @@
         <v>238477</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J22" s="16">
         <v>47700</v>
@@ -7031,31 +7116,31 @@
         <v>95390</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
@@ -7084,7 +7169,7 @@
         <v>266646</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J23" s="13">
         <v>53330</v>
@@ -7108,31 +7193,31 @@
         <v>106650</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="W23" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
@@ -7161,7 +7246,7 @@
         <v>296665</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J24" s="13">
         <v>59340</v>
@@ -7185,31 +7270,31 @@
         <v>118660</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
@@ -7238,7 +7323,7 @@
         <v>328569</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J25" s="13">
         <v>65720</v>
@@ -7262,31 +7347,31 @@
         <v>131420</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="20" customHeight="1">
@@ -7338,7 +7423,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9368,7 +9453,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9384,13 +9469,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B2" s="1">
         <v>10000</v>
@@ -9401,7 +9486,7 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B3" s="2">
         <v>20000</v>
@@ -9412,7 +9497,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B4" s="2">
         <v>50000</v>
@@ -9423,7 +9508,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B5" s="1">
         <v>100000</v>
@@ -9434,7 +9519,7 @@
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B6" s="1">
         <v>200000</v>
@@ -9445,7 +9530,7 @@
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1">
         <v>300000</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="0" windowWidth="32120" windowHeight="17760" tabRatio="566" activeTab="3"/>
+    <workbookView xWindow="1040" yWindow="0" windowWidth="37360" windowHeight="19900" tabRatio="566" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1845,7 +1845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="635">
+  <cellStyleXfs count="639">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2327,6 +2327,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2549,7 +2553,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="635">
+  <cellStyles count="639">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2869,6 +2873,8 @@
     <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3181,6 +3187,8 @@
     <cellStyle name="访问过的超链接" xfId="630" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="632" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="638" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4453,7 +4461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G37" sqref="A2:G37"/>
     </sheetView>
   </sheetViews>
@@ -5427,8 +5435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5567,13 +5575,13 @@
         <v>1000</v>
       </c>
       <c r="N2" s="16">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O2" s="16">
+        <v>30</v>
+      </c>
+      <c r="P2" s="16">
         <v>50</v>
-      </c>
-      <c r="P2" s="16">
-        <v>60</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>258</v>
@@ -5644,13 +5652,13 @@
         <v>2000</v>
       </c>
       <c r="N3" s="16">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="O3" s="16">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="P3" s="16">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>259</v>
@@ -5721,13 +5729,13 @@
         <v>3000</v>
       </c>
       <c r="N4" s="16">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="O4" s="16">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="P4" s="16">
-        <v>890</v>
+        <v>780</v>
       </c>
       <c r="Q4" s="16" t="s">
         <v>260</v>
@@ -5798,13 +5806,13 @@
         <v>4000</v>
       </c>
       <c r="N5" s="16">
-        <v>1110</v>
+        <v>660</v>
       </c>
       <c r="O5" s="16">
-        <v>1440</v>
+        <v>1000</v>
       </c>
       <c r="P5" s="16">
-        <v>1780</v>
+        <v>1560</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>261</v>
@@ -5875,13 +5883,13 @@
         <v>5000</v>
       </c>
       <c r="N6" s="16">
-        <v>1900</v>
+        <v>1140</v>
       </c>
       <c r="O6" s="16">
-        <v>2470</v>
+        <v>1710</v>
       </c>
       <c r="P6" s="16">
-        <v>3040</v>
+        <v>2660</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>262</v>
@@ -5952,13 +5960,13 @@
         <v>6000</v>
       </c>
       <c r="N7" s="16">
-        <v>2940</v>
+        <v>1760</v>
       </c>
       <c r="O7" s="16">
-        <v>3830</v>
+        <v>2650</v>
       </c>
       <c r="P7" s="16">
-        <v>4710</v>
+        <v>4120</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>263</v>
@@ -6029,13 +6037,13 @@
         <v>7000</v>
       </c>
       <c r="N8" s="16">
-        <v>4260</v>
+        <v>2560</v>
       </c>
       <c r="O8" s="16">
-        <v>5540</v>
+        <v>3840</v>
       </c>
       <c r="P8" s="16">
-        <v>6820</v>
+        <v>5970</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>264</v>
@@ -6106,13 +6114,13 @@
         <v>8000</v>
       </c>
       <c r="N9" s="16">
-        <v>5880</v>
+        <v>3520</v>
       </c>
       <c r="O9" s="16">
-        <v>7640</v>
+        <v>5290</v>
       </c>
       <c r="P9" s="16">
-        <v>9410</v>
+        <v>8230</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>265</v>
@@ -6183,13 +6191,13 @@
         <v>10000</v>
       </c>
       <c r="N10" s="16">
-        <v>7800</v>
+        <v>4680</v>
       </c>
       <c r="O10" s="16">
-        <v>10140</v>
+        <v>7020</v>
       </c>
       <c r="P10" s="16">
-        <v>12480</v>
+        <v>10920</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>266</v>
@@ -6260,13 +6268,13 @@
         <v>12000</v>
       </c>
       <c r="N11" s="16">
-        <v>10040</v>
+        <v>6020</v>
       </c>
       <c r="O11" s="16">
-        <v>13060</v>
+        <v>9040</v>
       </c>
       <c r="P11" s="16">
-        <v>16070</v>
+        <v>14060</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>190</v>
@@ -6337,13 +6345,13 @@
         <v>16000</v>
       </c>
       <c r="N12" s="16">
-        <v>12620</v>
+        <v>7570</v>
       </c>
       <c r="O12" s="16">
-        <v>16410</v>
+        <v>11360</v>
       </c>
       <c r="P12" s="16">
-        <v>20200</v>
+        <v>17680</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>267</v>
@@ -6414,13 +6422,13 @@
         <v>21000</v>
       </c>
       <c r="N13" s="16">
-        <v>15560</v>
+        <v>9330</v>
       </c>
       <c r="O13" s="16">
-        <v>20230</v>
+        <v>14000</v>
       </c>
       <c r="P13" s="16">
-        <v>24900</v>
+        <v>21780</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>268</v>
@@ -6491,13 +6499,13 @@
         <v>30000</v>
       </c>
       <c r="N14" s="16">
-        <v>18850</v>
+        <v>11310</v>
       </c>
       <c r="O14" s="16">
-        <v>24510</v>
+        <v>16970</v>
       </c>
       <c r="P14" s="16">
-        <v>30170</v>
+        <v>26400</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>269</v>
@@ -6568,13 +6576,13 @@
         <v>37500</v>
       </c>
       <c r="N15" s="16">
-        <v>22530</v>
+        <v>13510</v>
       </c>
       <c r="O15" s="16">
-        <v>29280</v>
+        <v>20270</v>
       </c>
       <c r="P15" s="16">
-        <v>36040</v>
+        <v>31540</v>
       </c>
       <c r="Q15" s="16" t="s">
         <v>270</v>
@@ -6645,13 +6653,13 @@
         <v>52500</v>
       </c>
       <c r="N16" s="16">
-        <v>26580</v>
+        <v>15950</v>
       </c>
       <c r="O16" s="16">
-        <v>34560</v>
+        <v>23920</v>
       </c>
       <c r="P16" s="16">
-        <v>42540</v>
+        <v>37220</v>
       </c>
       <c r="Q16" s="16" t="s">
         <v>271</v>
@@ -6722,13 +6730,13 @@
         <v>64000</v>
       </c>
       <c r="N17" s="16">
-        <v>31040</v>
+        <v>18620</v>
       </c>
       <c r="O17" s="16">
-        <v>40350</v>
+        <v>27930</v>
       </c>
       <c r="P17" s="16">
-        <v>49660</v>
+        <v>43450</v>
       </c>
       <c r="Q17" s="16" t="s">
         <v>194</v>
@@ -6799,13 +6807,13 @@
         <v>93500</v>
       </c>
       <c r="N18" s="16">
-        <v>35900</v>
+        <v>21540</v>
       </c>
       <c r="O18" s="16">
-        <v>46670</v>
+        <v>32310</v>
       </c>
       <c r="P18" s="16">
-        <v>57440</v>
+        <v>50260</v>
       </c>
       <c r="Q18" s="16" t="s">
         <v>272</v>
@@ -6876,13 +6884,13 @@
         <v>112500</v>
       </c>
       <c r="N19" s="16">
-        <v>41180</v>
+        <v>24700</v>
       </c>
       <c r="O19" s="16">
-        <v>53530</v>
+        <v>37060</v>
       </c>
       <c r="P19" s="16">
-        <v>65890</v>
+        <v>57650</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>273</v>
@@ -6953,13 +6961,13 @@
         <v>163500</v>
       </c>
       <c r="N20" s="16">
-        <v>46880</v>
+        <v>28130</v>
       </c>
       <c r="O20" s="16">
-        <v>60950</v>
+        <v>42190</v>
       </c>
       <c r="P20" s="16">
-        <v>75020</v>
+        <v>65640</v>
       </c>
       <c r="Q20" s="16" t="s">
         <v>274</v>
@@ -7030,13 +7038,13 @@
         <v>196500</v>
       </c>
       <c r="N21" s="16">
-        <v>53030</v>
+        <v>31810</v>
       </c>
       <c r="O21" s="16">
-        <v>68940</v>
+        <v>47720</v>
       </c>
       <c r="P21" s="16">
-        <v>84850</v>
+        <v>74240</v>
       </c>
       <c r="Q21" s="16" t="s">
         <v>275</v>
@@ -7107,13 +7115,13 @@
         <v>283500</v>
       </c>
       <c r="N22" s="16">
-        <v>59610</v>
+        <v>35770</v>
       </c>
       <c r="O22" s="16">
-        <v>77500</v>
+        <v>53650</v>
       </c>
       <c r="P22" s="16">
-        <v>95390</v>
+        <v>83460</v>
       </c>
       <c r="Q22" s="16" t="s">
         <v>276</v>
@@ -7183,14 +7191,14 @@
       <c r="M23" s="16">
         <v>340000</v>
       </c>
-      <c r="N23" s="16">
-        <v>66660</v>
-      </c>
-      <c r="O23" s="16">
-        <v>86650</v>
-      </c>
-      <c r="P23" s="16">
-        <v>106650</v>
+      <c r="N23" s="13">
+        <v>39990</v>
+      </c>
+      <c r="O23" s="13">
+        <v>59990</v>
+      </c>
+      <c r="P23" s="13">
+        <v>93320</v>
       </c>
       <c r="Q23" s="16" t="s">
         <v>198</v>
@@ -7261,13 +7269,13 @@
         <v>400000</v>
       </c>
       <c r="N24" s="13">
-        <v>74160</v>
+        <v>44490</v>
       </c>
       <c r="O24" s="13">
-        <v>96410</v>
+        <v>66740</v>
       </c>
       <c r="P24" s="13">
-        <v>118660</v>
+        <v>103830</v>
       </c>
       <c r="Q24" s="16" t="s">
         <v>277</v>
@@ -7338,13 +7346,13 @@
         <v>500000</v>
       </c>
       <c r="N25" s="13">
-        <v>82140</v>
+        <v>49280</v>
       </c>
       <c r="O25" s="13">
-        <v>106780</v>
+        <v>73920</v>
       </c>
       <c r="P25" s="13">
-        <v>131420</v>
+        <v>114990</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>278</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="0" windowWidth="37360" windowHeight="19900" tabRatio="566" activeTab="4"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="37360" windowHeight="19900" tabRatio="566" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -15,12 +15,14 @@
     <sheet name="buildingName" sheetId="6" r:id="rId6"/>
     <sheet name="buildings" sheetId="11" r:id="rId7"/>
     <sheet name="fightRewards" sheetId="13" r:id="rId8"/>
+    <sheet name="monster" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
@@ -28,6 +30,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
@@ -35,6 +38,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
@@ -42,6 +46,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="568">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -910,753 +915,1043 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>dragon_1_2,lancer_1_42,ballista_1_16,ranger_1_42,swordsman_1_21</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_3,catapult_1_56,crossbowman_1_168,sentinel_1_112,horseArcher_1_28</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_4,crossbowman_1_446,sentinel_1_334,horseArcher_1_111,ballista_1_28</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_6,swordsman_1_761,lancer_1_286,catapult_1_95,ranger_1_190</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_8,lancer_1_590,ballista_1_221,ranger_1_590,swordsman_1_295</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_11,catapult_1_427,crossbowman_1_1281,sentinel_1_854,horseArcher_1_213</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_12,crossbowman_1_2353,sentinel_1_1764,horseArcher_1_588,ballista_1_147</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_13,swordsman_1_3121,lancer_1_1170,catapult_1_390,ranger_1_780</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_14,lancer_1_2010,ballista_1_754,ranger_1_2010,swordsman_1_1055</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_16,catapult_1_1263,crossbowman_1_3789,sentinel_1_2526,horseArcher_1_631</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_2_18,crossbowman_1_6225,sentinel_1_4669,horseArcher_1_1556,ballista_1_389</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_21,swordsman_2_7544,lancer_2_2829,catapult_2_943,ranger_2_1886</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_22,lancer_2_4506,ballista_2_1690,ranger_2_4506,swordsman_2_2253</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_23,catapult_2_2659,crossbowman_2_7976,sentinel_2_5318,horseArcher_2_1329</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_24,crossbowman_2_12417,sentinel_2_9313,horseArcher_2_3104,ballista_2_776</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_26,swordsman_2_14361,lancer_2_5386,catapult_2_1795,ranger_2_3590</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_3_28,lancer_2_8237,ballista_2_3089,ranger_2_8237,swordsman_2_4118</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_31,catapult_2_4689,crossbowman_2_14067,sentinel_2_9378,horseArcher_2_2344</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_32,crossbowman_2_21213,sentinel_2_15909,horseArcher_2_5303,ballista_2_1326</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_33,swordsman_2_23848,lancer_2_8943,catapult_2_2981,ranger_2_5962</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_34,lancer_2_13332,ballista_2_5000,ranger_2_13332,swordsman_2_6666</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_36,catapult_2_7417,crossbowman_2_22250,sentinel_2_14833,horseArcher_2_3708</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_4_38,crossbowman_2_32857,sentinel_2_24643,horseArcher_2_8214,ballista_2_2054</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6</t>
+  </si>
+  <si>
+    <t>villageRefreshMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落采空后多少分钟后刷新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_100</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_200</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_500</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_1000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_2000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gem_5000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_icon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_rewards</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_2</t>
+  </si>
+  <si>
+    <t>sentinel_2</t>
+  </si>
+  <si>
+    <t>crossbowman_2</t>
+  </si>
+  <si>
+    <t>ranger_2</t>
+  </si>
+  <si>
+    <t>skeletonArcher_2</t>
+  </si>
+  <si>
+    <t>lancer_2</t>
+  </si>
+  <si>
+    <t>horseArcher_2</t>
+  </si>
+  <si>
+    <t>catapult_2</t>
+  </si>
+  <si>
+    <t>ballista_2</t>
+  </si>
+  <si>
+    <t>skeletonWarrior_2</t>
+  </si>
+  <si>
+    <t>swordsman_3</t>
+  </si>
+  <si>
+    <t>sentinel_3</t>
+  </si>
+  <si>
+    <t>ranger_3</t>
+  </si>
+  <si>
+    <t>crossbowman_3</t>
+  </si>
+  <si>
+    <t>deathKnight_2</t>
+  </si>
+  <si>
+    <t>lancer_3</t>
+  </si>
+  <si>
+    <t>horseArcher_3</t>
+  </si>
+  <si>
+    <t>catapult_3</t>
+  </si>
+  <si>
+    <t>ballista_3</t>
+  </si>
+  <si>
+    <t>meatWagon_2</t>
+  </si>
+  <si>
+    <t>swordsman_3_1,lancer_3_1,catapult_3_1,ranger_3_1</t>
+  </si>
+  <si>
+    <t>sentinel_3_1,horseArcher_3_1,ballista_3_1,crossbowman_3_1</t>
+  </si>
+  <si>
+    <t>ranger_3_1,swordsman_3_1,lancer_3_1,catapult_3_1</t>
+  </si>
+  <si>
+    <t>crossbowman_3_1,sentinel_3_1,horseArcher_3_1,ballista_3_1</t>
+  </si>
+  <si>
+    <t>deathKnight_2_1,catapult_3_1,ranger_3_1,swordsman_3_1</t>
+  </si>
+  <si>
+    <t>lancer_3_1,catapult_3_1,ranger_3_1,swordsman_3_1</t>
+  </si>
+  <si>
+    <t>horseArcher_3_1,ballista_3_1,crossbowman_3_1,sentinel_3_1</t>
+  </si>
+  <si>
+    <t>catapult_3_1,ranger_3_1,swordsman_3_1,lancer_3_1</t>
+  </si>
+  <si>
+    <t>ballista_3_1,crossbowman_3_1,sentinel_3_1,horseArcher_3_1</t>
+  </si>
+  <si>
+    <t>meatWagon_3_1,horseArcher_3_1,ballista_3_1,crossbowman_3_1</t>
+  </si>
+  <si>
+    <t>STR_soldiers</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_dragon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>dragon_1_1,swordsman_1_16,lancer_1_6,catapult_1_2,ranger_1_4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>dragon_1_2,lancer_1_42,ballista_1_16,ranger_1_42,swordsman_1_21</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_3,catapult_1_56,crossbowman_1_168,sentinel_1_112,horseArcher_1_28</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_4,crossbowman_1_446,sentinel_1_334,horseArcher_1_111,ballista_1_28</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_6,swordsman_1_761,lancer_1_286,catapult_1_95,ranger_1_190</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_8,lancer_1_590,ballista_1_221,ranger_1_590,swordsman_1_295</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_11,catapult_1_427,crossbowman_1_1281,sentinel_1_854,horseArcher_1_213</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_12,crossbowman_1_2353,sentinel_1_1764,horseArcher_1_588,ballista_1_147</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_13,swordsman_1_3121,lancer_1_1170,catapult_1_390,ranger_1_780</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_14,lancer_1_2010,ballista_1_754,ranger_1_2010,swordsman_1_1055</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_16,catapult_1_1263,crossbowman_1_3789,sentinel_1_2526,horseArcher_1_631</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_18,crossbowman_1_6225,sentinel_1_4669,horseArcher_1_1556,ballista_1_389</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_21,swordsman_2_7544,lancer_2_2829,catapult_2_943,ranger_2_1886</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_22,lancer_2_4506,ballista_2_1690,ranger_2_4506,swordsman_2_2253</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_23,catapult_2_2659,crossbowman_2_7976,sentinel_2_5318,horseArcher_2_1329</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_24,crossbowman_2_12417,sentinel_2_9313,horseArcher_2_3104,ballista_2_776</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_26,swordsman_2_14361,lancer_2_5386,catapult_2_1795,ranger_2_3590</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_28,lancer_2_8237,ballista_2_3089,ranger_2_8237,swordsman_2_4118</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_31,catapult_2_4689,crossbowman_2_14067,sentinel_2_9378,horseArcher_2_2344</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_32,crossbowman_2_21213,sentinel_2_15909,horseArcher_2_5303,ballista_2_1326</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_33,swordsman_2_23848,lancer_2_8943,catapult_2_2981,ranger_2_5962</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_34,lancer_2_13332,ballista_2_5000,ranger_2_13332,swordsman_2_6666</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_36,catapult_2_7417,crossbowman_2_22250,sentinel_2_14833,horseArcher_2_3708</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_38,crossbowman_2_32857,sentinel_2_24643,horseArcher_2_8214,ballista_2_2054</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6</t>
-  </si>
-  <si>
-    <t>villageRefreshMinutes</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>村落采空后多少分钟后刷新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_100</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_200</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_500</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_1000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_2000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>gem_5000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>dragon_1_1</t>
+  </si>
+  <si>
+    <t>dragon_1_2</t>
+  </si>
+  <si>
+    <t>dragon_1_3</t>
+  </si>
+  <si>
+    <t>dragon_1_4</t>
+  </si>
+  <si>
+    <t>dragon_1_5</t>
+  </si>
+  <si>
+    <t>dragon_1_6</t>
+  </si>
+  <si>
+    <t>dragon_1_7</t>
+  </si>
+  <si>
+    <t>dragon_1_8</t>
+  </si>
+  <si>
+    <t>dragon_1_9</t>
+  </si>
+  <si>
+    <t>dragon_1_10</t>
+  </si>
+  <si>
+    <t>dragon_1_11</t>
+  </si>
+  <si>
+    <t>dragon_1_12</t>
+  </si>
+  <si>
+    <t>dragon_1_13</t>
+  </si>
+  <si>
+    <t>dragon_1_14</t>
+  </si>
+  <si>
+    <t>dragon_1_15</t>
+  </si>
+  <si>
+    <t>dragon_1_16</t>
+  </si>
+  <si>
+    <t>dragon_1_17</t>
+  </si>
+  <si>
+    <t>dragon_1_18</t>
+  </si>
+  <si>
+    <t>dragon_1_19</t>
+  </si>
+  <si>
+    <t>dragon_1_20</t>
+  </si>
+  <si>
+    <t>dragon_1_21</t>
+  </si>
+  <si>
+    <t>dragon_1_22</t>
+  </si>
+  <si>
+    <t>dragon_1_23</t>
+  </si>
+  <si>
+    <t>dragon_1_24</t>
+  </si>
+  <si>
+    <t>dragon_1_25</t>
+  </si>
+  <si>
+    <t>dragon_1_26</t>
+  </si>
+  <si>
+    <t>dragon_1_27</t>
+  </si>
+  <si>
+    <t>dragon_1_28</t>
+  </si>
+  <si>
+    <t>dragon_1_29</t>
+  </si>
+  <si>
+    <t>dragon_1_30</t>
+  </si>
+  <si>
+    <t>dragon_1_31</t>
+  </si>
+  <si>
+    <t>dragon_1_32</t>
+  </si>
+  <si>
+    <t>dragon_1_33</t>
+  </si>
+  <si>
+    <t>dragon_1_34</t>
+  </si>
+  <si>
+    <t>dragon_1_35</t>
+  </si>
+  <si>
+    <t>dragon_1_36</t>
+  </si>
+  <si>
+    <t>dragon_1_37</t>
+  </si>
+  <si>
+    <t>dragon_1_38</t>
+  </si>
+  <si>
+    <t>dragon_1_39</t>
+  </si>
+  <si>
+    <t>dragon_1_40</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:2:19,items:stoneClass_1:2:19,items:ironClass_1:2:19,items:foodClass_1:2:19,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,technologyMaterials:trainingFigure:1:1,technologyMaterials:bowTarget:1:1,technologyMaterials:saddle:1:1,technologyMaterials:ironPart:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:5:19,items:stoneClass_1:5:19,items:ironClass_1:5:19,items:foodClass_1:5:19,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,technologyMaterials:trainingFigure:1:1,technologyMaterials:bowTarget:1:1,technologyMaterials:saddle:1:1,technologyMaterials:ironPart:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:10:19,items:stoneClass_1:10:19,items:ironClass_1:10:19,items:foodClass_1:10:19,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,technologyMaterials:trainingFigure:1:1,technologyMaterials:bowTarget:1:1,technologyMaterials:saddle:1:1,technologyMaterials:ironPart:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:15:19,items:stoneClass_1:15:19,items:ironClass_1:15:19,items:foodClass_1:15:19,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,technologyMaterials:trainingFigure:1:1,technologyMaterials:bowTarget:1:1,technologyMaterials:saddle:1:1,technologyMaterials:ironPart:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:1:19,items:stoneClass_2:1:19,items:ironClass_2:1:19,items:foodClass_2:1:19,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,technologyMaterials:trainingFigure:1:1,technologyMaterials:bowTarget:1:1,technologyMaterials:saddle:1:1,technologyMaterials:ironPart:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:2:19,items:stoneClass_2:2:19,items:ironClass_2:2:19,items:foodClass_2:2:19,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,technologyMaterials:trainingFigure:2:1,technologyMaterials:bowTarget:2:1,technologyMaterials:saddle:2:1,technologyMaterials:ironPart:2:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:3:19,items:stoneClass_2:3:19,items:ironClass_2:3:19,items:foodClass_2:3:19,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,technologyMaterials:trainingFigure:3:1,technologyMaterials:bowTarget:3:1,technologyMaterials:saddle:3:1,technologyMaterials:ironPart:3:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:4:19,items:stoneClass_2:4:19,items:ironClass_2:4:19,items:foodClass_2:4:19,buildingMaterials:blueprints:4:5,buildingMaterials:tools:4:5,buildingMaterials:tiles:4:5,buildingMaterials:pulley:4:5,technologyMaterials:trainingFigure:4:1,technologyMaterials:bowTarget:4:1,technologyMaterials:saddle:4:1,technologyMaterials:ironPart:4:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:5:19,items:stoneClass_2:5:19,items:ironClass_2:5:19,items:foodClass_2:5:19,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,technologyMaterials:trainingFigure:5:1,technologyMaterials:bowTarget:5:1,technologyMaterials:saddle:5:1,technologyMaterials:ironPart:5:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:6:19,items:stoneClass_2:6:19,items:ironClass_2:6:19,items:foodClass_2:6:19,buildingMaterials:blueprints:6:5,buildingMaterials:tools:6:5,buildingMaterials:tiles:6:5,buildingMaterials:pulley:6:5,technologyMaterials:trainingFigure:6:1,technologyMaterials:bowTarget:6:1,technologyMaterials:saddle:6:1,technologyMaterials:ironPart:6:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:7:19,items:stoneClass_2:7:19,items:ironClass_2:7:19,items:foodClass_2:7:19,buildingMaterials:blueprints:7:5,buildingMaterials:tools:7:5,buildingMaterials:tiles:7:5,buildingMaterials:pulley:7:5,technologyMaterials:trainingFigure:7:1,technologyMaterials:bowTarget:7:1,technologyMaterials:saddle:7:1,technologyMaterials:ironPart:7:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:8:19,items:stoneClass_2:8:19,items:ironClass_2:8:19,items:foodClass_2:8:19,buildingMaterials:blueprints:8:5,buildingMaterials:tools:8:5,buildingMaterials:tiles:8:5,buildingMaterials:pulley:8:5,technologyMaterials:trainingFigure:8:1,technologyMaterials:bowTarget:8:1,technologyMaterials:saddle:8:1,technologyMaterials:ironPart:8:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:9:19,items:stoneClass_2:9:19,items:ironClass_2:9:19,items:foodClass_2:9:19,buildingMaterials:blueprints:9:5,buildingMaterials:tools:9:5,buildingMaterials:tiles:9:5,buildingMaterials:pulley:9:5,technologyMaterials:trainingFigure:9:1,technologyMaterials:bowTarget:9:1,technologyMaterials:saddle:9:1,technologyMaterials:ironPart:9:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:2:19,items:stoneClass_3:2:19,items:ironClass_3:2:19,items:foodClass_3:2:19,buildingMaterials:blueprints:10:5,buildingMaterials:tools:10:5,buildingMaterials:tiles:10:5,buildingMaterials:pulley:10:5,technologyMaterials:trainingFigure:10:1,technologyMaterials:bowTarget:10:1,technologyMaterials:saddle:10:1,technologyMaterials:ironPart:10:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:12:19,items:stoneClass_2:12:19,items:ironClass_2:12:19,items:foodClass_2:12:19,buildingMaterials:blueprints:11:5,buildingMaterials:tools:11:5,buildingMaterials:tiles:11:5,buildingMaterials:pulley:11:5,technologyMaterials:trainingFigure:11:1,technologyMaterials:bowTarget:11:1,technologyMaterials:saddle:11:1,technologyMaterials:ironPart:11:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:14:19,items:stoneClass_2:14:19,items:ironClass_2:14:19,items:foodClass_2:14:19,buildingMaterials:blueprints:12:5,buildingMaterials:tools:12:5,buildingMaterials:tiles:12:5,buildingMaterials:pulley:12:5,technologyMaterials:trainingFigure:12:1,technologyMaterials:bowTarget:12:1,technologyMaterials:saddle:12:1,technologyMaterials:ironPart:12:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:16:19,items:stoneClass_2:16:19,items:ironClass_2:16:19,items:foodClass_2:16:19,buildingMaterials:blueprints:13:5,buildingMaterials:tools:13:5,buildingMaterials:tiles:13:5,buildingMaterials:pulley:13:5,technologyMaterials:trainingFigure:13:1,technologyMaterials:bowTarget:13:1,technologyMaterials:saddle:13:1,technologyMaterials:ironPart:13:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:18:19,items:stoneClass_2:18:19,items:ironClass_2:18:19,items:foodClass_2:18:19,buildingMaterials:blueprints:14:5,buildingMaterials:tools:14:5,buildingMaterials:tiles:14:5,buildingMaterials:pulley:14:5,technologyMaterials:trainingFigure:14:1,technologyMaterials:bowTarget:14:1,technologyMaterials:saddle:14:1,technologyMaterials:ironPart:14:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:4:19,items:stoneClass_3:4:19,items:ironClass_3:4:19,items:foodClass_3:4:19,buildingMaterials:blueprints:15:5,buildingMaterials:tools:15:5,buildingMaterials:tiles:15:5,buildingMaterials:pulley:15:5,technologyMaterials:trainingFigure:15:1,technologyMaterials:bowTarget:15:1,technologyMaterials:saddle:15:1,technologyMaterials:ironPart:15:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:1:19,items:stoneClass_4:1:19,items:ironClass_4:1:19,items:foodClass_4:1:19,buildingMaterials:blueprints:16:5,buildingMaterials:tools:16:5,buildingMaterials:tiles:16:5,buildingMaterials:pulley:16:5,technologyMaterials:trainingFigure:16:1,technologyMaterials:bowTarget:16:1,technologyMaterials:saddle:16:1,technologyMaterials:ironPart:16:1:19</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +2140,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="639">
+  <cellStyleXfs count="649">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2489,8 +2784,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2552,8 +2857,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="639">
+  <cellStyles count="649">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2875,6 +3192,11 @@
     <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="647" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3189,6 +3511,11 @@
     <cellStyle name="访问过的超链接" xfId="634" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="636" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="648" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3865,13 +4192,13 @@
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B20" s="8">
         <v>240</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5274,7 +5601,7 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>186</v>
@@ -5297,7 +5624,7 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>186</v>
@@ -5320,7 +5647,7 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>186</v>
@@ -5343,7 +5670,7 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>186</v>
@@ -5366,7 +5693,7 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>186</v>
@@ -5389,7 +5716,7 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>186</v>
@@ -5435,8 +5762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P35"/>
+    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5560,7 +5887,7 @@
         <v>160</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>234</v>
+        <v>507</v>
       </c>
       <c r="J2" s="16">
         <v>40</v>
@@ -5584,31 +5911,31 @@
         <v>50</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
@@ -5637,7 +5964,7 @@
         <v>844</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J3" s="16">
         <v>170</v>
@@ -5661,31 +5988,31 @@
         <v>290</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
@@ -5714,7 +6041,7 @@
         <v>2235</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J4" s="16">
         <v>450</v>
@@ -5738,31 +6065,31 @@
         <v>780</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Y4" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
@@ -5791,7 +6118,7 @@
         <v>4457</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J5" s="16">
         <v>900</v>
@@ -5815,31 +6142,31 @@
         <v>1560</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="W5" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X5" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Y5" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
@@ -5868,7 +6195,7 @@
         <v>7615</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J6" s="16">
         <v>1530</v>
@@ -5892,31 +6219,31 @@
         <v>2660</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R6" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
@@ -5945,7 +6272,7 @@
         <v>11795</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J7" s="16">
         <v>2360</v>
@@ -5969,31 +6296,31 @@
         <v>4120</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V7" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="W7" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y7" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
@@ -6022,7 +6349,7 @@
         <v>17075</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J8" s="16">
         <v>3420</v>
@@ -6046,31 +6373,31 @@
         <v>5970</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R8" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Y8" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
@@ -6099,7 +6426,7 @@
         <v>23525</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J9" s="16">
         <v>4710</v>
@@ -6123,31 +6450,31 @@
         <v>8230</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="W9" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X9" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Y9" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
@@ -6176,7 +6503,7 @@
         <v>31211</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J10" s="16">
         <v>6250</v>
@@ -6200,31 +6527,31 @@
         <v>10920</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R10" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="W10" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="Y10" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
@@ -6253,7 +6580,7 @@
         <v>40190</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J11" s="16">
         <v>8040</v>
@@ -6280,28 +6607,28 @@
         <v>190</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T11" s="16" t="s">
         <v>191</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="W11" s="16" t="s">
         <v>192</v>
       </c>
       <c r="X11" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Y11" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
@@ -6330,7 +6657,7 @@
         <v>50520</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J12" s="16">
         <v>10110</v>
@@ -6354,31 +6681,31 @@
         <v>17680</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="V12" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="W12" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y12" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
@@ -6407,7 +6734,7 @@
         <v>62252</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J13" s="16">
         <v>12460</v>
@@ -6431,31 +6758,31 @@
         <v>21780</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W13" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="Y13" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
@@ -6484,7 +6811,7 @@
         <v>75437</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J14" s="16">
         <v>15090</v>
@@ -6508,31 +6835,31 @@
         <v>26400</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U14" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V14" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W14" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X14" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
@@ -6561,7 +6888,7 @@
         <v>90121</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J15" s="16">
         <v>18030</v>
@@ -6585,31 +6912,31 @@
         <v>31540</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="V15" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W15" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="X15" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Y15" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
@@ -6638,7 +6965,7 @@
         <v>106350</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J16" s="16">
         <v>21280</v>
@@ -6662,31 +6989,31 @@
         <v>37220</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="V16" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="W16" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X16" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y16" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
@@ -6715,7 +7042,7 @@
         <v>124168</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J17" s="16">
         <v>24840</v>
@@ -6742,28 +7069,28 @@
         <v>194</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S17" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T17" s="16" t="s">
         <v>195</v>
       </c>
       <c r="U17" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="V17" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="W17" s="16" t="s">
         <v>196</v>
       </c>
       <c r="X17" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
@@ -6792,7 +7119,7 @@
         <v>143614</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J18" s="16">
         <v>28730</v>
@@ -6816,31 +7143,31 @@
         <v>50260</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U18" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="V18" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W18" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="X18" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Y18" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
@@ -6869,7 +7196,7 @@
         <v>164730</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J19" s="16">
         <v>32950</v>
@@ -6893,31 +7220,31 @@
         <v>57650</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U19" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V19" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W19" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="X19" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y19" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
@@ -6946,7 +7273,7 @@
         <v>187555</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J20" s="16">
         <v>37520</v>
@@ -6970,31 +7297,31 @@
         <v>65640</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U20" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V20" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="W20" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X20" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
@@ -7023,7 +7350,7 @@
         <v>212125</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J21" s="16">
         <v>42430</v>
@@ -7047,31 +7374,31 @@
         <v>74240</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U21" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="V21" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W21" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X21" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Y21" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
@@ -7100,7 +7427,7 @@
         <v>238477</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J22" s="16">
         <v>47700</v>
@@ -7124,31 +7451,31 @@
         <v>83460</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U22" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="V22" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X22" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Y22" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
@@ -7177,7 +7504,7 @@
         <v>266646</v>
       </c>
       <c r="I23" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J23" s="13">
         <v>53330</v>
@@ -7204,28 +7531,28 @@
         <v>198</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T23" s="16" t="s">
         <v>199</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="V23" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="W23" s="16" t="s">
         <v>200</v>
       </c>
       <c r="X23" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
@@ -7254,7 +7581,7 @@
         <v>296665</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J24" s="13">
         <v>59340</v>
@@ -7278,31 +7605,31 @@
         <v>103830</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R24" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S24" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X24" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Y24" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
@@ -7331,7 +7658,7 @@
         <v>328569</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J25" s="13">
         <v>65720</v>
@@ -7355,31 +7682,31 @@
         <v>114990</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U25" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="V25" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W25" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X25" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y25" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="20" customHeight="1">
@@ -9461,7 +9788,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9545,6 +9872,733 @@
       </c>
       <c r="C7" s="1">
         <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="24"/>
+    <col min="2" max="2" width="25" style="24" customWidth="1"/>
+    <col min="3" max="4" width="62.33203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="120.5" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="20.6640625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="22" customFormat="1">
+      <c r="A1" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" ht="45">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45">
+      <c r="A34" s="16">
+        <v>33</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45">
+      <c r="A35" s="16">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="60">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="60">
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="60">
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="60">
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45">
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60">
+      <c r="A41" s="16">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="37360" windowHeight="19900" tabRatio="566" activeTab="8"/>
+    <workbookView xWindow="2160" yWindow="0" windowWidth="30120" windowHeight="17280" tabRatio="566" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="625">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1732,226 +1732,445 @@
     <t>meatWagon_2</t>
   </si>
   <si>
-    <t>swordsman_3_1,lancer_3_1,catapult_3_1,ranger_3_1</t>
-  </si>
-  <si>
-    <t>sentinel_3_1,horseArcher_3_1,ballista_3_1,crossbowman_3_1</t>
-  </si>
-  <si>
-    <t>ranger_3_1,swordsman_3_1,lancer_3_1,catapult_3_1</t>
-  </si>
-  <si>
-    <t>crossbowman_3_1,sentinel_3_1,horseArcher_3_1,ballista_3_1</t>
-  </si>
-  <si>
-    <t>deathKnight_2_1,catapult_3_1,ranger_3_1,swordsman_3_1</t>
-  </si>
-  <si>
-    <t>lancer_3_1,catapult_3_1,ranger_3_1,swordsman_3_1</t>
-  </si>
-  <si>
-    <t>horseArcher_3_1,ballista_3_1,crossbowman_3_1,sentinel_3_1</t>
-  </si>
-  <si>
-    <t>catapult_3_1,ranger_3_1,swordsman_3_1,lancer_3_1</t>
-  </si>
-  <si>
-    <t>ballista_3_1,crossbowman_3_1,sentinel_3_1,horseArcher_3_1</t>
-  </si>
-  <si>
-    <t>meatWagon_3_1,horseArcher_3_1,ballista_3_1,crossbowman_3_1</t>
+    <t>STR_dragon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_1,swordsman_1_16,lancer_1_6,catapult_1_2,ranger_1_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2_50</t>
+  </si>
+  <si>
+    <t>swordsman_2_5</t>
+  </si>
+  <si>
+    <t>swordsman_2_10</t>
+  </si>
+  <si>
+    <t>ranger_2_20</t>
+  </si>
+  <si>
+    <t>ranger_2_35</t>
+  </si>
+  <si>
+    <t>sentinel_2_80</t>
+  </si>
+  <si>
+    <t>skeletonWarrior_2_130</t>
+  </si>
+  <si>
+    <t>skeletonWarrior_2_180</t>
+  </si>
+  <si>
+    <t>crossbowman_2_230</t>
+  </si>
+  <si>
+    <t>crossbowman_2_280</t>
+  </si>
+  <si>
+    <t>skeletonArcher_2_650</t>
+  </si>
+  <si>
+    <t>skeletonArcher_2_750</t>
+  </si>
+  <si>
+    <t>lancer_2_430</t>
+  </si>
+  <si>
+    <t>lancer_2_480</t>
+  </si>
+  <si>
+    <t>horseArcher_2_550</t>
+  </si>
+  <si>
+    <t>horseArcher_2_600</t>
+  </si>
+  <si>
+    <t>deathKnight_2_650</t>
+  </si>
+  <si>
+    <t>deathKnight_2_730</t>
+  </si>
+  <si>
+    <t>catapult_2_390</t>
+  </si>
+  <si>
+    <t>catapult_2_420</t>
+  </si>
+  <si>
+    <t>ballista_2_420</t>
+  </si>
+  <si>
+    <t>ballista_2_450</t>
+  </si>
+  <si>
+    <t>meatWagon_490</t>
+  </si>
+  <si>
+    <t>meatWagon_520</t>
+  </si>
+  <si>
+    <t>swordsman_3_2250</t>
+  </si>
+  <si>
+    <t>swordsman_3_2390</t>
+  </si>
+  <si>
+    <t>sentinel_3_2570</t>
+  </si>
+  <si>
+    <t>sentinel_3_2700</t>
+  </si>
+  <si>
+    <t>ranger_3_4330</t>
+  </si>
+  <si>
+    <t>ranger_3_4530</t>
+  </si>
+  <si>
+    <t>crossbowman_3_4450</t>
+  </si>
+  <si>
+    <t>crossbowman_3_4720</t>
+  </si>
+  <si>
+    <t>lancer_3_2560</t>
+  </si>
+  <si>
+    <t>lancer_3_2700</t>
+  </si>
+  <si>
+    <t>horseArcher_3_2900</t>
+  </si>
+  <si>
+    <t>horseArcher_3_3030</t>
+  </si>
+  <si>
+    <t>catapult_3_1620</t>
+  </si>
+  <si>
+    <t>catapult_3_1680</t>
+  </si>
+  <si>
+    <t>ballista_3_2670</t>
+  </si>
+  <si>
+    <t>ballista_3_2770</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:2:16,items:stoneClass_1:2:16,items:ironClass_1:2:16,items:foodClass_1:2:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:2:15,items:gemClass_1:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:5:16,items:stoneClass_1:5:16,items:ironClass_1:5:16,items:foodClass_1:5:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:5:15,items:gemClass_1:2:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:10:16,items:stoneClass_1:10:16,items:ironClass_1:10:16,items:foodClass_1:10:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:10:15,items:gemClass_1:3:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:15:16,items:stoneClass_1:15:16,items:ironClass_1:15:16,items:foodClass_1:15:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:15:15,items:gemClass_1:4:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:1:16,items:stoneClass_2:1:16,items:ironClass_2:1:16,items:foodClass_2:1:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:1:15,items:gemClass_1:5:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:2:16,items:stoneClass_2:2:16,items:ironClass_2:2:16,items:foodClass_2:2:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:2:15,items:gemClass_1:6:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:3:16,items:stoneClass_2:3:16,items:ironClass_2:3:16,items:foodClass_2:3:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:3:15,items:gemClass_1:7:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:4:16,items:stoneClass_2:4:16,items:ironClass_2:4:16,items:foodClass_2:4:16,buildingMaterials:blueprints:4:5,buildingMaterials:tools:4:5,buildingMaterials:tiles:4:5,buildingMaterials:pulley:4:5,items:coinClass_2:4:15,items:gemClass_1:8:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:5:16,items:stoneClass_2:5:16,items:ironClass_2:5:16,items:foodClass_2:5:16,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,items:coinClass_2:5:15,items:gemClass_1:9:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:6:16,items:stoneClass_2:6:16,items:ironClass_2:6:16,items:foodClass_2:6:16,buildingMaterials:blueprints:6:5,buildingMaterials:tools:6:5,buildingMaterials:tiles:6:5,buildingMaterials:pulley:6:5,items:coinClass_2:6:15,items:gemClass_2:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:7:16,items:stoneClass_2:7:16,items:ironClass_2:7:16,items:foodClass_2:7:16,buildingMaterials:blueprints:7:5,buildingMaterials:tools:7:5,buildingMaterials:tiles:7:5,buildingMaterials:pulley:7:5,items:coinClass_2:7:15,items:gemClass_1:11:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:8:16,items:stoneClass_2:8:16,items:ironClass_2:8:16,items:foodClass_2:8:16,buildingMaterials:blueprints:8:5,buildingMaterials:tools:8:5,buildingMaterials:tiles:8:5,buildingMaterials:pulley:8:5,items:coinClass_2:8:15,items:gemClass_1:12:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:9:16,items:stoneClass_2:9:16,items:ironClass_2:9:16,items:foodClass_2:9:16,buildingMaterials:blueprints:9:5,buildingMaterials:tools:9:5,buildingMaterials:tiles:9:5,buildingMaterials:pulley:9:5,items:coinClass_2:9:15,items:gemClass_1:13:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:2:16,items:stoneClass_3:2:16,items:ironClass_3:2:16,items:foodClass_3:2:16,buildingMaterials:blueprints:10:5,buildingMaterials:tools:10:5,buildingMaterials:tiles:10:5,buildingMaterials:pulley:10:5,items:coinClass_3:2:15,items:gemClass_1:14:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:12:16,items:stoneClass_2:12:16,items:ironClass_2:12:16,items:foodClass_2:12:16,buildingMaterials:blueprints:11:5,buildingMaterials:tools:11:5,buildingMaterials:tiles:11:5,buildingMaterials:pulley:11:5,items:coinClass_2:12:15,items:gemClass_1:15:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:14:16,items:stoneClass_2:14:16,items:ironClass_2:14:16,items:foodClass_2:14:16,buildingMaterials:blueprints:12:5,buildingMaterials:tools:12:5,buildingMaterials:tiles:12:5,buildingMaterials:pulley:12:5,items:coinClass_2:14:15,items:gemClass_1:16:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:16:16,items:stoneClass_2:16:16,items:ironClass_2:16:16,items:foodClass_2:16:16,buildingMaterials:blueprints:13:5,buildingMaterials:tools:13:5,buildingMaterials:tiles:13:5,buildingMaterials:pulley:13:5,items:coinClass_2:16:15,items:gemClass_1:17:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:18:16,items:stoneClass_2:18:16,items:ironClass_2:18:16,items:foodClass_2:18:16,buildingMaterials:blueprints:14:5,buildingMaterials:tools:14:5,buildingMaterials:tiles:14:5,buildingMaterials:pulley:14:5,items:coinClass_2:18:15,items:gemClass_1:18:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:4:16,items:stoneClass_3:4:16,items:ironClass_3:4:16,items:foodClass_3:4:16,buildingMaterials:blueprints:15:5,buildingMaterials:tools:15:5,buildingMaterials:tiles:15:5,buildingMaterials:pulley:15:5,items:coinClass_3:4:15,items:gemClass_1:19:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:1:16,items:stoneClass_4:1:16,items:ironClass_4:1:16,items:foodClass_4:1:16,buildingMaterials:blueprints:16:5,buildingMaterials:tools:16:5,buildingMaterials:tiles:16:5,buildingMaterials:pulley:16:5,items:coinClass_4:1:15,items:gemClass_2:2:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:6:16,items:stoneClass_3:6:16,items:ironClass_3:6:16,items:foodClass_3:6:16,buildingMaterials:blueprints:17:5,buildingMaterials:tools:17:5,buildingMaterials:tiles:17:5,buildingMaterials:pulley:17:5,items:coinClass_3:6:15,items:gemClass_1:21:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:7:16,items:stoneClass_3:7:16,items:ironClass_3:7:16,items:foodClass_3:7:16,buildingMaterials:blueprints:18:5,buildingMaterials:tools:18:5,buildingMaterials:tiles:18:5,buildingMaterials:pulley:18:5,items:coinClass_3:7:15,items:gemClass_1:22:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:8:16,items:stoneClass_3:8:16,items:ironClass_3:8:16,items:foodClass_3:8:16,buildingMaterials:blueprints:19:5,buildingMaterials:tools:19:5,buildingMaterials:tiles:19:5,buildingMaterials:pulley:19:5,items:coinClass_3:8:15,items:gemClass_1:23:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:9:16,items:stoneClass_3:9:16,items:ironClass_3:9:16,items:foodClass_3:9:16,buildingMaterials:blueprints:20:5,buildingMaterials:tools:20:5,buildingMaterials:tiles:20:5,buildingMaterials:pulley:20:5,items:coinClass_3:9:15,items:gemClass_1:24:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:2:16,items:stoneClass_4:2:16,items:ironClass_4:2:16,items:foodClass_4:2:16,buildingMaterials:blueprints:21:5,buildingMaterials:tools:21:5,buildingMaterials:tiles:21:5,buildingMaterials:pulley:21:5,items:coinClass_4:2:15,items:gemClass_1:25:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:3:16,items:stoneClass_4:3:16,items:ironClass_4:3:16,items:foodClass_4:3:16,buildingMaterials:blueprints:22:5,buildingMaterials:tools:22:5,buildingMaterials:tiles:22:5,buildingMaterials:pulley:22:5,items:coinClass_4:3:15,items:gemClass_1:26:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:4:16,items:stoneClass_4:4:16,items:ironClass_4:4:16,items:foodClass_4:4:16,buildingMaterials:blueprints:23:5,buildingMaterials:tools:23:5,buildingMaterials:tiles:23:5,buildingMaterials:pulley:23:5,items:coinClass_4:4:15,items:gemClass_1:27:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:5:16,items:stoneClass_4:5:16,items:ironClass_4:5:16,items:foodClass_4:5:16,buildingMaterials:blueprints:24:5,buildingMaterials:tools:24:5,buildingMaterials:tiles:24:5,buildingMaterials:pulley:24:5,items:coinClass_4:5:15,items:gemClass_1:28:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:6:16,items:stoneClass_4:6:16,items:ironClass_4:6:16,items:foodClass_4:6:16,buildingMaterials:blueprints:25:5,buildingMaterials:tools:25:5,buildingMaterials:tiles:25:5,buildingMaterials:pulley:25:5,items:coinClass_4:6:15,items:gemClass_1:29:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:7:16,items:stoneClass_4:7:16,items:ironClass_4:7:16,items:foodClass_4:7:16,buildingMaterials:blueprints:26:5,buildingMaterials:tools:26:5,buildingMaterials:tiles:26:5,buildingMaterials:pulley:26:5,items:coinClass_4:7:15,items:gemClass_2:3:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:8:16,items:stoneClass_4:8:16,items:ironClass_4:8:16,items:foodClass_4:8:16,buildingMaterials:blueprints:27:5,buildingMaterials:tools:27:5,buildingMaterials:tiles:27:5,buildingMaterials:pulley:27:5,items:coinClass_4:8:15,items:gemClass_1:31:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:3:16,items:stoneClass_5:3:16,items:ironClass_5:3:16,items:foodClass_5:3:16,buildingMaterials:blueprints:28:5,buildingMaterials:tools:28:5,buildingMaterials:tiles:28:5,buildingMaterials:pulley:28:5,items:coinClass_5:3:15,items:gemClass_1:32:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:1:16,items:stoneClass_6:1:16,items:ironClass_6:1:16,items:foodClass_6:1:16,buildingMaterials:blueprints:29:5,buildingMaterials:tools:29:5,buildingMaterials:tiles:29:5,buildingMaterials:pulley:29:5,items:coinClass_6:1:15,items:gemClass_1:33:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:4:16,items:stoneClass_5:4:16,items:ironClass_5:4:16,items:foodClass_5:4:16,buildingMaterials:blueprints:30:5,buildingMaterials:tools:30:5,buildingMaterials:tiles:30:5,buildingMaterials:pulley:30:5,items:coinClass_5:4:15,items:gemClass_1:34:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:5:16,items:stoneClass_5:5:16,items:ironClass_5:5:16,items:foodClass_5:5:16,buildingMaterials:blueprints:31:5,buildingMaterials:tools:31:5,buildingMaterials:tiles:31:5,buildingMaterials:pulley:31:5,items:coinClass_5:5:15,items:gemClass_1:35:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:6:16,items:stoneClass_5:6:16,items:ironClass_5:6:16,items:foodClass_5:6:16,buildingMaterials:blueprints:32:5,buildingMaterials:tools:32:5,buildingMaterials:tiles:32:5,buildingMaterials:pulley:32:5,items:coinClass_5:6:15,items:gemClass_1:36:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:7:16,items:stoneClass_5:7:16,items:ironClass_5:7:16,items:foodClass_5:7:16,buildingMaterials:blueprints:34:5,buildingMaterials:tools:34:5,buildingMaterials:tiles:34:5,buildingMaterials:pulley:34:5,items:coinClass_5:7:15,items:gemClass_1:37:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:8:16,items:stoneClass_5:8:16,items:ironClass_5:8:16,items:foodClass_5:8:16,buildingMaterials:blueprints:36:5,buildingMaterials:tools:36:5,buildingMaterials:tiles:36:5,buildingMaterials:pulley:36:5,items:coinClass_5:8:15,items:gemClass_1:38:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:9:16,items:stoneClass_5:9:16,items:ironClass_5:9:16,items:foodClass_5:9:16,buildingMaterials:blueprints:38:5,buildingMaterials:tools:38:5,buildingMaterials:tiles:38:5,buildingMaterials:pulley:38:5,items:coinClass_5:9:15,items:gemClass_1:39:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:3:16,items:stoneClass_6:3:16,items:ironClass_6:3:16,items:foodClass_6:3:16,buildingMaterials:blueprints:40:5,buildingMaterials:tools:40:5,buildingMaterials:tiles:40:5,buildingMaterials:pulley:40:5,items:coinClass_6:3:15,items:gemClass_2:4:1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterRefreshMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域地图野怪多少分钟后刷新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>minMonsterCount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟领地最少的野怪数量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>monstersPerPlayer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个联盟玩家创建多少个野怪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_13</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_14</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_15</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_16</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_17</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_18</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_19</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_21</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_22</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_23</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_24</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_25</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_26</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_27</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_28</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_29</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_31</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_32</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_33</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_34</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_35</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_36</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_37</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_38</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_39</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_40</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_soldiers</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_dragon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_1,swordsman_1_16,lancer_1_6,catapult_1_2,ranger_1_4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_1</t>
-  </si>
-  <si>
-    <t>dragon_1_2</t>
-  </si>
-  <si>
-    <t>dragon_1_3</t>
-  </si>
-  <si>
-    <t>dragon_1_4</t>
-  </si>
-  <si>
-    <t>dragon_1_5</t>
-  </si>
-  <si>
-    <t>dragon_1_6</t>
-  </si>
-  <si>
-    <t>dragon_1_7</t>
-  </si>
-  <si>
-    <t>dragon_1_8</t>
-  </si>
-  <si>
-    <t>dragon_1_9</t>
-  </si>
-  <si>
-    <t>dragon_1_10</t>
-  </si>
-  <si>
-    <t>dragon_1_11</t>
-  </si>
-  <si>
-    <t>dragon_1_12</t>
-  </si>
-  <si>
-    <t>dragon_1_13</t>
-  </si>
-  <si>
-    <t>dragon_1_14</t>
-  </si>
-  <si>
-    <t>dragon_1_15</t>
-  </si>
-  <si>
-    <t>dragon_1_16</t>
-  </si>
-  <si>
-    <t>dragon_1_17</t>
-  </si>
-  <si>
-    <t>dragon_1_18</t>
-  </si>
-  <si>
-    <t>dragon_1_19</t>
-  </si>
-  <si>
-    <t>dragon_1_20</t>
-  </si>
-  <si>
-    <t>dragon_1_21</t>
-  </si>
-  <si>
-    <t>dragon_1_22</t>
-  </si>
-  <si>
-    <t>dragon_1_23</t>
-  </si>
-  <si>
-    <t>dragon_1_24</t>
-  </si>
-  <si>
-    <t>dragon_1_25</t>
-  </si>
-  <si>
-    <t>dragon_1_26</t>
-  </si>
-  <si>
-    <t>dragon_1_27</t>
-  </si>
-  <si>
-    <t>dragon_1_28</t>
-  </si>
-  <si>
-    <t>dragon_1_29</t>
-  </si>
-  <si>
-    <t>dragon_1_30</t>
-  </si>
-  <si>
-    <t>dragon_1_31</t>
-  </si>
-  <si>
-    <t>dragon_1_32</t>
-  </si>
-  <si>
-    <t>dragon_1_33</t>
-  </si>
-  <si>
-    <t>dragon_1_34</t>
-  </si>
-  <si>
-    <t>dragon_1_35</t>
-  </si>
-  <si>
-    <t>dragon_1_36</t>
-  </si>
-  <si>
-    <t>dragon_1_37</t>
-  </si>
-  <si>
-    <t>dragon_1_38</t>
-  </si>
-  <si>
-    <t>dragon_1_39</t>
-  </si>
-  <si>
-    <t>dragon_1_40</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:2:19,items:stoneClass_1:2:19,items:ironClass_1:2:19,items:foodClass_1:2:19,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,technologyMaterials:trainingFigure:1:1,technologyMaterials:bowTarget:1:1,technologyMaterials:saddle:1:1,technologyMaterials:ironPart:1:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:5:19,items:stoneClass_1:5:19,items:ironClass_1:5:19,items:foodClass_1:5:19,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,technologyMaterials:trainingFigure:1:1,technologyMaterials:bowTarget:1:1,technologyMaterials:saddle:1:1,technologyMaterials:ironPart:1:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:10:19,items:stoneClass_1:10:19,items:ironClass_1:10:19,items:foodClass_1:10:19,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,technologyMaterials:trainingFigure:1:1,technologyMaterials:bowTarget:1:1,technologyMaterials:saddle:1:1,technologyMaterials:ironPart:1:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:15:19,items:stoneClass_1:15:19,items:ironClass_1:15:19,items:foodClass_1:15:19,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,technologyMaterials:trainingFigure:1:1,technologyMaterials:bowTarget:1:1,technologyMaterials:saddle:1:1,technologyMaterials:ironPart:1:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:1:19,items:stoneClass_2:1:19,items:ironClass_2:1:19,items:foodClass_2:1:19,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,technologyMaterials:trainingFigure:1:1,technologyMaterials:bowTarget:1:1,technologyMaterials:saddle:1:1,technologyMaterials:ironPart:1:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:2:19,items:stoneClass_2:2:19,items:ironClass_2:2:19,items:foodClass_2:2:19,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,technologyMaterials:trainingFigure:2:1,technologyMaterials:bowTarget:2:1,technologyMaterials:saddle:2:1,technologyMaterials:ironPart:2:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:3:19,items:stoneClass_2:3:19,items:ironClass_2:3:19,items:foodClass_2:3:19,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,technologyMaterials:trainingFigure:3:1,technologyMaterials:bowTarget:3:1,technologyMaterials:saddle:3:1,technologyMaterials:ironPart:3:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:4:19,items:stoneClass_2:4:19,items:ironClass_2:4:19,items:foodClass_2:4:19,buildingMaterials:blueprints:4:5,buildingMaterials:tools:4:5,buildingMaterials:tiles:4:5,buildingMaterials:pulley:4:5,technologyMaterials:trainingFigure:4:1,technologyMaterials:bowTarget:4:1,technologyMaterials:saddle:4:1,technologyMaterials:ironPart:4:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:5:19,items:stoneClass_2:5:19,items:ironClass_2:5:19,items:foodClass_2:5:19,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,technologyMaterials:trainingFigure:5:1,technologyMaterials:bowTarget:5:1,technologyMaterials:saddle:5:1,technologyMaterials:ironPart:5:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:6:19,items:stoneClass_2:6:19,items:ironClass_2:6:19,items:foodClass_2:6:19,buildingMaterials:blueprints:6:5,buildingMaterials:tools:6:5,buildingMaterials:tiles:6:5,buildingMaterials:pulley:6:5,technologyMaterials:trainingFigure:6:1,technologyMaterials:bowTarget:6:1,technologyMaterials:saddle:6:1,technologyMaterials:ironPart:6:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:7:19,items:stoneClass_2:7:19,items:ironClass_2:7:19,items:foodClass_2:7:19,buildingMaterials:blueprints:7:5,buildingMaterials:tools:7:5,buildingMaterials:tiles:7:5,buildingMaterials:pulley:7:5,technologyMaterials:trainingFigure:7:1,technologyMaterials:bowTarget:7:1,technologyMaterials:saddle:7:1,technologyMaterials:ironPart:7:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:8:19,items:stoneClass_2:8:19,items:ironClass_2:8:19,items:foodClass_2:8:19,buildingMaterials:blueprints:8:5,buildingMaterials:tools:8:5,buildingMaterials:tiles:8:5,buildingMaterials:pulley:8:5,technologyMaterials:trainingFigure:8:1,technologyMaterials:bowTarget:8:1,technologyMaterials:saddle:8:1,technologyMaterials:ironPart:8:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:9:19,items:stoneClass_2:9:19,items:ironClass_2:9:19,items:foodClass_2:9:19,buildingMaterials:blueprints:9:5,buildingMaterials:tools:9:5,buildingMaterials:tiles:9:5,buildingMaterials:pulley:9:5,technologyMaterials:trainingFigure:9:1,technologyMaterials:bowTarget:9:1,technologyMaterials:saddle:9:1,technologyMaterials:ironPart:9:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:2:19,items:stoneClass_3:2:19,items:ironClass_3:2:19,items:foodClass_3:2:19,buildingMaterials:blueprints:10:5,buildingMaterials:tools:10:5,buildingMaterials:tiles:10:5,buildingMaterials:pulley:10:5,technologyMaterials:trainingFigure:10:1,technologyMaterials:bowTarget:10:1,technologyMaterials:saddle:10:1,technologyMaterials:ironPart:10:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:12:19,items:stoneClass_2:12:19,items:ironClass_2:12:19,items:foodClass_2:12:19,buildingMaterials:blueprints:11:5,buildingMaterials:tools:11:5,buildingMaterials:tiles:11:5,buildingMaterials:pulley:11:5,technologyMaterials:trainingFigure:11:1,technologyMaterials:bowTarget:11:1,technologyMaterials:saddle:11:1,technologyMaterials:ironPart:11:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:14:19,items:stoneClass_2:14:19,items:ironClass_2:14:19,items:foodClass_2:14:19,buildingMaterials:blueprints:12:5,buildingMaterials:tools:12:5,buildingMaterials:tiles:12:5,buildingMaterials:pulley:12:5,technologyMaterials:trainingFigure:12:1,technologyMaterials:bowTarget:12:1,technologyMaterials:saddle:12:1,technologyMaterials:ironPart:12:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:16:19,items:stoneClass_2:16:19,items:ironClass_2:16:19,items:foodClass_2:16:19,buildingMaterials:blueprints:13:5,buildingMaterials:tools:13:5,buildingMaterials:tiles:13:5,buildingMaterials:pulley:13:5,technologyMaterials:trainingFigure:13:1,technologyMaterials:bowTarget:13:1,technologyMaterials:saddle:13:1,technologyMaterials:ironPart:13:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:18:19,items:stoneClass_2:18:19,items:ironClass_2:18:19,items:foodClass_2:18:19,buildingMaterials:blueprints:14:5,buildingMaterials:tools:14:5,buildingMaterials:tiles:14:5,buildingMaterials:pulley:14:5,technologyMaterials:trainingFigure:14:1,technologyMaterials:bowTarget:14:1,technologyMaterials:saddle:14:1,technologyMaterials:ironPart:14:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:4:19,items:stoneClass_3:4:19,items:ironClass_3:4:19,items:foodClass_3:4:19,buildingMaterials:blueprints:15:5,buildingMaterials:tools:15:5,buildingMaterials:tiles:15:5,buildingMaterials:pulley:15:5,technologyMaterials:trainingFigure:15:1,technologyMaterials:bowTarget:15:1,technologyMaterials:saddle:15:1,technologyMaterials:ironPart:15:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:1:19,items:stoneClass_4:1:19,items:ironClass_4:1:19,items:foodClass_4:1:19,buildingMaterials:blueprints:16:5,buildingMaterials:tools:16:5,buildingMaterials:tiles:16:5,buildingMaterials:pulley:16:5,technologyMaterials:trainingFigure:16:1,technologyMaterials:bowTarget:16:1,technologyMaterials:saddle:16:1,technologyMaterials:ironPart:16:1:19</t>
   </si>
 </sst>
 </file>
@@ -2140,7 +2359,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="649">
+  <cellStyleXfs count="697">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2794,8 +3013,56 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2869,8 +3136,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="649">
+  <cellStyles count="697">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3197,6 +3467,30 @@
     <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3516,6 +3810,30 @@
     <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="646" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="696" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -3966,10 +4284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4041,7 +4359,7 @@
         <v>91</v>
       </c>
       <c r="B6" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>92</v>
@@ -4199,6 +4517,39 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B21" s="8">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B22" s="8">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -5762,8 +6113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26:P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5887,10 +6238,10 @@
         <v>160</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="J2" s="16">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K2" s="16">
         <v>500</v>
@@ -5902,13 +6253,13 @@
         <v>1000</v>
       </c>
       <c r="N2" s="16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O2" s="16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P2" s="16">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="16" t="s">
         <v>257</v>
@@ -5967,7 +6318,7 @@
         <v>234</v>
       </c>
       <c r="J3" s="16">
-        <v>170</v>
+        <v>820</v>
       </c>
       <c r="K3" s="16">
         <v>1000</v>
@@ -5979,13 +6330,13 @@
         <v>2000</v>
       </c>
       <c r="N3" s="16">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="O3" s="16">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="P3" s="16">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="Q3" s="16" t="s">
         <v>258</v>
@@ -6044,7 +6395,7 @@
         <v>235</v>
       </c>
       <c r="J4" s="16">
-        <v>450</v>
+        <v>2160</v>
       </c>
       <c r="K4" s="16">
         <v>1500</v>
@@ -6056,13 +6407,13 @@
         <v>3000</v>
       </c>
       <c r="N4" s="16">
-        <v>330</v>
+        <v>165</v>
       </c>
       <c r="O4" s="16">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="P4" s="16">
-        <v>780</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="16" t="s">
         <v>259</v>
@@ -6121,7 +6472,7 @@
         <v>236</v>
       </c>
       <c r="J5" s="16">
-        <v>900</v>
+        <v>4320</v>
       </c>
       <c r="K5" s="16">
         <v>2000</v>
@@ -6133,13 +6484,13 @@
         <v>4000</v>
       </c>
       <c r="N5" s="16">
-        <v>660</v>
+        <v>330</v>
       </c>
       <c r="O5" s="16">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="P5" s="16">
-        <v>1560</v>
+        <v>780</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>260</v>
@@ -6198,7 +6549,7 @@
         <v>237</v>
       </c>
       <c r="J6" s="16">
-        <v>1530</v>
+        <v>7350</v>
       </c>
       <c r="K6" s="16">
         <v>2500</v>
@@ -6210,13 +6561,13 @@
         <v>5000</v>
       </c>
       <c r="N6" s="16">
-        <v>1140</v>
+        <v>570</v>
       </c>
       <c r="O6" s="16">
-        <v>1710</v>
+        <v>855</v>
       </c>
       <c r="P6" s="16">
-        <v>2660</v>
+        <v>1330</v>
       </c>
       <c r="Q6" s="16" t="s">
         <v>261</v>
@@ -6275,7 +6626,7 @@
         <v>238</v>
       </c>
       <c r="J7" s="16">
-        <v>2360</v>
+        <v>11330</v>
       </c>
       <c r="K7" s="16">
         <v>3000</v>
@@ -6287,13 +6638,13 @@
         <v>6000</v>
       </c>
       <c r="N7" s="16">
-        <v>1760</v>
+        <v>880</v>
       </c>
       <c r="O7" s="16">
-        <v>2650</v>
+        <v>1325</v>
       </c>
       <c r="P7" s="16">
-        <v>4120</v>
+        <v>2060</v>
       </c>
       <c r="Q7" s="16" t="s">
         <v>262</v>
@@ -6352,7 +6703,7 @@
         <v>239</v>
       </c>
       <c r="J8" s="16">
-        <v>3420</v>
+        <v>21890</v>
       </c>
       <c r="K8" s="16">
         <v>3500</v>
@@ -6364,13 +6715,13 @@
         <v>7000</v>
       </c>
       <c r="N8" s="16">
-        <v>2560</v>
+        <v>1280</v>
       </c>
       <c r="O8" s="16">
-        <v>3840</v>
+        <v>1920</v>
       </c>
       <c r="P8" s="16">
-        <v>5970</v>
+        <v>2985</v>
       </c>
       <c r="Q8" s="16" t="s">
         <v>263</v>
@@ -6429,7 +6780,7 @@
         <v>240</v>
       </c>
       <c r="J9" s="16">
-        <v>4710</v>
+        <v>30150</v>
       </c>
       <c r="K9" s="16">
         <v>4000</v>
@@ -6441,13 +6792,13 @@
         <v>8000</v>
       </c>
       <c r="N9" s="16">
-        <v>3520</v>
+        <v>1760</v>
       </c>
       <c r="O9" s="16">
-        <v>5290</v>
+        <v>2645</v>
       </c>
       <c r="P9" s="16">
-        <v>8230</v>
+        <v>4115</v>
       </c>
       <c r="Q9" s="16" t="s">
         <v>264</v>
@@ -6506,7 +6857,7 @@
         <v>241</v>
       </c>
       <c r="J10" s="16">
-        <v>6250</v>
+        <v>40000</v>
       </c>
       <c r="K10" s="16">
         <v>5000</v>
@@ -6518,13 +6869,13 @@
         <v>10000</v>
       </c>
       <c r="N10" s="16">
-        <v>4680</v>
+        <v>2340</v>
       </c>
       <c r="O10" s="16">
-        <v>7020</v>
+        <v>3510</v>
       </c>
       <c r="P10" s="16">
-        <v>10920</v>
+        <v>5460</v>
       </c>
       <c r="Q10" s="16" t="s">
         <v>265</v>
@@ -6583,7 +6934,7 @@
         <v>242</v>
       </c>
       <c r="J11" s="16">
-        <v>8040</v>
+        <v>51460</v>
       </c>
       <c r="K11" s="16">
         <v>6000</v>
@@ -6595,13 +6946,13 @@
         <v>12000</v>
       </c>
       <c r="N11" s="16">
-        <v>6020</v>
+        <v>3010</v>
       </c>
       <c r="O11" s="16">
-        <v>9040</v>
+        <v>4520</v>
       </c>
       <c r="P11" s="16">
-        <v>14060</v>
+        <v>7030</v>
       </c>
       <c r="Q11" s="16" t="s">
         <v>190</v>
@@ -6660,7 +7011,7 @@
         <v>243</v>
       </c>
       <c r="J12" s="16">
-        <v>10110</v>
+        <v>64710</v>
       </c>
       <c r="K12" s="16">
         <v>8000</v>
@@ -6672,13 +7023,13 @@
         <v>16000</v>
       </c>
       <c r="N12" s="16">
-        <v>7570</v>
+        <v>3785</v>
       </c>
       <c r="O12" s="16">
-        <v>11360</v>
+        <v>5680</v>
       </c>
       <c r="P12" s="16">
-        <v>17680</v>
+        <v>8840</v>
       </c>
       <c r="Q12" s="16" t="s">
         <v>266</v>
@@ -6737,7 +7088,7 @@
         <v>244</v>
       </c>
       <c r="J13" s="16">
-        <v>12460</v>
+        <v>79750</v>
       </c>
       <c r="K13" s="16">
         <v>10500</v>
@@ -6749,13 +7100,13 @@
         <v>21000</v>
       </c>
       <c r="N13" s="16">
-        <v>9330</v>
+        <v>4665</v>
       </c>
       <c r="O13" s="16">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P13" s="16">
-        <v>21780</v>
+        <v>10890</v>
       </c>
       <c r="Q13" s="16" t="s">
         <v>267</v>
@@ -6814,7 +7165,7 @@
         <v>245</v>
       </c>
       <c r="J14" s="16">
-        <v>15090</v>
+        <v>120720</v>
       </c>
       <c r="K14" s="16">
         <v>15000</v>
@@ -6826,13 +7177,13 @@
         <v>30000</v>
       </c>
       <c r="N14" s="16">
-        <v>11310</v>
+        <v>5655</v>
       </c>
       <c r="O14" s="16">
-        <v>16970</v>
+        <v>8485</v>
       </c>
       <c r="P14" s="16">
-        <v>26400</v>
+        <v>13200</v>
       </c>
       <c r="Q14" s="16" t="s">
         <v>268</v>
@@ -6891,7 +7242,7 @@
         <v>246</v>
       </c>
       <c r="J15" s="16">
-        <v>18030</v>
+        <v>144240</v>
       </c>
       <c r="K15" s="16">
         <v>18750</v>
@@ -6903,13 +7254,13 @@
         <v>37500</v>
       </c>
       <c r="N15" s="16">
-        <v>13510</v>
+        <v>6755</v>
       </c>
       <c r="O15" s="16">
-        <v>20270</v>
+        <v>10135</v>
       </c>
       <c r="P15" s="16">
-        <v>31540</v>
+        <v>15770</v>
       </c>
       <c r="Q15" s="16" t="s">
         <v>269</v>
@@ -6968,7 +7319,7 @@
         <v>247</v>
       </c>
       <c r="J16" s="16">
-        <v>21280</v>
+        <v>170240</v>
       </c>
       <c r="K16" s="16">
         <v>26250</v>
@@ -6980,13 +7331,13 @@
         <v>52500</v>
       </c>
       <c r="N16" s="16">
-        <v>15950</v>
+        <v>7975</v>
       </c>
       <c r="O16" s="16">
-        <v>23920</v>
+        <v>11960</v>
       </c>
       <c r="P16" s="16">
-        <v>37220</v>
+        <v>18610</v>
       </c>
       <c r="Q16" s="16" t="s">
         <v>270</v>
@@ -7045,7 +7396,7 @@
         <v>248</v>
       </c>
       <c r="J17" s="16">
-        <v>24840</v>
+        <v>198720</v>
       </c>
       <c r="K17" s="16">
         <v>32000</v>
@@ -7057,13 +7408,13 @@
         <v>64000</v>
       </c>
       <c r="N17" s="16">
-        <v>18620</v>
+        <v>9310</v>
       </c>
       <c r="O17" s="16">
-        <v>27930</v>
+        <v>13965</v>
       </c>
       <c r="P17" s="16">
-        <v>43450</v>
+        <v>21725</v>
       </c>
       <c r="Q17" s="16" t="s">
         <v>194</v>
@@ -7122,7 +7473,7 @@
         <v>249</v>
       </c>
       <c r="J18" s="16">
-        <v>28730</v>
+        <v>229840</v>
       </c>
       <c r="K18" s="16">
         <v>46750</v>
@@ -7134,13 +7485,13 @@
         <v>93500</v>
       </c>
       <c r="N18" s="16">
-        <v>21540</v>
+        <v>10770</v>
       </c>
       <c r="O18" s="16">
-        <v>32310</v>
+        <v>16155</v>
       </c>
       <c r="P18" s="16">
-        <v>50260</v>
+        <v>25130</v>
       </c>
       <c r="Q18" s="16" t="s">
         <v>271</v>
@@ -7199,7 +7550,7 @@
         <v>250</v>
       </c>
       <c r="J19" s="16">
-        <v>32950</v>
+        <v>263600</v>
       </c>
       <c r="K19" s="16">
         <v>56250</v>
@@ -7211,13 +7562,13 @@
         <v>112500</v>
       </c>
       <c r="N19" s="16">
-        <v>24700</v>
+        <v>12350</v>
       </c>
       <c r="O19" s="16">
-        <v>37060</v>
+        <v>18530</v>
       </c>
       <c r="P19" s="16">
-        <v>57650</v>
+        <v>28825</v>
       </c>
       <c r="Q19" s="16" t="s">
         <v>272</v>
@@ -7276,7 +7627,7 @@
         <v>251</v>
       </c>
       <c r="J20" s="16">
-        <v>37520</v>
+        <v>360200</v>
       </c>
       <c r="K20" s="16">
         <v>81750</v>
@@ -7288,13 +7639,13 @@
         <v>163500</v>
       </c>
       <c r="N20" s="16">
-        <v>28130</v>
+        <v>14065</v>
       </c>
       <c r="O20" s="16">
-        <v>42190</v>
+        <v>21095</v>
       </c>
       <c r="P20" s="16">
-        <v>65640</v>
+        <v>32820</v>
       </c>
       <c r="Q20" s="16" t="s">
         <v>273</v>
@@ -7353,7 +7704,7 @@
         <v>252</v>
       </c>
       <c r="J21" s="16">
-        <v>42430</v>
+        <v>407330</v>
       </c>
       <c r="K21" s="16">
         <v>98250</v>
@@ -7365,13 +7716,13 @@
         <v>196500</v>
       </c>
       <c r="N21" s="16">
-        <v>31810</v>
+        <v>15905</v>
       </c>
       <c r="O21" s="16">
-        <v>47720</v>
+        <v>23860</v>
       </c>
       <c r="P21" s="16">
-        <v>74240</v>
+        <v>37120</v>
       </c>
       <c r="Q21" s="16" t="s">
         <v>274</v>
@@ -7429,8 +7780,8 @@
       <c r="I22" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="J22" s="16">
-        <v>47700</v>
+      <c r="J22" s="13">
+        <v>457920</v>
       </c>
       <c r="K22" s="16">
         <v>141750</v>
@@ -7442,13 +7793,13 @@
         <v>283500</v>
       </c>
       <c r="N22" s="16">
-        <v>35770</v>
+        <v>17885</v>
       </c>
       <c r="O22" s="16">
-        <v>53650</v>
+        <v>26825</v>
       </c>
       <c r="P22" s="16">
-        <v>83460</v>
+        <v>41730</v>
       </c>
       <c r="Q22" s="16" t="s">
         <v>275</v>
@@ -7507,7 +7858,7 @@
         <v>254</v>
       </c>
       <c r="J23" s="13">
-        <v>53330</v>
+        <v>511970</v>
       </c>
       <c r="K23" s="16">
         <v>170000</v>
@@ -7519,13 +7870,13 @@
         <v>340000</v>
       </c>
       <c r="N23" s="13">
-        <v>39990</v>
+        <v>19995</v>
       </c>
       <c r="O23" s="13">
-        <v>59990</v>
+        <v>29995</v>
       </c>
       <c r="P23" s="13">
-        <v>93320</v>
+        <v>46660</v>
       </c>
       <c r="Q23" s="16" t="s">
         <v>198</v>
@@ -7584,7 +7935,7 @@
         <v>255</v>
       </c>
       <c r="J24" s="13">
-        <v>59340</v>
+        <v>569670</v>
       </c>
       <c r="K24" s="16">
         <v>200000</v>
@@ -7596,13 +7947,13 @@
         <v>400000</v>
       </c>
       <c r="N24" s="13">
-        <v>44490</v>
+        <v>22245</v>
       </c>
       <c r="O24" s="13">
-        <v>66740</v>
+        <v>33370</v>
       </c>
       <c r="P24" s="13">
-        <v>103830</v>
+        <v>51915</v>
       </c>
       <c r="Q24" s="16" t="s">
         <v>276</v>
@@ -7661,7 +8012,7 @@
         <v>256</v>
       </c>
       <c r="J25" s="13">
-        <v>65720</v>
+        <v>630920</v>
       </c>
       <c r="K25" s="13">
         <v>250000</v>
@@ -7673,13 +8024,13 @@
         <v>500000</v>
       </c>
       <c r="N25" s="13">
-        <v>49280</v>
+        <v>24640</v>
       </c>
       <c r="O25" s="13">
-        <v>73920</v>
+        <v>36960</v>
       </c>
       <c r="P25" s="13">
-        <v>114990</v>
+        <v>57495</v>
       </c>
       <c r="Q25" s="13" t="s">
         <v>277</v>
@@ -7755,10 +8106,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8187,6 +8538,23 @@
         <v>140</v>
       </c>
       <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9888,17 +10256,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="24"/>
-    <col min="2" max="2" width="25" style="24" customWidth="1"/>
-    <col min="3" max="4" width="62.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20" style="24" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="24" customWidth="1"/>
     <col min="5" max="5" width="120.5" style="24" customWidth="1"/>
     <col min="6" max="16384" width="20.6640625" style="24"/>
   </cols>
@@ -9911,10 +10280,10 @@
         <v>473</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>505</v>
+        <v>624</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>474</v>
@@ -9929,13 +10298,13 @@
         <v>475</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>508</v>
+        <v>584</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>548</v>
+        <v>498</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -9946,13 +10315,13 @@
         <v>475</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>509</v>
+        <v>585</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>549</v>
+        <v>499</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
@@ -9963,13 +10332,13 @@
         <v>476</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>550</v>
+        <v>500</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
@@ -9980,13 +10349,13 @@
         <v>476</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>511</v>
+        <v>587</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>551</v>
+        <v>501</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45">
@@ -9997,13 +10366,13 @@
         <v>478</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>552</v>
+      <c r="E6" s="18" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
@@ -10014,13 +10383,13 @@
         <v>478</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>553</v>
+        <v>502</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45">
@@ -10031,13 +10400,13 @@
         <v>477</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>554</v>
+        <v>503</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45">
@@ -10048,13 +10417,13 @@
         <v>477</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>555</v>
+        <v>504</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
@@ -10065,13 +10434,13 @@
         <v>479</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>516</v>
+        <v>592</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>556</v>
+        <v>505</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45">
@@ -10082,13 +10451,13 @@
         <v>479</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>517</v>
+        <v>593</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>557</v>
+        <v>506</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45">
@@ -10099,13 +10468,13 @@
         <v>480</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>518</v>
+        <v>594</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>558</v>
+        <v>507</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45">
@@ -10116,13 +10485,13 @@
         <v>480</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>519</v>
+        <v>595</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>559</v>
+        <v>508</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45">
@@ -10133,13 +10502,13 @@
         <v>481</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>560</v>
+        <v>509</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45">
@@ -10150,16 +10519,16 @@
         <v>481</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>521</v>
+        <v>597</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="60">
+        <v>510</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -10167,16 +10536,16 @@
         <v>482</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60">
+        <v>511</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -10184,16 +10553,16 @@
         <v>482</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60">
+        <v>599</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -10201,16 +10570,16 @@
         <v>483</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60">
+        <v>600</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -10218,13 +10587,13 @@
         <v>483</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>525</v>
+        <v>601</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>565</v>
+        <v>514</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
@@ -10235,16 +10604,16 @@
         <v>484</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>526</v>
+        <v>602</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60">
+        <v>515</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -10252,13 +10621,13 @@
         <v>484</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>527</v>
+        <v>603</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>567</v>
+        <v>516</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
@@ -10269,13 +10638,13 @@
         <v>485</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>528</v>
+        <v>604</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>548</v>
+        <v>517</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
@@ -10286,13 +10655,13 @@
         <v>485</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>529</v>
+        <v>605</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>549</v>
+        <v>518</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45">
@@ -10303,13 +10672,13 @@
         <v>486</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>530</v>
+        <v>606</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>550</v>
+        <v>519</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
@@ -10320,13 +10689,13 @@
         <v>486</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>531</v>
+        <v>607</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>551</v>
+        <v>520</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45">
@@ -10337,13 +10706,13 @@
         <v>487</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>532</v>
+        <v>608</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>552</v>
+        <v>521</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45">
@@ -10354,13 +10723,13 @@
         <v>487</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>533</v>
+        <v>609</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>553</v>
+        <v>522</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
@@ -10371,13 +10740,13 @@
         <v>488</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>534</v>
+        <v>610</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>554</v>
+        <v>523</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45">
@@ -10388,13 +10757,13 @@
         <v>488</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>535</v>
+        <v>611</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>555</v>
+        <v>524</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45">
@@ -10405,13 +10774,13 @@
         <v>489</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>536</v>
+        <v>612</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>556</v>
+        <v>525</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="45">
@@ -10422,13 +10791,13 @@
         <v>489</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>537</v>
+        <v>613</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>557</v>
+        <v>526</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45">
@@ -10439,13 +10808,13 @@
         <v>490</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>538</v>
+        <v>614</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>558</v>
+        <v>527</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45">
@@ -10456,13 +10825,13 @@
         <v>490</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>539</v>
+        <v>615</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>559</v>
+        <v>528</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45">
@@ -10473,13 +10842,13 @@
         <v>491</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>540</v>
+        <v>616</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>560</v>
+        <v>529</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45">
@@ -10490,16 +10859,16 @@
         <v>491</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="60">
+        <v>530</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45">
       <c r="A36" s="16">
         <v>35</v>
       </c>
@@ -10507,16 +10876,16 @@
         <v>492</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="60">
+        <v>531</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45">
       <c r="A37" s="16">
         <v>36</v>
       </c>
@@ -10524,16 +10893,16 @@
         <v>492</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>543</v>
+        <v>619</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="60">
+        <v>532</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45">
       <c r="A38" s="16">
         <v>37</v>
       </c>
@@ -10541,16 +10910,16 @@
         <v>493</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="60">
+        <v>533</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45">
       <c r="A39" s="16">
         <v>38</v>
       </c>
@@ -10558,13 +10927,13 @@
         <v>493</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>565</v>
+        <v>621</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45">
@@ -10575,16 +10944,16 @@
         <v>494</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="60">
+        <v>622</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="48" customHeight="1">
       <c r="A41" s="16">
         <v>40</v>
       </c>
@@ -10592,14 +10961,23 @@
         <v>494</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>567</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="E44" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="0" windowWidth="30120" windowHeight="17280" tabRatio="566" activeTab="8"/>
+    <workbookView xWindow="2140" yWindow="0" windowWidth="30120" windowHeight="17280" tabRatio="566" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="626">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1675,501 +1675,526 @@
     <t>swordsman_2</t>
   </si>
   <si>
+    <t>STR_dragon</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_1,swordsman_1_16,lancer_1_6,catapult_1_2,ranger_1_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2_50</t>
+  </si>
+  <si>
+    <t>swordsman_2_5</t>
+  </si>
+  <si>
+    <t>swordsman_2_10</t>
+  </si>
+  <si>
+    <t>ranger_2_20</t>
+  </si>
+  <si>
+    <t>ranger_2_35</t>
+  </si>
+  <si>
+    <t>sentinel_2_80</t>
+  </si>
+  <si>
+    <t>skeletonWarrior_2_130</t>
+  </si>
+  <si>
+    <t>skeletonWarrior_2_180</t>
+  </si>
+  <si>
+    <t>crossbowman_2_230</t>
+  </si>
+  <si>
+    <t>crossbowman_2_280</t>
+  </si>
+  <si>
+    <t>skeletonArcher_2_650</t>
+  </si>
+  <si>
+    <t>skeletonArcher_2_750</t>
+  </si>
+  <si>
+    <t>lancer_2_430</t>
+  </si>
+  <si>
+    <t>lancer_2_480</t>
+  </si>
+  <si>
+    <t>horseArcher_2_550</t>
+  </si>
+  <si>
+    <t>horseArcher_2_600</t>
+  </si>
+  <si>
+    <t>deathKnight_2_650</t>
+  </si>
+  <si>
+    <t>deathKnight_2_730</t>
+  </si>
+  <si>
+    <t>catapult_2_390</t>
+  </si>
+  <si>
+    <t>catapult_2_420</t>
+  </si>
+  <si>
+    <t>ballista_2_420</t>
+  </si>
+  <si>
+    <t>ballista_2_450</t>
+  </si>
+  <si>
+    <t>swordsman_3_2250</t>
+  </si>
+  <si>
+    <t>swordsman_3_2390</t>
+  </si>
+  <si>
+    <t>sentinel_3_2570</t>
+  </si>
+  <si>
+    <t>sentinel_3_2700</t>
+  </si>
+  <si>
+    <t>ranger_3_4330</t>
+  </si>
+  <si>
+    <t>ranger_3_4530</t>
+  </si>
+  <si>
+    <t>crossbowman_3_4450</t>
+  </si>
+  <si>
+    <t>crossbowman_3_4720</t>
+  </si>
+  <si>
+    <t>lancer_3_2560</t>
+  </si>
+  <si>
+    <t>lancer_3_2700</t>
+  </si>
+  <si>
+    <t>horseArcher_3_2900</t>
+  </si>
+  <si>
+    <t>horseArcher_3_3030</t>
+  </si>
+  <si>
+    <t>catapult_3_1620</t>
+  </si>
+  <si>
+    <t>catapult_3_1680</t>
+  </si>
+  <si>
+    <t>ballista_3_2670</t>
+  </si>
+  <si>
+    <t>ballista_3_2770</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:2:16,items:stoneClass_1:2:16,items:ironClass_1:2:16,items:foodClass_1:2:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:2:15,items:gemClass_1:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:5:16,items:stoneClass_1:5:16,items:ironClass_1:5:16,items:foodClass_1:5:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:5:15,items:gemClass_1:2:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:10:16,items:stoneClass_1:10:16,items:ironClass_1:10:16,items:foodClass_1:10:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:10:15,items:gemClass_1:3:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:15:16,items:stoneClass_1:15:16,items:ironClass_1:15:16,items:foodClass_1:15:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:15:15,items:gemClass_1:4:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:1:16,items:stoneClass_2:1:16,items:ironClass_2:1:16,items:foodClass_2:1:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:1:15,items:gemClass_1:5:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:2:16,items:stoneClass_2:2:16,items:ironClass_2:2:16,items:foodClass_2:2:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:2:15,items:gemClass_1:6:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:3:16,items:stoneClass_2:3:16,items:ironClass_2:3:16,items:foodClass_2:3:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:3:15,items:gemClass_1:7:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:4:16,items:stoneClass_2:4:16,items:ironClass_2:4:16,items:foodClass_2:4:16,buildingMaterials:blueprints:4:5,buildingMaterials:tools:4:5,buildingMaterials:tiles:4:5,buildingMaterials:pulley:4:5,items:coinClass_2:4:15,items:gemClass_1:8:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:5:16,items:stoneClass_2:5:16,items:ironClass_2:5:16,items:foodClass_2:5:16,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,items:coinClass_2:5:15,items:gemClass_1:9:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:6:16,items:stoneClass_2:6:16,items:ironClass_2:6:16,items:foodClass_2:6:16,buildingMaterials:blueprints:6:5,buildingMaterials:tools:6:5,buildingMaterials:tiles:6:5,buildingMaterials:pulley:6:5,items:coinClass_2:6:15,items:gemClass_2:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:7:16,items:stoneClass_2:7:16,items:ironClass_2:7:16,items:foodClass_2:7:16,buildingMaterials:blueprints:7:5,buildingMaterials:tools:7:5,buildingMaterials:tiles:7:5,buildingMaterials:pulley:7:5,items:coinClass_2:7:15,items:gemClass_1:11:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:8:16,items:stoneClass_2:8:16,items:ironClass_2:8:16,items:foodClass_2:8:16,buildingMaterials:blueprints:8:5,buildingMaterials:tools:8:5,buildingMaterials:tiles:8:5,buildingMaterials:pulley:8:5,items:coinClass_2:8:15,items:gemClass_1:12:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:9:16,items:stoneClass_2:9:16,items:ironClass_2:9:16,items:foodClass_2:9:16,buildingMaterials:blueprints:9:5,buildingMaterials:tools:9:5,buildingMaterials:tiles:9:5,buildingMaterials:pulley:9:5,items:coinClass_2:9:15,items:gemClass_1:13:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:2:16,items:stoneClass_3:2:16,items:ironClass_3:2:16,items:foodClass_3:2:16,buildingMaterials:blueprints:10:5,buildingMaterials:tools:10:5,buildingMaterials:tiles:10:5,buildingMaterials:pulley:10:5,items:coinClass_3:2:15,items:gemClass_1:14:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:12:16,items:stoneClass_2:12:16,items:ironClass_2:12:16,items:foodClass_2:12:16,buildingMaterials:blueprints:11:5,buildingMaterials:tools:11:5,buildingMaterials:tiles:11:5,buildingMaterials:pulley:11:5,items:coinClass_2:12:15,items:gemClass_1:15:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:14:16,items:stoneClass_2:14:16,items:ironClass_2:14:16,items:foodClass_2:14:16,buildingMaterials:blueprints:12:5,buildingMaterials:tools:12:5,buildingMaterials:tiles:12:5,buildingMaterials:pulley:12:5,items:coinClass_2:14:15,items:gemClass_1:16:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:16:16,items:stoneClass_2:16:16,items:ironClass_2:16:16,items:foodClass_2:16:16,buildingMaterials:blueprints:13:5,buildingMaterials:tools:13:5,buildingMaterials:tiles:13:5,buildingMaterials:pulley:13:5,items:coinClass_2:16:15,items:gemClass_1:17:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:18:16,items:stoneClass_2:18:16,items:ironClass_2:18:16,items:foodClass_2:18:16,buildingMaterials:blueprints:14:5,buildingMaterials:tools:14:5,buildingMaterials:tiles:14:5,buildingMaterials:pulley:14:5,items:coinClass_2:18:15,items:gemClass_1:18:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:4:16,items:stoneClass_3:4:16,items:ironClass_3:4:16,items:foodClass_3:4:16,buildingMaterials:blueprints:15:5,buildingMaterials:tools:15:5,buildingMaterials:tiles:15:5,buildingMaterials:pulley:15:5,items:coinClass_3:4:15,items:gemClass_1:19:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:1:16,items:stoneClass_4:1:16,items:ironClass_4:1:16,items:foodClass_4:1:16,buildingMaterials:blueprints:16:5,buildingMaterials:tools:16:5,buildingMaterials:tiles:16:5,buildingMaterials:pulley:16:5,items:coinClass_4:1:15,items:gemClass_2:2:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:6:16,items:stoneClass_3:6:16,items:ironClass_3:6:16,items:foodClass_3:6:16,buildingMaterials:blueprints:17:5,buildingMaterials:tools:17:5,buildingMaterials:tiles:17:5,buildingMaterials:pulley:17:5,items:coinClass_3:6:15,items:gemClass_1:21:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:7:16,items:stoneClass_3:7:16,items:ironClass_3:7:16,items:foodClass_3:7:16,buildingMaterials:blueprints:18:5,buildingMaterials:tools:18:5,buildingMaterials:tiles:18:5,buildingMaterials:pulley:18:5,items:coinClass_3:7:15,items:gemClass_1:22:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:8:16,items:stoneClass_3:8:16,items:ironClass_3:8:16,items:foodClass_3:8:16,buildingMaterials:blueprints:19:5,buildingMaterials:tools:19:5,buildingMaterials:tiles:19:5,buildingMaterials:pulley:19:5,items:coinClass_3:8:15,items:gemClass_1:23:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:9:16,items:stoneClass_3:9:16,items:ironClass_3:9:16,items:foodClass_3:9:16,buildingMaterials:blueprints:20:5,buildingMaterials:tools:20:5,buildingMaterials:tiles:20:5,buildingMaterials:pulley:20:5,items:coinClass_3:9:15,items:gemClass_1:24:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:2:16,items:stoneClass_4:2:16,items:ironClass_4:2:16,items:foodClass_4:2:16,buildingMaterials:blueprints:21:5,buildingMaterials:tools:21:5,buildingMaterials:tiles:21:5,buildingMaterials:pulley:21:5,items:coinClass_4:2:15,items:gemClass_1:25:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:3:16,items:stoneClass_4:3:16,items:ironClass_4:3:16,items:foodClass_4:3:16,buildingMaterials:blueprints:22:5,buildingMaterials:tools:22:5,buildingMaterials:tiles:22:5,buildingMaterials:pulley:22:5,items:coinClass_4:3:15,items:gemClass_1:26:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:4:16,items:stoneClass_4:4:16,items:ironClass_4:4:16,items:foodClass_4:4:16,buildingMaterials:blueprints:23:5,buildingMaterials:tools:23:5,buildingMaterials:tiles:23:5,buildingMaterials:pulley:23:5,items:coinClass_4:4:15,items:gemClass_1:27:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:5:16,items:stoneClass_4:5:16,items:ironClass_4:5:16,items:foodClass_4:5:16,buildingMaterials:blueprints:24:5,buildingMaterials:tools:24:5,buildingMaterials:tiles:24:5,buildingMaterials:pulley:24:5,items:coinClass_4:5:15,items:gemClass_1:28:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:6:16,items:stoneClass_4:6:16,items:ironClass_4:6:16,items:foodClass_4:6:16,buildingMaterials:blueprints:25:5,buildingMaterials:tools:25:5,buildingMaterials:tiles:25:5,buildingMaterials:pulley:25:5,items:coinClass_4:6:15,items:gemClass_1:29:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:7:16,items:stoneClass_4:7:16,items:ironClass_4:7:16,items:foodClass_4:7:16,buildingMaterials:blueprints:26:5,buildingMaterials:tools:26:5,buildingMaterials:tiles:26:5,buildingMaterials:pulley:26:5,items:coinClass_4:7:15,items:gemClass_2:3:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:8:16,items:stoneClass_4:8:16,items:ironClass_4:8:16,items:foodClass_4:8:16,buildingMaterials:blueprints:27:5,buildingMaterials:tools:27:5,buildingMaterials:tiles:27:5,buildingMaterials:pulley:27:5,items:coinClass_4:8:15,items:gemClass_1:31:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:3:16,items:stoneClass_5:3:16,items:ironClass_5:3:16,items:foodClass_5:3:16,buildingMaterials:blueprints:28:5,buildingMaterials:tools:28:5,buildingMaterials:tiles:28:5,buildingMaterials:pulley:28:5,items:coinClass_5:3:15,items:gemClass_1:32:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:1:16,items:stoneClass_6:1:16,items:ironClass_6:1:16,items:foodClass_6:1:16,buildingMaterials:blueprints:29:5,buildingMaterials:tools:29:5,buildingMaterials:tiles:29:5,buildingMaterials:pulley:29:5,items:coinClass_6:1:15,items:gemClass_1:33:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:4:16,items:stoneClass_5:4:16,items:ironClass_5:4:16,items:foodClass_5:4:16,buildingMaterials:blueprints:30:5,buildingMaterials:tools:30:5,buildingMaterials:tiles:30:5,buildingMaterials:pulley:30:5,items:coinClass_5:4:15,items:gemClass_1:34:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:5:16,items:stoneClass_5:5:16,items:ironClass_5:5:16,items:foodClass_5:5:16,buildingMaterials:blueprints:31:5,buildingMaterials:tools:31:5,buildingMaterials:tiles:31:5,buildingMaterials:pulley:31:5,items:coinClass_5:5:15,items:gemClass_1:35:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:6:16,items:stoneClass_5:6:16,items:ironClass_5:6:16,items:foodClass_5:6:16,buildingMaterials:blueprints:32:5,buildingMaterials:tools:32:5,buildingMaterials:tiles:32:5,buildingMaterials:pulley:32:5,items:coinClass_5:6:15,items:gemClass_1:36:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:7:16,items:stoneClass_5:7:16,items:ironClass_5:7:16,items:foodClass_5:7:16,buildingMaterials:blueprints:34:5,buildingMaterials:tools:34:5,buildingMaterials:tiles:34:5,buildingMaterials:pulley:34:5,items:coinClass_5:7:15,items:gemClass_1:37:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:8:16,items:stoneClass_5:8:16,items:ironClass_5:8:16,items:foodClass_5:8:16,buildingMaterials:blueprints:36:5,buildingMaterials:tools:36:5,buildingMaterials:tiles:36:5,buildingMaterials:pulley:36:5,items:coinClass_5:8:15,items:gemClass_1:38:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:9:16,items:stoneClass_5:9:16,items:ironClass_5:9:16,items:foodClass_5:9:16,buildingMaterials:blueprints:38:5,buildingMaterials:tools:38:5,buildingMaterials:tiles:38:5,buildingMaterials:pulley:38:5,items:coinClass_5:9:15,items:gemClass_1:39:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:3:16,items:stoneClass_6:3:16,items:ironClass_6:3:16,items:foodClass_6:3:16,buildingMaterials:blueprints:40:5,buildingMaterials:tools:40:5,buildingMaterials:tiles:40:5,buildingMaterials:pulley:40:5,items:coinClass_6:3:15,items:gemClass_2:4:1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterRefreshMinutes</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域地图野怪多少分钟后刷新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>minMonsterCount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟领地最少的野怪数量</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>monstersPerPlayer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个联盟玩家创建多少个野怪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_10</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_12</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_13</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_14</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_15</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_16</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_17</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_18</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_19</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_21</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_22</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_23</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_24</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_25</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_26</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_27</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_28</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_29</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_31</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_32</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_33</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_34</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_35</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_36</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_37</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_38</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_39</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_40</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_soldiers</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>sentinel_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeletonWarrior_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>crossbowman_2</t>
-  </si>
-  <si>
-    <t>ranger_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>skeletonArcher_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>lancer_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>horseArcher_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathKnight_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>catapult_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ballista_2</t>
-  </si>
-  <si>
-    <t>skeletonWarrior_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatWagon_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatWagon_2_490</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatWagon_2_520</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>swordsman_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>sentinel_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ranger_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>crossbowman_3</t>
-  </si>
-  <si>
-    <t>deathKnight_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>lancer_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>horseArcher_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>catapult_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ballista_3</t>
-  </si>
-  <si>
-    <t>meatWagon_2</t>
-  </si>
-  <si>
-    <t>STR_dragon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_1,swordsman_1_16,lancer_1_6,catapult_1_2,ranger_1_4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_2_50</t>
-  </si>
-  <si>
-    <t>swordsman_2_5</t>
-  </si>
-  <si>
-    <t>swordsman_2_10</t>
-  </si>
-  <si>
-    <t>ranger_2_20</t>
-  </si>
-  <si>
-    <t>ranger_2_35</t>
-  </si>
-  <si>
-    <t>sentinel_2_80</t>
-  </si>
-  <si>
-    <t>skeletonWarrior_2_130</t>
-  </si>
-  <si>
-    <t>skeletonWarrior_2_180</t>
-  </si>
-  <si>
-    <t>crossbowman_2_230</t>
-  </si>
-  <si>
-    <t>crossbowman_2_280</t>
-  </si>
-  <si>
-    <t>skeletonArcher_2_650</t>
-  </si>
-  <si>
-    <t>skeletonArcher_2_750</t>
-  </si>
-  <si>
-    <t>lancer_2_430</t>
-  </si>
-  <si>
-    <t>lancer_2_480</t>
-  </si>
-  <si>
-    <t>horseArcher_2_550</t>
-  </si>
-  <si>
-    <t>horseArcher_2_600</t>
-  </si>
-  <si>
-    <t>deathKnight_2_650</t>
-  </si>
-  <si>
-    <t>deathKnight_2_730</t>
-  </si>
-  <si>
-    <t>catapult_2_390</t>
-  </si>
-  <si>
-    <t>catapult_2_420</t>
-  </si>
-  <si>
-    <t>ballista_2_420</t>
-  </si>
-  <si>
-    <t>ballista_2_450</t>
-  </si>
-  <si>
-    <t>meatWagon_490</t>
-  </si>
-  <si>
-    <t>meatWagon_520</t>
-  </si>
-  <si>
-    <t>swordsman_3_2250</t>
-  </si>
-  <si>
-    <t>swordsman_3_2390</t>
-  </si>
-  <si>
-    <t>sentinel_3_2570</t>
-  </si>
-  <si>
-    <t>sentinel_3_2700</t>
-  </si>
-  <si>
-    <t>ranger_3_4330</t>
-  </si>
-  <si>
-    <t>ranger_3_4530</t>
-  </si>
-  <si>
-    <t>crossbowman_3_4450</t>
-  </si>
-  <si>
-    <t>crossbowman_3_4720</t>
-  </si>
-  <si>
-    <t>lancer_3_2560</t>
-  </si>
-  <si>
-    <t>lancer_3_2700</t>
-  </si>
-  <si>
-    <t>horseArcher_3_2900</t>
-  </si>
-  <si>
-    <t>horseArcher_3_3030</t>
-  </si>
-  <si>
-    <t>catapult_3_1620</t>
-  </si>
-  <si>
-    <t>catapult_3_1680</t>
-  </si>
-  <si>
-    <t>ballista_3_2670</t>
-  </si>
-  <si>
-    <t>ballista_3_2770</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:2:16,items:stoneClass_1:2:16,items:ironClass_1:2:16,items:foodClass_1:2:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:2:15,items:gemClass_1:1:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:5:16,items:stoneClass_1:5:16,items:ironClass_1:5:16,items:foodClass_1:5:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:5:15,items:gemClass_1:2:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:10:16,items:stoneClass_1:10:16,items:ironClass_1:10:16,items:foodClass_1:10:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:10:15,items:gemClass_1:3:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:15:16,items:stoneClass_1:15:16,items:ironClass_1:15:16,items:foodClass_1:15:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:15:15,items:gemClass_1:4:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:1:16,items:stoneClass_2:1:16,items:ironClass_2:1:16,items:foodClass_2:1:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:1:15,items:gemClass_1:5:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:2:16,items:stoneClass_2:2:16,items:ironClass_2:2:16,items:foodClass_2:2:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:2:15,items:gemClass_1:6:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:3:16,items:stoneClass_2:3:16,items:ironClass_2:3:16,items:foodClass_2:3:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:3:15,items:gemClass_1:7:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:4:16,items:stoneClass_2:4:16,items:ironClass_2:4:16,items:foodClass_2:4:16,buildingMaterials:blueprints:4:5,buildingMaterials:tools:4:5,buildingMaterials:tiles:4:5,buildingMaterials:pulley:4:5,items:coinClass_2:4:15,items:gemClass_1:8:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:5:16,items:stoneClass_2:5:16,items:ironClass_2:5:16,items:foodClass_2:5:16,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,items:coinClass_2:5:15,items:gemClass_1:9:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:6:16,items:stoneClass_2:6:16,items:ironClass_2:6:16,items:foodClass_2:6:16,buildingMaterials:blueprints:6:5,buildingMaterials:tools:6:5,buildingMaterials:tiles:6:5,buildingMaterials:pulley:6:5,items:coinClass_2:6:15,items:gemClass_2:1:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:7:16,items:stoneClass_2:7:16,items:ironClass_2:7:16,items:foodClass_2:7:16,buildingMaterials:blueprints:7:5,buildingMaterials:tools:7:5,buildingMaterials:tiles:7:5,buildingMaterials:pulley:7:5,items:coinClass_2:7:15,items:gemClass_1:11:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:8:16,items:stoneClass_2:8:16,items:ironClass_2:8:16,items:foodClass_2:8:16,buildingMaterials:blueprints:8:5,buildingMaterials:tools:8:5,buildingMaterials:tiles:8:5,buildingMaterials:pulley:8:5,items:coinClass_2:8:15,items:gemClass_1:12:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:9:16,items:stoneClass_2:9:16,items:ironClass_2:9:16,items:foodClass_2:9:16,buildingMaterials:blueprints:9:5,buildingMaterials:tools:9:5,buildingMaterials:tiles:9:5,buildingMaterials:pulley:9:5,items:coinClass_2:9:15,items:gemClass_1:13:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:2:16,items:stoneClass_3:2:16,items:ironClass_3:2:16,items:foodClass_3:2:16,buildingMaterials:blueprints:10:5,buildingMaterials:tools:10:5,buildingMaterials:tiles:10:5,buildingMaterials:pulley:10:5,items:coinClass_3:2:15,items:gemClass_1:14:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:12:16,items:stoneClass_2:12:16,items:ironClass_2:12:16,items:foodClass_2:12:16,buildingMaterials:blueprints:11:5,buildingMaterials:tools:11:5,buildingMaterials:tiles:11:5,buildingMaterials:pulley:11:5,items:coinClass_2:12:15,items:gemClass_1:15:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:14:16,items:stoneClass_2:14:16,items:ironClass_2:14:16,items:foodClass_2:14:16,buildingMaterials:blueprints:12:5,buildingMaterials:tools:12:5,buildingMaterials:tiles:12:5,buildingMaterials:pulley:12:5,items:coinClass_2:14:15,items:gemClass_1:16:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:16:16,items:stoneClass_2:16:16,items:ironClass_2:16:16,items:foodClass_2:16:16,buildingMaterials:blueprints:13:5,buildingMaterials:tools:13:5,buildingMaterials:tiles:13:5,buildingMaterials:pulley:13:5,items:coinClass_2:16:15,items:gemClass_1:17:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:18:16,items:stoneClass_2:18:16,items:ironClass_2:18:16,items:foodClass_2:18:16,buildingMaterials:blueprints:14:5,buildingMaterials:tools:14:5,buildingMaterials:tiles:14:5,buildingMaterials:pulley:14:5,items:coinClass_2:18:15,items:gemClass_1:18:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:4:16,items:stoneClass_3:4:16,items:ironClass_3:4:16,items:foodClass_3:4:16,buildingMaterials:blueprints:15:5,buildingMaterials:tools:15:5,buildingMaterials:tiles:15:5,buildingMaterials:pulley:15:5,items:coinClass_3:4:15,items:gemClass_1:19:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:1:16,items:stoneClass_4:1:16,items:ironClass_4:1:16,items:foodClass_4:1:16,buildingMaterials:blueprints:16:5,buildingMaterials:tools:16:5,buildingMaterials:tiles:16:5,buildingMaterials:pulley:16:5,items:coinClass_4:1:15,items:gemClass_2:2:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:6:16,items:stoneClass_3:6:16,items:ironClass_3:6:16,items:foodClass_3:6:16,buildingMaterials:blueprints:17:5,buildingMaterials:tools:17:5,buildingMaterials:tiles:17:5,buildingMaterials:pulley:17:5,items:coinClass_3:6:15,items:gemClass_1:21:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:7:16,items:stoneClass_3:7:16,items:ironClass_3:7:16,items:foodClass_3:7:16,buildingMaterials:blueprints:18:5,buildingMaterials:tools:18:5,buildingMaterials:tiles:18:5,buildingMaterials:pulley:18:5,items:coinClass_3:7:15,items:gemClass_1:22:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:8:16,items:stoneClass_3:8:16,items:ironClass_3:8:16,items:foodClass_3:8:16,buildingMaterials:blueprints:19:5,buildingMaterials:tools:19:5,buildingMaterials:tiles:19:5,buildingMaterials:pulley:19:5,items:coinClass_3:8:15,items:gemClass_1:23:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:9:16,items:stoneClass_3:9:16,items:ironClass_3:9:16,items:foodClass_3:9:16,buildingMaterials:blueprints:20:5,buildingMaterials:tools:20:5,buildingMaterials:tiles:20:5,buildingMaterials:pulley:20:5,items:coinClass_3:9:15,items:gemClass_1:24:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:2:16,items:stoneClass_4:2:16,items:ironClass_4:2:16,items:foodClass_4:2:16,buildingMaterials:blueprints:21:5,buildingMaterials:tools:21:5,buildingMaterials:tiles:21:5,buildingMaterials:pulley:21:5,items:coinClass_4:2:15,items:gemClass_1:25:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:3:16,items:stoneClass_4:3:16,items:ironClass_4:3:16,items:foodClass_4:3:16,buildingMaterials:blueprints:22:5,buildingMaterials:tools:22:5,buildingMaterials:tiles:22:5,buildingMaterials:pulley:22:5,items:coinClass_4:3:15,items:gemClass_1:26:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:4:16,items:stoneClass_4:4:16,items:ironClass_4:4:16,items:foodClass_4:4:16,buildingMaterials:blueprints:23:5,buildingMaterials:tools:23:5,buildingMaterials:tiles:23:5,buildingMaterials:pulley:23:5,items:coinClass_4:4:15,items:gemClass_1:27:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:5:16,items:stoneClass_4:5:16,items:ironClass_4:5:16,items:foodClass_4:5:16,buildingMaterials:blueprints:24:5,buildingMaterials:tools:24:5,buildingMaterials:tiles:24:5,buildingMaterials:pulley:24:5,items:coinClass_4:5:15,items:gemClass_1:28:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:6:16,items:stoneClass_4:6:16,items:ironClass_4:6:16,items:foodClass_4:6:16,buildingMaterials:blueprints:25:5,buildingMaterials:tools:25:5,buildingMaterials:tiles:25:5,buildingMaterials:pulley:25:5,items:coinClass_4:6:15,items:gemClass_1:29:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:7:16,items:stoneClass_4:7:16,items:ironClass_4:7:16,items:foodClass_4:7:16,buildingMaterials:blueprints:26:5,buildingMaterials:tools:26:5,buildingMaterials:tiles:26:5,buildingMaterials:pulley:26:5,items:coinClass_4:7:15,items:gemClass_2:3:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:8:16,items:stoneClass_4:8:16,items:ironClass_4:8:16,items:foodClass_4:8:16,buildingMaterials:blueprints:27:5,buildingMaterials:tools:27:5,buildingMaterials:tiles:27:5,buildingMaterials:pulley:27:5,items:coinClass_4:8:15,items:gemClass_1:31:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:3:16,items:stoneClass_5:3:16,items:ironClass_5:3:16,items:foodClass_5:3:16,buildingMaterials:blueprints:28:5,buildingMaterials:tools:28:5,buildingMaterials:tiles:28:5,buildingMaterials:pulley:28:5,items:coinClass_5:3:15,items:gemClass_1:32:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:1:16,items:stoneClass_6:1:16,items:ironClass_6:1:16,items:foodClass_6:1:16,buildingMaterials:blueprints:29:5,buildingMaterials:tools:29:5,buildingMaterials:tiles:29:5,buildingMaterials:pulley:29:5,items:coinClass_6:1:15,items:gemClass_1:33:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:4:16,items:stoneClass_5:4:16,items:ironClass_5:4:16,items:foodClass_5:4:16,buildingMaterials:blueprints:30:5,buildingMaterials:tools:30:5,buildingMaterials:tiles:30:5,buildingMaterials:pulley:30:5,items:coinClass_5:4:15,items:gemClass_1:34:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:5:16,items:stoneClass_5:5:16,items:ironClass_5:5:16,items:foodClass_5:5:16,buildingMaterials:blueprints:31:5,buildingMaterials:tools:31:5,buildingMaterials:tiles:31:5,buildingMaterials:pulley:31:5,items:coinClass_5:5:15,items:gemClass_1:35:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:6:16,items:stoneClass_5:6:16,items:ironClass_5:6:16,items:foodClass_5:6:16,buildingMaterials:blueprints:32:5,buildingMaterials:tools:32:5,buildingMaterials:tiles:32:5,buildingMaterials:pulley:32:5,items:coinClass_5:6:15,items:gemClass_1:36:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:7:16,items:stoneClass_5:7:16,items:ironClass_5:7:16,items:foodClass_5:7:16,buildingMaterials:blueprints:34:5,buildingMaterials:tools:34:5,buildingMaterials:tiles:34:5,buildingMaterials:pulley:34:5,items:coinClass_5:7:15,items:gemClass_1:37:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:8:16,items:stoneClass_5:8:16,items:ironClass_5:8:16,items:foodClass_5:8:16,buildingMaterials:blueprints:36:5,buildingMaterials:tools:36:5,buildingMaterials:tiles:36:5,buildingMaterials:pulley:36:5,items:coinClass_5:8:15,items:gemClass_1:38:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:9:16,items:stoneClass_5:9:16,items:ironClass_5:9:16,items:foodClass_5:9:16,buildingMaterials:blueprints:38:5,buildingMaterials:tools:38:5,buildingMaterials:tiles:38:5,buildingMaterials:pulley:38:5,items:coinClass_5:9:15,items:gemClass_1:39:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:3:16,items:stoneClass_6:3:16,items:ironClass_6:3:16,items:foodClass_6:3:16,buildingMaterials:blueprints:40:5,buildingMaterials:tools:40:5,buildingMaterials:tiles:40:5,buildingMaterials:pulley:40:5,items:coinClass_6:3:15,items:gemClass_2:4:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterRefreshMinutes</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域地图野怪多少分钟后刷新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>minMonsterCount</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟领地最少的野怪数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>monstersPerPlayer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个联盟玩家创建多少个野怪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_8</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_9</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_10</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_11</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_12</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_13</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_14</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_15</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_16</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_17</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_18</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_19</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_20</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_21</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_22</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_23</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_24</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_25</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_26</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_27</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_28</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_29</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_31</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_32</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_33</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_34</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_35</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_36</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_37</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_38</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_39</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_40</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_soldiers</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2359,7 +2384,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="697">
+  <cellStyleXfs count="767">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2841,6 +2866,76 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3140,7 +3235,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="697">
+  <cellStyles count="767">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3491,6 +3586,41 @@
     <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="693" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="765" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3834,6 +3964,41 @@
     <cellStyle name="访问过的超链接" xfId="692" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="694" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="766" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4521,35 +4686,35 @@
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="B21" s="8">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="B23" s="8">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -6238,7 +6403,7 @@
         <v>160</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="J2" s="16">
         <v>200</v>
@@ -8543,7 +8708,7 @@
     </row>
     <row r="20" spans="1:13" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -8552,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -10259,7 +10424,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10280,10 +10445,10 @@
         <v>473</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>474</v>
@@ -10295,16 +10460,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>475</v>
+        <v>604</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -10315,13 +10480,13 @@
         <v>475</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
@@ -10329,16 +10494,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>476</v>
+        <v>605</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
@@ -10346,16 +10511,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>476</v>
+        <v>605</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45">
@@ -10363,16 +10528,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>497</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
@@ -10380,16 +10545,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>478</v>
+        <v>606</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45">
@@ -10397,16 +10562,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>477</v>
+        <v>607</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45">
@@ -10414,16 +10579,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>477</v>
+        <v>607</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
@@ -10431,16 +10596,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>479</v>
+        <v>608</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45">
@@ -10448,16 +10613,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>479</v>
+        <v>608</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45">
@@ -10465,16 +10630,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>480</v>
+        <v>609</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45">
@@ -10482,16 +10647,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>480</v>
+        <v>609</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45">
@@ -10499,16 +10664,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>481</v>
+        <v>610</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45">
@@ -10516,16 +10681,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>481</v>
+        <v>610</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45">
@@ -10533,16 +10698,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>482</v>
+        <v>611</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45">
@@ -10550,50 +10715,50 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>482</v>
+        <v>611</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45">
       <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>483</v>
+      <c r="B18" s="24" t="s">
+        <v>612</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45">
       <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>483</v>
+      <c r="B19" s="24" t="s">
+        <v>612</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
@@ -10601,16 +10766,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>484</v>
+        <v>613</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45">
@@ -10618,16 +10783,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>484</v>
+        <v>613</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
@@ -10635,16 +10800,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>485</v>
+        <v>614</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
@@ -10652,16 +10817,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>485</v>
+        <v>614</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45">
@@ -10669,16 +10834,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>486</v>
+        <v>615</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>606</v>
+        <v>585</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>519</v>
+        <v>616</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
@@ -10686,16 +10851,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>486</v>
+        <v>615</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>520</v>
+        <v>617</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45">
@@ -10703,16 +10868,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>487</v>
+        <v>618</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45">
@@ -10720,16 +10885,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>487</v>
+        <v>618</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
@@ -10737,16 +10902,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>488</v>
+        <v>619</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45">
@@ -10754,16 +10919,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>488</v>
+        <v>619</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45">
@@ -10771,16 +10936,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>489</v>
+        <v>620</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="45">
@@ -10788,16 +10953,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>489</v>
+        <v>620</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45">
@@ -10805,16 +10970,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>490</v>
+        <v>621</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45">
@@ -10822,16 +10987,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>490</v>
+        <v>621</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45">
@@ -10839,16 +11004,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>491</v>
+        <v>622</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45">
@@ -10856,16 +11021,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>491</v>
+        <v>622</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45">
@@ -10873,16 +11038,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>492</v>
+        <v>623</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>618</v>
+        <v>597</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45">
@@ -10890,16 +11055,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>492</v>
+        <v>623</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45">
@@ -10907,16 +11072,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>493</v>
+        <v>624</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
@@ -10924,56 +11089,58 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>493</v>
+        <v>624</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45">
       <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>494</v>
+      <c r="B40" s="24" t="s">
+        <v>625</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="48" customHeight="1">
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>494</v>
+      <c r="B41" s="24" t="s">
+        <v>625</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:5">
+      <c r="B42" s="16"/>
       <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:5">
+      <c r="B43" s="16"/>
       <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5">

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="0" windowWidth="30120" windowHeight="17280" tabRatio="566" activeTab="8"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="30120" windowHeight="20420" tabRatio="566" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="622">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1683,120 +1683,9 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>sentinel_2_50</t>
-  </si>
-  <si>
-    <t>swordsman_2_5</t>
-  </si>
-  <si>
-    <t>swordsman_2_10</t>
-  </si>
-  <si>
-    <t>ranger_2_20</t>
-  </si>
-  <si>
-    <t>ranger_2_35</t>
-  </si>
-  <si>
-    <t>sentinel_2_80</t>
-  </si>
-  <si>
-    <t>skeletonWarrior_2_130</t>
-  </si>
-  <si>
-    <t>skeletonWarrior_2_180</t>
-  </si>
-  <si>
-    <t>crossbowman_2_230</t>
-  </si>
-  <si>
     <t>crossbowman_2_280</t>
   </si>
   <si>
-    <t>skeletonArcher_2_650</t>
-  </si>
-  <si>
-    <t>skeletonArcher_2_750</t>
-  </si>
-  <si>
-    <t>lancer_2_430</t>
-  </si>
-  <si>
-    <t>lancer_2_480</t>
-  </si>
-  <si>
-    <t>horseArcher_2_550</t>
-  </si>
-  <si>
-    <t>horseArcher_2_600</t>
-  </si>
-  <si>
-    <t>deathKnight_2_650</t>
-  </si>
-  <si>
-    <t>deathKnight_2_730</t>
-  </si>
-  <si>
-    <t>catapult_2_390</t>
-  </si>
-  <si>
-    <t>catapult_2_420</t>
-  </si>
-  <si>
-    <t>ballista_2_420</t>
-  </si>
-  <si>
-    <t>ballista_2_450</t>
-  </si>
-  <si>
-    <t>swordsman_3_2250</t>
-  </si>
-  <si>
-    <t>swordsman_3_2390</t>
-  </si>
-  <si>
-    <t>sentinel_3_2570</t>
-  </si>
-  <si>
-    <t>sentinel_3_2700</t>
-  </si>
-  <si>
-    <t>ranger_3_4330</t>
-  </si>
-  <si>
-    <t>ranger_3_4530</t>
-  </si>
-  <si>
-    <t>crossbowman_3_4450</t>
-  </si>
-  <si>
-    <t>crossbowman_3_4720</t>
-  </si>
-  <si>
-    <t>lancer_3_2560</t>
-  </si>
-  <si>
-    <t>lancer_3_2700</t>
-  </si>
-  <si>
-    <t>horseArcher_3_2900</t>
-  </si>
-  <si>
-    <t>horseArcher_3_3030</t>
-  </si>
-  <si>
-    <t>catapult_3_1620</t>
-  </si>
-  <si>
-    <t>catapult_3_1680</t>
-  </si>
-  <si>
-    <t>ballista_3_2670</t>
-  </si>
-  <si>
-    <t>ballista_3_2770</t>
-  </si>
-  <si>
     <t>items:woodClass_1:2:16,items:stoneClass_1:2:16,items:ironClass_1:2:16,items:foodClass_1:2:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:2:15,items:gemClass_1:1:1</t>
   </si>
   <si>
@@ -2110,91 +1999,169 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>swordsman_2_30</t>
+  </si>
+  <si>
+    <t>swordsman_2_40</t>
+  </si>
+  <si>
+    <t>swordsman_2_50</t>
+  </si>
+  <si>
+    <t>ranger_2_70</t>
+  </si>
+  <si>
+    <t>ranger_2_80</t>
+  </si>
+  <si>
+    <t>ranger_2_100</t>
+  </si>
+  <si>
+    <t>sentinel_2_130</t>
+  </si>
+  <si>
+    <t>sentinel_2_150</t>
+  </si>
+  <si>
+    <t>sentinel_2_180</t>
+  </si>
+  <si>
+    <t>crossbowman_2_200</t>
+  </si>
+  <si>
+    <t>crossbowman_2_250</t>
+  </si>
+  <si>
+    <t>lancer_2_180</t>
+  </si>
+  <si>
+    <t>lancer_2_220</t>
+  </si>
+  <si>
+    <t>lancer_2_260</t>
+  </si>
+  <si>
+    <t>horseArcher_2_300</t>
+  </si>
+  <si>
+    <t>horseArcher_2_340</t>
+  </si>
+  <si>
+    <t>horseArcher_2_390</t>
+  </si>
+  <si>
+    <t>catapult_2_220</t>
+  </si>
+  <si>
+    <t>catapult_2_250</t>
+  </si>
+  <si>
+    <t>catapult_2_280</t>
+  </si>
+  <si>
+    <t>ballista_2_310</t>
+  </si>
+  <si>
+    <t>ballista_2_360</t>
+  </si>
+  <si>
+    <t>ballista_2_410</t>
+  </si>
+  <si>
+    <t>swordsman_3_1230</t>
+  </si>
+  <si>
+    <t>swordsman_3_1390</t>
+  </si>
+  <si>
+    <t>sentinel_3_1560</t>
+  </si>
+  <si>
+    <t>sentinel_3_1720</t>
+  </si>
+  <si>
+    <t>ranger_3_1900</t>
+  </si>
+  <si>
+    <t>ranger_3_2090</t>
+  </si>
+  <si>
+    <t>crossbowman_3_2260</t>
+  </si>
+  <si>
+    <t>crossbowman_3_2460</t>
+  </si>
+  <si>
+    <t>lancer_3_1400</t>
+  </si>
+  <si>
+    <t>lancer_3_1590</t>
+  </si>
+  <si>
+    <t>horseArcher_3_1770</t>
+  </si>
+  <si>
+    <t>horseArcher_3_1960</t>
+  </si>
+  <si>
+    <t>catapult_3_1090</t>
+  </si>
+  <si>
+    <t>catapult_3_1190</t>
+  </si>
+  <si>
+    <t>ballista_3_1290</t>
+  </si>
+  <si>
+    <t>ballista_3_1410</t>
   </si>
   <si>
     <t>ranger_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>sentinel_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeletonWarrior_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>crossbowman_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeletonArcher_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>lancer_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>horseArcher_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathKnight_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>catapult_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ballista_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>meatWagon_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>meatWagon_2_490</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>meatWagon_2_520</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>swordsman_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>sentinel_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ranger_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>crossbowman_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>lancer_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>horseArcher_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>catapult_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>ballista_3</t>
+  </si>
+  <si>
+    <t>coinVillage</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2384,7 +2351,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="767">
+  <cellStyleXfs count="773">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2866,6 +2833,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3235,7 +3208,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="767">
+  <cellStyles count="773">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3621,6 +3594,9 @@
     <cellStyle name="超链接" xfId="761" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="763" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="771" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3999,6 +3975,9 @@
     <cellStyle name="访问过的超链接" xfId="762" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="764" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="772" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4686,35 +4665,35 @@
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>556</v>
+        <v>519</v>
       </c>
       <c r="B21" s="8">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>557</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>558</v>
+        <v>521</v>
       </c>
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>559</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>560</v>
+        <v>523</v>
       </c>
       <c r="B23" s="8">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>561</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -8271,10 +8250,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8691,7 +8670,7 @@
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>140</v>
+        <v>621</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -8700,26 +8679,51 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>562</v>
+        <v>140</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>562</v>
+        <v>140</v>
       </c>
       <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -10423,8 +10427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10448,7 +10452,7 @@
         <v>476</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>603</v>
+        <v>566</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>474</v>
@@ -10460,16 +10464,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>604</v>
+        <v>475</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>479</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45">
@@ -10480,13 +10484,13 @@
         <v>475</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>564</v>
+        <v>527</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>480</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45">
@@ -10494,16 +10498,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>605</v>
+        <v>475</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>481</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
@@ -10511,16 +10515,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>566</v>
+        <v>529</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>482</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45">
@@ -10531,13 +10535,13 @@
         <v>606</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>478</v>
+        <v>571</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45">
@@ -10548,13 +10552,13 @@
         <v>606</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>483</v>
+        <v>572</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45">
@@ -10565,13 +10569,13 @@
         <v>607</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>484</v>
+        <v>573</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45">
@@ -10582,13 +10586,13 @@
         <v>607</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>485</v>
+        <v>574</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>523</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45">
@@ -10596,16 +10600,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>486</v>
+        <v>575</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45">
@@ -10616,13 +10620,13 @@
         <v>608</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>572</v>
+        <v>535</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>487</v>
+        <v>576</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45">
@@ -10630,16 +10634,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>573</v>
+        <v>536</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>488</v>
+        <v>577</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45">
@@ -10647,16 +10651,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>574</v>
+        <v>537</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>527</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45">
@@ -10664,16 +10668,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>490</v>
+        <v>578</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45">
@@ -10681,16 +10685,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>491</v>
+        <v>579</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>529</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45">
@@ -10698,33 +10702,33 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>492</v>
+        <v>540</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>580</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>530</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45">
       <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>611</v>
+      <c r="B17" s="24" t="s">
+        <v>610</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>493</v>
+        <v>581</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45">
@@ -10732,33 +10736,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>494</v>
+        <v>542</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>582</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>532</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45">
       <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>612</v>
+      <c r="B19" s="16" t="s">
+        <v>610</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>495</v>
+        <v>583</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45">
@@ -10766,16 +10770,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>496</v>
+        <v>584</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>534</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45">
@@ -10783,16 +10787,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>497</v>
+        <v>585</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45">
@@ -10800,16 +10804,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>583</v>
+        <v>546</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>498</v>
+        <v>586</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
@@ -10817,16 +10821,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>499</v>
+        <v>587</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45">
@@ -10834,16 +10838,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>585</v>
+        <v>548</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
@@ -10851,16 +10855,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>586</v>
+        <v>549</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45">
@@ -10868,16 +10872,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="45">
@@ -10885,16 +10889,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>501</v>
+        <v>591</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="45">
@@ -10902,16 +10906,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>502</v>
+        <v>592</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="45">
@@ -10919,16 +10923,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>503</v>
+        <v>593</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45">
@@ -10936,16 +10940,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>504</v>
+        <v>594</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="45">
@@ -10953,16 +10957,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>505</v>
+        <v>595</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>545</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45">
@@ -10970,16 +10974,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>593</v>
+        <v>556</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>506</v>
+        <v>596</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45">
@@ -10987,16 +10991,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>594</v>
+        <v>557</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="45">
@@ -11004,16 +11008,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>508</v>
+        <v>598</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45">
@@ -11021,16 +11025,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>549</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="45">
@@ -11038,16 +11042,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>597</v>
+        <v>560</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>510</v>
+        <v>600</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45">
@@ -11055,16 +11059,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>598</v>
+        <v>561</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>511</v>
+        <v>601</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45">
@@ -11072,33 +11076,33 @@
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>599</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>512</v>
+        <v>562</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>602</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>552</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
       <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>624</v>
+      <c r="B39" s="24" t="s">
+        <v>619</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>600</v>
+        <v>563</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>513</v>
+        <v>603</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>553</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="45">
@@ -11106,33 +11110,33 @@
         <v>39</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>601</v>
+        <v>564</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="48" customHeight="1">
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>625</v>
+      <c r="B41" s="16" t="s">
+        <v>620</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -11140,7 +11144,6 @@
       <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="B43" s="16"/>
       <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5">

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="30120" windowHeight="20420" tabRatio="566" activeTab="5"/>
+    <workbookView xWindow="2960" yWindow="360" windowWidth="30120" windowHeight="20420" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="buildingName" sheetId="6" r:id="rId6"/>
     <sheet name="buildings" sheetId="11" r:id="rId7"/>
     <sheet name="fightRewards" sheetId="13" r:id="rId8"/>
-    <sheet name="monster" sheetId="14" r:id="rId9"/>
+    <sheet name="monsters" sheetId="14" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="602">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1664,17 +1664,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>STR_icon</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_rewards</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman_2</t>
-  </si>
-  <si>
     <t>STR_dragon</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1683,9 +1676,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>crossbowman_2_280</t>
-  </si>
-  <si>
     <t>items:woodClass_1:2:16,items:stoneClass_1:2:16,items:ironClass_1:2:16,items:foodClass_1:2:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:2:15,items:gemClass_1:1:1</t>
   </si>
   <si>
@@ -1701,112 +1691,6 @@
     <t>items:woodClass_2:1:16,items:stoneClass_2:1:16,items:ironClass_2:1:16,items:foodClass_2:1:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:1:15,items:gemClass_1:5:1</t>
   </si>
   <si>
-    <t>items:woodClass_2:2:16,items:stoneClass_2:2:16,items:ironClass_2:2:16,items:foodClass_2:2:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:2:15,items:gemClass_1:6:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:3:16,items:stoneClass_2:3:16,items:ironClass_2:3:16,items:foodClass_2:3:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:3:15,items:gemClass_1:7:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:4:16,items:stoneClass_2:4:16,items:ironClass_2:4:16,items:foodClass_2:4:16,buildingMaterials:blueprints:4:5,buildingMaterials:tools:4:5,buildingMaterials:tiles:4:5,buildingMaterials:pulley:4:5,items:coinClass_2:4:15,items:gemClass_1:8:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:5:16,items:stoneClass_2:5:16,items:ironClass_2:5:16,items:foodClass_2:5:16,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,items:coinClass_2:5:15,items:gemClass_1:9:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:6:16,items:stoneClass_2:6:16,items:ironClass_2:6:16,items:foodClass_2:6:16,buildingMaterials:blueprints:6:5,buildingMaterials:tools:6:5,buildingMaterials:tiles:6:5,buildingMaterials:pulley:6:5,items:coinClass_2:6:15,items:gemClass_2:1:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:7:16,items:stoneClass_2:7:16,items:ironClass_2:7:16,items:foodClass_2:7:16,buildingMaterials:blueprints:7:5,buildingMaterials:tools:7:5,buildingMaterials:tiles:7:5,buildingMaterials:pulley:7:5,items:coinClass_2:7:15,items:gemClass_1:11:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:8:16,items:stoneClass_2:8:16,items:ironClass_2:8:16,items:foodClass_2:8:16,buildingMaterials:blueprints:8:5,buildingMaterials:tools:8:5,buildingMaterials:tiles:8:5,buildingMaterials:pulley:8:5,items:coinClass_2:8:15,items:gemClass_1:12:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:9:16,items:stoneClass_2:9:16,items:ironClass_2:9:16,items:foodClass_2:9:16,buildingMaterials:blueprints:9:5,buildingMaterials:tools:9:5,buildingMaterials:tiles:9:5,buildingMaterials:pulley:9:5,items:coinClass_2:9:15,items:gemClass_1:13:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:2:16,items:stoneClass_3:2:16,items:ironClass_3:2:16,items:foodClass_3:2:16,buildingMaterials:blueprints:10:5,buildingMaterials:tools:10:5,buildingMaterials:tiles:10:5,buildingMaterials:pulley:10:5,items:coinClass_3:2:15,items:gemClass_1:14:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:12:16,items:stoneClass_2:12:16,items:ironClass_2:12:16,items:foodClass_2:12:16,buildingMaterials:blueprints:11:5,buildingMaterials:tools:11:5,buildingMaterials:tiles:11:5,buildingMaterials:pulley:11:5,items:coinClass_2:12:15,items:gemClass_1:15:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:14:16,items:stoneClass_2:14:16,items:ironClass_2:14:16,items:foodClass_2:14:16,buildingMaterials:blueprints:12:5,buildingMaterials:tools:12:5,buildingMaterials:tiles:12:5,buildingMaterials:pulley:12:5,items:coinClass_2:14:15,items:gemClass_1:16:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:16:16,items:stoneClass_2:16:16,items:ironClass_2:16:16,items:foodClass_2:16:16,buildingMaterials:blueprints:13:5,buildingMaterials:tools:13:5,buildingMaterials:tiles:13:5,buildingMaterials:pulley:13:5,items:coinClass_2:16:15,items:gemClass_1:17:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:18:16,items:stoneClass_2:18:16,items:ironClass_2:18:16,items:foodClass_2:18:16,buildingMaterials:blueprints:14:5,buildingMaterials:tools:14:5,buildingMaterials:tiles:14:5,buildingMaterials:pulley:14:5,items:coinClass_2:18:15,items:gemClass_1:18:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:4:16,items:stoneClass_3:4:16,items:ironClass_3:4:16,items:foodClass_3:4:16,buildingMaterials:blueprints:15:5,buildingMaterials:tools:15:5,buildingMaterials:tiles:15:5,buildingMaterials:pulley:15:5,items:coinClass_3:4:15,items:gemClass_1:19:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:1:16,items:stoneClass_4:1:16,items:ironClass_4:1:16,items:foodClass_4:1:16,buildingMaterials:blueprints:16:5,buildingMaterials:tools:16:5,buildingMaterials:tiles:16:5,buildingMaterials:pulley:16:5,items:coinClass_4:1:15,items:gemClass_2:2:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:6:16,items:stoneClass_3:6:16,items:ironClass_3:6:16,items:foodClass_3:6:16,buildingMaterials:blueprints:17:5,buildingMaterials:tools:17:5,buildingMaterials:tiles:17:5,buildingMaterials:pulley:17:5,items:coinClass_3:6:15,items:gemClass_1:21:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:7:16,items:stoneClass_3:7:16,items:ironClass_3:7:16,items:foodClass_3:7:16,buildingMaterials:blueprints:18:5,buildingMaterials:tools:18:5,buildingMaterials:tiles:18:5,buildingMaterials:pulley:18:5,items:coinClass_3:7:15,items:gemClass_1:22:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:8:16,items:stoneClass_3:8:16,items:ironClass_3:8:16,items:foodClass_3:8:16,buildingMaterials:blueprints:19:5,buildingMaterials:tools:19:5,buildingMaterials:tiles:19:5,buildingMaterials:pulley:19:5,items:coinClass_3:8:15,items:gemClass_1:23:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:9:16,items:stoneClass_3:9:16,items:ironClass_3:9:16,items:foodClass_3:9:16,buildingMaterials:blueprints:20:5,buildingMaterials:tools:20:5,buildingMaterials:tiles:20:5,buildingMaterials:pulley:20:5,items:coinClass_3:9:15,items:gemClass_1:24:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:2:16,items:stoneClass_4:2:16,items:ironClass_4:2:16,items:foodClass_4:2:16,buildingMaterials:blueprints:21:5,buildingMaterials:tools:21:5,buildingMaterials:tiles:21:5,buildingMaterials:pulley:21:5,items:coinClass_4:2:15,items:gemClass_1:25:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:3:16,items:stoneClass_4:3:16,items:ironClass_4:3:16,items:foodClass_4:3:16,buildingMaterials:blueprints:22:5,buildingMaterials:tools:22:5,buildingMaterials:tiles:22:5,buildingMaterials:pulley:22:5,items:coinClass_4:3:15,items:gemClass_1:26:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:4:16,items:stoneClass_4:4:16,items:ironClass_4:4:16,items:foodClass_4:4:16,buildingMaterials:blueprints:23:5,buildingMaterials:tools:23:5,buildingMaterials:tiles:23:5,buildingMaterials:pulley:23:5,items:coinClass_4:4:15,items:gemClass_1:27:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:5:16,items:stoneClass_4:5:16,items:ironClass_4:5:16,items:foodClass_4:5:16,buildingMaterials:blueprints:24:5,buildingMaterials:tools:24:5,buildingMaterials:tiles:24:5,buildingMaterials:pulley:24:5,items:coinClass_4:5:15,items:gemClass_1:28:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:6:16,items:stoneClass_4:6:16,items:ironClass_4:6:16,items:foodClass_4:6:16,buildingMaterials:blueprints:25:5,buildingMaterials:tools:25:5,buildingMaterials:tiles:25:5,buildingMaterials:pulley:25:5,items:coinClass_4:6:15,items:gemClass_1:29:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:7:16,items:stoneClass_4:7:16,items:ironClass_4:7:16,items:foodClass_4:7:16,buildingMaterials:blueprints:26:5,buildingMaterials:tools:26:5,buildingMaterials:tiles:26:5,buildingMaterials:pulley:26:5,items:coinClass_4:7:15,items:gemClass_2:3:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:8:16,items:stoneClass_4:8:16,items:ironClass_4:8:16,items:foodClass_4:8:16,buildingMaterials:blueprints:27:5,buildingMaterials:tools:27:5,buildingMaterials:tiles:27:5,buildingMaterials:pulley:27:5,items:coinClass_4:8:15,items:gemClass_1:31:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:3:16,items:stoneClass_5:3:16,items:ironClass_5:3:16,items:foodClass_5:3:16,buildingMaterials:blueprints:28:5,buildingMaterials:tools:28:5,buildingMaterials:tiles:28:5,buildingMaterials:pulley:28:5,items:coinClass_5:3:15,items:gemClass_1:32:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:1:16,items:stoneClass_6:1:16,items:ironClass_6:1:16,items:foodClass_6:1:16,buildingMaterials:blueprints:29:5,buildingMaterials:tools:29:5,buildingMaterials:tiles:29:5,buildingMaterials:pulley:29:5,items:coinClass_6:1:15,items:gemClass_1:33:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:4:16,items:stoneClass_5:4:16,items:ironClass_5:4:16,items:foodClass_5:4:16,buildingMaterials:blueprints:30:5,buildingMaterials:tools:30:5,buildingMaterials:tiles:30:5,buildingMaterials:pulley:30:5,items:coinClass_5:4:15,items:gemClass_1:34:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:5:16,items:stoneClass_5:5:16,items:ironClass_5:5:16,items:foodClass_5:5:16,buildingMaterials:blueprints:31:5,buildingMaterials:tools:31:5,buildingMaterials:tiles:31:5,buildingMaterials:pulley:31:5,items:coinClass_5:5:15,items:gemClass_1:35:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:6:16,items:stoneClass_5:6:16,items:ironClass_5:6:16,items:foodClass_5:6:16,buildingMaterials:blueprints:32:5,buildingMaterials:tools:32:5,buildingMaterials:tiles:32:5,buildingMaterials:pulley:32:5,items:coinClass_5:6:15,items:gemClass_1:36:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:7:16,items:stoneClass_5:7:16,items:ironClass_5:7:16,items:foodClass_5:7:16,buildingMaterials:blueprints:34:5,buildingMaterials:tools:34:5,buildingMaterials:tiles:34:5,buildingMaterials:pulley:34:5,items:coinClass_5:7:15,items:gemClass_1:37:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:8:16,items:stoneClass_5:8:16,items:ironClass_5:8:16,items:foodClass_5:8:16,buildingMaterials:blueprints:36:5,buildingMaterials:tools:36:5,buildingMaterials:tiles:36:5,buildingMaterials:pulley:36:5,items:coinClass_5:8:15,items:gemClass_1:38:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:9:16,items:stoneClass_5:9:16,items:ironClass_5:9:16,items:foodClass_5:9:16,buildingMaterials:blueprints:38:5,buildingMaterials:tools:38:5,buildingMaterials:tiles:38:5,buildingMaterials:pulley:38:5,items:coinClass_5:9:15,items:gemClass_1:39:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:3:16,items:stoneClass_6:3:16,items:ironClass_6:3:16,items:foodClass_6:3:16,buildingMaterials:blueprints:40:5,buildingMaterials:tools:40:5,buildingMaterials:tiles:40:5,buildingMaterials:pulley:40:5,items:coinClass_6:3:15,items:gemClass_2:4:1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>monsterRefreshMinutes</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1999,170 +1883,224 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman_2_30</t>
-  </si>
-  <si>
-    <t>swordsman_2_40</t>
-  </si>
-  <si>
-    <t>swordsman_2_50</t>
-  </si>
-  <si>
-    <t>ranger_2_70</t>
-  </si>
-  <si>
-    <t>ranger_2_80</t>
-  </si>
-  <si>
-    <t>ranger_2_100</t>
-  </si>
-  <si>
-    <t>sentinel_2_130</t>
-  </si>
-  <si>
-    <t>sentinel_2_150</t>
-  </si>
-  <si>
-    <t>sentinel_2_180</t>
-  </si>
-  <si>
-    <t>crossbowman_2_200</t>
-  </si>
-  <si>
-    <t>crossbowman_2_250</t>
-  </si>
-  <si>
-    <t>lancer_2_180</t>
-  </si>
-  <si>
-    <t>lancer_2_220</t>
-  </si>
-  <si>
-    <t>lancer_2_260</t>
-  </si>
-  <si>
-    <t>horseArcher_2_300</t>
-  </si>
-  <si>
-    <t>horseArcher_2_340</t>
-  </si>
-  <si>
-    <t>horseArcher_2_390</t>
-  </si>
-  <si>
-    <t>catapult_2_220</t>
-  </si>
-  <si>
-    <t>catapult_2_250</t>
-  </si>
-  <si>
-    <t>catapult_2_280</t>
-  </si>
-  <si>
-    <t>ballista_2_310</t>
-  </si>
-  <si>
-    <t>ballista_2_360</t>
-  </si>
-  <si>
-    <t>ballista_2_410</t>
-  </si>
-  <si>
-    <t>swordsman_3_1230</t>
-  </si>
-  <si>
-    <t>swordsman_3_1390</t>
-  </si>
-  <si>
-    <t>sentinel_3_1560</t>
-  </si>
-  <si>
-    <t>sentinel_3_1720</t>
-  </si>
-  <si>
-    <t>ranger_3_1900</t>
-  </si>
-  <si>
-    <t>ranger_3_2090</t>
-  </si>
-  <si>
-    <t>crossbowman_3_2260</t>
-  </si>
-  <si>
-    <t>crossbowman_3_2460</t>
-  </si>
-  <si>
-    <t>lancer_3_1400</t>
-  </si>
-  <si>
-    <t>lancer_3_1590</t>
-  </si>
-  <si>
-    <t>horseArcher_3_1770</t>
-  </si>
-  <si>
-    <t>horseArcher_3_1960</t>
-  </si>
-  <si>
-    <t>catapult_3_1090</t>
-  </si>
-  <si>
-    <t>catapult_3_1190</t>
-  </si>
-  <si>
-    <t>ballista_3_1290</t>
-  </si>
-  <si>
-    <t>ballista_3_1410</t>
-  </si>
-  <si>
-    <t>ranger_2</t>
-  </si>
-  <si>
-    <t>sentinel_2</t>
-  </si>
-  <si>
-    <t>crossbowman_2</t>
-  </si>
-  <si>
-    <t>lancer_2</t>
-  </si>
-  <si>
-    <t>horseArcher_2</t>
-  </si>
-  <si>
-    <t>catapult_2</t>
-  </si>
-  <si>
-    <t>ballista_2</t>
-  </si>
-  <si>
-    <t>swordsman_3</t>
-  </si>
-  <si>
-    <t>sentinel_3</t>
-  </si>
-  <si>
-    <t>ranger_3</t>
-  </si>
-  <si>
-    <t>crossbowman_3</t>
-  </si>
-  <si>
-    <t>lancer_3</t>
-  </si>
-  <si>
-    <t>horseArcher_3</t>
-  </si>
-  <si>
-    <t>catapult_3</t>
-  </si>
-  <si>
-    <t>ballista_3</t>
-  </si>
-  <si>
     <t>coinVillage</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>items:woodClass_2:2:16,items:stoneClass_2:2:16,items:ironClass_2:2:16,items:foodClass_2:2:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:2:15,items:gemClass_1:6:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:3:16,items:stoneClass_2:3:16,items:ironClass_2:3:16,items:foodClass_2:3:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:3:15,items:gemClass_1:7:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:4:16,items:stoneClass_2:4:16,items:ironClass_2:4:16,items:foodClass_2:4:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:4:15,items:gemClass_1:8:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:5:16,items:stoneClass_2:5:16,items:ironClass_2:5:16,items:foodClass_2:5:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:5:15,items:gemClass_1:9:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:6:16,items:stoneClass_2:6:16,items:ironClass_2:6:16,items:foodClass_2:6:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:6:15,items:gemClass_2:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:7:16,items:stoneClass_2:7:16,items:ironClass_2:7:16,items:foodClass_2:7:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:7:15,items:gemClass_1:11:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:8:16,items:stoneClass_2:8:16,items:ironClass_2:8:16,items:foodClass_2:8:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:8:15,items:gemClass_1:12:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:9:16,items:stoneClass_2:9:16,items:ironClass_2:9:16,items:foodClass_2:9:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:9:15,items:gemClass_1:13:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:2:16,items:stoneClass_3:2:16,items:ironClass_3:2:16,items:foodClass_3:2:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_3:2:15,items:gemClass_1:14:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:12:16,items:stoneClass_2:12:16,items:ironClass_2:12:16,items:foodClass_2:12:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:12:15,items:gemClass_1:15:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:14:16,items:stoneClass_2:14:16,items:ironClass_2:14:16,items:foodClass_2:14:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:14:15,items:gemClass_1:16:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:16:16,items:stoneClass_2:16:16,items:ironClass_2:16:16,items:foodClass_2:16:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:16:15,items:gemClass_1:17:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:18:16,items:stoneClass_2:18:16,items:ironClass_2:18:16,items:foodClass_2:18:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:18:15,items:gemClass_1:18:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:4:16,items:stoneClass_3:4:16,items:ironClass_3:4:16,items:foodClass_3:4:16,buildingMaterials:blueprints:4:5,buildingMaterials:tools:4:5,buildingMaterials:tiles:4:5,buildingMaterials:pulley:4:5,items:coinClass_3:4:15,items:gemClass_1:19:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:1:16,items:stoneClass_4:1:16,items:ironClass_4:1:16,items:foodClass_4:1:16,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,items:coinClass_4:1:15,items:gemClass_2:2:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:6:16,items:stoneClass_3:6:16,items:ironClass_3:6:16,items:foodClass_3:6:16,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,items:coinClass_3:6:15,items:gemClass_1:21:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:7:16,items:stoneClass_3:7:16,items:ironClass_3:7:16,items:foodClass_3:7:16,buildingMaterials:blueprints:6:5,buildingMaterials:tools:6:5,buildingMaterials:tiles:6:5,buildingMaterials:pulley:6:5,items:coinClass_3:7:15,items:gemClass_1:22:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:8:16,items:stoneClass_3:8:16,items:ironClass_3:8:16,items:foodClass_3:8:16,buildingMaterials:blueprints:7:5,buildingMaterials:tools:7:5,buildingMaterials:tiles:7:5,buildingMaterials:pulley:7:5,items:coinClass_3:8:15,items:gemClass_1:23:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:9:16,items:stoneClass_3:9:16,items:ironClass_3:9:16,items:foodClass_3:9:16,buildingMaterials:blueprints:8:5,buildingMaterials:tools:8:5,buildingMaterials:tiles:8:5,buildingMaterials:pulley:8:5,items:coinClass_3:9:15,items:gemClass_1:24:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:2:16,items:stoneClass_4:2:16,items:ironClass_4:2:16,items:foodClass_4:2:16,buildingMaterials:blueprints:9:5,buildingMaterials:tools:9:5,buildingMaterials:tiles:9:5,buildingMaterials:pulley:9:5,items:coinClass_4:2:15,items:gemClass_1:25:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:3:16,items:stoneClass_4:3:16,items:ironClass_4:3:16,items:foodClass_4:3:16,buildingMaterials:blueprints:10:5,buildingMaterials:tools:10:5,buildingMaterials:tiles:10:5,buildingMaterials:pulley:10:5,items:coinClass_4:3:15,items:gemClass_1:26:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:4:16,items:stoneClass_4:4:16,items:ironClass_4:4:16,items:foodClass_4:4:16,buildingMaterials:blueprints:12:5,buildingMaterials:tools:12:5,buildingMaterials:tiles:12:5,buildingMaterials:pulley:12:5,items:coinClass_4:4:15,items:gemClass_1:27:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:5:16,items:stoneClass_4:5:16,items:ironClass_4:5:16,items:foodClass_4:5:16,buildingMaterials:blueprints:15:5,buildingMaterials:tools:15:5,buildingMaterials:tiles:15:5,buildingMaterials:pulley:15:5,items:coinClass_4:5:15,items:gemClass_1:28:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:6:16,items:stoneClass_4:6:16,items:ironClass_4:6:16,items:foodClass_4:6:16,buildingMaterials:blueprints:20:5,buildingMaterials:tools:20:5,buildingMaterials:tiles:20:5,buildingMaterials:pulley:20:5,items:coinClass_4:6:15,items:gemClass_1:29:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:7:16,items:stoneClass_4:7:16,items:ironClass_4:7:16,items:foodClass_4:7:16,buildingMaterials:blueprints:25:5,buildingMaterials:tools:25:5,buildingMaterials:tiles:25:5,buildingMaterials:pulley:25:5,items:coinClass_4:7:15,items:gemClass_2:3:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:8:16,items:stoneClass_4:8:16,items:ironClass_4:8:16,items:foodClass_4:8:16,buildingMaterials:blueprints:30:5,buildingMaterials:tools:30:5,buildingMaterials:tiles:30:5,buildingMaterials:pulley:30:5,items:coinClass_4:8:15,items:gemClass_1:31:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:3:16,items:stoneClass_5:3:16,items:ironClass_5:3:16,items:foodClass_5:3:16,buildingMaterials:blueprints:35:5,buildingMaterials:tools:35:5,buildingMaterials:tiles:35:5,buildingMaterials:pulley:35:5,items:coinClass_5:3:15,items:gemClass_1:32:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:1:16,items:stoneClass_6:1:16,items:ironClass_6:1:16,items:foodClass_6:1:16,buildingMaterials:blueprints:40:5,buildingMaterials:tools:40:5,buildingMaterials:tiles:40:5,buildingMaterials:pulley:40:5,items:coinClass_6:1:15,items:gemClass_1:33:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:4:16,items:stoneClass_5:4:16,items:ironClass_5:4:16,items:foodClass_5:4:16,buildingMaterials:blueprints:45:5,buildingMaterials:tools:45:5,buildingMaterials:tiles:45:5,buildingMaterials:pulley:45:5,items:coinClass_5:4:15,items:gemClass_1:34:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:5:16,items:stoneClass_5:5:16,items:ironClass_5:5:16,items:foodClass_5:5:16,buildingMaterials:blueprints:50:5,buildingMaterials:tools:50:5,buildingMaterials:tiles:50:5,buildingMaterials:pulley:50:5,items:coinClass_5:5:15,items:gemClass_1:35:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:6:16,items:stoneClass_5:6:16,items:ironClass_5:6:16,items:foodClass_5:6:16,buildingMaterials:blueprints:55:5,buildingMaterials:tools:55:5,buildingMaterials:tiles:55:5,buildingMaterials:pulley:55:5,items:coinClass_5:6:15,items:gemClass_1:36:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:7:16,items:stoneClass_5:7:16,items:ironClass_5:7:16,items:foodClass_5:7:16,buildingMaterials:blueprints:60:5,buildingMaterials:tools:60:5,buildingMaterials:tiles:60:5,buildingMaterials:pulley:60:5,items:coinClass_5:7:15,items:gemClass_1:37:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:8:16,items:stoneClass_5:8:16,items:ironClass_5:8:16,items:foodClass_5:8:16,buildingMaterials:blueprints:65:5,buildingMaterials:tools:65:5,buildingMaterials:tiles:65:5,buildingMaterials:pulley:65:5,items:coinClass_5:8:15,items:gemClass_1:38:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:9:16,items:stoneClass_5:9:16,items:ironClass_5:9:16,items:foodClass_5:9:16,buildingMaterials:blueprints:70:5,buildingMaterials:tools:70:5,buildingMaterials:tiles:70:5,buildingMaterials:pulley:70:5,items:coinClass_5:9:15,items:gemClass_1:39:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:3:16,items:stoneClass_6:3:16,items:ironClass_6:3:16,items:foodClass_6:3:16,buildingMaterials:blueprints:80:5,buildingMaterials:tools:80:5,buildingMaterials:tiles:80:5,buildingMaterials:pulley:80:5,items:coinClass_6:3:15,items:gemClass_2:4:1</t>
+  </si>
+  <si>
+    <t>crossbowman_2_50;sentinel_2_50;horseArcher_2_25</t>
+  </si>
+  <si>
+    <t>swordsman_2_50;lancer_2_25;catapult_2_13</t>
+  </si>
+  <si>
+    <t>swordsman_2_80;lancer_2_40;catapult_2_20</t>
+  </si>
+  <si>
+    <t>sentinel_2_100;horseArcher_2_50;ballista_2_25</t>
+  </si>
+  <si>
+    <t>sentinel_2_130;horseArcher_2_65;ballista_2_33</t>
+  </si>
+  <si>
+    <t>sentinel_2_150;horseArcher_2_75;ballista_2_38</t>
+  </si>
+  <si>
+    <t>ranger_2_200;swordsman_2_200;lancer_2_100</t>
+  </si>
+  <si>
+    <t>ranger_2_250;swordsman_2_250;lancer_2_125</t>
+  </si>
+  <si>
+    <t>ranger_2_300;swordsman_2_300;lancer_2_150</t>
+  </si>
+  <si>
+    <t>lancer_2_175;catapult_2_88;ranger_2_350</t>
+  </si>
+  <si>
+    <t>lancer_2_200;catapult_2_100;ranger_2_400</t>
+  </si>
+  <si>
+    <t>lancer_2_225;catapult_2_113;ranger_2_450</t>
+  </si>
+  <si>
+    <t>horseArcher_2_250;ballista_2_125;crossbowman_2_500</t>
+  </si>
+  <si>
+    <t>horseArcher_2_300;ballista_2_150;crossbowman_2_600</t>
+  </si>
+  <si>
+    <t>horseArcher_2_350;ballista_2_175;crossbowman_2_700</t>
+  </si>
+  <si>
+    <t>catapult_2_200;swordsman_2_800;horseArcher_2_400</t>
+  </si>
+  <si>
+    <t>catapult_2_225;swordsman_2_900;horseArcher_2_450</t>
+  </si>
+  <si>
+    <t>catapult_2_258;swordsman_2_1030;horseArcher_2_515</t>
+  </si>
+  <si>
+    <t>ballista_2_290;sentinel_2_1160;lancer_2_580</t>
+  </si>
+  <si>
+    <t>ballista_2_325;sentinel_2_1300;lancer_2_650</t>
+  </si>
+  <si>
+    <t>ballista_2_363;sentinel_2_1450;lancer_2_725</t>
+  </si>
+  <si>
+    <t>swordsman_3_1070;lancer_3_535;ballista_3_268</t>
+  </si>
+  <si>
+    <t>swordsman_3_1180;lancer_3_590;ballista_3_295</t>
+  </si>
+  <si>
+    <t>sentinel_3_1380;horseArcher_3_690;catapult_3_345</t>
+  </si>
+  <si>
+    <t>sentinel_3_1590;horseArcher_3_795;catapult_3_398</t>
+  </si>
+  <si>
+    <t>ranger_3_1810;catapult_3_453;horseArcher_3_905</t>
+  </si>
+  <si>
+    <t>ranger_3_2050;catapult_3_513;horseArcher_3_1025</t>
+  </si>
+  <si>
+    <t>crossbowman_3_2300;ballista_3_575;lancer_3_1150</t>
+  </si>
+  <si>
+    <t>crossbowman_3_2580;ballista_3_645;lancer_3_1290</t>
+  </si>
+  <si>
+    <t>lancer_3_1435;swordsman_3_2870;crossbowman_3_2870</t>
+  </si>
+  <si>
+    <t>lancer_3_1590;swordsman_3_3180;crossbowman_3_3180</t>
+  </si>
+  <si>
+    <t>horseArcher_3_1765;sentinel_3_3530;ranger_3_3530</t>
+  </si>
+  <si>
+    <t>horseArcher_3_1945;sentinel_3_3890;ranger_3_3890</t>
+  </si>
+  <si>
+    <t>catapult_3_1133;lancer_3_2265;swordsman_3_4530</t>
+  </si>
+  <si>
+    <t>ballista_3_1305;horseArcher_3_2610;sentinel_3_5220</t>
+  </si>
+  <si>
+    <t>ballista_3_1493;lancer_3_2985;swordsman_3_5970</t>
+  </si>
+  <si>
+    <t>catapult_3_1703;horseArcher_3_3405;sentinel_3_6810</t>
   </si>
 </sst>
 </file>
@@ -2351,7 +2289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="773">
+  <cellStyleXfs count="779">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2833,6 +2771,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3208,7 +3152,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="773">
+  <cellStyles count="779">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3597,6 +3541,9 @@
     <cellStyle name="超链接" xfId="767" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="769" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="777" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3978,6 +3925,9 @@
     <cellStyle name="访问过的超链接" xfId="768" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="770" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="778" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4430,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4657,7 +4607,7 @@
         <v>464</v>
       </c>
       <c r="B20" s="8">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>465</v>
@@ -4665,35 +4615,35 @@
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="B21" s="8">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>522</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="B23" s="8">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +6332,7 @@
         <v>160</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J2" s="16">
         <v>200</v>
@@ -8252,8 +8202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8670,7 +8620,7 @@
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>621</v>
+        <v>529</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -8712,7 +8662,7 @@
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -8721,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -10425,729 +10375,601 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B42"/>
+      <selection activeCell="C2" sqref="C2:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="24"/>
-    <col min="2" max="2" width="19.83203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="20" style="24" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="24" customWidth="1"/>
-    <col min="5" max="5" width="120.5" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="20.6640625" style="24"/>
+    <col min="2" max="2" width="20" style="24" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="24" customWidth="1"/>
+    <col min="4" max="4" width="120.5" style="24" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1">
+    <row r="1" spans="1:6" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
         <v>472</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45">
+    </row>
+    <row r="3" spans="1:6" ht="45">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45">
+        <v>565</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45">
+        <v>565</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>606</v>
+        <v>491</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45">
+        <v>566</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>606</v>
+        <v>492</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>571</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45">
+        <v>566</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>606</v>
+        <v>493</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45">
+        <v>567</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>607</v>
+        <v>494</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45">
+        <v>568</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>607</v>
+        <v>495</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45">
+        <v>569</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>607</v>
+        <v>496</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45">
+        <v>570</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>608</v>
+        <v>497</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45">
+        <v>571</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>608</v>
+        <v>498</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45">
+        <v>572</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>608</v>
+        <v>499</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45">
+        <v>573</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45">
+        <v>500</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45">
+        <v>501</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>609</v>
+        <v>502</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>540</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45">
+        <v>576</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45">
       <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>610</v>
+      <c r="B17" s="16" t="s">
+        <v>503</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45">
+        <v>577</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>610</v>
+      <c r="B18" s="16" t="s">
+        <v>504</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45">
+        <v>578</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45">
       <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>610</v>
+        <v>505</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45">
+        <v>579</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45">
       <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>611</v>
+        <v>506</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45">
+        <v>580</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45">
       <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>611</v>
+        <v>507</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45">
+        <v>581</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>611</v>
+        <v>508</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45">
+        <v>582</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>612</v>
+        <v>509</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45">
+        <v>583</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45">
       <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>612</v>
+        <v>510</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="45">
+        <v>584</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45">
       <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>612</v>
+        <v>511</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45">
+        <v>585</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45">
       <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>613</v>
+        <v>512</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="45">
+        <v>586</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>613</v>
+        <v>513</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45">
+        <v>587</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45">
       <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>614</v>
+        <v>514</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45">
+        <v>588</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45">
       <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>614</v>
+        <v>515</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45">
+        <v>589</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>615</v>
+        <v>516</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45">
+        <v>590</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45">
       <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>615</v>
+        <v>517</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="45">
+        <v>591</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45">
       <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>616</v>
+        <v>518</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>596</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45">
+        <v>592</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45">
       <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>616</v>
+        <v>519</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45">
+        <v>593</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45">
       <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>617</v>
+        <v>520</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45">
+        <v>594</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45">
       <c r="A35" s="16">
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>617</v>
+        <v>521</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>599</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45">
+        <v>595</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45">
       <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45">
+        <v>522</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="45">
       <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>601</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45">
+        <v>523</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45">
       <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45">
+        <v>524</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45">
       <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="45">
+      <c r="B39" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="48" customHeight="1">
+      <c r="B40" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="48" customHeight="1">
       <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>565</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" s="16"/>
-      <c r="E42" s="25"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="E43" s="25"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="E44" s="25"/>
+        <v>527</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="D43" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="360" windowWidth="30120" windowHeight="20420" tabRatio="566"/>
+    <workbookView xWindow="640" yWindow="660" windowWidth="36720" windowHeight="20420" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1676,21 +1676,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>items:woodClass_1:2:16,items:stoneClass_1:2:16,items:ironClass_1:2:16,items:foodClass_1:2:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:2:15,items:gemClass_1:1:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:5:16,items:stoneClass_1:5:16,items:ironClass_1:5:16,items:foodClass_1:5:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:5:15,items:gemClass_1:2:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:10:16,items:stoneClass_1:10:16,items:ironClass_1:10:16,items:foodClass_1:10:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:10:15,items:gemClass_1:3:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_1:15:16,items:stoneClass_1:15:16,items:ironClass_1:15:16,items:foodClass_1:15:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:15:15,items:gemClass_1:4:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:1:16,items:stoneClass_2:1:16,items:ironClass_2:1:16,items:foodClass_2:1:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:1:15,items:gemClass_1:5:1</t>
-  </si>
-  <si>
     <t>monsterRefreshMinutes</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1887,111 +1872,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>items:woodClass_2:2:16,items:stoneClass_2:2:16,items:ironClass_2:2:16,items:foodClass_2:2:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:2:15,items:gemClass_1:6:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:3:16,items:stoneClass_2:3:16,items:ironClass_2:3:16,items:foodClass_2:3:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:3:15,items:gemClass_1:7:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:4:16,items:stoneClass_2:4:16,items:ironClass_2:4:16,items:foodClass_2:4:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:4:15,items:gemClass_1:8:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:5:16,items:stoneClass_2:5:16,items:ironClass_2:5:16,items:foodClass_2:5:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:5:15,items:gemClass_1:9:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:6:16,items:stoneClass_2:6:16,items:ironClass_2:6:16,items:foodClass_2:6:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_2:6:15,items:gemClass_2:1:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:7:16,items:stoneClass_2:7:16,items:ironClass_2:7:16,items:foodClass_2:7:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:7:15,items:gemClass_1:11:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:8:16,items:stoneClass_2:8:16,items:ironClass_2:8:16,items:foodClass_2:8:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:8:15,items:gemClass_1:12:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:9:16,items:stoneClass_2:9:16,items:ironClass_2:9:16,items:foodClass_2:9:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:9:15,items:gemClass_1:13:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:2:16,items:stoneClass_3:2:16,items:ironClass_3:2:16,items:foodClass_3:2:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_3:2:15,items:gemClass_1:14:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:12:16,items:stoneClass_2:12:16,items:ironClass_2:12:16,items:foodClass_2:12:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_2:12:15,items:gemClass_1:15:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:14:16,items:stoneClass_2:14:16,items:ironClass_2:14:16,items:foodClass_2:14:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:14:15,items:gemClass_1:16:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:16:16,items:stoneClass_2:16:16,items:ironClass_2:16:16,items:foodClass_2:16:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:16:15,items:gemClass_1:17:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_2:18:16,items:stoneClass_2:18:16,items:ironClass_2:18:16,items:foodClass_2:18:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:18:15,items:gemClass_1:18:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:4:16,items:stoneClass_3:4:16,items:ironClass_3:4:16,items:foodClass_3:4:16,buildingMaterials:blueprints:4:5,buildingMaterials:tools:4:5,buildingMaterials:tiles:4:5,buildingMaterials:pulley:4:5,items:coinClass_3:4:15,items:gemClass_1:19:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:1:16,items:stoneClass_4:1:16,items:ironClass_4:1:16,items:foodClass_4:1:16,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,items:coinClass_4:1:15,items:gemClass_2:2:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:6:16,items:stoneClass_3:6:16,items:ironClass_3:6:16,items:foodClass_3:6:16,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,items:coinClass_3:6:15,items:gemClass_1:21:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:7:16,items:stoneClass_3:7:16,items:ironClass_3:7:16,items:foodClass_3:7:16,buildingMaterials:blueprints:6:5,buildingMaterials:tools:6:5,buildingMaterials:tiles:6:5,buildingMaterials:pulley:6:5,items:coinClass_3:7:15,items:gemClass_1:22:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:8:16,items:stoneClass_3:8:16,items:ironClass_3:8:16,items:foodClass_3:8:16,buildingMaterials:blueprints:7:5,buildingMaterials:tools:7:5,buildingMaterials:tiles:7:5,buildingMaterials:pulley:7:5,items:coinClass_3:8:15,items:gemClass_1:23:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_3:9:16,items:stoneClass_3:9:16,items:ironClass_3:9:16,items:foodClass_3:9:16,buildingMaterials:blueprints:8:5,buildingMaterials:tools:8:5,buildingMaterials:tiles:8:5,buildingMaterials:pulley:8:5,items:coinClass_3:9:15,items:gemClass_1:24:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:2:16,items:stoneClass_4:2:16,items:ironClass_4:2:16,items:foodClass_4:2:16,buildingMaterials:blueprints:9:5,buildingMaterials:tools:9:5,buildingMaterials:tiles:9:5,buildingMaterials:pulley:9:5,items:coinClass_4:2:15,items:gemClass_1:25:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:3:16,items:stoneClass_4:3:16,items:ironClass_4:3:16,items:foodClass_4:3:16,buildingMaterials:blueprints:10:5,buildingMaterials:tools:10:5,buildingMaterials:tiles:10:5,buildingMaterials:pulley:10:5,items:coinClass_4:3:15,items:gemClass_1:26:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:4:16,items:stoneClass_4:4:16,items:ironClass_4:4:16,items:foodClass_4:4:16,buildingMaterials:blueprints:12:5,buildingMaterials:tools:12:5,buildingMaterials:tiles:12:5,buildingMaterials:pulley:12:5,items:coinClass_4:4:15,items:gemClass_1:27:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:5:16,items:stoneClass_4:5:16,items:ironClass_4:5:16,items:foodClass_4:5:16,buildingMaterials:blueprints:15:5,buildingMaterials:tools:15:5,buildingMaterials:tiles:15:5,buildingMaterials:pulley:15:5,items:coinClass_4:5:15,items:gemClass_1:28:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:6:16,items:stoneClass_4:6:16,items:ironClass_4:6:16,items:foodClass_4:6:16,buildingMaterials:blueprints:20:5,buildingMaterials:tools:20:5,buildingMaterials:tiles:20:5,buildingMaterials:pulley:20:5,items:coinClass_4:6:15,items:gemClass_1:29:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:7:16,items:stoneClass_4:7:16,items:ironClass_4:7:16,items:foodClass_4:7:16,buildingMaterials:blueprints:25:5,buildingMaterials:tools:25:5,buildingMaterials:tiles:25:5,buildingMaterials:pulley:25:5,items:coinClass_4:7:15,items:gemClass_2:3:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_4:8:16,items:stoneClass_4:8:16,items:ironClass_4:8:16,items:foodClass_4:8:16,buildingMaterials:blueprints:30:5,buildingMaterials:tools:30:5,buildingMaterials:tiles:30:5,buildingMaterials:pulley:30:5,items:coinClass_4:8:15,items:gemClass_1:31:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:3:16,items:stoneClass_5:3:16,items:ironClass_5:3:16,items:foodClass_5:3:16,buildingMaterials:blueprints:35:5,buildingMaterials:tools:35:5,buildingMaterials:tiles:35:5,buildingMaterials:pulley:35:5,items:coinClass_5:3:15,items:gemClass_1:32:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:1:16,items:stoneClass_6:1:16,items:ironClass_6:1:16,items:foodClass_6:1:16,buildingMaterials:blueprints:40:5,buildingMaterials:tools:40:5,buildingMaterials:tiles:40:5,buildingMaterials:pulley:40:5,items:coinClass_6:1:15,items:gemClass_1:33:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:4:16,items:stoneClass_5:4:16,items:ironClass_5:4:16,items:foodClass_5:4:16,buildingMaterials:blueprints:45:5,buildingMaterials:tools:45:5,buildingMaterials:tiles:45:5,buildingMaterials:pulley:45:5,items:coinClass_5:4:15,items:gemClass_1:34:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:5:16,items:stoneClass_5:5:16,items:ironClass_5:5:16,items:foodClass_5:5:16,buildingMaterials:blueprints:50:5,buildingMaterials:tools:50:5,buildingMaterials:tiles:50:5,buildingMaterials:pulley:50:5,items:coinClass_5:5:15,items:gemClass_1:35:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:6:16,items:stoneClass_5:6:16,items:ironClass_5:6:16,items:foodClass_5:6:16,buildingMaterials:blueprints:55:5,buildingMaterials:tools:55:5,buildingMaterials:tiles:55:5,buildingMaterials:pulley:55:5,items:coinClass_5:6:15,items:gemClass_1:36:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:7:16,items:stoneClass_5:7:16,items:ironClass_5:7:16,items:foodClass_5:7:16,buildingMaterials:blueprints:60:5,buildingMaterials:tools:60:5,buildingMaterials:tiles:60:5,buildingMaterials:pulley:60:5,items:coinClass_5:7:15,items:gemClass_1:37:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:8:16,items:stoneClass_5:8:16,items:ironClass_5:8:16,items:foodClass_5:8:16,buildingMaterials:blueprints:65:5,buildingMaterials:tools:65:5,buildingMaterials:tiles:65:5,buildingMaterials:pulley:65:5,items:coinClass_5:8:15,items:gemClass_1:38:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_5:9:16,items:stoneClass_5:9:16,items:ironClass_5:9:16,items:foodClass_5:9:16,buildingMaterials:blueprints:70:5,buildingMaterials:tools:70:5,buildingMaterials:tiles:70:5,buildingMaterials:pulley:70:5,items:coinClass_5:9:15,items:gemClass_1:39:1</t>
-  </si>
-  <si>
-    <t>items:woodClass_6:3:16,items:stoneClass_6:3:16,items:ironClass_6:3:16,items:foodClass_6:3:16,buildingMaterials:blueprints:80:5,buildingMaterials:tools:80:5,buildingMaterials:tiles:80:5,buildingMaterials:pulley:80:5,items:coinClass_6:3:15,items:gemClass_2:4:1</t>
-  </si>
-  <si>
     <t>crossbowman_2_50;sentinel_2_50;horseArcher_2_25</t>
   </si>
   <si>
@@ -2101,6 +1981,126 @@
   </si>
   <si>
     <t>catapult_3_1703;horseArcher_3_3405;sentinel_3_6810</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:4:16,items:stoneClass_1:4:16,items:ironClass_1:4:16,items:foodClass_1:4:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:2:15,items:gemClass_1:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:10:16,items:stoneClass_1:10:16,items:ironClass_1:10:16,items:foodClass_1:10:16,buildingMaterials:blueprints:1:5,buildingMaterials:tools:1:5,buildingMaterials:tiles:1:5,buildingMaterials:pulley:1:5,items:coinClass_1:5:15,items:gemClass_1:2:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:20:16,items:stoneClass_1:20:16,items:ironClass_1:20:16,items:foodClass_1:20:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_1:10:15,items:gemClass_1:3:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_1:30:16,items:stoneClass_1:30:16,items:ironClass_1:30:16,items:foodClass_1:30:16,buildingMaterials:blueprints:2:5,buildingMaterials:tools:2:5,buildingMaterials:tiles:2:5,buildingMaterials:pulley:2:5,items:coinClass_1:15:15,items:gemClass_1:4:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:2:16,items:stoneClass_2:2:16,items:ironClass_2:2:16,items:foodClass_2:2:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:1:15,items:gemClass_1:5:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:4:16,items:stoneClass_2:4:16,items:ironClass_2:4:16,items:foodClass_2:4:16,buildingMaterials:blueprints:3:5,buildingMaterials:tools:3:5,buildingMaterials:tiles:3:5,buildingMaterials:pulley:3:5,items:coinClass_2:2:15,items:gemClass_1:6:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:6:16,items:stoneClass_2:6:16,items:ironClass_2:6:16,items:foodClass_2:6:16,buildingMaterials:blueprints:4:5,buildingMaterials:tools:4:5,buildingMaterials:tiles:4:5,buildingMaterials:pulley:4:5,items:coinClass_2:3:15,items:gemClass_1:7:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:8:16,items:stoneClass_2:8:16,items:ironClass_2:8:16,items:foodClass_2:8:16,buildingMaterials:blueprints:4:5,buildingMaterials:tools:4:5,buildingMaterials:tiles:4:5,buildingMaterials:pulley:4:5,items:coinClass_2:4:15,items:gemClass_1:8:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:10:16,items:stoneClass_2:10:16,items:ironClass_2:10:16,items:foodClass_2:10:16,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,items:coinClass_2:5:15,items:gemClass_1:9:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:12:16,items:stoneClass_2:12:16,items:ironClass_2:12:16,items:foodClass_2:12:16,buildingMaterials:blueprints:5:5,buildingMaterials:tools:5:5,buildingMaterials:tiles:5:5,buildingMaterials:pulley:5:5,items:coinClass_2:6:15,items:gemClass_2:1:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:14:16,items:stoneClass_2:14:16,items:ironClass_2:14:16,items:foodClass_2:14:16,buildingMaterials:blueprints:6:5,buildingMaterials:tools:6:5,buildingMaterials:tiles:6:5,buildingMaterials:pulley:6:5,items:coinClass_2:7:15,items:gemClass_1:11:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:16:16,items:stoneClass_2:16:16,items:ironClass_2:16:16,items:foodClass_2:16:16,buildingMaterials:blueprints:6:5,buildingMaterials:tools:6:5,buildingMaterials:tiles:6:5,buildingMaterials:pulley:6:5,items:coinClass_2:8:15,items:gemClass_1:12:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:18:16,items:stoneClass_2:18:16,items:ironClass_2:18:16,items:foodClass_2:18:16,buildingMaterials:blueprints:7:5,buildingMaterials:tools:7:5,buildingMaterials:tiles:7:5,buildingMaterials:pulley:7:5,items:coinClass_2:9:15,items:gemClass_1:13:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:4:16,items:stoneClass_3:4:16,items:ironClass_3:4:16,items:foodClass_3:4:16,buildingMaterials:blueprints:7:5,buildingMaterials:tools:7:5,buildingMaterials:tiles:7:5,buildingMaterials:pulley:7:5,items:coinClass_3:2:15,items:gemClass_1:14:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:24:16,items:stoneClass_2:24:16,items:ironClass_2:24:16,items:foodClass_2:24:16,buildingMaterials:blueprints:8:5,buildingMaterials:tools:8:5,buildingMaterials:tiles:8:5,buildingMaterials:pulley:8:5,items:coinClass_2:12:15,items:gemClass_1:15:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:28:16,items:stoneClass_2:28:16,items:ironClass_2:28:16,items:foodClass_2:28:16,buildingMaterials:blueprints:8:5,buildingMaterials:tools:8:5,buildingMaterials:tiles:8:5,buildingMaterials:pulley:8:5,items:coinClass_2:14:15,items:gemClass_1:16:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:32:16,items:stoneClass_2:32:16,items:ironClass_2:32:16,items:foodClass_2:32:16,buildingMaterials:blueprints:9:5,buildingMaterials:tools:9:5,buildingMaterials:tiles:9:5,buildingMaterials:pulley:9:5,items:coinClass_2:16:15,items:gemClass_1:17:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_2:36:16,items:stoneClass_2:36:16,items:ironClass_2:36:16,items:foodClass_2:36:16,buildingMaterials:blueprints:9:5,buildingMaterials:tools:9:5,buildingMaterials:tiles:9:5,buildingMaterials:pulley:9:5,items:coinClass_2:18:15,items:gemClass_1:18:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:8:16,items:stoneClass_3:8:16,items:ironClass_3:8:16,items:foodClass_3:8:16,buildingMaterials:blueprints:12:5,buildingMaterials:tools:12:5,buildingMaterials:tiles:12:5,buildingMaterials:pulley:12:5,items:coinClass_3:4:15,items:gemClass_1:19:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:2:16,items:stoneClass_4:2:16,items:ironClass_4:2:16,items:foodClass_4:2:16,buildingMaterials:blueprints:12:5,buildingMaterials:tools:12:5,buildingMaterials:tiles:12:5,buildingMaterials:pulley:12:5,items:coinClass_4:1:15,items:gemClass_2:2:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:12:16,items:stoneClass_3:12:16,items:ironClass_3:12:16,items:foodClass_3:12:16,buildingMaterials:blueprints:15:5,buildingMaterials:tools:15:5,buildingMaterials:tiles:15:5,buildingMaterials:pulley:15:5,items:coinClass_3:6:15,items:gemClass_1:21:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:14:16,items:stoneClass_3:14:16,items:ironClass_3:14:16,items:foodClass_3:14:16,buildingMaterials:blueprints:18:5,buildingMaterials:tools:18:5,buildingMaterials:tiles:18:5,buildingMaterials:pulley:18:5,items:coinClass_3:7:15,items:gemClass_1:22:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:16:16,items:stoneClass_3:16:16,items:ironClass_3:16:16,items:foodClass_3:16:16,buildingMaterials:blueprints:21:5,buildingMaterials:tools:21:5,buildingMaterials:tiles:21:5,buildingMaterials:pulley:21:5,items:coinClass_3:8:15,items:gemClass_1:23:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_3:18:16,items:stoneClass_3:18:16,items:ironClass_3:18:16,items:foodClass_3:18:16,buildingMaterials:blueprints:24:5,buildingMaterials:tools:24:5,buildingMaterials:tiles:24:5,buildingMaterials:pulley:24:5,items:coinClass_3:9:15,items:gemClass_1:24:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:4:16,items:stoneClass_4:4:16,items:ironClass_4:4:16,items:foodClass_4:4:16,buildingMaterials:blueprints:27:5,buildingMaterials:tools:27:5,buildingMaterials:tiles:27:5,buildingMaterials:pulley:27:5,items:coinClass_4:2:15,items:gemClass_1:25:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:6:16,items:stoneClass_4:6:16,items:ironClass_4:6:16,items:foodClass_4:6:16,buildingMaterials:blueprints:30:5,buildingMaterials:tools:30:5,buildingMaterials:tiles:30:5,buildingMaterials:pulley:30:5,items:coinClass_4:3:15,items:gemClass_1:26:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:8:16,items:stoneClass_4:8:16,items:ironClass_4:8:16,items:foodClass_4:8:16,buildingMaterials:blueprints:36:5,buildingMaterials:tools:36:5,buildingMaterials:tiles:36:5,buildingMaterials:pulley:36:5,items:coinClass_4:4:15,items:gemClass_1:27:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:10:16,items:stoneClass_4:10:16,items:ironClass_4:10:16,items:foodClass_4:10:16,buildingMaterials:blueprints:45:5,buildingMaterials:tools:45:5,buildingMaterials:tiles:45:5,buildingMaterials:pulley:45:5,items:coinClass_4:5:15,items:gemClass_1:28:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:12:16,items:stoneClass_4:12:16,items:ironClass_4:12:16,items:foodClass_4:12:16,buildingMaterials:blueprints:60:5,buildingMaterials:tools:60:5,buildingMaterials:tiles:60:5,buildingMaterials:pulley:60:5,items:coinClass_4:6:15,items:gemClass_1:29:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:14:16,items:stoneClass_4:14:16,items:ironClass_4:14:16,items:foodClass_4:14:16,buildingMaterials:blueprints:75:5,buildingMaterials:tools:75:5,buildingMaterials:tiles:75:5,buildingMaterials:pulley:75:5,items:coinClass_4:7:15,items:gemClass_2:3:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_4:16:16,items:stoneClass_4:16:16,items:ironClass_4:16:16,items:foodClass_4:16:16,buildingMaterials:blueprints:90:5,buildingMaterials:tools:90:5,buildingMaterials:tiles:90:5,buildingMaterials:pulley:90:5,items:coinClass_4:8:15,items:gemClass_1:31:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:6:16,items:stoneClass_5:6:16,items:ironClass_5:6:16,items:foodClass_5:6:16,buildingMaterials:blueprints:105:5,buildingMaterials:tools:105:5,buildingMaterials:tiles:105:5,buildingMaterials:pulley:105:5,items:coinClass_5:3:15,items:gemClass_1:32:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:2:16,items:stoneClass_6:2:16,items:ironClass_6:2:16,items:foodClass_6:2:16,buildingMaterials:blueprints:120:5,buildingMaterials:tools:120:5,buildingMaterials:tiles:120:5,buildingMaterials:pulley:120:5,items:coinClass_6:1:15,items:gemClass_1:33:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:8:16,items:stoneClass_5:8:16,items:ironClass_5:8:16,items:foodClass_5:8:16,buildingMaterials:blueprints:135:5,buildingMaterials:tools:135:5,buildingMaterials:tiles:135:5,buildingMaterials:pulley:135:5,items:coinClass_5:4:15,items:gemClass_1:34:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:10:16,items:stoneClass_5:10:16,items:ironClass_5:10:16,items:foodClass_5:10:16,buildingMaterials:blueprints:150:5,buildingMaterials:tools:150:5,buildingMaterials:tiles:150:5,buildingMaterials:pulley:150:5,items:coinClass_5:5:15,items:gemClass_1:35:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:12:16,items:stoneClass_5:12:16,items:ironClass_5:12:16,items:foodClass_5:12:16,buildingMaterials:blueprints:165:5,buildingMaterials:tools:165:5,buildingMaterials:tiles:165:5,buildingMaterials:pulley:165:5,items:coinClass_5:6:15,items:gemClass_1:36:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:14:16,items:stoneClass_5:14:16,items:ironClass_5:14:16,items:foodClass_5:14:16,buildingMaterials:blueprints:180:5,buildingMaterials:tools:180:5,buildingMaterials:tiles:180:5,buildingMaterials:pulley:180:5,items:coinClass_5:7:15,items:gemClass_1:37:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:16:16,items:stoneClass_5:16:16,items:ironClass_5:16:16,items:foodClass_5:16:16,buildingMaterials:blueprints:195:5,buildingMaterials:tools:195:5,buildingMaterials:tiles:195:5,buildingMaterials:pulley:195:5,items:coinClass_5:8:15,items:gemClass_1:38:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_5:18:16,items:stoneClass_5:18:16,items:ironClass_5:18:16,items:foodClass_5:18:16,buildingMaterials:blueprints:210:5,buildingMaterials:tools:210:5,buildingMaterials:tiles:210:5,buildingMaterials:pulley:210:5,items:coinClass_5:9:15,items:gemClass_1:39:1</t>
+  </si>
+  <si>
+    <t>items:woodClass_6:6:16,items:stoneClass_6:6:16,items:ironClass_6:6:16,items:foodClass_6:6:16,buildingMaterials:blueprints:240:5,buildingMaterials:tools:240:5,buildingMaterials:tiles:240:5,buildingMaterials:pulley:240:5,items:coinClass_6:3:15,items:gemClass_2:4:1</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2289,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="779">
+  <cellStyleXfs count="781">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2771,6 +2771,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3152,7 +3154,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="779">
+  <cellStyles count="781">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3544,6 +3546,7 @@
     <cellStyle name="超链接" xfId="773" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="775" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="779" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3928,6 +3931,7 @@
     <cellStyle name="访问过的超链接" xfId="774" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="776" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="780" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4381,7 +4385,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4464,7 +4468,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>94</v>
@@ -4475,7 +4479,7 @@
         <v>95</v>
       </c>
       <c r="B8" s="8">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>96</v>
@@ -4615,35 +4619,35 @@
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B21" s="8">
         <v>240</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B23" s="8">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -6207,8 +6211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26:P57"/>
+    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8620,7 +8624,7 @@
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -8662,7 +8666,7 @@
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -8671,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -10375,10 +10379,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C57"/>
+    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10386,7 +10390,7 @@
     <col min="1" max="1" width="20.6640625" style="24"/>
     <col min="2" max="2" width="20" style="24" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="24" customWidth="1"/>
-    <col min="4" max="4" width="120.5" style="24" customWidth="1"/>
+    <col min="4" max="4" width="140.6640625" style="24" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="24"/>
   </cols>
   <sheetData>
@@ -10398,543 +10402,543 @@
         <v>474</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>473</v>
       </c>
       <c r="F1" s="23"/>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="45">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45">
+    </row>
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45">
+    </row>
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C8" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="45">
+    </row>
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45">
+    </row>
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45">
+    </row>
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45">
+    </row>
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45">
+    </row>
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45">
+    </row>
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C14" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45">
+    </row>
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C15" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>575</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45">
+    </row>
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="16">
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45">
+    </row>
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" s="16">
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45">
+    </row>
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45">
+    </row>
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45">
+    </row>
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="16">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45">
+    </row>
+    <row r="21" spans="1:4" ht="30">
       <c r="A21" s="16">
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45">
+    </row>
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45">
+    </row>
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" s="16">
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45">
+    </row>
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="45">
+    </row>
+    <row r="25" spans="1:4" ht="30">
       <c r="A25" s="16">
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>585</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45">
+    </row>
+    <row r="26" spans="1:4" ht="30">
       <c r="A26" s="16">
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45">
+    </row>
+    <row r="27" spans="1:4" ht="30">
       <c r="A27" s="16">
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45">
+    </row>
+    <row r="28" spans="1:4" ht="30">
       <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45">
+    </row>
+    <row r="29" spans="1:4" ht="30">
       <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="45">
+    </row>
+    <row r="30" spans="1:4" ht="30">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45">
+    </row>
+    <row r="31" spans="1:4" ht="30">
       <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="45">
+    </row>
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="45">
+    </row>
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="45">
+    </row>
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="45">
+    </row>
+    <row r="35" spans="1:4" ht="30">
       <c r="A35" s="16">
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="45">
+    </row>
+    <row r="36" spans="1:4" ht="30">
       <c r="A36" s="16">
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C36" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="45">
+    </row>
+    <row r="37" spans="1:4" ht="30">
       <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C37" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="45">
+    </row>
+    <row r="38" spans="1:4" ht="30">
       <c r="A38" s="16">
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C38" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="45">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="16">
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C39" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>599</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -10942,13 +10946,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C40" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>600</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -10956,20 +10960,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C41" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>601</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="D42" s="25"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="D43" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="660" windowWidth="36720" windowHeight="20420" tabRatio="566"/>
+    <workbookView xWindow="10620" yWindow="3500" windowWidth="22500" windowHeight="16000" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="604">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -2101,6 +2101,14 @@
   </si>
   <si>
     <t>items:woodClass_6:6:16,items:stoneClass_6:6:16,items:ironClass_6:6:16,items:foodClass_6:6:16,buildingMaterials:blueprints:240:5,buildingMaterials:tools:240:5,buildingMaterials:tiles:240:5,buildingMaterials:pulley:240:5,items:coinClass_6:3:15,items:gemClass_2:4:1</t>
+  </si>
+  <si>
+    <t>士兵战斗受伤士兵基础百分比</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierFightWoundedPercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2289,7 +2297,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="781">
+  <cellStyleXfs count="785">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2771,6 +2779,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3154,7 +3166,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="781">
+  <cellStyles count="785">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3547,6 +3559,8 @@
     <cellStyle name="超链接" xfId="775" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="777" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="783" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3932,6 +3946,8 @@
     <cellStyle name="访问过的超链接" xfId="776" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="778" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="784" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4382,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4648,6 +4664,17 @@
       </c>
       <c r="C23" s="1" t="s">
         <v>481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B24" s="8">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="3500" windowWidth="22500" windowHeight="16000" tabRatio="566"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="44140" windowHeight="20040" tabRatio="317" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1025,48 +1025,21 @@
     <t>dragonMaterials:greenCrystal_1:6</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_2:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_2:2</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_2:6</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_3:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_3:2</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_3:6</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_4:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_4:2</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_4:6</t>
   </si>
   <si>
@@ -1088,48 +1061,21 @@
     <t>dragonMaterials:redCrystal_1:6</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_2:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_2:2</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_2:6</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_3:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_3:2</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_3:6</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_4:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_4:2</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_4:6</t>
   </si>
   <si>
@@ -1151,48 +1097,21 @@
     <t>dragonMaterials:blueCrystal_1:6</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_2:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_2:2</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_2:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_2:6</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_3:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_3:2</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_3:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_3:6</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_4:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_4:2</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_4:3</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_4:6</t>
   </si>
   <si>
@@ -1214,276 +1133,33 @@
     <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6</t>
   </si>
   <si>
-    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:1000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:2000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:3000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:5000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:6000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:7000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:10000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:12000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:16000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:21000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:37500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:52500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:64000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:93500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:112500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:163500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:196500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:283500</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:340000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:500000</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1</t>
   </si>
   <si>
@@ -1502,57 +1178,30 @@
     <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4</t>
   </si>
   <si>
-    <t>dragonMaterials:blueCrystal_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6</t>
   </si>
   <si>
@@ -1574,57 +1223,30 @@
     <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_2:1,dragonMaterials:runes_2:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_2:3,dragonMaterials:runes_2:3</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_2:5,dragonMaterials:runes_2:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_3:1,dragonMaterials:runes_3:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_3:3,dragonMaterials:runes_3:3</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_3:5,dragonMaterials:runes_3:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_4:1,dragonMaterials:runes_4:1</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_4:3,dragonMaterials:runes_4:3</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4</t>
   </si>
   <si>
-    <t>dragonMaterials:redCrystal_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
     <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6</t>
   </si>
   <si>
@@ -2109,6 +1731,384 @@
   <si>
     <t>soldierFightWoundedPercent</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:1,dragonMaterials:runes_2:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:3,dragonMaterials:runes_2:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:5,dragonMaterials:runes_2:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:1,dragonMaterials:runes_3:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:3,dragonMaterials:runes_3:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:5,dragonMaterials:runes_3:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:1,dragonMaterials:runes_4:1</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:3,dragonMaterials:runes_4:3</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:5,dragonMaterials:runes_4:5</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:1600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:2400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:3200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:4800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:5600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:6400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:9600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:12800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:16800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:24000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:42000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:51200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:74800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:90000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:130800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:157200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:226800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:272000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:320000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:1600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:2400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:3200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:4800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:5600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:6400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:9600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:12800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:16800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:24000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:42000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:51200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:74800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:90000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:130800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:157200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:226800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:272000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:320000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:1600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:2400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:3200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:4800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:5600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:6400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:9600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:12800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:16800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:24000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:42000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:51200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:74800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:90000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:130800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:157200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:226800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:272000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:320000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:400000</t>
   </si>
 </sst>
 </file>
@@ -2297,7 +2297,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="785">
+  <cellStyleXfs count="789">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3087,8 +3087,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3165,8 +3169,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="785">
+  <cellStyles count="789">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3561,6 +3568,8 @@
     <cellStyle name="超链接" xfId="779" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="781" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="787" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3948,6 +3957,8 @@
     <cellStyle name="访问过的超链接" xfId="780" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="782" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="788" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4400,7 +4411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -4624,57 +4635,57 @@
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>464</v>
+        <v>338</v>
       </c>
       <c r="B20" s="8">
         <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>465</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="B21" s="8">
         <v>240</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>477</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>478</v>
+        <v>352</v>
       </c>
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>479</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>480</v>
+        <v>354</v>
       </c>
       <c r="B23" s="8">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>481</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>603</v>
+        <v>477</v>
       </c>
       <c r="B24" s="8">
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>602</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -6077,7 +6088,7 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>466</v>
+        <v>340</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>186</v>
@@ -6100,7 +6111,7 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>467</v>
+        <v>341</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>186</v>
@@ -6123,7 +6134,7 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>468</v>
+        <v>342</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>186</v>
@@ -6146,7 +6157,7 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>469</v>
+        <v>343</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>186</v>
@@ -6169,7 +6180,7 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>470</v>
+        <v>344</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>186</v>
@@ -6192,7 +6203,7 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>471</v>
+        <v>345</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>186</v>
@@ -6238,8 +6249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6363,19 +6374,19 @@
         <v>160</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>475</v>
+        <v>349</v>
       </c>
       <c r="J2" s="16">
         <v>200</v>
       </c>
       <c r="K2" s="16">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L2" s="16">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="M2" s="16">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N2" s="16">
         <v>10</v>
@@ -6386,32 +6397,32 @@
       <c r="P2" s="16">
         <v>25</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="R2" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="X2" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>392</v>
+      <c r="R2" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
@@ -6446,13 +6457,13 @@
         <v>820</v>
       </c>
       <c r="K3" s="16">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L3" s="16">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="M3" s="16">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="N3" s="16">
         <v>60</v>
@@ -6463,32 +6474,32 @@
       <c r="P3" s="16">
         <v>145</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="R3" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="X3" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>393</v>
+      <c r="R3" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
@@ -6523,13 +6534,13 @@
         <v>2160</v>
       </c>
       <c r="K4" s="16">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L4" s="16">
-        <v>2250</v>
+        <v>1800</v>
       </c>
       <c r="M4" s="16">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="N4" s="16">
         <v>165</v>
@@ -6540,32 +6551,32 @@
       <c r="P4" s="16">
         <v>390</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="R4" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="W4" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>394</v>
+      <c r="R4" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
@@ -6600,13 +6611,13 @@
         <v>4320</v>
       </c>
       <c r="K5" s="16">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L5" s="16">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M5" s="16">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="N5" s="16">
         <v>330</v>
@@ -6617,32 +6628,32 @@
       <c r="P5" s="16">
         <v>780</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="R5" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>395</v>
+      <c r="R5" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
@@ -6677,13 +6688,13 @@
         <v>7350</v>
       </c>
       <c r="K6" s="16">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L6" s="16">
-        <v>3750</v>
+        <v>3000</v>
       </c>
       <c r="M6" s="16">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N6" s="16">
         <v>570</v>
@@ -6694,32 +6705,32 @@
       <c r="P6" s="16">
         <v>1330</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="R6" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="X6" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y6" s="16" t="s">
-        <v>396</v>
+      <c r="R6" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
@@ -6754,13 +6765,13 @@
         <v>11330</v>
       </c>
       <c r="K7" s="16">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L7" s="16">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="M7" s="16">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="N7" s="16">
         <v>880</v>
@@ -6771,32 +6782,32 @@
       <c r="P7" s="16">
         <v>2060</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="R7" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="V7" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="X7" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y7" s="16" t="s">
-        <v>397</v>
+      <c r="R7" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
@@ -6831,13 +6842,13 @@
         <v>21890</v>
       </c>
       <c r="K8" s="16">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L8" s="16">
-        <v>5250</v>
+        <v>4200</v>
       </c>
       <c r="M8" s="16">
-        <v>7000</v>
+        <v>5600</v>
       </c>
       <c r="N8" s="16">
         <v>1280</v>
@@ -6848,32 +6859,32 @@
       <c r="P8" s="16">
         <v>2985</v>
       </c>
-      <c r="Q8" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="V8" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y8" s="16" t="s">
-        <v>398</v>
+      <c r="Q8" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="V8" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
@@ -6908,13 +6919,13 @@
         <v>30150</v>
       </c>
       <c r="K9" s="16">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="L9" s="16">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="M9" s="16">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="N9" s="16">
         <v>1760</v>
@@ -6925,32 +6936,32 @@
       <c r="P9" s="16">
         <v>4115</v>
       </c>
-      <c r="Q9" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="R9" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="V9" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="X9" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y9" s="16" t="s">
-        <v>399</v>
+      <c r="Q9" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
@@ -6985,13 +6996,13 @@
         <v>40000</v>
       </c>
       <c r="K10" s="16">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L10" s="16">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="M10" s="16">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N10" s="16">
         <v>2340</v>
@@ -7002,32 +7013,32 @@
       <c r="P10" s="16">
         <v>5460</v>
       </c>
-      <c r="Q10" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="V10" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="W10" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>400</v>
+      <c r="Q10" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="X10" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
@@ -7062,13 +7073,13 @@
         <v>51460</v>
       </c>
       <c r="K11" s="16">
-        <v>6000</v>
+        <v>4800</v>
       </c>
       <c r="L11" s="16">
-        <v>9000</v>
+        <v>7200</v>
       </c>
       <c r="M11" s="16">
-        <v>12000</v>
+        <v>9600</v>
       </c>
       <c r="N11" s="16">
         <v>3010</v>
@@ -7079,32 +7090,32 @@
       <c r="P11" s="16">
         <v>7030</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="Q11" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="R11" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="T11" s="16" t="s">
+      <c r="R11" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="T11" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="U11" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="W11" s="16" t="s">
+      <c r="U11" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="V11" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="W11" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="X11" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y11" s="16" t="s">
-        <v>401</v>
+      <c r="X11" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
@@ -7139,13 +7150,13 @@
         <v>64710</v>
       </c>
       <c r="K12" s="16">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="L12" s="16">
-        <v>12000</v>
+        <v>9600</v>
       </c>
       <c r="M12" s="16">
-        <v>16000</v>
+        <v>12800</v>
       </c>
       <c r="N12" s="16">
         <v>3785</v>
@@ -7156,32 +7167,32 @@
       <c r="P12" s="16">
         <v>8840</v>
       </c>
-      <c r="Q12" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="R12" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="S12" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="T12" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y12" s="16" t="s">
-        <v>402</v>
+      <c r="Q12" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="T12" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="X12" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
@@ -7216,13 +7227,13 @@
         <v>79750</v>
       </c>
       <c r="K13" s="16">
-        <v>10500</v>
+        <v>8400</v>
       </c>
       <c r="L13" s="16">
-        <v>15750</v>
+        <v>12600</v>
       </c>
       <c r="M13" s="16">
-        <v>21000</v>
+        <v>16800</v>
       </c>
       <c r="N13" s="16">
         <v>4665</v>
@@ -7233,32 +7244,32 @@
       <c r="P13" s="16">
         <v>10890</v>
       </c>
-      <c r="Q13" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="R13" s="16" t="s">
+      <c r="Q13" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="U13" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="S13" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="T13" s="16" t="s">
+      <c r="V13" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="W13" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="U13" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y13" s="16" t="s">
-        <v>403</v>
+      <c r="X13" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y13" s="18" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
@@ -7293,13 +7304,13 @@
         <v>120720</v>
       </c>
       <c r="K14" s="16">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L14" s="16">
-        <v>22500</v>
+        <v>18000</v>
       </c>
       <c r="M14" s="16">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="N14" s="16">
         <v>5655</v>
@@ -7310,32 +7321,32 @@
       <c r="P14" s="16">
         <v>13200</v>
       </c>
-      <c r="Q14" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="R14" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="T14" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="X14" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y14" s="16" t="s">
-        <v>404</v>
+      <c r="Q14" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
@@ -7370,13 +7381,13 @@
         <v>144240</v>
       </c>
       <c r="K15" s="16">
-        <v>18750</v>
+        <v>15000</v>
       </c>
       <c r="L15" s="16">
-        <v>28125</v>
+        <v>22500</v>
       </c>
       <c r="M15" s="16">
-        <v>37500</v>
+        <v>30000</v>
       </c>
       <c r="N15" s="16">
         <v>6755</v>
@@ -7387,32 +7398,32 @@
       <c r="P15" s="16">
         <v>15770</v>
       </c>
-      <c r="Q15" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="R15" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="Y15" s="16" t="s">
-        <v>405</v>
+      <c r="Q15" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="W15" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
@@ -7447,13 +7458,13 @@
         <v>170240</v>
       </c>
       <c r="K16" s="16">
-        <v>26250</v>
+        <v>21000</v>
       </c>
       <c r="L16" s="16">
-        <v>39375</v>
+        <v>31500</v>
       </c>
       <c r="M16" s="16">
-        <v>52500</v>
+        <v>42000</v>
       </c>
       <c r="N16" s="16">
         <v>7975</v>
@@ -7464,32 +7475,32 @@
       <c r="P16" s="16">
         <v>18610</v>
       </c>
-      <c r="Q16" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="R16" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="S16" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="Y16" s="16" t="s">
-        <v>406</v>
+      <c r="Q16" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="W16" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
@@ -7524,13 +7535,13 @@
         <v>198720</v>
       </c>
       <c r="K17" s="16">
-        <v>32000</v>
+        <v>25600</v>
       </c>
       <c r="L17" s="16">
-        <v>48000</v>
+        <v>38400</v>
       </c>
       <c r="M17" s="16">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="N17" s="16">
         <v>9310</v>
@@ -7541,32 +7552,32 @@
       <c r="P17" s="16">
         <v>21725</v>
       </c>
-      <c r="Q17" s="16" t="s">
+      <c r="Q17" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="R17" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="T17" s="16" t="s">
+      <c r="R17" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="T17" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="U17" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="W17" s="16" t="s">
+      <c r="U17" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="V17" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="W17" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="X17" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="Y17" s="16" t="s">
-        <v>407</v>
+      <c r="X17" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
@@ -7601,13 +7612,13 @@
         <v>229840</v>
       </c>
       <c r="K18" s="16">
-        <v>46750</v>
+        <v>37400</v>
       </c>
       <c r="L18" s="16">
-        <v>70125</v>
+        <v>56100</v>
       </c>
       <c r="M18" s="16">
-        <v>93500</v>
+        <v>74800</v>
       </c>
       <c r="N18" s="16">
         <v>10770</v>
@@ -7618,32 +7629,32 @@
       <c r="P18" s="16">
         <v>25130</v>
       </c>
-      <c r="Q18" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="R18" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="X18" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>408</v>
+      <c r="Q18" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="T18" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="V18" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="W18" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y18" s="18" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
@@ -7678,13 +7689,13 @@
         <v>263600</v>
       </c>
       <c r="K19" s="16">
-        <v>56250</v>
+        <v>45000</v>
       </c>
       <c r="L19" s="16">
-        <v>84375</v>
+        <v>67500</v>
       </c>
       <c r="M19" s="16">
-        <v>112500</v>
+        <v>90000</v>
       </c>
       <c r="N19" s="16">
         <v>12350</v>
@@ -7695,32 +7706,32 @@
       <c r="P19" s="16">
         <v>28825</v>
       </c>
-      <c r="Q19" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="S19" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="T19" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="X19" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>409</v>
+      <c r="Q19" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="R19" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="S19" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="T19" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="U19" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="V19" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="W19" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="X19" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y19" s="18" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
@@ -7755,13 +7766,13 @@
         <v>360200</v>
       </c>
       <c r="K20" s="16">
-        <v>81750</v>
+        <v>65400</v>
       </c>
       <c r="L20" s="16">
-        <v>122625</v>
+        <v>98100</v>
       </c>
       <c r="M20" s="16">
-        <v>163500</v>
+        <v>130800</v>
       </c>
       <c r="N20" s="16">
         <v>14065</v>
@@ -7772,32 +7783,32 @@
       <c r="P20" s="16">
         <v>32820</v>
       </c>
-      <c r="Q20" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="V20" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>410</v>
+      <c r="Q20" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="S20" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="W20" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y20" s="18" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
@@ -7832,13 +7843,13 @@
         <v>407330</v>
       </c>
       <c r="K21" s="16">
-        <v>98250</v>
+        <v>78600</v>
       </c>
       <c r="L21" s="16">
-        <v>147375</v>
+        <v>117900</v>
       </c>
       <c r="M21" s="16">
-        <v>196500</v>
+        <v>157200</v>
       </c>
       <c r="N21" s="16">
         <v>15905</v>
@@ -7849,32 +7860,32 @@
       <c r="P21" s="16">
         <v>37120</v>
       </c>
-      <c r="Q21" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="U21" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="V21" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="W21" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="X21" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y21" s="16" t="s">
-        <v>411</v>
+      <c r="Q21" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="R21" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="T21" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="W21" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="X21" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y21" s="18" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
@@ -7909,13 +7920,13 @@
         <v>457920</v>
       </c>
       <c r="K22" s="16">
-        <v>141750</v>
+        <v>113400</v>
       </c>
       <c r="L22" s="16">
-        <v>212625</v>
+        <v>170100</v>
       </c>
       <c r="M22" s="16">
-        <v>283500</v>
+        <v>226800</v>
       </c>
       <c r="N22" s="16">
         <v>17885</v>
@@ -7926,32 +7937,32 @@
       <c r="P22" s="16">
         <v>41730</v>
       </c>
-      <c r="Q22" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="R22" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="S22" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="T22" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="V22" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="W22" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>412</v>
+      <c r="Q22" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="U22" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="W22" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="X22" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
@@ -7986,13 +7997,13 @@
         <v>511970</v>
       </c>
       <c r="K23" s="16">
-        <v>170000</v>
+        <v>136000</v>
       </c>
       <c r="L23" s="16">
-        <v>255000</v>
+        <v>204000</v>
       </c>
       <c r="M23" s="16">
-        <v>340000</v>
+        <v>272000</v>
       </c>
       <c r="N23" s="13">
         <v>19995</v>
@@ -8003,32 +8014,32 @@
       <c r="P23" s="13">
         <v>46660</v>
       </c>
-      <c r="Q23" s="16" t="s">
+      <c r="Q23" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="R23" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="S23" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="T23" s="16" t="s">
+      <c r="R23" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="S23" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="T23" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="U23" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="W23" s="16" t="s">
+      <c r="U23" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="V23" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="W23" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="X23" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y23" s="16" t="s">
-        <v>413</v>
+      <c r="X23" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y23" s="18" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
@@ -8062,14 +8073,14 @@
       <c r="J24" s="13">
         <v>569670</v>
       </c>
-      <c r="K24" s="16">
-        <v>200000</v>
-      </c>
-      <c r="L24" s="16">
-        <v>300000</v>
-      </c>
-      <c r="M24" s="16">
-        <v>400000</v>
+      <c r="K24" s="13">
+        <v>160000</v>
+      </c>
+      <c r="L24" s="13">
+        <v>240000</v>
+      </c>
+      <c r="M24" s="13">
+        <v>320000</v>
       </c>
       <c r="N24" s="13">
         <v>22245</v>
@@ -8080,32 +8091,32 @@
       <c r="P24" s="13">
         <v>51915</v>
       </c>
-      <c r="Q24" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="S24" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="X24" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>414</v>
+      <c r="Q24" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="R24" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="T24" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="V24" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="W24" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="X24" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y24" s="18" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
@@ -8140,13 +8151,13 @@
         <v>630920</v>
       </c>
       <c r="K25" s="13">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="L25" s="13">
-        <v>375000</v>
+        <v>300000</v>
       </c>
       <c r="M25" s="13">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="N25" s="13">
         <v>24640</v>
@@ -8157,41 +8168,33 @@
       <c r="P25" s="13">
         <v>57495</v>
       </c>
-      <c r="Q25" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="S25" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="X25" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="Y25" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="20" customHeight="1">
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="Y26" s="16"/>
+      <c r="Q25" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="R25" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="V25" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="X25" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y25" s="18" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="27" spans="1:25" ht="20" customHeight="1">
       <c r="R27" s="16"/>
@@ -8651,7 +8654,7 @@
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>524</v>
+        <v>398</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -8693,7 +8696,7 @@
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -8702,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -10423,16 +10426,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
-        <v>472</v>
+        <v>346</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>474</v>
+        <v>348</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>523</v>
+        <v>397</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>473</v>
+        <v>347</v>
       </c>
       <c r="F1" s="23"/>
     </row>
@@ -10441,13 +10444,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>483</v>
+        <v>357</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>525</v>
+        <v>399</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>562</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -10455,13 +10458,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>525</v>
+        <v>399</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>563</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -10469,13 +10472,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>485</v>
+        <v>359</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>525</v>
+        <v>399</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>564</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -10483,13 +10486,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>486</v>
+        <v>360</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>526</v>
+        <v>400</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>565</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -10497,13 +10500,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>487</v>
+        <v>361</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>526</v>
+        <v>400</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>566</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -10511,13 +10514,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>488</v>
+        <v>362</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>527</v>
+        <v>401</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>567</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -10525,13 +10528,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>489</v>
+        <v>363</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>528</v>
+        <v>402</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>568</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -10539,13 +10542,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>490</v>
+        <v>364</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>529</v>
+        <v>403</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>569</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -10553,13 +10556,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>491</v>
+        <v>365</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>530</v>
+        <v>404</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>570</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -10567,13 +10570,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>492</v>
+        <v>366</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>531</v>
+        <v>405</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>571</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -10581,13 +10584,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>493</v>
+        <v>367</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>532</v>
+        <v>406</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>572</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -10595,13 +10598,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>494</v>
+        <v>368</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>533</v>
+        <v>407</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>573</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -10609,13 +10612,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>495</v>
+        <v>369</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>534</v>
+        <v>408</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>574</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
@@ -10623,13 +10626,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>496</v>
+        <v>370</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>535</v>
+        <v>409</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>575</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
@@ -10637,13 +10640,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>497</v>
+        <v>371</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>536</v>
+        <v>410</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>576</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
@@ -10651,13 +10654,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>498</v>
+        <v>372</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>537</v>
+        <v>411</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>577</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
@@ -10665,13 +10668,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>499</v>
+        <v>373</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>538</v>
+        <v>412</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>578</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
@@ -10679,13 +10682,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>539</v>
+        <v>413</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>579</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
@@ -10693,13 +10696,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>501</v>
+        <v>375</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>540</v>
+        <v>414</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>580</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
@@ -10707,13 +10710,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>502</v>
+        <v>376</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>541</v>
+        <v>415</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>581</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
@@ -10721,13 +10724,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>503</v>
+        <v>377</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>542</v>
+        <v>416</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>582</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
@@ -10735,13 +10738,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>504</v>
+        <v>378</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>543</v>
+        <v>417</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>583</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
@@ -10749,13 +10752,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>505</v>
+        <v>379</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>544</v>
+        <v>418</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>584</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
@@ -10763,13 +10766,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>506</v>
+        <v>380</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>545</v>
+        <v>419</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>585</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30">
@@ -10777,13 +10780,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>507</v>
+        <v>381</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>546</v>
+        <v>420</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>586</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30">
@@ -10791,13 +10794,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>508</v>
+        <v>382</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>547</v>
+        <v>421</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>587</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30">
@@ -10805,13 +10808,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>509</v>
+        <v>383</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>548</v>
+        <v>422</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>588</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30">
@@ -10819,13 +10822,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>510</v>
+        <v>384</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>549</v>
+        <v>423</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>589</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30">
@@ -10833,13 +10836,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>511</v>
+        <v>385</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>550</v>
+        <v>424</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>590</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
@@ -10847,13 +10850,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>512</v>
+        <v>386</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>551</v>
+        <v>425</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>591</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30">
@@ -10861,13 +10864,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>513</v>
+        <v>387</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>552</v>
+        <v>426</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>592</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30">
@@ -10875,13 +10878,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>514</v>
+        <v>388</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>553</v>
+        <v>427</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>593</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
@@ -10889,13 +10892,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>515</v>
+        <v>389</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>554</v>
+        <v>428</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>594</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
@@ -10903,13 +10906,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>516</v>
+        <v>390</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>555</v>
+        <v>429</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>595</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30">
@@ -10917,13 +10920,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>517</v>
+        <v>391</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>556</v>
+        <v>430</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>596</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30">
@@ -10931,13 +10934,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>518</v>
+        <v>392</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>557</v>
+        <v>431</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>597</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -10945,13 +10948,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>519</v>
+        <v>393</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>558</v>
+        <v>432</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>598</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -10959,13 +10962,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>520</v>
+        <v>394</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>559</v>
+        <v>433</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>599</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -10973,13 +10976,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>521</v>
+        <v>395</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>560</v>
+        <v>434</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>600</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -10987,13 +10990,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>522</v>
+        <v>396</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>561</v>
+        <v>435</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>601</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:4">

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="44140" windowHeight="20040" tabRatio="317" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="317"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -4411,8 +4411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4605,7 +4605,7 @@
         <v>103</v>
       </c>
       <c r="B17" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>104</v>
@@ -6249,7 +6249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="O1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="317"/>
+    <workbookView xWindow="10840" yWindow="2740" windowWidth="25600" windowHeight="16060" tabRatio="317"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -4412,7 +4412,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4627,7 +4627,7 @@
         <v>107</v>
       </c>
       <c r="B19" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>108</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="2740" windowWidth="25600" windowHeight="16060" tabRatio="317"/>
+    <workbookView xWindow="5020" yWindow="700" windowWidth="25600" windowHeight="16060" tabRatio="317"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="606">
   <si>
     <t>true</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -2109,6 +2109,14 @@
   </si>
   <si>
     <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:400000</t>
+  </si>
+  <si>
+    <t>掠夺敌方村落资源比例</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LootVillagePercent</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4409,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4686,6 +4694,17 @@
       </c>
       <c r="C24" s="1" t="s">
         <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B25" s="8">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="700" windowWidth="25600" windowHeight="16060" tabRatio="317"/>
+    <workbookView xWindow="580" yWindow="0" windowWidth="34540" windowHeight="18840" tabRatio="317" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -915,98 +915,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>dragon_1_2,lancer_1_42,ballista_1_16,ranger_1_42,swordsman_1_21</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_3,catapult_1_56,crossbowman_1_168,sentinel_1_112,horseArcher_1_28</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_4,crossbowman_1_446,sentinel_1_334,horseArcher_1_111,ballista_1_28</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_6,swordsman_1_761,lancer_1_286,catapult_1_95,ranger_1_190</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_8,lancer_1_590,ballista_1_221,ranger_1_590,swordsman_1_295</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_11,catapult_1_427,crossbowman_1_1281,sentinel_1_854,horseArcher_1_213</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_12,crossbowman_1_2353,sentinel_1_1764,horseArcher_1_588,ballista_1_147</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_13,swordsman_1_3121,lancer_1_1170,catapult_1_390,ranger_1_780</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_14,lancer_1_2010,ballista_1_754,ranger_1_2010,swordsman_1_1055</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_16,catapult_1_1263,crossbowman_1_3789,sentinel_1_2526,horseArcher_1_631</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_2_18,crossbowman_1_6225,sentinel_1_4669,horseArcher_1_1556,ballista_1_389</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_21,swordsman_2_7544,lancer_2_2829,catapult_2_943,ranger_2_1886</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_22,lancer_2_4506,ballista_2_1690,ranger_2_4506,swordsman_2_2253</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_23,catapult_2_2659,crossbowman_2_7976,sentinel_2_5318,horseArcher_2_1329</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_24,crossbowman_2_12417,sentinel_2_9313,horseArcher_2_3104,ballista_2_776</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_26,swordsman_2_14361,lancer_2_5386,catapult_2_1795,ranger_2_3590</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_28,lancer_2_8237,ballista_2_3089,ranger_2_8237,swordsman_2_4118</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_31,catapult_2_4689,crossbowman_2_14067,sentinel_2_9378,horseArcher_2_2344</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_32,crossbowman_2_21213,sentinel_2_15909,horseArcher_2_5303,ballista_2_1326</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_33,swordsman_2_23848,lancer_2_8943,catapult_2_2981,ranger_2_5962</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_34,lancer_2_13332,ballista_2_5000,ranger_2_13332,swordsman_2_6666</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_36,catapult_2_7417,crossbowman_2_22250,sentinel_2_14833,horseArcher_2_3708</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_38,crossbowman_2_32857,sentinel_2_24643,horseArcher_2_8214,ballista_2_2054</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>dragonMaterials:greenCrystal_1:1</t>
   </si>
   <si>
@@ -1294,10 +1202,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>dragon_1_1,swordsman_1_16,lancer_1_6,catapult_1_2,ranger_1_4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>monsterRefreshMinutes</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2117,6 +2021,78 @@
   <si>
     <t>LootVillagePercent</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_1_1,swordsman_1_8,lancer_1_3,catapult_1_1,ranger_1_2</t>
+  </si>
+  <si>
+    <t>dragon_1_2,lancer_1_21,ballista_1_7,ranger_1_21,swordsman_1_10</t>
+  </si>
+  <si>
+    <t>dragon_1_3,catapult_1_27,crossbowman_1_83,sentinel_1_55,horseArcher_1_13</t>
+  </si>
+  <si>
+    <t>dragon_1_4,crossbowman_1_222,sentinel_1_167,horseArcher_1_55,ballista_1_13</t>
+  </si>
+  <si>
+    <t>dragon_1_6,swordsman_1_380,lancer_1_142,catapult_1_47,ranger_1_95</t>
+  </si>
+  <si>
+    <t>dragon_1_8,lancer_1_294,ballista_1_110,ranger_1_294,swordsman_1_147</t>
+  </si>
+  <si>
+    <t>dragon_2_11,catapult_1_213,crossbowman_1_640,sentinel_1_426,horseArcher_1_106</t>
+  </si>
+  <si>
+    <t>dragon_2_12,crossbowman_1_1176,sentinel_1_882,horseArcher_1_294,ballista_1_73</t>
+  </si>
+  <si>
+    <t>dragon_2_13,swordsman_1_1560,lancer_1_585,catapult_1_195,ranger_1_390</t>
+  </si>
+  <si>
+    <t>dragon_2_14,lancer_1_1004,ballista_1_376,ranger_1_1004,swordsman_1_502</t>
+  </si>
+  <si>
+    <t>dragon_2_16,catapult_1_631,crossbowman_1_1894,sentinel_1_1262,horseArcher_1_315</t>
+  </si>
+  <si>
+    <t>dragon_2_18,crossbowman_1_3112,sentinel_1_2334,horseArcher_1_778,ballista_1_194</t>
+  </si>
+  <si>
+    <t>dragon_3_21,swordsman_1_3771,lancer_1_1414,catapult_1_471,ranger_1_942</t>
+  </si>
+  <si>
+    <t>dragon_3_22,lancer_1_2253,ballista_1_844,ranger_1_2253,swordsman_1_1126</t>
+  </si>
+  <si>
+    <t>dragon_3_23,catapult_1_1329,crossbowman_1_3988,sentinel_1_2658,horseArcher_1_664</t>
+  </si>
+  <si>
+    <t>dragon_3_24,crossbowman_1_6208,sentinel_1_4656,horseArcher_1_1552,ballista_1_388</t>
+  </si>
+  <si>
+    <t>dragon_3_26,swordsman_1_7180,lancer_1_2692,catapult_1_897,ranger_1_1795</t>
+  </si>
+  <si>
+    <t>dragon_3_28,lancer_1_4118,ballista_1_1544,ranger_1_4118,swordsman_1_2059</t>
+  </si>
+  <si>
+    <t>dragon_4_31,catapult_1_2344,crossbowman_1_7033,sentinel_1_4688,horseArcher_1_1172</t>
+  </si>
+  <si>
+    <t>dragon_4_32,crossbowman_1_10606,sentinel_1_7954,horseArcher_1_2651,ballista_1_662</t>
+  </si>
+  <si>
+    <t>dragon_4_33,swordsman_1_11923,lancer_1_4471,catapult_1_1490,ranger_1_2980</t>
+  </si>
+  <si>
+    <t>dragon_4_34,lancer_1_6666,ballista_1_2499,ranger_1_6666,swordsman_1_3333</t>
+  </si>
+  <si>
+    <t>dragon_4_36,catapult_1_3708,crossbowman_1_11124,sentinel_1_7416,horseArcher_1_1854</t>
+  </si>
+  <si>
+    <t>dragon_4_38,crossbowman_1_16428,sentinel_1_12321,horseArcher_1_4107,ballista_1_1026</t>
   </si>
 </sst>
 </file>
@@ -2305,7 +2281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="789">
+  <cellStyleXfs count="805">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3099,8 +3075,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3156,12 +3148,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3180,8 +3166,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="476" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="789">
+  <cellStyles count="805">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3578,6 +3576,14 @@
     <cellStyle name="超链接" xfId="783" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="785" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="803" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3967,6 +3973,14 @@
     <cellStyle name="访问过的超链接" xfId="784" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="786" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="804" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4419,7 +4433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -4643,68 +4657,68 @@
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B20" s="8">
         <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="B21" s="8">
         <v>240</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="B22" s="8">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B23" s="8">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="B24" s="8">
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="B25" s="8">
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -6107,7 +6121,7 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>186</v>
@@ -6130,7 +6144,7 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>186</v>
@@ -6153,7 +6167,7 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>186</v>
@@ -6176,7 +6190,7 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>186</v>
@@ -6199,7 +6213,7 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>186</v>
@@ -6222,7 +6236,7 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>186</v>
@@ -6268,8 +6282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6381,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="16">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="F2" s="16">
         <v>50</v>
@@ -6390,10 +6404,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="17">
-        <v>160</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>349</v>
+        <v>80</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>582</v>
       </c>
       <c r="J2" s="16">
         <v>200</v>
@@ -6417,31 +6431,31 @@
         <v>25</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
@@ -6458,7 +6472,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="16">
-        <v>2533</v>
+        <v>1212</v>
       </c>
       <c r="F3" s="16">
         <v>50</v>
@@ -6467,10 +6481,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="17">
-        <v>844</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>234</v>
+        <v>404</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>583</v>
       </c>
       <c r="J3" s="16">
         <v>820</v>
@@ -6494,31 +6508,31 @@
         <v>145</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="Y3" s="18" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
@@ -6535,7 +6549,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="16">
-        <v>6704</v>
+        <v>3264</v>
       </c>
       <c r="F4" s="16">
         <v>50</v>
@@ -6544,13 +6558,13 @@
         <v>6</v>
       </c>
       <c r="H4" s="17">
-        <v>2235</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>235</v>
+        <v>1088</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>584</v>
       </c>
       <c r="J4" s="16">
-        <v>2160</v>
+        <v>1080</v>
       </c>
       <c r="K4" s="16">
         <v>1200</v>
@@ -6571,31 +6585,31 @@
         <v>390</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="Y4" s="18" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
@@ -6612,7 +6626,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="16">
-        <v>13372</v>
+        <v>6612</v>
       </c>
       <c r="F5" s="16">
         <v>50</v>
@@ -6621,13 +6635,13 @@
         <v>6</v>
       </c>
       <c r="H5" s="17">
-        <v>4457</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>236</v>
+        <v>2204</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>585</v>
       </c>
       <c r="J5" s="16">
-        <v>4320</v>
+        <v>2160</v>
       </c>
       <c r="K5" s="16">
         <v>1600</v>
@@ -6648,31 +6662,31 @@
         <v>780</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="X5" s="18" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="Y5" s="18" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
@@ -6689,7 +6703,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="16">
-        <v>22844</v>
+        <v>11364</v>
       </c>
       <c r="F6" s="16">
         <v>50</v>
@@ -6698,13 +6712,13 @@
         <v>6</v>
       </c>
       <c r="H6" s="17">
-        <v>7615</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>237</v>
+        <v>3788</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>586</v>
       </c>
       <c r="J6" s="16">
-        <v>7350</v>
+        <v>3650</v>
       </c>
       <c r="K6" s="16">
         <v>2000</v>
@@ -6725,31 +6739,31 @@
         <v>1330</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="X6" s="18" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="Y6" s="18" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
@@ -6766,7 +6780,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="16">
-        <v>35384</v>
+        <v>17628</v>
       </c>
       <c r="F7" s="16">
         <v>50</v>
@@ -6775,13 +6789,13 @@
         <v>6</v>
       </c>
       <c r="H7" s="17">
-        <v>11795</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>238</v>
+        <v>5876</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>587</v>
       </c>
       <c r="J7" s="16">
-        <v>11330</v>
+        <v>5670</v>
       </c>
       <c r="K7" s="16">
         <v>2400</v>
@@ -6802,31 +6816,31 @@
         <v>2060</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="X7" s="18" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
@@ -6843,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="16">
-        <v>68299</v>
+        <v>34080</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -6852,13 +6866,13 @@
         <v>8</v>
       </c>
       <c r="H8" s="17">
-        <v>17075</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>239</v>
+        <v>8520</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>588</v>
       </c>
       <c r="J8" s="16">
-        <v>21890</v>
+        <v>10950</v>
       </c>
       <c r="K8" s="16">
         <v>2800</v>
@@ -6879,31 +6893,31 @@
         <v>2985</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="U8" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="V8" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y8" s="18" t="s">
         <v>514</v>
-      </c>
-      <c r="V8" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="W8" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="X8" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y8" s="18" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
@@ -6920,7 +6934,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="16">
-        <v>94101</v>
+        <v>47008</v>
       </c>
       <c r="F9" s="16">
         <v>100</v>
@@ -6929,13 +6943,13 @@
         <v>8</v>
       </c>
       <c r="H9" s="17">
-        <v>23525</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>240</v>
+        <v>11752</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>589</v>
       </c>
       <c r="J9" s="16">
-        <v>30150</v>
+        <v>15110</v>
       </c>
       <c r="K9" s="16">
         <v>3200</v>
@@ -6956,31 +6970,31 @@
         <v>4115</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="T9" s="18" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="W9" s="18" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="X9" s="18" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="Y9" s="18" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
@@ -6997,7 +7011,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="16">
-        <v>124842</v>
+        <v>62400</v>
       </c>
       <c r="F10" s="16">
         <v>100</v>
@@ -7006,13 +7020,13 @@
         <v>8</v>
       </c>
       <c r="H10" s="17">
-        <v>31211</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>241</v>
+        <v>15600</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>590</v>
       </c>
       <c r="J10" s="16">
-        <v>40000</v>
+        <v>19970</v>
       </c>
       <c r="K10" s="16">
         <v>4000</v>
@@ -7033,31 +7047,31 @@
         <v>5460</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="T10" s="18" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="W10" s="18" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="Y10" s="18" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
@@ -7074,7 +7088,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="16">
-        <v>160761</v>
+        <v>80288</v>
       </c>
       <c r="F11" s="16">
         <v>100</v>
@@ -7083,13 +7097,13 @@
         <v>8</v>
       </c>
       <c r="H11" s="17">
-        <v>40190</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>242</v>
+        <v>20072</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>591</v>
       </c>
       <c r="J11" s="16">
-        <v>51460</v>
+        <v>25730</v>
       </c>
       <c r="K11" s="16">
         <v>4800</v>
@@ -7113,28 +7127,28 @@
         <v>190</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="T11" s="18" t="s">
         <v>191</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="V11" s="18" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="W11" s="18" t="s">
         <v>192</v>
       </c>
       <c r="X11" s="18" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="Y11" s="18" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
@@ -7151,7 +7165,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="16">
-        <v>202080</v>
+        <v>100960</v>
       </c>
       <c r="F12" s="16">
         <v>100</v>
@@ -7160,13 +7174,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="17">
-        <v>50520</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>243</v>
+        <v>25240</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>592</v>
       </c>
       <c r="J12" s="16">
-        <v>64710</v>
+        <v>32320</v>
       </c>
       <c r="K12" s="16">
         <v>6400</v>
@@ -7187,31 +7201,31 @@
         <v>8840</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="X12" s="18" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="Y12" s="18" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
@@ -7228,7 +7242,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="16">
-        <v>249009</v>
+        <v>124448</v>
       </c>
       <c r="F13" s="16">
         <v>100</v>
@@ -7237,13 +7251,13 @@
         <v>8</v>
       </c>
       <c r="H13" s="17">
-        <v>62252</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>244</v>
+        <v>31112</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>593</v>
       </c>
       <c r="J13" s="16">
-        <v>79750</v>
+        <v>39880</v>
       </c>
       <c r="K13" s="16">
         <v>8400</v>
@@ -7264,31 +7278,31 @@
         <v>10890</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="Y13" s="18" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
@@ -7305,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="16">
-        <v>377185</v>
+        <v>188500</v>
       </c>
       <c r="F14" s="16">
         <v>150</v>
@@ -7314,13 +7328,13 @@
         <v>10</v>
       </c>
       <c r="H14" s="17">
-        <v>75437</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>245</v>
+        <v>37700</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>594</v>
       </c>
       <c r="J14" s="16">
-        <v>120720</v>
+        <v>60320</v>
       </c>
       <c r="K14" s="16">
         <v>12000</v>
@@ -7341,31 +7355,31 @@
         <v>13200</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="W14" s="18" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="Y14" s="18" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
@@ -7382,7 +7396,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="16">
-        <v>450606</v>
+        <v>225220</v>
       </c>
       <c r="F15" s="16">
         <v>150</v>
@@ -7391,13 +7405,13 @@
         <v>10</v>
       </c>
       <c r="H15" s="17">
-        <v>90121</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>246</v>
+        <v>45044</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>595</v>
       </c>
       <c r="J15" s="16">
-        <v>144240</v>
+        <v>72080</v>
       </c>
       <c r="K15" s="16">
         <v>15000</v>
@@ -7418,31 +7432,31 @@
         <v>15770</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="T15" s="18" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="U15" s="18" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="V15" s="18" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="Y15" s="18" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
@@ -7459,7 +7473,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="16">
-        <v>531752</v>
+        <v>265800</v>
       </c>
       <c r="F16" s="16">
         <v>150</v>
@@ -7468,13 +7482,13 @@
         <v>10</v>
       </c>
       <c r="H16" s="17">
-        <v>106350</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>247</v>
+        <v>53160</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>596</v>
       </c>
       <c r="J16" s="16">
-        <v>170240</v>
+        <v>85120</v>
       </c>
       <c r="K16" s="16">
         <v>21000</v>
@@ -7495,31 +7509,31 @@
         <v>18610</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="T16" s="18" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="U16" s="18" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="V16" s="18" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="W16" s="18" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="Y16" s="18" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
@@ -7536,7 +7550,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="16">
-        <v>620838</v>
+        <v>310400</v>
       </c>
       <c r="F17" s="16">
         <v>150</v>
@@ -7545,13 +7559,13 @@
         <v>10</v>
       </c>
       <c r="H17" s="17">
-        <v>124168</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>248</v>
+        <v>62080</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>597</v>
       </c>
       <c r="J17" s="16">
-        <v>198720</v>
+        <v>99360</v>
       </c>
       <c r="K17" s="16">
         <v>25600</v>
@@ -7575,28 +7589,28 @@
         <v>194</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="T17" s="18" t="s">
         <v>195</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="W17" s="18" t="s">
         <v>196</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="Y17" s="18" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
@@ -7613,7 +7627,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="16">
-        <v>718071</v>
+        <v>358940</v>
       </c>
       <c r="F18" s="16">
         <v>150</v>
@@ -7622,13 +7636,13 @@
         <v>10</v>
       </c>
       <c r="H18" s="17">
-        <v>143614</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>249</v>
+        <v>71788</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>598</v>
       </c>
       <c r="J18" s="16">
-        <v>229840</v>
+        <v>114880</v>
       </c>
       <c r="K18" s="16">
         <v>37400</v>
@@ -7649,31 +7663,31 @@
         <v>25130</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="Y18" s="18" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
@@ -7690,7 +7704,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="16">
-        <v>823652</v>
+        <v>411780</v>
       </c>
       <c r="F19" s="16">
         <v>150</v>
@@ -7699,13 +7713,13 @@
         <v>10</v>
       </c>
       <c r="H19" s="17">
-        <v>164730</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>250</v>
+        <v>82356</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>599</v>
       </c>
       <c r="J19" s="16">
-        <v>263600</v>
+        <v>131840</v>
       </c>
       <c r="K19" s="16">
         <v>45000</v>
@@ -7726,31 +7740,31 @@
         <v>28825</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="U19" s="18" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="V19" s="18" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="W19" s="18" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="X19" s="18" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="Y19" s="18" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
@@ -7767,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="16">
-        <v>1125330</v>
+        <v>562584</v>
       </c>
       <c r="F20" s="16">
         <v>200</v>
@@ -7776,13 +7790,13 @@
         <v>12</v>
       </c>
       <c r="H20" s="17">
-        <v>187555</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>251</v>
+        <v>93764</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>600</v>
       </c>
       <c r="J20" s="16">
-        <v>360200</v>
+        <v>180100</v>
       </c>
       <c r="K20" s="16">
         <v>65400</v>
@@ -7803,31 +7817,31 @@
         <v>32820</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="U20" s="18" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="V20" s="18" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="X20" s="18" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="Y20" s="18" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
@@ -7844,7 +7858,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="16">
-        <v>1272750</v>
+        <v>636240</v>
       </c>
       <c r="F21" s="16">
         <v>200</v>
@@ -7853,13 +7867,13 @@
         <v>12</v>
       </c>
       <c r="H21" s="17">
-        <v>212125</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="J21" s="16">
-        <v>407330</v>
+        <v>106040</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="J21" s="13">
+        <v>203620</v>
       </c>
       <c r="K21" s="16">
         <v>78600</v>
@@ -7880,31 +7894,31 @@
         <v>37120</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="S21" s="18" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="U21" s="18" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="W21" s="18" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="X21" s="18" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="Y21" s="18" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
@@ -7920,8 +7934,8 @@
       <c r="D22" s="16">
         <v>3</v>
       </c>
-      <c r="E22" s="16">
-        <v>1430861</v>
+      <c r="E22" s="13">
+        <v>715320</v>
       </c>
       <c r="F22" s="16">
         <v>200</v>
@@ -7930,13 +7944,13 @@
         <v>12</v>
       </c>
       <c r="H22" s="17">
-        <v>238477</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>253</v>
+        <v>119220</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>602</v>
       </c>
       <c r="J22" s="13">
-        <v>457920</v>
+        <v>228960</v>
       </c>
       <c r="K22" s="16">
         <v>113400</v>
@@ -7957,31 +7971,31 @@
         <v>41730</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="U22" s="18" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="V22" s="18" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="W22" s="18" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="Y22" s="18" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
@@ -7997,8 +8011,8 @@
       <c r="D23" s="16">
         <v>4</v>
       </c>
-      <c r="E23" s="16">
-        <v>1599874</v>
+      <c r="E23" s="13">
+        <v>799848</v>
       </c>
       <c r="F23" s="16">
         <v>200</v>
@@ -8006,14 +8020,14 @@
       <c r="G23" s="16">
         <v>12</v>
       </c>
-      <c r="H23" s="17">
-        <v>266646</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>254</v>
+      <c r="H23" s="13">
+        <v>133308</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>603</v>
       </c>
       <c r="J23" s="13">
-        <v>511970</v>
+        <v>256040</v>
       </c>
       <c r="K23" s="16">
         <v>136000</v>
@@ -8037,28 +8051,28 @@
         <v>198</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="T23" s="18" t="s">
         <v>199</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="W23" s="18" t="s">
         <v>200</v>
       </c>
       <c r="X23" s="18" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="Y23" s="18" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
@@ -8075,7 +8089,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="13">
-        <v>1779992</v>
+        <v>889920</v>
       </c>
       <c r="F24" s="16">
         <v>200</v>
@@ -8084,13 +8098,13 @@
         <v>12</v>
       </c>
       <c r="H24" s="13">
-        <v>296665</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>255</v>
+        <v>148320</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>604</v>
       </c>
       <c r="J24" s="13">
-        <v>569670</v>
+        <v>284840</v>
       </c>
       <c r="K24" s="13">
         <v>160000</v>
@@ -8110,32 +8124,32 @@
       <c r="P24" s="13">
         <v>51915</v>
       </c>
-      <c r="Q24" s="26" t="s">
-        <v>486</v>
+      <c r="Q24" s="24" t="s">
+        <v>462</v>
       </c>
       <c r="R24" s="18" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="T24" s="18" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="U24" s="18" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="V24" s="18" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="W24" s="18" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="X24" s="18" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="Y24" s="18" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
@@ -8152,7 +8166,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="13">
-        <v>1971416</v>
+        <v>985608</v>
       </c>
       <c r="F25" s="16">
         <v>200</v>
@@ -8161,13 +8175,13 @@
         <v>12</v>
       </c>
       <c r="H25" s="13">
-        <v>328569</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>256</v>
+        <v>164268</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>605</v>
       </c>
       <c r="J25" s="13">
-        <v>630920</v>
+        <v>315460</v>
       </c>
       <c r="K25" s="13">
         <v>200000</v>
@@ -8187,33 +8201,36 @@
       <c r="P25" s="13">
         <v>57495</v>
       </c>
-      <c r="Q25" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="R25" s="26" t="s">
-        <v>307</v>
+      <c r="Q25" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="T25" s="18" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="U25" s="18" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="V25" s="18" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="W25" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="X25" s="26" t="s">
-        <v>322</v>
+        <v>269</v>
+      </c>
+      <c r="X25" s="24" t="s">
+        <v>299</v>
       </c>
       <c r="Y25" s="18" t="s">
-        <v>555</v>
-      </c>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="20" customHeight="1">
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:25" ht="20" customHeight="1">
       <c r="R27" s="16"/>
@@ -8673,7 +8690,7 @@
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -8715,7 +8732,7 @@
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -8724,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -10436,40 +10453,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="24"/>
-    <col min="2" max="2" width="20" style="24" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="24" customWidth="1"/>
-    <col min="4" max="4" width="140.6640625" style="24" customWidth="1"/>
-    <col min="5" max="16384" width="20.6640625" style="24"/>
+    <col min="1" max="1" width="20.6640625" style="22"/>
+    <col min="2" max="2" width="20" style="22" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="140.6640625" style="22" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="22" customFormat="1">
-      <c r="A1" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" s="23"/>
+    <row r="1" spans="1:6" s="20" customFormat="1">
+      <c r="A1" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="30">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -10477,13 +10494,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -10491,13 +10508,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -10505,13 +10522,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -10519,13 +10536,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -10533,13 +10550,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -10547,13 +10564,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -10561,13 +10578,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -10575,13 +10592,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -10589,13 +10606,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -10603,13 +10620,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -10617,13 +10634,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -10631,13 +10648,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>408</v>
+        <v>345</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>384</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
@@ -10645,13 +10662,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>409</v>
+        <v>346</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>385</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
@@ -10659,13 +10676,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
@@ -10673,13 +10690,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
@@ -10687,13 +10704,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
@@ -10701,13 +10718,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
@@ -10715,13 +10732,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
@@ -10729,13 +10746,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
@@ -10743,13 +10760,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
@@ -10757,13 +10774,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
@@ -10771,13 +10788,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
@@ -10785,13 +10802,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30">
@@ -10799,13 +10816,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30">
@@ -10813,13 +10830,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30">
@@ -10827,13 +10844,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30">
@@ -10841,13 +10858,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30">
@@ -10855,13 +10872,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
@@ -10869,13 +10886,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30">
@@ -10883,13 +10900,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30">
@@ -10897,13 +10914,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
@@ -10911,13 +10928,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
@@ -10925,13 +10942,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30">
@@ -10939,13 +10956,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>430</v>
+        <v>367</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30">
@@ -10953,13 +10970,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>431</v>
+        <v>368</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>407</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -10967,13 +10984,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>432</v>
+        <v>369</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>408</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -10981,13 +10998,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>473</v>
+        <v>370</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -10995,13 +11012,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>474</v>
+        <v>371</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -11009,17 +11026,17 @@
         <v>40</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>475</v>
+        <v>372</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="D42" s="25"/>
+      <c r="D42" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="0" windowWidth="22620" windowHeight="18040" tabRatio="539" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="4440" yWindow="820" windowWidth="27000" windowHeight="18040" tabRatio="539" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1516,222 +1516,6 @@
   </si>
   <si>
     <t>dragonMaterials:blueSoul_4:5,dragonMaterials:runes_4:5</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:1600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:2400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:3200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:4800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:5600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:6400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:9600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:12800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:16800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:24000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:42000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:51200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:74800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:90000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:130800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:157200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:226800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:272000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueSoul_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:320000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:1600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:2400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:3200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:4800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:5600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:6400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:9600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:12800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:16800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:24000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:42000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:51200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:74800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:90000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:130800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:157200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:226800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:272000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redSoul_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:320000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:400000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceInfo:loyalty:800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2,allianceInfo:loyalty:1600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3,allianceInfo:loyalty:2400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4,allianceInfo:loyalty:3200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5,allianceInfo:loyalty:4000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6,allianceInfo:loyalty:4800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:1,dragonMaterials:runes_2:1,allianceInfo:loyalty:5600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2,allianceInfo:loyalty:6400</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:3,dragonMaterials:runes_2:3,allianceInfo:loyalty:8000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4,allianceInfo:loyalty:9600</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_2:5,dragonMaterials:runes_2:5,allianceInfo:loyalty:12800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6,allianceInfo:loyalty:16800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:1,dragonMaterials:runes_3:1,allianceInfo:loyalty:24000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2,allianceInfo:loyalty:30000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:3,dragonMaterials:runes_3:3,allianceInfo:loyalty:42000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4,allianceInfo:loyalty:51200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_3:5,dragonMaterials:runes_3:5,allianceInfo:loyalty:74800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6,allianceInfo:loyalty:90000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:1,dragonMaterials:runes_4:1,allianceInfo:loyalty:130800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2,allianceInfo:loyalty:157200</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:3,dragonMaterials:runes_4:3,allianceInfo:loyalty:226800</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4,allianceInfo:loyalty:272000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenSoul_4:5,dragonMaterials:runes_4:5,allianceInfo:loyalty:320000</t>
-  </si>
-  <si>
-    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6,allianceInfo:loyalty:400000</t>
   </si>
   <si>
     <t>掠夺敌方村落资源比例</t>
@@ -2048,6 +1832,222 @@
       <t>_1026</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceData:loyalty:800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:1,dragonMaterials:runes_1:1,allianceData:loyalty:800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:1,dragonMaterials:runes_1:1,allianceData:loyalty:800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:2,dragonMaterials:ingo_1:2,allianceData:loyalty:1600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:2,dragonMaterials:ingo_1:2,allianceData:loyalty:1600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:2,dragonMaterials:ingo_1:2,allianceData:loyalty:1600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:3,dragonMaterials:runes_1:3,allianceData:loyalty:2400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:3,dragonMaterials:runes_1:3,allianceData:loyalty:2400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:3,dragonMaterials:runes_1:3,allianceData:loyalty:2400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:4,dragonMaterials:ingo_1:4,allianceData:loyalty:3200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:4,dragonMaterials:ingo_1:4,allianceData:loyalty:3200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:4,dragonMaterials:ingo_1:4,allianceData:loyalty:3200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:5,dragonMaterials:runes_1:5,allianceData:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:5,dragonMaterials:runes_1:5,allianceData:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:5,dragonMaterials:runes_1:5,allianceData:loyalty:4000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_1:6,dragonMaterials:ingo_1:6,allianceData:loyalty:4800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_1:6,dragonMaterials:ingo_1:6,allianceData:loyalty:4800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_1:6,dragonMaterials:ingo_1:6,allianceData:loyalty:4800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:1,dragonMaterials:runes_2:1,allianceData:loyalty:5600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:1,dragonMaterials:runes_2:1,allianceData:loyalty:5600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:1,dragonMaterials:runes_2:1,allianceData:loyalty:5600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:2,dragonMaterials:ingo_2:2,allianceData:loyalty:6400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:2,dragonMaterials:ingo_2:2,allianceData:loyalty:6400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:2,dragonMaterials:ingo_2:2,allianceData:loyalty:6400</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:3,dragonMaterials:runes_2:3,allianceData:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:3,dragonMaterials:runes_2:3,allianceData:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:3,dragonMaterials:runes_2:3,allianceData:loyalty:8000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:4,dragonMaterials:ingo_2:4,allianceData:loyalty:9600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:4,dragonMaterials:ingo_2:4,allianceData:loyalty:9600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:4,dragonMaterials:ingo_2:4,allianceData:loyalty:9600</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_2:5,dragonMaterials:runes_2:5,allianceData:loyalty:12800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_2:5,dragonMaterials:runes_2:5,allianceData:loyalty:12800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_2:5,dragonMaterials:runes_2:5,allianceData:loyalty:12800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_2:6,dragonMaterials:ingo_2:6,allianceData:loyalty:16800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_2:6,dragonMaterials:ingo_2:6,allianceData:loyalty:16800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_2:6,dragonMaterials:ingo_2:6,allianceData:loyalty:16800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:1,dragonMaterials:runes_3:1,allianceData:loyalty:24000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:1,dragonMaterials:runes_3:1,allianceData:loyalty:24000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:1,dragonMaterials:runes_3:1,allianceData:loyalty:24000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:2,dragonMaterials:ingo_3:2,allianceData:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:2,dragonMaterials:ingo_3:2,allianceData:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:2,dragonMaterials:ingo_3:2,allianceData:loyalty:30000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:3,dragonMaterials:runes_3:3,allianceData:loyalty:42000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:3,dragonMaterials:runes_3:3,allianceData:loyalty:42000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:3,dragonMaterials:runes_3:3,allianceData:loyalty:42000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:4,dragonMaterials:ingo_3:4,allianceData:loyalty:51200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:4,dragonMaterials:ingo_3:4,allianceData:loyalty:51200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:4,dragonMaterials:ingo_3:4,allianceData:loyalty:51200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_3:5,dragonMaterials:runes_3:5,allianceData:loyalty:74800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_3:5,dragonMaterials:runes_3:5,allianceData:loyalty:74800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_3:5,dragonMaterials:runes_3:5,allianceData:loyalty:74800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_3:6,dragonMaterials:ingo_3:6,allianceData:loyalty:90000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_3:6,dragonMaterials:ingo_3:6,allianceData:loyalty:90000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_3:6,dragonMaterials:ingo_3:6,allianceData:loyalty:90000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:1,dragonMaterials:runes_4:1,allianceData:loyalty:130800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:1,dragonMaterials:runes_4:1,allianceData:loyalty:130800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:1,dragonMaterials:runes_4:1,allianceData:loyalty:130800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:2,dragonMaterials:ingo_4:2,allianceData:loyalty:157200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:2,dragonMaterials:ingo_4:2,allianceData:loyalty:157200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:2,dragonMaterials:ingo_4:2,allianceData:loyalty:157200</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:3,dragonMaterials:runes_4:3,allianceData:loyalty:226800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:3,dragonMaterials:runes_4:3,allianceData:loyalty:226800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:3,dragonMaterials:runes_4:3,allianceData:loyalty:226800</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:4,dragonMaterials:ingo_4:4,allianceData:loyalty:272000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:4,dragonMaterials:ingo_4:4,allianceData:loyalty:272000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:4,dragonMaterials:ingo_4:4,allianceData:loyalty:272000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenSoul_4:5,dragonMaterials:runes_4:5,allianceData:loyalty:320000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redSoul_4:5,dragonMaterials:runes_4:5,allianceData:loyalty:320000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueSoul_4:5,dragonMaterials:runes_4:5,allianceData:loyalty:320000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:greenCrystal_4:6,dragonMaterials:ingo_4:6,allianceData:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:redCrystal_4:6,dragonMaterials:ingo_4:6,allianceData:loyalty:400000</t>
+  </si>
+  <si>
+    <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6,allianceData:loyalty:400000</t>
   </si>
 </sst>
 </file>
@@ -4709,24 +4709,24 @@
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>500</v>
+        <v>428</v>
       </c>
       <c r="B25" s="8">
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>499</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>554</v>
+        <v>482</v>
       </c>
       <c r="B26" s="8">
         <v>360</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>553</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -4785,7 +4785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="O1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -4856,7 +4856,7 @@
         <v>33</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>555</v>
+        <v>483</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>36</v>
@@ -4868,7 +4868,7 @@
         <v>41</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>556</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="20" customHeight="1">
@@ -6290,8 +6290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6415,7 +6415,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>501</v>
+        <v>429</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
@@ -6445,7 +6445,7 @@
         <v>231</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>207</v>
@@ -6454,7 +6454,7 @@
         <v>261</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>219</v>
@@ -6463,7 +6463,7 @@
         <v>246</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>427</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
@@ -6492,7 +6492,7 @@
         <v>404</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>502</v>
+        <v>430</v>
       </c>
       <c r="J3" s="15">
         <v>820</v>
@@ -6522,7 +6522,7 @@
         <v>232</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>208</v>
@@ -6531,7 +6531,7 @@
         <v>262</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="W3" s="17" t="s">
         <v>220</v>
@@ -6540,7 +6540,7 @@
         <v>247</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
@@ -6569,7 +6569,7 @@
         <v>1088</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>503</v>
+        <v>431</v>
       </c>
       <c r="J4" s="15">
         <v>1080</v>
@@ -6599,7 +6599,7 @@
         <v>233</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="T4" s="17" t="s">
         <v>209</v>
@@ -6608,7 +6608,7 @@
         <v>263</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>221</v>
@@ -6617,7 +6617,7 @@
         <v>248</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>429</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
@@ -6646,7 +6646,7 @@
         <v>2204</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>504</v>
+        <v>432</v>
       </c>
       <c r="J5" s="15">
         <v>2160</v>
@@ -6676,7 +6676,7 @@
         <v>234</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="T5" s="17" t="s">
         <v>210</v>
@@ -6685,7 +6685,7 @@
         <v>264</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="W5" s="17" t="s">
         <v>222</v>
@@ -6694,7 +6694,7 @@
         <v>249</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>430</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
@@ -6723,7 +6723,7 @@
         <v>3788</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>505</v>
+        <v>433</v>
       </c>
       <c r="J6" s="15">
         <v>3650</v>
@@ -6753,7 +6753,7 @@
         <v>235</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="T6" s="17" t="s">
         <v>211</v>
@@ -6762,7 +6762,7 @@
         <v>265</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>223</v>
@@ -6771,7 +6771,7 @@
         <v>250</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>431</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
@@ -6800,7 +6800,7 @@
         <v>5876</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
       <c r="J7" s="15">
         <v>5670</v>
@@ -6830,7 +6830,7 @@
         <v>236</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="T7" s="17" t="s">
         <v>212</v>
@@ -6839,7 +6839,7 @@
         <v>266</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>224</v>
@@ -6848,7 +6848,7 @@
         <v>251</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>432</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
@@ -6877,7 +6877,7 @@
         <v>8520</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>507</v>
+        <v>435</v>
       </c>
       <c r="J8" s="15">
         <v>10950</v>
@@ -6907,7 +6907,7 @@
         <v>400</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="T8" s="17" t="s">
         <v>382</v>
@@ -6916,7 +6916,7 @@
         <v>409</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>391</v>
@@ -6925,7 +6925,7 @@
         <v>418</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>433</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
@@ -6954,7 +6954,7 @@
         <v>11752</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
       <c r="J9" s="15">
         <v>15110</v>
@@ -6984,7 +6984,7 @@
         <v>237</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="T9" s="17" t="s">
         <v>213</v>
@@ -6993,7 +6993,7 @@
         <v>267</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>225</v>
@@ -7002,7 +7002,7 @@
         <v>252</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>434</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
@@ -7031,7 +7031,7 @@
         <v>15600</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>509</v>
+        <v>437</v>
       </c>
       <c r="J10" s="15">
         <v>19970</v>
@@ -7061,7 +7061,7 @@
         <v>401</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="T10" s="17" t="s">
         <v>383</v>
@@ -7070,7 +7070,7 @@
         <v>410</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="W10" s="17" t="s">
         <v>392</v>
@@ -7079,7 +7079,7 @@
         <v>419</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>435</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
@@ -7108,7 +7108,7 @@
         <v>20072</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
       <c r="J11" s="15">
         <v>25730</v>
@@ -7138,7 +7138,7 @@
         <v>238</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="T11" s="17" t="s">
         <v>152</v>
@@ -7147,7 +7147,7 @@
         <v>268</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="W11" s="17" t="s">
         <v>153</v>
@@ -7156,7 +7156,7 @@
         <v>253</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>436</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
@@ -7185,7 +7185,7 @@
         <v>25240</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
       <c r="J12" s="15">
         <v>32320</v>
@@ -7215,7 +7215,7 @@
         <v>402</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="T12" s="17" t="s">
         <v>384</v>
@@ -7224,7 +7224,7 @@
         <v>411</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="W12" s="17" t="s">
         <v>393</v>
@@ -7233,7 +7233,7 @@
         <v>420</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
@@ -7262,7 +7262,7 @@
         <v>31112</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
       <c r="J13" s="15">
         <v>39880</v>
@@ -7292,7 +7292,7 @@
         <v>239</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="T13" s="17" t="s">
         <v>214</v>
@@ -7301,7 +7301,7 @@
         <v>269</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="W13" s="17" t="s">
         <v>226</v>
@@ -7310,7 +7310,7 @@
         <v>254</v>
       </c>
       <c r="Y13" s="17" t="s">
-        <v>438</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
@@ -7339,7 +7339,7 @@
         <v>37700</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>557</v>
+        <v>485</v>
       </c>
       <c r="J14" s="15">
         <v>60320</v>
@@ -7369,7 +7369,7 @@
         <v>403</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="T14" s="17" t="s">
         <v>385</v>
@@ -7378,7 +7378,7 @@
         <v>412</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="W14" s="17" t="s">
         <v>394</v>
@@ -7387,7 +7387,7 @@
         <v>421</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>439</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
@@ -7416,7 +7416,7 @@
         <v>45044</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>558</v>
+        <v>486</v>
       </c>
       <c r="J15" s="15">
         <v>72080</v>
@@ -7446,7 +7446,7 @@
         <v>240</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="T15" s="17" t="s">
         <v>215</v>
@@ -7455,7 +7455,7 @@
         <v>270</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>464</v>
+        <v>537</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>227</v>
@@ -7464,7 +7464,7 @@
         <v>255</v>
       </c>
       <c r="Y15" s="17" t="s">
-        <v>440</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
@@ -7493,7 +7493,7 @@
         <v>53160</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>559</v>
+        <v>487</v>
       </c>
       <c r="J16" s="15">
         <v>85120</v>
@@ -7523,7 +7523,7 @@
         <v>404</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>489</v>
+        <v>539</v>
       </c>
       <c r="T16" s="17" t="s">
         <v>386</v>
@@ -7532,7 +7532,7 @@
         <v>413</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>465</v>
+        <v>540</v>
       </c>
       <c r="W16" s="17" t="s">
         <v>395</v>
@@ -7541,7 +7541,7 @@
         <v>422</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>441</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
@@ -7570,7 +7570,7 @@
         <v>62080</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>560</v>
+        <v>488</v>
       </c>
       <c r="J17" s="15">
         <v>99360</v>
@@ -7600,7 +7600,7 @@
         <v>241</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>490</v>
+        <v>542</v>
       </c>
       <c r="T17" s="17" t="s">
         <v>156</v>
@@ -7609,7 +7609,7 @@
         <v>271</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>466</v>
+        <v>543</v>
       </c>
       <c r="W17" s="17" t="s">
         <v>157</v>
@@ -7618,7 +7618,7 @@
         <v>256</v>
       </c>
       <c r="Y17" s="17" t="s">
-        <v>442</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
@@ -7647,7 +7647,7 @@
         <v>71788</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>561</v>
+        <v>489</v>
       </c>
       <c r="J18" s="15">
         <v>114880</v>
@@ -7677,7 +7677,7 @@
         <v>405</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="T18" s="17" t="s">
         <v>387</v>
@@ -7686,7 +7686,7 @@
         <v>414</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>467</v>
+        <v>546</v>
       </c>
       <c r="W18" s="17" t="s">
         <v>396</v>
@@ -7695,7 +7695,7 @@
         <v>423</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>443</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
@@ -7724,7 +7724,7 @@
         <v>82356</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>562</v>
+        <v>490</v>
       </c>
       <c r="J19" s="15">
         <v>131840</v>
@@ -7754,7 +7754,7 @@
         <v>242</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="T19" s="17" t="s">
         <v>216</v>
@@ -7763,7 +7763,7 @@
         <v>272</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>468</v>
+        <v>549</v>
       </c>
       <c r="W19" s="17" t="s">
         <v>228</v>
@@ -7772,7 +7772,7 @@
         <v>257</v>
       </c>
       <c r="Y19" s="17" t="s">
-        <v>444</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
@@ -7801,7 +7801,7 @@
         <v>93764</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>563</v>
+        <v>491</v>
       </c>
       <c r="J20" s="15">
         <v>180100</v>
@@ -7831,7 +7831,7 @@
         <v>406</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
       <c r="T20" s="17" t="s">
         <v>388</v>
@@ -7840,7 +7840,7 @@
         <v>415</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>469</v>
+        <v>552</v>
       </c>
       <c r="W20" s="17" t="s">
         <v>397</v>
@@ -7849,7 +7849,7 @@
         <v>424</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>445</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
@@ -7878,7 +7878,7 @@
         <v>106040</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>564</v>
+        <v>492</v>
       </c>
       <c r="J21" s="12">
         <v>203620</v>
@@ -7908,7 +7908,7 @@
         <v>243</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="T21" s="17" t="s">
         <v>217</v>
@@ -7917,7 +7917,7 @@
         <v>273</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>470</v>
+        <v>555</v>
       </c>
       <c r="W21" s="17" t="s">
         <v>229</v>
@@ -7926,7 +7926,7 @@
         <v>258</v>
       </c>
       <c r="Y21" s="17" t="s">
-        <v>446</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
@@ -7955,7 +7955,7 @@
         <v>119220</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>565</v>
+        <v>493</v>
       </c>
       <c r="J22" s="12">
         <v>228960</v>
@@ -7985,7 +7985,7 @@
         <v>407</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="T22" s="17" t="s">
         <v>389</v>
@@ -7994,7 +7994,7 @@
         <v>416</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>471</v>
+        <v>558</v>
       </c>
       <c r="W22" s="17" t="s">
         <v>398</v>
@@ -8003,7 +8003,7 @@
         <v>425</v>
       </c>
       <c r="Y22" s="17" t="s">
-        <v>447</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
@@ -8032,7 +8032,7 @@
         <v>133308</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>566</v>
+        <v>494</v>
       </c>
       <c r="J23" s="12">
         <v>256040</v>
@@ -8062,7 +8062,7 @@
         <v>244</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="T23" s="17" t="s">
         <v>160</v>
@@ -8071,7 +8071,7 @@
         <v>274</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>472</v>
+        <v>561</v>
       </c>
       <c r="W23" s="17" t="s">
         <v>161</v>
@@ -8080,7 +8080,7 @@
         <v>259</v>
       </c>
       <c r="Y23" s="17" t="s">
-        <v>448</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
@@ -8109,7 +8109,7 @@
         <v>148320</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>567</v>
+        <v>495</v>
       </c>
       <c r="J24" s="12">
         <v>284840</v>
@@ -8139,7 +8139,7 @@
         <v>408</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="T24" s="17" t="s">
         <v>390</v>
@@ -8148,7 +8148,7 @@
         <v>417</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>473</v>
+        <v>564</v>
       </c>
       <c r="W24" s="17" t="s">
         <v>399</v>
@@ -8157,7 +8157,7 @@
         <v>426</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>449</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
@@ -8186,7 +8186,7 @@
         <v>164268</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>568</v>
+        <v>496</v>
       </c>
       <c r="J25" s="12">
         <v>315460</v>
@@ -8216,7 +8216,7 @@
         <v>245</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>498</v>
+        <v>566</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>218</v>
@@ -8225,7 +8225,7 @@
         <v>275</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>474</v>
+        <v>567</v>
       </c>
       <c r="W25" s="17" t="s">
         <v>230</v>
@@ -8234,7 +8234,7 @@
         <v>260</v>
       </c>
       <c r="Y25" s="17" t="s">
-        <v>450</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="20" customHeight="1">
@@ -8422,7 +8422,7 @@
         <v>334</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>513</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -8436,7 +8436,7 @@
         <v>334</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>514</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -8450,7 +8450,7 @@
         <v>334</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>515</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -8464,7 +8464,7 @@
         <v>335</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>516</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -8478,7 +8478,7 @@
         <v>335</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>517</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -8492,7 +8492,7 @@
         <v>336</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>518</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -8506,7 +8506,7 @@
         <v>337</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>519</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -8520,7 +8520,7 @@
         <v>338</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>520</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -8534,7 +8534,7 @@
         <v>339</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>521</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -8548,7 +8548,7 @@
         <v>340</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>522</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -8562,7 +8562,7 @@
         <v>341</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>523</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -8576,7 +8576,7 @@
         <v>342</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>524</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -8590,7 +8590,7 @@
         <v>343</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>525</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
@@ -8604,7 +8604,7 @@
         <v>344</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>526</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
@@ -8618,7 +8618,7 @@
         <v>345</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>527</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
@@ -8632,7 +8632,7 @@
         <v>346</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>528</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
@@ -8646,7 +8646,7 @@
         <v>347</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>529</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
@@ -8660,7 +8660,7 @@
         <v>348</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
@@ -8674,7 +8674,7 @@
         <v>349</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>531</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
@@ -8688,7 +8688,7 @@
         <v>350</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>532</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
@@ -8702,7 +8702,7 @@
         <v>351</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>533</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
@@ -8716,7 +8716,7 @@
         <v>352</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>534</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
@@ -8730,7 +8730,7 @@
         <v>353</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>535</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
@@ -8744,7 +8744,7 @@
         <v>354</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>536</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30">
@@ -8758,7 +8758,7 @@
         <v>355</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>537</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30">
@@ -8772,7 +8772,7 @@
         <v>356</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>538</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30">
@@ -8786,7 +8786,7 @@
         <v>357</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>539</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30">
@@ -8800,7 +8800,7 @@
         <v>358</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>540</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30">
@@ -8814,7 +8814,7 @@
         <v>359</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>541</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
@@ -8828,7 +8828,7 @@
         <v>360</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>542</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30">
@@ -8842,7 +8842,7 @@
         <v>361</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>543</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30">
@@ -8856,7 +8856,7 @@
         <v>362</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>544</v>
+        <v>472</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
@@ -8870,7 +8870,7 @@
         <v>363</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>545</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
@@ -8884,7 +8884,7 @@
         <v>364</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>546</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30">
@@ -8898,7 +8898,7 @@
         <v>365</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>547</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30">
@@ -8912,7 +8912,7 @@
         <v>366</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>548</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -8926,7 +8926,7 @@
         <v>367</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>549</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
@@ -8940,7 +8940,7 @@
         <v>368</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>550</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -8954,7 +8954,7 @@
         <v>369</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>551</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8968,7 +8968,7 @@
         <v>370</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>552</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="820" windowWidth="27000" windowHeight="18040" tabRatio="539" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="4440" yWindow="820" windowWidth="27000" windowHeight="18040" tabRatio="539"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="567">
   <si>
     <t>true</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -1054,14 +1054,6 @@
   </si>
   <si>
     <t>区域地图野怪多少分钟后刷新</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>minMonsterCount</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟领地最少的野怪数量</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -4428,10 +4420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4679,7 +4671,7 @@
         <v>289</v>
       </c>
       <c r="B22" s="8">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>290</v>
@@ -4687,46 +4679,35 @@
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>291</v>
+        <v>370</v>
       </c>
       <c r="B23" s="8">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>292</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="B24" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="B25" s="8">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
-      <c r="A26" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B26" s="8">
-        <v>360</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -4856,7 +4837,7 @@
         <v>33</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>36</v>
@@ -4868,7 +4849,7 @@
         <v>41</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="20" customHeight="1">
@@ -6290,7 +6271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D17" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="D17" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -6415,7 +6396,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
@@ -6445,7 +6426,7 @@
         <v>231</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>207</v>
@@ -6454,7 +6435,7 @@
         <v>261</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>219</v>
@@ -6463,7 +6444,7 @@
         <v>246</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
@@ -6492,7 +6473,7 @@
         <v>404</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J3" s="15">
         <v>820</v>
@@ -6522,7 +6503,7 @@
         <v>232</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>208</v>
@@ -6531,7 +6512,7 @@
         <v>262</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W3" s="17" t="s">
         <v>220</v>
@@ -6540,7 +6521,7 @@
         <v>247</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
@@ -6569,7 +6550,7 @@
         <v>1088</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J4" s="15">
         <v>1080</v>
@@ -6599,7 +6580,7 @@
         <v>233</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="T4" s="17" t="s">
         <v>209</v>
@@ -6608,7 +6589,7 @@
         <v>263</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>221</v>
@@ -6617,7 +6598,7 @@
         <v>248</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
@@ -6646,7 +6627,7 @@
         <v>2204</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J5" s="15">
         <v>2160</v>
@@ -6676,7 +6657,7 @@
         <v>234</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="T5" s="17" t="s">
         <v>210</v>
@@ -6685,7 +6666,7 @@
         <v>264</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="W5" s="17" t="s">
         <v>222</v>
@@ -6694,7 +6675,7 @@
         <v>249</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
@@ -6723,7 +6704,7 @@
         <v>3788</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J6" s="15">
         <v>3650</v>
@@ -6753,7 +6734,7 @@
         <v>235</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="T6" s="17" t="s">
         <v>211</v>
@@ -6762,7 +6743,7 @@
         <v>265</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>223</v>
@@ -6771,7 +6752,7 @@
         <v>250</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
@@ -6800,7 +6781,7 @@
         <v>5876</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J7" s="15">
         <v>5670</v>
@@ -6830,7 +6811,7 @@
         <v>236</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="T7" s="17" t="s">
         <v>212</v>
@@ -6839,7 +6820,7 @@
         <v>266</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>224</v>
@@ -6848,7 +6829,7 @@
         <v>251</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
@@ -6877,7 +6858,7 @@
         <v>8520</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J8" s="15">
         <v>10950</v>
@@ -6901,31 +6882,31 @@
         <v>2985</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="S8" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y8" s="17" t="s">
         <v>515</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
@@ -6954,7 +6935,7 @@
         <v>11752</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J9" s="15">
         <v>15110</v>
@@ -6984,7 +6965,7 @@
         <v>237</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="T9" s="17" t="s">
         <v>213</v>
@@ -6993,7 +6974,7 @@
         <v>267</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>225</v>
@@ -7002,7 +6983,7 @@
         <v>252</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
@@ -7031,7 +7012,7 @@
         <v>15600</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J10" s="15">
         <v>19970</v>
@@ -7055,31 +7036,31 @@
         <v>5460</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="S10" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="V10" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="W10" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y10" s="17" t="s">
         <v>521</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="V10" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="X10" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y10" s="17" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
@@ -7108,7 +7089,7 @@
         <v>20072</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J11" s="15">
         <v>25730</v>
@@ -7138,7 +7119,7 @@
         <v>238</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="T11" s="17" t="s">
         <v>152</v>
@@ -7147,7 +7128,7 @@
         <v>268</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="W11" s="17" t="s">
         <v>153</v>
@@ -7156,7 +7137,7 @@
         <v>253</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
@@ -7185,7 +7166,7 @@
         <v>25240</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="J12" s="15">
         <v>32320</v>
@@ -7209,31 +7190,31 @@
         <v>8840</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S12" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="V12" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="W12" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y12" s="17" t="s">
         <v>527</v>
-      </c>
-      <c r="T12" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y12" s="17" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
@@ -7262,7 +7243,7 @@
         <v>31112</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J13" s="15">
         <v>39880</v>
@@ -7292,7 +7273,7 @@
         <v>239</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="T13" s="17" t="s">
         <v>214</v>
@@ -7301,7 +7282,7 @@
         <v>269</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="W13" s="17" t="s">
         <v>226</v>
@@ -7310,7 +7291,7 @@
         <v>254</v>
       </c>
       <c r="Y13" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
@@ -7339,7 +7320,7 @@
         <v>37700</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J14" s="15">
         <v>60320</v>
@@ -7363,31 +7344,31 @@
         <v>13200</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="S14" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="W14" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="X14" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y14" s="17" t="s">
         <v>533</v>
-      </c>
-      <c r="T14" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="U14" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="W14" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="X14" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y14" s="17" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
@@ -7416,7 +7397,7 @@
         <v>45044</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J15" s="15">
         <v>72080</v>
@@ -7446,7 +7427,7 @@
         <v>240</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="T15" s="17" t="s">
         <v>215</v>
@@ -7455,7 +7436,7 @@
         <v>270</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>227</v>
@@ -7464,7 +7445,7 @@
         <v>255</v>
       </c>
       <c r="Y15" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
@@ -7493,7 +7474,7 @@
         <v>53160</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J16" s="15">
         <v>85120</v>
@@ -7517,31 +7498,31 @@
         <v>18610</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="S16" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="W16" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="X16" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y16" s="17" t="s">
         <v>539</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="W16" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y16" s="17" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
@@ -7570,7 +7551,7 @@
         <v>62080</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J17" s="15">
         <v>99360</v>
@@ -7600,7 +7581,7 @@
         <v>241</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="T17" s="17" t="s">
         <v>156</v>
@@ -7609,7 +7590,7 @@
         <v>271</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="W17" s="17" t="s">
         <v>157</v>
@@ -7618,7 +7599,7 @@
         <v>256</v>
       </c>
       <c r="Y17" s="17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
@@ -7647,7 +7628,7 @@
         <v>71788</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J18" s="15">
         <v>114880</v>
@@ -7671,31 +7652,31 @@
         <v>25130</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="S18" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="V18" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="W18" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="X18" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y18" s="17" t="s">
         <v>545</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="X18" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y18" s="17" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
@@ -7724,7 +7705,7 @@
         <v>82356</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J19" s="15">
         <v>131840</v>
@@ -7754,7 +7735,7 @@
         <v>242</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="T19" s="17" t="s">
         <v>216</v>
@@ -7763,7 +7744,7 @@
         <v>272</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="W19" s="17" t="s">
         <v>228</v>
@@ -7772,7 +7753,7 @@
         <v>257</v>
       </c>
       <c r="Y19" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
@@ -7801,7 +7782,7 @@
         <v>93764</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J20" s="15">
         <v>180100</v>
@@ -7825,31 +7806,31 @@
         <v>32820</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S20" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="U20" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="V20" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="W20" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y20" s="17" t="s">
         <v>551</v>
-      </c>
-      <c r="T20" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="U20" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="V20" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="W20" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="X20" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y20" s="17" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
@@ -7878,7 +7859,7 @@
         <v>106040</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J21" s="12">
         <v>203620</v>
@@ -7908,7 +7889,7 @@
         <v>243</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="T21" s="17" t="s">
         <v>217</v>
@@ -7917,7 +7898,7 @@
         <v>273</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="W21" s="17" t="s">
         <v>229</v>
@@ -7926,7 +7907,7 @@
         <v>258</v>
       </c>
       <c r="Y21" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
@@ -7955,7 +7936,7 @@
         <v>119220</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J22" s="12">
         <v>228960</v>
@@ -7979,31 +7960,31 @@
         <v>41730</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="S22" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="V22" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="W22" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y22" s="17" t="s">
         <v>557</v>
-      </c>
-      <c r="T22" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="X22" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
@@ -8032,7 +8013,7 @@
         <v>133308</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J23" s="12">
         <v>256040</v>
@@ -8062,7 +8043,7 @@
         <v>244</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="T23" s="17" t="s">
         <v>160</v>
@@ -8071,7 +8052,7 @@
         <v>274</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="W23" s="17" t="s">
         <v>161</v>
@@ -8080,7 +8061,7 @@
         <v>259</v>
       </c>
       <c r="Y23" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
@@ -8109,7 +8090,7 @@
         <v>148320</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J24" s="12">
         <v>284840</v>
@@ -8133,31 +8114,31 @@
         <v>51915</v>
       </c>
       <c r="Q24" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="S24" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="V24" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="W24" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="X24" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y24" s="17" t="s">
         <v>563</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="V24" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="W24" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="X24" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y24" s="17" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
@@ -8186,7 +8167,7 @@
         <v>164268</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J25" s="12">
         <v>315460</v>
@@ -8216,7 +8197,7 @@
         <v>245</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>218</v>
@@ -8225,7 +8206,7 @@
         <v>275</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="W25" s="17" t="s">
         <v>230</v>
@@ -8234,7 +8215,7 @@
         <v>260</v>
       </c>
       <c r="Y25" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="20" customHeight="1">
@@ -8404,7 +8385,7 @@
         <v>286</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>285</v>
@@ -8416,13 +8397,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -8430,13 +8411,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -8444,13 +8425,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -8458,13 +8439,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -8472,13 +8453,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -8486,13 +8467,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -8500,13 +8481,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -8514,13 +8495,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -8528,13 +8509,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -8542,13 +8523,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -8556,13 +8537,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -8570,13 +8551,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -8584,13 +8565,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
@@ -8598,13 +8579,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
@@ -8612,13 +8593,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
@@ -8626,13 +8607,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
@@ -8640,13 +8621,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
@@ -8654,13 +8635,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
@@ -8668,13 +8649,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
@@ -8682,13 +8663,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
@@ -8696,13 +8677,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
@@ -8710,13 +8691,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
@@ -8724,13 +8705,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
@@ -8738,13 +8719,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30">
@@ -8752,13 +8733,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30">
@@ -8766,13 +8747,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30">
@@ -8780,13 +8761,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30">
@@ -8794,13 +8775,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30">
@@ -8808,13 +8789,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
@@ -8822,13 +8803,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30">
@@ -8836,13 +8817,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30">
@@ -8850,13 +8831,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
@@ -8864,13 +8845,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
@@ -8878,13 +8859,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30">
@@ -8892,13 +8873,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30">
@@ -8906,13 +8887,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -8920,13 +8901,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
@@ -8934,13 +8915,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -8948,13 +8929,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8962,13 +8943,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="820" windowWidth="27000" windowHeight="18040" tabRatio="539"/>
+    <workbookView xWindow="7980" yWindow="1360" windowWidth="27000" windowHeight="18040" tabRatio="539"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="569">
   <si>
     <t>true</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -2040,6 +2040,14 @@
   </si>
   <si>
     <t>dragonMaterials:blueCrystal_4:6,dragonMaterials:ingo_4:6,allianceData:loyalty:400000</t>
+  </si>
+  <si>
+    <t>大地图的大小</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigMapLength</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2237,7 +2245,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="823">
+  <cellStyleXfs count="829">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2719,6 +2727,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3150,7 +3164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="823">
+  <cellStyles count="829">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3564,6 +3578,9 @@
     <cellStyle name="超链接" xfId="817" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="819" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="827" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3970,6 +3987,9 @@
     <cellStyle name="访问过的超链接" xfId="818" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="820" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="828" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4420,10 +4440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4708,6 +4728,17 @@
       </c>
       <c r="C25" s="1" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B26" s="8">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="1360" windowWidth="27000" windowHeight="18040" tabRatio="539"/>
+    <workbookView xWindow="7980" yWindow="1360" windowWidth="27000" windowHeight="18040" tabRatio="539" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="568">
   <si>
     <t>true</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -168,10 +168,6 @@
   </si>
   <si>
     <t>BOOL_upgradeAllianceVillage</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOL_editAllianceTitleName</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -4442,7 +4438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -4459,286 +4455,286 @@
         <v>17</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="8">
         <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="11">
         <v>1000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="11">
         <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8">
         <v>5000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="8">
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="8">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="8">
         <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="8">
         <v>1440</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="8">
         <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="8">
         <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="8">
         <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="8">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="8">
         <v>180</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="8">
         <v>180</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="8">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" s="8">
         <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B21" s="8">
         <v>240</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="8">
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" s="8">
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B24" s="8">
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B25" s="8">
         <v>360</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B26" s="8">
         <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +4767,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4"/>
     </row>
@@ -4795,24 +4791,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="5" width="20.6640625" style="6"/>
-    <col min="6" max="14" width="20.6640625" style="1"/>
-    <col min="15" max="15" width="20.6640625" style="6"/>
-    <col min="16" max="21" width="20.6640625" style="1"/>
-    <col min="22" max="22" width="20.6640625" style="6"/>
-    <col min="23" max="16384" width="20.6640625" style="1"/>
+    <col min="3" max="4" width="20.6640625" style="6"/>
+    <col min="5" max="13" width="20.6640625" style="1"/>
+    <col min="14" max="14" width="20.6640625" style="6"/>
+    <col min="15" max="20" width="20.6640625" style="1"/>
+    <col min="21" max="21" width="20.6640625" style="6"/>
+    <col min="22" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -4820,70 +4816,67 @@
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="P1" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>33</v>
+        <v>480</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="20" customHeight="1">
+    </row>
+    <row r="2" spans="1:22" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4909,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>0</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>0</v>
@@ -4945,16 +4938,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="20" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4965,67 +4955,64 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>0</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>0</v>
+      <c r="U3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="20" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5036,46 +5023,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>0</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>1</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>1</v>
@@ -5084,19 +5071,16 @@
         <v>1</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="U4" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="V4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="20" customHeight="1">
+    <row r="5" spans="1:22" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -5109,41 +5093,41 @@
       <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>1</v>
@@ -5157,17 +5141,14 @@
       <c r="T5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>1</v>
+      <c r="U5" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="20" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5228,17 +5209,14 @@
       <c r="T6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>1</v>
+      <c r="U6" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="20" customHeight="1">
+    <row r="7" spans="1:22" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5299,18 +5277,15 @@
       <c r="T7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="U7" s="7" t="s">
-        <v>1</v>
+      <c r="U7" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="20" customHeight="1">
-      <c r="O8" s="7"/>
+    <row r="8" spans="1:22" ht="20" customHeight="1">
+      <c r="N8" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -5366,10 +5341,10 @@
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -5396,10 +5371,10 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -5426,10 +5401,10 @@
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -5456,10 +5431,10 @@
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -5489,7 +5464,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -5516,10 +5491,10 @@
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -5546,10 +5521,10 @@
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -5576,10 +5551,10 @@
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -5608,10 +5583,10 @@
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -5640,10 +5615,10 @@
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -5672,10 +5647,10 @@
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -5704,10 +5679,10 @@
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -5727,10 +5702,10 @@
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -5750,10 +5725,10 @@
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -5773,10 +5748,10 @@
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -5796,10 +5771,10 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -5822,7 +5797,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -5842,10 +5817,10 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1">
         <v>6</v>
@@ -5865,10 +5840,10 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -5888,10 +5863,10 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -5911,10 +5886,10 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -5934,10 +5909,10 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
@@ -5957,10 +5932,10 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
@@ -5980,10 +5955,10 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -6003,10 +5978,10 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -6026,10 +6001,10 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -6049,10 +6024,10 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -6072,10 +6047,10 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="1">
         <v>4</v>
@@ -6095,10 +6070,10 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -6118,10 +6093,10 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -6141,10 +6116,10 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -6164,10 +6139,10 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -6187,10 +6162,10 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -6210,10 +6185,10 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C35" s="1">
         <v>4</v>
@@ -6233,10 +6208,10 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C36" s="1">
         <v>5</v>
@@ -6256,10 +6231,10 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="1">
         <v>6</v>
@@ -6326,84 +6301,84 @@
   <sheetData>
     <row r="1" spans="1:25" s="13" customFormat="1" ht="30">
       <c r="A1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>185</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="45">
       <c r="A2" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="15">
         <v>1</v>
@@ -6427,7 +6402,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
@@ -6451,36 +6426,36 @@
         <v>25</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S2" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="V2" s="17" t="s">
         <v>495</v>
       </c>
-      <c r="T2" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="V2" s="17" t="s">
+      <c r="W2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y2" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
       <c r="A3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="15">
         <v>2</v>
@@ -6504,7 +6479,7 @@
         <v>404</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J3" s="15">
         <v>820</v>
@@ -6528,36 +6503,36 @@
         <v>145</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S3" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="V3" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="T3" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="V3" s="17" t="s">
+      <c r="W3" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y3" s="17" t="s">
         <v>499</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
       <c r="A4" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="15">
         <v>3</v>
@@ -6581,7 +6556,7 @@
         <v>1088</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J4" s="15">
         <v>1080</v>
@@ -6605,36 +6580,36 @@
         <v>390</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S4" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="V4" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="T4" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="V4" s="17" t="s">
+      <c r="W4" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y4" s="17" t="s">
         <v>502</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
       <c r="A5" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="15">
         <v>4</v>
@@ -6658,7 +6633,7 @@
         <v>2204</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J5" s="15">
         <v>2160</v>
@@ -6682,36 +6657,36 @@
         <v>780</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S5" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="V5" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="T5" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="U5" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="V5" s="17" t="s">
+      <c r="W5" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="X5" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y5" s="17" t="s">
         <v>505</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y5" s="17" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
       <c r="A6" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="15">
         <v>5</v>
@@ -6735,7 +6710,7 @@
         <v>3788</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J6" s="15">
         <v>3650</v>
@@ -6759,36 +6734,36 @@
         <v>1330</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="S6" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="V6" s="17" t="s">
         <v>507</v>
       </c>
-      <c r="T6" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="V6" s="17" t="s">
+      <c r="W6" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="X6" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y6" s="17" t="s">
         <v>508</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y6" s="17" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
       <c r="A7" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="15">
         <v>6</v>
@@ -6812,7 +6787,7 @@
         <v>5876</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J7" s="15">
         <v>5670</v>
@@ -6836,36 +6811,36 @@
         <v>2060</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S7" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="U7" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="V7" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="T7" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="V7" s="17" t="s">
+      <c r="W7" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="X7" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y7" s="17" t="s">
         <v>511</v>
-      </c>
-      <c r="W7" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="X7" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
       <c r="A8" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="15">
         <v>7</v>
@@ -6889,7 +6864,7 @@
         <v>8520</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J8" s="15">
         <v>10950</v>
@@ -6913,36 +6888,36 @@
         <v>2985</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S8" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="V8" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="T8" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="V8" s="17" t="s">
+      <c r="W8" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="X8" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y8" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="X8" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
       <c r="A9" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <v>8</v>
@@ -6966,7 +6941,7 @@
         <v>11752</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J9" s="15">
         <v>15110</v>
@@ -6990,36 +6965,36 @@
         <v>4115</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S9" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="V9" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="T9" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="V9" s="17" t="s">
+      <c r="W9" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="X9" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y9" s="17" t="s">
         <v>517</v>
-      </c>
-      <c r="W9" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="X9" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y9" s="17" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
       <c r="A10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="15">
         <v>9</v>
@@ -7043,7 +7018,7 @@
         <v>15600</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J10" s="15">
         <v>19970</v>
@@ -7067,36 +7042,36 @@
         <v>5460</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S10" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="U10" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="V10" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="T10" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="V10" s="17" t="s">
+      <c r="W10" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="X10" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y10" s="17" t="s">
         <v>520</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="X10" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y10" s="17" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
       <c r="A11" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="15">
         <v>10</v>
@@ -7120,7 +7095,7 @@
         <v>20072</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J11" s="15">
         <v>25730</v>
@@ -7144,36 +7119,36 @@
         <v>7030</v>
       </c>
       <c r="Q11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="T11" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="S11" s="17" t="s">
+      <c r="U11" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="V11" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="T11" s="17" t="s">
+      <c r="W11" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="U11" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="V11" s="17" t="s">
+      <c r="X11" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y11" s="17" t="s">
         <v>523</v>
-      </c>
-      <c r="W11" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="X11" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y11" s="17" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
       <c r="A12" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="15">
         <v>11</v>
@@ -7197,7 +7172,7 @@
         <v>25240</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J12" s="15">
         <v>32320</v>
@@ -7221,36 +7196,36 @@
         <v>8840</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S12" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="U12" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="V12" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="T12" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="V12" s="17" t="s">
+      <c r="W12" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y12" s="17" t="s">
         <v>526</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y12" s="17" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
       <c r="A13" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="15">
         <v>12</v>
@@ -7274,7 +7249,7 @@
         <v>31112</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J13" s="15">
         <v>39880</v>
@@ -7298,36 +7273,36 @@
         <v>10890</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S13" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="T13" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="U13" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="V13" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="T13" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="U13" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="V13" s="17" t="s">
+      <c r="W13" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y13" s="17" t="s">
         <v>529</v>
-      </c>
-      <c r="W13" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="X13" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y13" s="17" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
       <c r="A14" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="15">
         <v>13</v>
@@ -7351,7 +7326,7 @@
         <v>37700</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J14" s="15">
         <v>60320</v>
@@ -7375,36 +7350,36 @@
         <v>13200</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S14" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="V14" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="T14" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="U14" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="V14" s="17" t="s">
+      <c r="W14" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="X14" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y14" s="17" t="s">
         <v>532</v>
-      </c>
-      <c r="W14" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="X14" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y14" s="17" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
       <c r="A15" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="15">
         <v>14</v>
@@ -7428,7 +7403,7 @@
         <v>45044</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J15" s="15">
         <v>72080</v>
@@ -7452,36 +7427,36 @@
         <v>15770</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S15" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="U15" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="V15" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="T15" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="U15" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="V15" s="17" t="s">
+      <c r="W15" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="X15" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y15" s="17" t="s">
         <v>535</v>
-      </c>
-      <c r="W15" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="X15" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y15" s="17" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
       <c r="A16" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="15">
         <v>15</v>
@@ -7505,7 +7480,7 @@
         <v>53160</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J16" s="15">
         <v>85120</v>
@@ -7529,36 +7504,36 @@
         <v>18610</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S16" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="V16" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="T16" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="V16" s="17" t="s">
+      <c r="W16" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="X16" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y16" s="17" t="s">
         <v>538</v>
-      </c>
-      <c r="W16" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y16" s="17" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
       <c r="A17" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="15">
         <v>16</v>
@@ -7582,7 +7557,7 @@
         <v>62080</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J17" s="15">
         <v>99360</v>
@@ -7606,36 +7581,36 @@
         <v>21725</v>
       </c>
       <c r="Q17" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="S17" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="T17" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="R17" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="S17" s="17" t="s">
+      <c r="U17" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="V17" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="T17" s="17" t="s">
+      <c r="W17" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="U17" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="V17" s="17" t="s">
+      <c r="X17" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y17" s="17" t="s">
         <v>541</v>
-      </c>
-      <c r="W17" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="X17" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y17" s="17" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
       <c r="A18" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="15">
         <v>17</v>
@@ -7659,7 +7634,7 @@
         <v>71788</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J18" s="15">
         <v>114880</v>
@@ -7683,36 +7658,36 @@
         <v>25130</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S18" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="T18" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="U18" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="V18" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="T18" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="V18" s="17" t="s">
+      <c r="W18" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="X18" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y18" s="17" t="s">
         <v>544</v>
-      </c>
-      <c r="W18" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="X18" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y18" s="17" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
       <c r="A19" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="15">
         <v>18</v>
@@ -7736,7 +7711,7 @@
         <v>82356</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J19" s="15">
         <v>131840</v>
@@ -7760,36 +7735,36 @@
         <v>28825</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="S19" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="V19" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="T19" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="V19" s="17" t="s">
+      <c r="W19" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="X19" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y19" s="17" t="s">
         <v>547</v>
-      </c>
-      <c r="W19" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="X19" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y19" s="17" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
       <c r="A20" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="15">
         <v>19</v>
@@ -7813,7 +7788,7 @@
         <v>93764</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J20" s="15">
         <v>180100</v>
@@ -7837,36 +7812,36 @@
         <v>32820</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S20" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="U20" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="V20" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="T20" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="U20" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="V20" s="17" t="s">
+      <c r="W20" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y20" s="17" t="s">
         <v>550</v>
-      </c>
-      <c r="W20" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="X20" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="Y20" s="17" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
       <c r="A21" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="15">
         <v>20</v>
@@ -7890,7 +7865,7 @@
         <v>106040</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J21" s="12">
         <v>203620</v>
@@ -7914,36 +7889,36 @@
         <v>37120</v>
       </c>
       <c r="Q21" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S21" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="V21" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="T21" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="V21" s="17" t="s">
+      <c r="W21" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="X21" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y21" s="17" t="s">
         <v>553</v>
-      </c>
-      <c r="W21" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="X21" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y21" s="17" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
       <c r="A22" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" s="15">
         <v>21</v>
@@ -7967,7 +7942,7 @@
         <v>119220</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J22" s="12">
         <v>228960</v>
@@ -7991,36 +7966,36 @@
         <v>41730</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S22" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="T22" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="U22" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="V22" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="T22" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="V22" s="17" t="s">
+      <c r="W22" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="X22" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y22" s="17" t="s">
         <v>556</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="X22" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="Y22" s="17" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
       <c r="A23" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="15">
         <v>22</v>
@@ -8044,7 +8019,7 @@
         <v>133308</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J23" s="12">
         <v>256040</v>
@@ -8068,36 +8043,36 @@
         <v>46660</v>
       </c>
       <c r="Q23" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="T23" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="R23" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="S23" s="17" t="s">
+      <c r="U23" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="V23" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="T23" s="17" t="s">
+      <c r="W23" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="U23" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="V23" s="17" t="s">
+      <c r="X23" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y23" s="17" t="s">
         <v>559</v>
-      </c>
-      <c r="W23" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="X23" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y23" s="17" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
       <c r="A24" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="15">
         <v>23</v>
@@ -8121,7 +8096,7 @@
         <v>148320</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J24" s="12">
         <v>284840</v>
@@ -8145,36 +8120,36 @@
         <v>51915</v>
       </c>
       <c r="Q24" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S24" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="U24" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="V24" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="T24" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="V24" s="17" t="s">
+      <c r="W24" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="X24" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y24" s="17" t="s">
         <v>562</v>
-      </c>
-      <c r="W24" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="X24" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="Y24" s="17" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
       <c r="A25" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="15">
         <v>24</v>
@@ -8198,7 +8173,7 @@
         <v>164268</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J25" s="12">
         <v>315460</v>
@@ -8222,31 +8197,31 @@
         <v>57495</v>
       </c>
       <c r="Q25" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R25" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S25" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="U25" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="V25" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="T25" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="U25" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="V25" s="17" t="s">
+      <c r="W25" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="X25" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y25" s="17" t="s">
         <v>565</v>
-      </c>
-      <c r="W25" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="X25" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y25" s="17" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="20" customHeight="1">
@@ -8309,13 +8284,13 @@
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1">
         <v>10000</v>
@@ -8326,7 +8301,7 @@
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2">
         <v>20000</v>
@@ -8337,7 +8312,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2">
         <v>50000</v>
@@ -8348,7 +8323,7 @@
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="1">
         <v>100000</v>
@@ -8359,7 +8334,7 @@
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1">
         <v>200000</v>
@@ -8370,7 +8345,7 @@
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1">
         <v>300000</v>
@@ -8410,16 +8385,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="19" customFormat="1">
       <c r="A1" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>284</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>285</v>
       </c>
       <c r="F1" s="20"/>
     </row>
@@ -8428,13 +8403,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -8442,13 +8417,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -8456,13 +8431,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -8470,13 +8445,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -8484,13 +8459,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -8498,13 +8473,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -8512,13 +8487,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -8526,13 +8501,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -8540,13 +8515,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -8554,13 +8529,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -8568,13 +8543,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -8582,13 +8557,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -8596,13 +8571,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
@@ -8610,13 +8585,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
@@ -8624,13 +8599,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
@@ -8638,13 +8613,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
@@ -8652,13 +8627,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
@@ -8666,13 +8641,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
@@ -8680,13 +8655,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
@@ -8694,13 +8669,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
@@ -8708,13 +8683,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
@@ -8722,13 +8697,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
@@ -8736,13 +8711,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
@@ -8750,13 +8725,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30">
@@ -8764,13 +8739,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30">
@@ -8778,13 +8753,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30">
@@ -8792,13 +8767,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30">
@@ -8806,13 +8781,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30">
@@ -8820,13 +8795,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
@@ -8834,13 +8809,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30">
@@ -8848,13 +8823,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30">
@@ -8862,13 +8837,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
@@ -8876,13 +8851,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
@@ -8890,13 +8865,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30">
@@ -8904,13 +8879,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30">
@@ -8918,13 +8893,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -8932,13 +8907,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
@@ -8946,13 +8921,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -8960,13 +8935,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8974,13 +8949,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="1360" windowWidth="27000" windowHeight="18040" tabRatio="539" activeTab="2"/>
+    <workbookView xWindow="4500" yWindow="1340" windowWidth="27000" windowHeight="18040" tabRatio="539"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -4438,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4687,7 +4687,7 @@
         <v>288</v>
       </c>
       <c r="B22" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>289</v>
@@ -4793,8 +4793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="1340" windowWidth="27000" windowHeight="18040" tabRatio="539"/>
+    <workbookView xWindow="-24820" yWindow="0" windowWidth="27000" windowHeight="15760" tabRatio="539" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1234,106 +1234,7 @@
     <t>swordsman_2_80;lancer_2_40;catapult_2_20</t>
   </si>
   <si>
-    <t>sentinel_2_100;horseArcher_2_50;ballista_2_25</t>
-  </si>
-  <si>
-    <t>sentinel_2_130;horseArcher_2_65;ballista_2_33</t>
-  </si>
-  <si>
     <t>sentinel_2_150;horseArcher_2_75;ballista_2_38</t>
-  </si>
-  <si>
-    <t>ranger_2_200;swordsman_2_200;lancer_2_100</t>
-  </si>
-  <si>
-    <t>ranger_2_250;swordsman_2_250;lancer_2_125</t>
-  </si>
-  <si>
-    <t>ranger_2_300;swordsman_2_300;lancer_2_150</t>
-  </si>
-  <si>
-    <t>lancer_2_175;catapult_2_88;ranger_2_350</t>
-  </si>
-  <si>
-    <t>lancer_2_200;catapult_2_100;ranger_2_400</t>
-  </si>
-  <si>
-    <t>lancer_2_225;catapult_2_113;ranger_2_450</t>
-  </si>
-  <si>
-    <t>horseArcher_2_250;ballista_2_125;crossbowman_2_500</t>
-  </si>
-  <si>
-    <t>horseArcher_2_300;ballista_2_150;crossbowman_2_600</t>
-  </si>
-  <si>
-    <t>horseArcher_2_350;ballista_2_175;crossbowman_2_700</t>
-  </si>
-  <si>
-    <t>catapult_2_200;swordsman_2_800;horseArcher_2_400</t>
-  </si>
-  <si>
-    <t>catapult_2_225;swordsman_2_900;horseArcher_2_450</t>
-  </si>
-  <si>
-    <t>catapult_2_258;swordsman_2_1030;horseArcher_2_515</t>
-  </si>
-  <si>
-    <t>ballista_2_290;sentinel_2_1160;lancer_2_580</t>
-  </si>
-  <si>
-    <t>ballista_2_325;sentinel_2_1300;lancer_2_650</t>
-  </si>
-  <si>
-    <t>ballista_2_363;sentinel_2_1450;lancer_2_725</t>
-  </si>
-  <si>
-    <t>swordsman_3_1070;lancer_3_535;ballista_3_268</t>
-  </si>
-  <si>
-    <t>swordsman_3_1180;lancer_3_590;ballista_3_295</t>
-  </si>
-  <si>
-    <t>sentinel_3_1380;horseArcher_3_690;catapult_3_345</t>
-  </si>
-  <si>
-    <t>sentinel_3_1590;horseArcher_3_795;catapult_3_398</t>
-  </si>
-  <si>
-    <t>ranger_3_1810;catapult_3_453;horseArcher_3_905</t>
-  </si>
-  <si>
-    <t>ranger_3_2050;catapult_3_513;horseArcher_3_1025</t>
-  </si>
-  <si>
-    <t>crossbowman_3_2300;ballista_3_575;lancer_3_1150</t>
-  </si>
-  <si>
-    <t>crossbowman_3_2580;ballista_3_645;lancer_3_1290</t>
-  </si>
-  <si>
-    <t>lancer_3_1435;swordsman_3_2870;crossbowman_3_2870</t>
-  </si>
-  <si>
-    <t>lancer_3_1590;swordsman_3_3180;crossbowman_3_3180</t>
-  </si>
-  <si>
-    <t>horseArcher_3_1765;sentinel_3_3530;ranger_3_3530</t>
-  </si>
-  <si>
-    <t>horseArcher_3_1945;sentinel_3_3890;ranger_3_3890</t>
-  </si>
-  <si>
-    <t>catapult_3_1133;lancer_3_2265;swordsman_3_4530</t>
-  </si>
-  <si>
-    <t>ballista_3_1305;horseArcher_3_2610;sentinel_3_5220</t>
-  </si>
-  <si>
-    <t>ballista_3_1493;lancer_3_2985;swordsman_3_5970</t>
-  </si>
-  <si>
-    <t>catapult_3_1703;horseArcher_3_3405;sentinel_3_6810</t>
   </si>
   <si>
     <t>士兵战斗受伤士兵基础百分比</t>
@@ -2044,6 +1945,105 @@
   <si>
     <t>bigMapLength</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2_120;horseArcher_2_60;ballista_2_30</t>
+  </si>
+  <si>
+    <t>sentinel_2_190;horseArcher_2_95;ballista_2_48</t>
+  </si>
+  <si>
+    <t>ranger_2_260;swordsman_2_260;lancer_2_130</t>
+  </si>
+  <si>
+    <t>ranger_2_330;swordsman_2_330;lancer_2_165</t>
+  </si>
+  <si>
+    <t>ranger_2_410;swordsman_2_410;lancer_2_205</t>
+  </si>
+  <si>
+    <t>lancer_2_250;catapult_2_125;ranger_2_500</t>
+  </si>
+  <si>
+    <t>lancer_2_295;catapult_2_148;ranger_2_590</t>
+  </si>
+  <si>
+    <t>lancer_2_340;catapult_2_170;ranger_2_680</t>
+  </si>
+  <si>
+    <t>horseArcher_2_390;ballista_2_195;crossbowman_2_780</t>
+  </si>
+  <si>
+    <t>horseArcher_2_485;ballista_2_243;crossbowman_2_970</t>
+  </si>
+  <si>
+    <t>horseArcher_2_580;ballista_2_290;crossbowman_2_1160</t>
+  </si>
+  <si>
+    <t>catapult_2_343;swordsman_2_1370;horseArcher_2_685</t>
+  </si>
+  <si>
+    <t>catapult_2_395;swordsman_2_1580;horseArcher_2_790</t>
+  </si>
+  <si>
+    <t>catapult_2_463;swordsman_2_1850;horseArcher_2_925</t>
+  </si>
+  <si>
+    <t>ballista_2_538;sentinel_2_2150;lancer_2_1075</t>
+  </si>
+  <si>
+    <t>ballista_2_618;sentinel_2_2470;lancer_2_1235</t>
+  </si>
+  <si>
+    <t>ballista_2_705;sentinel_2_2820;lancer_2_1410</t>
+  </si>
+  <si>
+    <t>swordsman_3_2140;lancer_3_1070;ballista_3_535</t>
+  </si>
+  <si>
+    <t>swordsman_3_2420;lancer_3_1210;ballista_3_605</t>
+  </si>
+  <si>
+    <t>sentinel_3_2890;horseArcher_3_1445;catapult_3_723</t>
+  </si>
+  <si>
+    <t>sentinel_3_3410;horseArcher_3_1705;catapult_3_853</t>
+  </si>
+  <si>
+    <t>ranger_3_3980;catapult_3_995;horseArcher_3_1990</t>
+  </si>
+  <si>
+    <t>ranger_3_4610;catapult_3_1153;horseArcher_3_2305</t>
+  </si>
+  <si>
+    <t>crossbowman_3_5290;ballista_3_1323;lancer_3_2645</t>
+  </si>
+  <si>
+    <t>crossbowman_3_6050;ballista_3_1513;lancer_3_3025</t>
+  </si>
+  <si>
+    <t>lancer_3_3440;swordsman_3_6880;crossbowman_3_6880</t>
+  </si>
+  <si>
+    <t>lancer_3_3895;swordsman_3_7790;crossbowman_3_7790</t>
+  </si>
+  <si>
+    <t>horseArcher_3_4405;sentinel_3_8810;ranger_3_8810</t>
+  </si>
+  <si>
+    <t>horseArcher_3_4960;sentinel_3_9920;ranger_3_9920</t>
+  </si>
+  <si>
+    <t>catapult_3_2940;lancer_3_5880;swordsman_3_11760</t>
+  </si>
+  <si>
+    <t>ballista_3_3455;horseArcher_3_6910;sentinel_3_13820</t>
+  </si>
+  <si>
+    <t>ballista_3_4030;lancer_3_8060;swordsman_3_16120</t>
+  </si>
+  <si>
+    <t>catapult_3_4678;horseArcher_3_9355;sentinel_3_18710</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2241,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="829">
+  <cellStyleXfs count="831">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2723,6 +2723,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3160,7 +3162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="829">
+  <cellStyles count="831">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3577,6 +3579,7 @@
     <cellStyle name="超链接" xfId="823" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="825" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="829" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3986,6 +3989,7 @@
     <cellStyle name="访问过的超链接" xfId="824" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="826" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="830" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4438,7 +4442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -4695,46 +4699,46 @@
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="B23" s="8">
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="B24" s="8">
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="B25" s="8">
         <v>360</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="B26" s="8">
         <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -4861,7 +4865,7 @@
         <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>35</v>
@@ -4873,7 +4877,7 @@
         <v>40</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20" customHeight="1">
@@ -6402,7 +6406,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
@@ -6432,7 +6436,7 @@
         <v>230</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>206</v>
@@ -6441,7 +6445,7 @@
         <v>260</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>218</v>
@@ -6450,7 +6454,7 @@
         <v>245</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
@@ -6479,7 +6483,7 @@
         <v>404</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="J3" s="15">
         <v>820</v>
@@ -6509,7 +6513,7 @@
         <v>231</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>207</v>
@@ -6518,7 +6522,7 @@
         <v>261</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="W3" s="17" t="s">
         <v>219</v>
@@ -6527,7 +6531,7 @@
         <v>246</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
@@ -6556,7 +6560,7 @@
         <v>1088</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="J4" s="15">
         <v>1080</v>
@@ -6586,7 +6590,7 @@
         <v>232</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T4" s="17" t="s">
         <v>208</v>
@@ -6595,7 +6599,7 @@
         <v>262</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>220</v>
@@ -6604,7 +6608,7 @@
         <v>247</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
@@ -6633,7 +6637,7 @@
         <v>2204</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="J5" s="15">
         <v>2160</v>
@@ -6663,7 +6667,7 @@
         <v>233</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="T5" s="17" t="s">
         <v>209</v>
@@ -6672,7 +6676,7 @@
         <v>263</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="W5" s="17" t="s">
         <v>221</v>
@@ -6681,7 +6685,7 @@
         <v>248</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
@@ -6710,7 +6714,7 @@
         <v>3788</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="J6" s="15">
         <v>3650</v>
@@ -6740,7 +6744,7 @@
         <v>234</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="T6" s="17" t="s">
         <v>210</v>
@@ -6749,7 +6753,7 @@
         <v>264</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>222</v>
@@ -6758,7 +6762,7 @@
         <v>249</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
@@ -6787,7 +6791,7 @@
         <v>5876</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="J7" s="15">
         <v>5670</v>
@@ -6817,7 +6821,7 @@
         <v>235</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="T7" s="17" t="s">
         <v>211</v>
@@ -6826,7 +6830,7 @@
         <v>265</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>223</v>
@@ -6835,7 +6839,7 @@
         <v>250</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
@@ -6864,7 +6868,7 @@
         <v>8520</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="J8" s="15">
         <v>10950</v>
@@ -6888,31 +6892,31 @@
         <v>2985</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
@@ -6941,7 +6945,7 @@
         <v>11752</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="J9" s="15">
         <v>15110</v>
@@ -6971,7 +6975,7 @@
         <v>236</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="T9" s="17" t="s">
         <v>212</v>
@@ -6980,7 +6984,7 @@
         <v>266</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>224</v>
@@ -6989,7 +6993,7 @@
         <v>251</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
@@ -7018,7 +7022,7 @@
         <v>15600</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="J10" s="15">
         <v>19970</v>
@@ -7042,31 +7046,31 @@
         <v>5460</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
@@ -7095,7 +7099,7 @@
         <v>20072</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="J11" s="15">
         <v>25730</v>
@@ -7125,7 +7129,7 @@
         <v>237</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="T11" s="17" t="s">
         <v>151</v>
@@ -7134,7 +7138,7 @@
         <v>267</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="W11" s="17" t="s">
         <v>152</v>
@@ -7143,7 +7147,7 @@
         <v>252</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
@@ -7172,7 +7176,7 @@
         <v>25240</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="J12" s="15">
         <v>32320</v>
@@ -7196,31 +7200,31 @@
         <v>8840</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="X12" s="17" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
@@ -7249,7 +7253,7 @@
         <v>31112</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="J13" s="15">
         <v>39880</v>
@@ -7279,7 +7283,7 @@
         <v>238</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="T13" s="17" t="s">
         <v>213</v>
@@ -7288,7 +7292,7 @@
         <v>268</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="W13" s="17" t="s">
         <v>225</v>
@@ -7297,7 +7301,7 @@
         <v>253</v>
       </c>
       <c r="Y13" s="17" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
@@ -7326,7 +7330,7 @@
         <v>37700</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="J14" s="15">
         <v>60320</v>
@@ -7350,31 +7354,31 @@
         <v>13200</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
@@ -7403,7 +7407,7 @@
         <v>45044</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="J15" s="15">
         <v>72080</v>
@@ -7433,7 +7437,7 @@
         <v>239</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="T15" s="17" t="s">
         <v>214</v>
@@ -7442,7 +7446,7 @@
         <v>269</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>226</v>
@@ -7451,7 +7455,7 @@
         <v>254</v>
       </c>
       <c r="Y15" s="17" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
@@ -7480,7 +7484,7 @@
         <v>53160</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="J16" s="15">
         <v>85120</v>
@@ -7504,31 +7508,31 @@
         <v>18610</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
@@ -7557,7 +7561,7 @@
         <v>62080</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="J17" s="15">
         <v>99360</v>
@@ -7587,7 +7591,7 @@
         <v>240</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="T17" s="17" t="s">
         <v>155</v>
@@ -7596,7 +7600,7 @@
         <v>270</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="W17" s="17" t="s">
         <v>156</v>
@@ -7605,7 +7609,7 @@
         <v>255</v>
       </c>
       <c r="Y17" s="17" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
@@ -7634,7 +7638,7 @@
         <v>71788</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="J18" s="15">
         <v>114880</v>
@@ -7658,31 +7662,31 @@
         <v>25130</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="U18" s="17" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
@@ -7711,7 +7715,7 @@
         <v>82356</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="J19" s="15">
         <v>131840</v>
@@ -7741,7 +7745,7 @@
         <v>241</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="T19" s="17" t="s">
         <v>215</v>
@@ -7750,7 +7754,7 @@
         <v>271</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="W19" s="17" t="s">
         <v>227</v>
@@ -7759,7 +7763,7 @@
         <v>256</v>
       </c>
       <c r="Y19" s="17" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
@@ -7788,7 +7792,7 @@
         <v>93764</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="J20" s="15">
         <v>180100</v>
@@ -7812,31 +7816,31 @@
         <v>32820</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="U20" s="17" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="X20" s="17" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
@@ -7865,7 +7869,7 @@
         <v>106040</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="J21" s="12">
         <v>203620</v>
@@ -7895,7 +7899,7 @@
         <v>242</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="T21" s="17" t="s">
         <v>216</v>
@@ -7904,7 +7908,7 @@
         <v>272</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="W21" s="17" t="s">
         <v>228</v>
@@ -7913,7 +7917,7 @@
         <v>257</v>
       </c>
       <c r="Y21" s="17" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
@@ -7942,7 +7946,7 @@
         <v>119220</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="J22" s="12">
         <v>228960</v>
@@ -7966,31 +7970,31 @@
         <v>41730</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="U22" s="17" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="X22" s="17" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="Y22" s="17" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
@@ -8019,7 +8023,7 @@
         <v>133308</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="J23" s="12">
         <v>256040</v>
@@ -8049,7 +8053,7 @@
         <v>243</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="T23" s="17" t="s">
         <v>159</v>
@@ -8058,7 +8062,7 @@
         <v>273</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="W23" s="17" t="s">
         <v>160</v>
@@ -8067,7 +8071,7 @@
         <v>258</v>
       </c>
       <c r="Y23" s="17" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
@@ -8096,7 +8100,7 @@
         <v>148320</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="J24" s="12">
         <v>284840</v>
@@ -8120,31 +8124,31 @@
         <v>51915</v>
       </c>
       <c r="Q24" s="22" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="X24" s="17" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
@@ -8173,7 +8177,7 @@
         <v>164268</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="J25" s="12">
         <v>315460</v>
@@ -8203,7 +8207,7 @@
         <v>244</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>217</v>
@@ -8212,7 +8216,7 @@
         <v>274</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="W25" s="17" t="s">
         <v>229</v>
@@ -8221,7 +8225,7 @@
         <v>259</v>
       </c>
       <c r="Y25" s="17" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="20" customHeight="1">
@@ -8370,15 +8374,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="21"/>
     <col min="2" max="2" width="20" style="21" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="59.5" style="21" customWidth="1"/>
     <col min="4" max="4" width="140.6640625" style="21" customWidth="1"/>
     <col min="5" max="16384" width="20.6640625" style="21"/>
   </cols>
@@ -8409,7 +8413,7 @@
         <v>331</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -8423,7 +8427,7 @@
         <v>331</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
@@ -8437,7 +8441,7 @@
         <v>331</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
@@ -8451,7 +8455,7 @@
         <v>332</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
@@ -8465,7 +8469,7 @@
         <v>332</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -8479,7 +8483,7 @@
         <v>333</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
@@ -8490,10 +8494,10 @@
         <v>296</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>334</v>
+        <v>535</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30">
@@ -8504,10 +8508,10 @@
         <v>297</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30">
@@ -8518,10 +8522,10 @@
         <v>298</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>336</v>
+        <v>536</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -8532,10 +8536,10 @@
         <v>299</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>337</v>
+        <v>537</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -8546,10 +8550,10 @@
         <v>300</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>338</v>
+        <v>538</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -8559,11 +8563,11 @@
       <c r="B13" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>339</v>
+      <c r="C13" s="21" t="s">
+        <v>539</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
@@ -8574,10 +8578,10 @@
         <v>302</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
@@ -8587,11 +8591,11 @@
       <c r="B15" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>341</v>
+      <c r="C15" s="15" t="s">
+        <v>541</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
@@ -8602,10 +8606,10 @@
         <v>304</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>342</v>
+        <v>542</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
@@ -8616,10 +8620,10 @@
         <v>305</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>343</v>
+        <v>543</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30">
@@ -8630,10 +8634,10 @@
         <v>306</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>344</v>
+        <v>544</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
@@ -8644,10 +8648,10 @@
         <v>307</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>345</v>
+        <v>545</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30">
@@ -8658,10 +8662,10 @@
         <v>308</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>346</v>
+        <v>546</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
@@ -8672,10 +8676,10 @@
         <v>309</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>347</v>
+        <v>547</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
@@ -8686,10 +8690,10 @@
         <v>310</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>348</v>
+        <v>548</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
@@ -8700,10 +8704,10 @@
         <v>311</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>349</v>
+        <v>549</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
@@ -8714,10 +8718,10 @@
         <v>312</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
@@ -8728,10 +8732,10 @@
         <v>313</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>351</v>
+        <v>551</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30">
@@ -8742,10 +8746,10 @@
         <v>314</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>352</v>
+        <v>552</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30">
@@ -8756,10 +8760,10 @@
         <v>315</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>353</v>
+        <v>553</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30">
@@ -8770,10 +8774,10 @@
         <v>316</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>354</v>
+        <v>554</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30">
@@ -8784,10 +8788,10 @@
         <v>317</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>355</v>
+        <v>555</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="30">
@@ -8798,10 +8802,10 @@
         <v>318</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>356</v>
+        <v>556</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30">
@@ -8812,10 +8816,10 @@
         <v>319</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>357</v>
+        <v>557</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30">
@@ -8826,10 +8830,10 @@
         <v>320</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>358</v>
+        <v>558</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30">
@@ -8840,10 +8844,10 @@
         <v>321</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>359</v>
+        <v>559</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
@@ -8854,10 +8858,10 @@
         <v>322</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>360</v>
+        <v>560</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
@@ -8867,11 +8871,11 @@
       <c r="B35" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>361</v>
+      <c r="C35" s="21" t="s">
+        <v>561</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30">
@@ -8882,10 +8886,10 @@
         <v>324</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>362</v>
+        <v>562</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30">
@@ -8896,10 +8900,10 @@
         <v>325</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>363</v>
+        <v>563</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -8910,10 +8914,10 @@
         <v>326</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>364</v>
+        <v>564</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
@@ -8924,10 +8928,10 @@
         <v>327</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>365</v>
+        <v>565</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -8938,10 +8942,10 @@
         <v>328</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>366</v>
+        <v>566</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8952,10 +8956,10 @@
         <v>329</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>367</v>
+        <v>567</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24820" yWindow="0" windowWidth="27000" windowHeight="15760" tabRatio="539" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="27000" windowHeight="15760" tabRatio="539" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="571">
   <si>
     <t>true</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -1223,18 +1223,6 @@
   <si>
     <t>STR_soldiers</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_2_50;sentinel_2_50;horseArcher_2_25</t>
-  </si>
-  <si>
-    <t>swordsman_2_50;lancer_2_25;catapult_2_13</t>
-  </si>
-  <si>
-    <t>swordsman_2_80;lancer_2_40;catapult_2_20</t>
-  </si>
-  <si>
-    <t>sentinel_2_150;horseArcher_2_75;ballista_2_38</t>
   </si>
   <si>
     <t>士兵战斗受伤士兵基础百分比</t>
@@ -1947,103 +1935,124 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>sentinel_2_120;horseArcher_2_60;ballista_2_30</t>
-  </si>
-  <si>
-    <t>sentinel_2_190;horseArcher_2_95;ballista_2_48</t>
-  </si>
-  <si>
-    <t>ranger_2_260;swordsman_2_260;lancer_2_130</t>
-  </si>
-  <si>
-    <t>ranger_2_330;swordsman_2_330;lancer_2_165</t>
-  </si>
-  <si>
-    <t>ranger_2_410;swordsman_2_410;lancer_2_205</t>
-  </si>
-  <si>
-    <t>lancer_2_250;catapult_2_125;ranger_2_500</t>
-  </si>
-  <si>
-    <t>lancer_2_295;catapult_2_148;ranger_2_590</t>
-  </si>
-  <si>
-    <t>lancer_2_340;catapult_2_170;ranger_2_680</t>
-  </si>
-  <si>
-    <t>horseArcher_2_390;ballista_2_195;crossbowman_2_780</t>
-  </si>
-  <si>
-    <t>horseArcher_2_485;ballista_2_243;crossbowman_2_970</t>
-  </si>
-  <si>
-    <t>horseArcher_2_580;ballista_2_290;crossbowman_2_1160</t>
-  </si>
-  <si>
-    <t>catapult_2_343;swordsman_2_1370;horseArcher_2_685</t>
-  </si>
-  <si>
-    <t>catapult_2_395;swordsman_2_1580;horseArcher_2_790</t>
-  </si>
-  <si>
-    <t>catapult_2_463;swordsman_2_1850;horseArcher_2_925</t>
-  </si>
-  <si>
-    <t>ballista_2_538;sentinel_2_2150;lancer_2_1075</t>
-  </si>
-  <si>
-    <t>ballista_2_618;sentinel_2_2470;lancer_2_1235</t>
-  </si>
-  <si>
-    <t>ballista_2_705;sentinel_2_2820;lancer_2_1410</t>
-  </si>
-  <si>
-    <t>swordsman_3_2140;lancer_3_1070;ballista_3_535</t>
-  </si>
-  <si>
-    <t>swordsman_3_2420;lancer_3_1210;ballista_3_605</t>
-  </si>
-  <si>
-    <t>sentinel_3_2890;horseArcher_3_1445;catapult_3_723</t>
-  </si>
-  <si>
-    <t>sentinel_3_3410;horseArcher_3_1705;catapult_3_853</t>
-  </si>
-  <si>
-    <t>ranger_3_3980;catapult_3_995;horseArcher_3_1990</t>
-  </si>
-  <si>
-    <t>ranger_3_4610;catapult_3_1153;horseArcher_3_2305</t>
-  </si>
-  <si>
-    <t>crossbowman_3_5290;ballista_3_1323;lancer_3_2645</t>
-  </si>
-  <si>
-    <t>crossbowman_3_6050;ballista_3_1513;lancer_3_3025</t>
-  </si>
-  <si>
-    <t>lancer_3_3440;swordsman_3_6880;crossbowman_3_6880</t>
-  </si>
-  <si>
-    <t>lancer_3_3895;swordsman_3_7790;crossbowman_3_7790</t>
-  </si>
-  <si>
-    <t>horseArcher_3_4405;sentinel_3_8810;ranger_3_8810</t>
-  </si>
-  <si>
-    <t>horseArcher_3_4960;sentinel_3_9920;ranger_3_9920</t>
-  </si>
-  <si>
-    <t>catapult_3_2940;lancer_3_5880;swordsman_3_11760</t>
-  </si>
-  <si>
-    <t>ballista_3_3455;horseArcher_3_6910;sentinel_3_13820</t>
-  </si>
-  <si>
-    <t>ballista_3_4030;lancer_3_8060;swordsman_3_16120</t>
-  </si>
-  <si>
-    <t>catapult_3_4678;horseArcher_3_9355;sentinel_3_18710</t>
+    <t>crossbowman_2_20,ballista_2_4,catapult_2_3;sentinel_2_20,lancer_2_8,horseArcher_2_5;horseArcher_2_10,catapult_2_4,sentinel_2_10</t>
+  </si>
+  <si>
+    <t>crossbowman_2_30,ballista_2_6,catapult_2_4;sentinel_2_30,lancer_2_12,horseArcher_2_8;horseArcher_2_15,catapult_2_6,sentinel_2_15</t>
+  </si>
+  <si>
+    <t>crossbowman_2_40,ballista_2_8,catapult_2_5;sentinel_2_40,lancer_2_15,horseArcher_2_10;horseArcher_2_20,catapult_2_8,sentinel_2_20</t>
+  </si>
+  <si>
+    <t>swordsman_2_50,crossbowman_2_38,ballista_2_7;lancer_2_25,horseArcher_2_19,swordsman_2_25;catapult_2_13,ballista_2_10,lancer_2_13</t>
+  </si>
+  <si>
+    <t>swordsman_2_60,crossbowman_2_45,ballista_2_8;lancer_2_30,horseArcher_2_23,swordsman_2_30;catapult_2_15,ballista_2_12,lancer_2_15</t>
+  </si>
+  <si>
+    <t>swordsman_2_90,crossbowman_2_68,ballista_2_12;lancer_2_45,horseArcher_2_34,swordsman_2_45;catapult_2_23,ballista_2_17,lancer_2_23</t>
+  </si>
+  <si>
+    <t>sentinel_2_120,swordsman_2_90,crossbowman_2_60;horseArcher_2_60,swordsman_2_90,catapult_2_15;ballista_2_30,lancer_2_45,horseArcher_2_30</t>
+  </si>
+  <si>
+    <t>sentinel_2_150,swordsman_2_113,crossbowman_2_75;horseArcher_2_75,swordsman_2_113,catapult_2_19;ballista_2_38,lancer_2_57,horseArcher_2_38</t>
+  </si>
+  <si>
+    <t>sentinel_2_180,swordsman_2_135,crossbowman_2_90;horseArcher_2_90,swordsman_2_135,catapult_2_23;ballista_2_45,lancer_2_68,horseArcher_2_45</t>
+  </si>
+  <si>
+    <t>ranger_2_240,sentinel_2_180,swordsman_2_120;swordsman_2_240,catapult_2_45,ballista_2_30;lancer_2_120,ranger_2_180,swordsman_2_120</t>
+  </si>
+  <si>
+    <t>ranger_2_290,sentinel_2_218,swordsman_2_145;swordsman_2_290,catapult_2_55,ballista_2_37;lancer_2_145,ranger_2_218,swordsman_2_145</t>
+  </si>
+  <si>
+    <t>ranger_2_350,sentinel_2_263,swordsman_2_175;swordsman_2_350,catapult_2_66,ballista_2_44;lancer_2_175,ranger_2_263,swordsman_2_175</t>
+  </si>
+  <si>
+    <t>lancer_2_205,ranger_2_308,sentinel_2_205;catapult_2_103,ballista_2_77,swordsman_2_205;ranger_2_410,crossbowman_2_308,catapult_2_52</t>
+  </si>
+  <si>
+    <t>lancer_2_235,ranger_2_353,sentinel_2_235;catapult_2_118,ballista_2_89,swordsman_2_235;ranger_2_470,crossbowman_2_353,catapult_2_59</t>
+  </si>
+  <si>
+    <t>lancer_2_270,ranger_2_405,sentinel_2_270;catapult_2_135,ballista_2_102,swordsman_2_270;ranger_2_540,crossbowman_2_405,catapult_2_68</t>
+  </si>
+  <si>
+    <t>horseArcher_2_245,lancer_2_184,ranger_2_245;ballista_2_123,swordsman_2_368,sentinel_2_245;crossbowman_2_490,horseArcher_2_184,ballista_2_62</t>
+  </si>
+  <si>
+    <t>horseArcher_2_365,lancer_2_274,ranger_2_365;ballista_2_183,swordsman_2_548,sentinel_2_365;crossbowman_2_730,horseArcher_2_274,ballista_2_92</t>
+  </si>
+  <si>
+    <t>horseArcher_2_430,lancer_2_323,ranger_2_430;ballista_2_215,swordsman_2_645,sentinel_2_430;crossbowman_2_860,horseArcher_2_323,ballista_2_108</t>
+  </si>
+  <si>
+    <t>catapult_2_248,horseArcher_2_372,lancer_2_248;swordsman_2_990,sentinel_2_743,ranger_2_495;horseArcher_2_495,lancer_2_372,swordsman_2_495</t>
+  </si>
+  <si>
+    <t>catapult_2_283,horseArcher_2_424,lancer_2_283;swordsman_2_1130,sentinel_2_848,ranger_2_565;horseArcher_2_565,lancer_2_424,swordsman_2_565</t>
+  </si>
+  <si>
+    <t>catapult_2_325,horseArcher_2_488,lancer_2_325;swordsman_2_1300,sentinel_2_975,ranger_2_650;horseArcher_2_650,lancer_2_488,swordsman_2_650</t>
+  </si>
+  <si>
+    <t>ballista_2_373,catapult_2_280,horseArcher_2_373;sentinel_2_1490,ranger_2_1118,lancer_2_373;lancer_2_745,crossbowman_2_1118,sentinel_2_745</t>
+  </si>
+  <si>
+    <t>ballista_2_423,catapult_2_317,horseArcher_2_423;sentinel_2_1690,ranger_2_1268,lancer_2_423;lancer_2_845,crossbowman_2_1268,sentinel_2_845</t>
+  </si>
+  <si>
+    <t>ballista_2_480,catapult_2_360,horseArcher_2_480;sentinel_2_1920,ranger_2_1440,lancer_2_480;lancer_2_960,crossbowman_2_1440,sentinel_2_960</t>
+  </si>
+  <si>
+    <t>swordsman_3_1520,sentinel_3_1140,ranger_3_760;lancer_3_760,horseArcher_3_570,catapult_3_190;ballista_3_380,swordsman_3_1140,horseArcher_3_380</t>
+  </si>
+  <si>
+    <t>swordsman_3_1690,sentinel_3_1268,ranger_3_845;lancer_3_845,horseArcher_3_634,catapult_3_212;ballista_3_423,swordsman_3_1268,horseArcher_3_423</t>
+  </si>
+  <si>
+    <t>sentinel_3_1990,ranger_3_1493,crossbowman_3_995;horseArcher_3_995,catapult_3_374,ballista_3_249;catapult_3_498,sentinel_3_1493,swordsman_3_995</t>
+  </si>
+  <si>
+    <t>sentinel_3_2310,ranger_3_1733,crossbowman_3_1155;horseArcher_3_1155,catapult_3_434,ballista_3_289;catapult_3_578,sentinel_3_1733,swordsman_3_1155</t>
+  </si>
+  <si>
+    <t>ranger_3_2660,crossbowman_3_1995,lancer_3_665;catapult_3_665,ballista_3_499,swordsman_3_1330;horseArcher_3_1330,ranger_3_1995,sentinel_3_1330</t>
+  </si>
+  <si>
+    <t>ranger_3_3050,crossbowman_3_2288,lancer_3_763;catapult_3_763,ballista_3_572,swordsman_3_1525;horseArcher_3_1525,ranger_3_2288,sentinel_3_1525</t>
+  </si>
+  <si>
+    <t>crossbowman_3_3470,lancer_3_1302,horseArcher_3_868;ballista_3_868,swordsman_3_2603,sentinel_3_1735;lancer_3_1735,crossbowman_3_2603,sentinel_3_1735</t>
+  </si>
+  <si>
+    <t>crossbowman_3_3930,lancer_3_1474,horseArcher_3_983;ballista_3_983,swordsman_3_2948,sentinel_3_1965;lancer_3_1965,crossbowman_3_2948,catapult_3_492</t>
+  </si>
+  <si>
+    <t>lancer_3_2220,horseArcher_3_1665,catapult_3_555;swordsman_3_4440,sentinel_3_3330,lancer_3_1110;crossbowman_3_4440,lancer_3_1665,ballista_3_555</t>
+  </si>
+  <si>
+    <t>lancer_3_2500,horseArcher_3_1875,ballista_3_625;swordsman_3_5000,sentinel_3_3750,horseArcher_3_1250;crossbowman_3_5000,lancer_3_1875,swordsman_3_2500</t>
+  </si>
+  <si>
+    <t>horseArcher_3_2810,catapult_3_1054,ballista_3_703;sentinel_3_5620,lancer_3_2108,ranger_3_1405;ranger_3_5620,horseArcher_3_2108,sentinel_3_2810</t>
+  </si>
+  <si>
+    <t>horseArcher_3_3150,ballista_3_1182,catapult_3_788;sentinel_3_6300,horseArcher_3_1575,catapult_3_788;ranger_3_6300,horseArcher_3_2363,catapult_3_788</t>
+  </si>
+  <si>
+    <t>catapult_3_1853,ballista_3_1390,sentinel_3_3705;lancer_3_3705,sentinel_3_3705,ballista_3_927;swordsman_3_7410,catapult_3_1390,lancer_3_1853</t>
+  </si>
+  <si>
+    <t>ballista_3_2163,catapult_3_1622,sentinel_3_4325;horseArcher_3_4325,catapult_3_1082,ranger_3_2163;sentinel_3_8650,ballista_3_1622,horseArcher_3_2163</t>
+  </si>
+  <si>
+    <t>ballista_3_2510,swordsman_3_7530,ranger_3_5020;lancer_3_5020,ballista_3_1255,crossbowman_3_5020;swordsman_3_10040,ranger_3_7530,ballista_3_1255</t>
+  </si>
+  <si>
+    <t>catapult_3_2903,swordsman_3_8708,ranger_3_5805;horseArcher_3_5805,crossbowman_3_5805,catapult_3_1452;sentinel_3_11610,lancer_3_4354,catapult_3_1452</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="831">
+  <cellStyleXfs count="833">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2723,6 +2732,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3162,7 +3173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="831">
+  <cellStyles count="833">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3580,6 +3591,7 @@
     <cellStyle name="超链接" xfId="825" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="827" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="831" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3990,6 +4002,7 @@
     <cellStyle name="访问过的超链接" xfId="826" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="828" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="832" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4699,46 +4712,46 @@
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B23" s="8">
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B24" s="8">
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B25" s="8">
         <v>360</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B26" s="8">
         <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -4865,7 +4878,7 @@
         <v>32</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>35</v>
@@ -4877,7 +4890,7 @@
         <v>40</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="20" customHeight="1">
@@ -6406,7 +6419,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J2" s="15">
         <v>200</v>
@@ -6436,7 +6449,7 @@
         <v>230</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>206</v>
@@ -6445,7 +6458,7 @@
         <v>260</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>218</v>
@@ -6454,7 +6467,7 @@
         <v>245</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45">
@@ -6483,7 +6496,7 @@
         <v>404</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J3" s="15">
         <v>820</v>
@@ -6513,7 +6526,7 @@
         <v>231</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>207</v>
@@ -6522,7 +6535,7 @@
         <v>261</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="W3" s="17" t="s">
         <v>219</v>
@@ -6531,7 +6544,7 @@
         <v>246</v>
       </c>
       <c r="Y3" s="17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="45">
@@ -6560,7 +6573,7 @@
         <v>1088</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J4" s="15">
         <v>1080</v>
@@ -6590,7 +6603,7 @@
         <v>232</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="T4" s="17" t="s">
         <v>208</v>
@@ -6599,7 +6612,7 @@
         <v>262</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>220</v>
@@ -6608,7 +6621,7 @@
         <v>247</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="45">
@@ -6637,7 +6650,7 @@
         <v>2204</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J5" s="15">
         <v>2160</v>
@@ -6667,7 +6680,7 @@
         <v>233</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="T5" s="17" t="s">
         <v>209</v>
@@ -6676,7 +6689,7 @@
         <v>263</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="W5" s="17" t="s">
         <v>221</v>
@@ -6685,7 +6698,7 @@
         <v>248</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="45">
@@ -6714,7 +6727,7 @@
         <v>3788</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J6" s="15">
         <v>3650</v>
@@ -6744,7 +6757,7 @@
         <v>234</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="T6" s="17" t="s">
         <v>210</v>
@@ -6753,7 +6766,7 @@
         <v>264</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="W6" s="17" t="s">
         <v>222</v>
@@ -6762,7 +6775,7 @@
         <v>249</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="45">
@@ -6791,7 +6804,7 @@
         <v>5876</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J7" s="15">
         <v>5670</v>
@@ -6821,7 +6834,7 @@
         <v>235</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="T7" s="17" t="s">
         <v>211</v>
@@ -6830,7 +6843,7 @@
         <v>265</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="W7" s="17" t="s">
         <v>223</v>
@@ -6839,7 +6852,7 @@
         <v>250</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="45">
@@ -6868,7 +6881,7 @@
         <v>8520</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J8" s="15">
         <v>10950</v>
@@ -6892,31 +6905,31 @@
         <v>2985</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="X8" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="45">
@@ -6945,7 +6958,7 @@
         <v>11752</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J9" s="15">
         <v>15110</v>
@@ -6975,7 +6988,7 @@
         <v>236</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="T9" s="17" t="s">
         <v>212</v>
@@ -6984,7 +6997,7 @@
         <v>266</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>224</v>
@@ -6993,7 +7006,7 @@
         <v>251</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="45">
@@ -7022,7 +7035,7 @@
         <v>15600</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J10" s="15">
         <v>19970</v>
@@ -7046,31 +7059,31 @@
         <v>5460</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="45">
@@ -7099,7 +7112,7 @@
         <v>20072</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J11" s="15">
         <v>25730</v>
@@ -7129,7 +7142,7 @@
         <v>237</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="T11" s="17" t="s">
         <v>151</v>
@@ -7138,7 +7151,7 @@
         <v>267</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="W11" s="17" t="s">
         <v>152</v>
@@ -7147,7 +7160,7 @@
         <v>252</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45">
@@ -7176,7 +7189,7 @@
         <v>25240</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J12" s="15">
         <v>32320</v>
@@ -7200,31 +7213,31 @@
         <v>8840</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="X12" s="17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="45">
@@ -7253,7 +7266,7 @@
         <v>31112</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J13" s="15">
         <v>39880</v>
@@ -7283,7 +7296,7 @@
         <v>238</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="T13" s="17" t="s">
         <v>213</v>
@@ -7292,7 +7305,7 @@
         <v>268</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="W13" s="17" t="s">
         <v>225</v>
@@ -7301,7 +7314,7 @@
         <v>253</v>
       </c>
       <c r="Y13" s="17" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45">
@@ -7330,7 +7343,7 @@
         <v>37700</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J14" s="15">
         <v>60320</v>
@@ -7354,31 +7367,31 @@
         <v>13200</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="X14" s="17" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="45">
@@ -7407,7 +7420,7 @@
         <v>45044</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J15" s="15">
         <v>72080</v>
@@ -7437,7 +7450,7 @@
         <v>239</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="T15" s="17" t="s">
         <v>214</v>
@@ -7446,7 +7459,7 @@
         <v>269</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>226</v>
@@ -7455,7 +7468,7 @@
         <v>254</v>
       </c>
       <c r="Y15" s="17" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="45">
@@ -7484,7 +7497,7 @@
         <v>53160</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J16" s="15">
         <v>85120</v>
@@ -7508,31 +7521,31 @@
         <v>18610</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="W16" s="17" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="X16" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="45">
@@ -7561,7 +7574,7 @@
         <v>62080</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="J17" s="15">
         <v>99360</v>
@@ -7591,7 +7604,7 @@
         <v>240</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="T17" s="17" t="s">
         <v>155</v>
@@ -7600,7 +7613,7 @@
         <v>270</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="W17" s="17" t="s">
         <v>156</v>
@@ -7609,7 +7622,7 @@
         <v>255</v>
       </c>
       <c r="Y17" s="17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="45">
@@ -7638,7 +7651,7 @@
         <v>71788</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="J18" s="15">
         <v>114880</v>
@@ -7662,31 +7675,31 @@
         <v>25130</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="U18" s="17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="X18" s="17" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="45">
@@ -7715,7 +7728,7 @@
         <v>82356</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J19" s="15">
         <v>131840</v>
@@ -7745,7 +7758,7 @@
         <v>241</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="T19" s="17" t="s">
         <v>215</v>
@@ -7754,7 +7767,7 @@
         <v>271</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="W19" s="17" t="s">
         <v>227</v>
@@ -7763,7 +7776,7 @@
         <v>256</v>
       </c>
       <c r="Y19" s="17" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="45">
@@ -7792,7 +7805,7 @@
         <v>93764</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J20" s="15">
         <v>180100</v>
@@ -7816,31 +7829,31 @@
         <v>32820</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="U20" s="17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="W20" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="X20" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="45">
@@ -7869,7 +7882,7 @@
         <v>106040</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J21" s="12">
         <v>203620</v>
@@ -7899,7 +7912,7 @@
         <v>242</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="T21" s="17" t="s">
         <v>216</v>
@@ -7908,7 +7921,7 @@
         <v>272</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="W21" s="17" t="s">
         <v>228</v>
@@ -7917,7 +7930,7 @@
         <v>257</v>
       </c>
       <c r="Y21" s="17" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="45">
@@ -7946,7 +7959,7 @@
         <v>119220</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J22" s="12">
         <v>228960</v>
@@ -7970,31 +7983,31 @@
         <v>41730</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="U22" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="X22" s="17" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Y22" s="17" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="45">
@@ -8023,7 +8036,7 @@
         <v>133308</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J23" s="12">
         <v>256040</v>
@@ -8053,7 +8066,7 @@
         <v>243</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="T23" s="17" t="s">
         <v>159</v>
@@ -8062,7 +8075,7 @@
         <v>273</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="W23" s="17" t="s">
         <v>160</v>
@@ -8071,7 +8084,7 @@
         <v>258</v>
       </c>
       <c r="Y23" s="17" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="45">
@@ -8100,7 +8113,7 @@
         <v>148320</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J24" s="12">
         <v>284840</v>
@@ -8124,31 +8137,31 @@
         <v>51915</v>
       </c>
       <c r="Q24" s="22" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="W24" s="17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="X24" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="45">
@@ -8177,7 +8190,7 @@
         <v>164268</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J25" s="12">
         <v>315460</v>
@@ -8207,7 +8220,7 @@
         <v>244</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>217</v>
@@ -8216,7 +8229,7 @@
         <v>274</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="W25" s="17" t="s">
         <v>229</v>
@@ -8225,7 +8238,7 @@
         <v>259</v>
       </c>
       <c r="Y25" s="17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="20" customHeight="1">
@@ -8374,8 +8387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8402,7 +8415,7 @@
       </c>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -8410,13 +8423,13 @@
         <v>290</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>331</v>
+        <v>531</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -8424,13 +8437,13 @@
         <v>291</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>331</v>
+        <v>532</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -8438,13 +8451,13 @@
         <v>292</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>331</v>
+        <v>533</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -8452,13 +8465,13 @@
         <v>293</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>332</v>
+        <v>534</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -8466,13 +8479,13 @@
         <v>294</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>332</v>
+        <v>535</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -8480,13 +8493,13 @@
         <v>295</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>333</v>
+        <v>536</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -8494,13 +8507,13 @@
         <v>296</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -8508,13 +8521,13 @@
         <v>297</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>334</v>
+        <v>538</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -8522,13 +8535,13 @@
         <v>298</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -8536,10 +8549,10 @@
         <v>299</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
@@ -8549,11 +8562,11 @@
       <c r="B12" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>538</v>
+      <c r="C12" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -8564,27 +8577,27 @@
         <v>301</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>540</v>
+      <c r="C14" s="15" t="s">
+        <v>543</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -8592,13 +8605,13 @@
         <v>303</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -8606,13 +8619,13 @@
         <v>304</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -8620,13 +8633,13 @@
         <v>305</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -8634,13 +8647,13 @@
         <v>306</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -8648,13 +8661,13 @@
         <v>307</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -8662,13 +8675,13 @@
         <v>308</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -8676,13 +8689,13 @@
         <v>309</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -8690,13 +8703,13 @@
         <v>310</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -8704,13 +8717,13 @@
         <v>311</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -8718,13 +8731,13 @@
         <v>312</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -8732,13 +8745,13 @@
         <v>313</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -8746,13 +8759,13 @@
         <v>314</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -8760,13 +8773,13 @@
         <v>315</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -8774,13 +8787,13 @@
         <v>316</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -8788,13 +8801,13 @@
         <v>317</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -8802,13 +8815,13 @@
         <v>318</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -8816,13 +8829,13 @@
         <v>319</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -8830,13 +8843,13 @@
         <v>320</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -8844,10 +8857,10 @@
         <v>321</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="30">
@@ -8857,11 +8870,11 @@
       <c r="B34" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>560</v>
+      <c r="C34" s="21" t="s">
+        <v>563</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
@@ -8872,10 +8885,10 @@
         <v>323</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30">
@@ -8886,10 +8899,10 @@
         <v>324</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30">
@@ -8900,10 +8913,10 @@
         <v>325</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -8914,10 +8927,10 @@
         <v>326</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
@@ -8928,10 +8941,10 @@
         <v>327</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
@@ -8942,10 +8955,10 @@
         <v>328</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" customHeight="1">
@@ -8956,10 +8969,10 @@
         <v>329</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="27000" windowHeight="15760" tabRatio="539" activeTab="6"/>
+    <workbookView xWindow="140" yWindow="0" windowWidth="27000" windowHeight="15760" tabRatio="539"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -1935,124 +1935,124 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>crossbowman_2_20,ballista_2_4,catapult_2_3;sentinel_2_20,lancer_2_8,horseArcher_2_5;horseArcher_2_10,catapult_2_4,sentinel_2_10</t>
-  </si>
-  <si>
-    <t>crossbowman_2_30,ballista_2_6,catapult_2_4;sentinel_2_30,lancer_2_12,horseArcher_2_8;horseArcher_2_15,catapult_2_6,sentinel_2_15</t>
-  </si>
-  <si>
-    <t>crossbowman_2_40,ballista_2_8,catapult_2_5;sentinel_2_40,lancer_2_15,horseArcher_2_10;horseArcher_2_20,catapult_2_8,sentinel_2_20</t>
-  </si>
-  <si>
     <t>swordsman_2_50,crossbowman_2_38,ballista_2_7;lancer_2_25,horseArcher_2_19,swordsman_2_25;catapult_2_13,ballista_2_10,lancer_2_13</t>
   </si>
   <si>
-    <t>swordsman_2_60,crossbowman_2_45,ballista_2_8;lancer_2_30,horseArcher_2_23,swordsman_2_30;catapult_2_15,ballista_2_12,lancer_2_15</t>
-  </si>
-  <si>
-    <t>swordsman_2_90,crossbowman_2_68,ballista_2_12;lancer_2_45,horseArcher_2_34,swordsman_2_45;catapult_2_23,ballista_2_17,lancer_2_23</t>
-  </si>
-  <si>
     <t>sentinel_2_120,swordsman_2_90,crossbowman_2_60;horseArcher_2_60,swordsman_2_90,catapult_2_15;ballista_2_30,lancer_2_45,horseArcher_2_30</t>
   </si>
   <si>
-    <t>sentinel_2_150,swordsman_2_113,crossbowman_2_75;horseArcher_2_75,swordsman_2_113,catapult_2_19;ballista_2_38,lancer_2_57,horseArcher_2_38</t>
-  </si>
-  <si>
-    <t>sentinel_2_180,swordsman_2_135,crossbowman_2_90;horseArcher_2_90,swordsman_2_135,catapult_2_23;ballista_2_45,lancer_2_68,horseArcher_2_45</t>
-  </si>
-  <si>
-    <t>ranger_2_240,sentinel_2_180,swordsman_2_120;swordsman_2_240,catapult_2_45,ballista_2_30;lancer_2_120,ranger_2_180,swordsman_2_120</t>
-  </si>
-  <si>
-    <t>ranger_2_290,sentinel_2_218,swordsman_2_145;swordsman_2_290,catapult_2_55,ballista_2_37;lancer_2_145,ranger_2_218,swordsman_2_145</t>
-  </si>
-  <si>
-    <t>ranger_2_350,sentinel_2_263,swordsman_2_175;swordsman_2_350,catapult_2_66,ballista_2_44;lancer_2_175,ranger_2_263,swordsman_2_175</t>
-  </si>
-  <si>
-    <t>lancer_2_205,ranger_2_308,sentinel_2_205;catapult_2_103,ballista_2_77,swordsman_2_205;ranger_2_410,crossbowman_2_308,catapult_2_52</t>
-  </si>
-  <si>
-    <t>lancer_2_235,ranger_2_353,sentinel_2_235;catapult_2_118,ballista_2_89,swordsman_2_235;ranger_2_470,crossbowman_2_353,catapult_2_59</t>
-  </si>
-  <si>
-    <t>lancer_2_270,ranger_2_405,sentinel_2_270;catapult_2_135,ballista_2_102,swordsman_2_270;ranger_2_540,crossbowman_2_405,catapult_2_68</t>
-  </si>
-  <si>
-    <t>horseArcher_2_245,lancer_2_184,ranger_2_245;ballista_2_123,swordsman_2_368,sentinel_2_245;crossbowman_2_490,horseArcher_2_184,ballista_2_62</t>
-  </si>
-  <si>
-    <t>horseArcher_2_365,lancer_2_274,ranger_2_365;ballista_2_183,swordsman_2_548,sentinel_2_365;crossbowman_2_730,horseArcher_2_274,ballista_2_92</t>
-  </si>
-  <si>
-    <t>horseArcher_2_430,lancer_2_323,ranger_2_430;ballista_2_215,swordsman_2_645,sentinel_2_430;crossbowman_2_860,horseArcher_2_323,ballista_2_108</t>
-  </si>
-  <si>
-    <t>catapult_2_248,horseArcher_2_372,lancer_2_248;swordsman_2_990,sentinel_2_743,ranger_2_495;horseArcher_2_495,lancer_2_372,swordsman_2_495</t>
-  </si>
-  <si>
-    <t>catapult_2_283,horseArcher_2_424,lancer_2_283;swordsman_2_1130,sentinel_2_848,ranger_2_565;horseArcher_2_565,lancer_2_424,swordsman_2_565</t>
-  </si>
-  <si>
-    <t>catapult_2_325,horseArcher_2_488,lancer_2_325;swordsman_2_1300,sentinel_2_975,ranger_2_650;horseArcher_2_650,lancer_2_488,swordsman_2_650</t>
-  </si>
-  <si>
-    <t>ballista_2_373,catapult_2_280,horseArcher_2_373;sentinel_2_1490,ranger_2_1118,lancer_2_373;lancer_2_745,crossbowman_2_1118,sentinel_2_745</t>
-  </si>
-  <si>
-    <t>ballista_2_423,catapult_2_317,horseArcher_2_423;sentinel_2_1690,ranger_2_1268,lancer_2_423;lancer_2_845,crossbowman_2_1268,sentinel_2_845</t>
-  </si>
-  <si>
-    <t>ballista_2_480,catapult_2_360,horseArcher_2_480;sentinel_2_1920,ranger_2_1440,lancer_2_480;lancer_2_960,crossbowman_2_1440,sentinel_2_960</t>
-  </si>
-  <si>
-    <t>swordsman_3_1520,sentinel_3_1140,ranger_3_760;lancer_3_760,horseArcher_3_570,catapult_3_190;ballista_3_380,swordsman_3_1140,horseArcher_3_380</t>
-  </si>
-  <si>
-    <t>swordsman_3_1690,sentinel_3_1268,ranger_3_845;lancer_3_845,horseArcher_3_634,catapult_3_212;ballista_3_423,swordsman_3_1268,horseArcher_3_423</t>
-  </si>
-  <si>
-    <t>sentinel_3_1990,ranger_3_1493,crossbowman_3_995;horseArcher_3_995,catapult_3_374,ballista_3_249;catapult_3_498,sentinel_3_1493,swordsman_3_995</t>
-  </si>
-  <si>
-    <t>sentinel_3_2310,ranger_3_1733,crossbowman_3_1155;horseArcher_3_1155,catapult_3_434,ballista_3_289;catapult_3_578,sentinel_3_1733,swordsman_3_1155</t>
-  </si>
-  <si>
-    <t>ranger_3_2660,crossbowman_3_1995,lancer_3_665;catapult_3_665,ballista_3_499,swordsman_3_1330;horseArcher_3_1330,ranger_3_1995,sentinel_3_1330</t>
-  </si>
-  <si>
-    <t>ranger_3_3050,crossbowman_3_2288,lancer_3_763;catapult_3_763,ballista_3_572,swordsman_3_1525;horseArcher_3_1525,ranger_3_2288,sentinel_3_1525</t>
-  </si>
-  <si>
-    <t>crossbowman_3_3470,lancer_3_1302,horseArcher_3_868;ballista_3_868,swordsman_3_2603,sentinel_3_1735;lancer_3_1735,crossbowman_3_2603,sentinel_3_1735</t>
-  </si>
-  <si>
-    <t>crossbowman_3_3930,lancer_3_1474,horseArcher_3_983;ballista_3_983,swordsman_3_2948,sentinel_3_1965;lancer_3_1965,crossbowman_3_2948,catapult_3_492</t>
-  </si>
-  <si>
-    <t>lancer_3_2220,horseArcher_3_1665,catapult_3_555;swordsman_3_4440,sentinel_3_3330,lancer_3_1110;crossbowman_3_4440,lancer_3_1665,ballista_3_555</t>
-  </si>
-  <si>
-    <t>lancer_3_2500,horseArcher_3_1875,ballista_3_625;swordsman_3_5000,sentinel_3_3750,horseArcher_3_1250;crossbowman_3_5000,lancer_3_1875,swordsman_3_2500</t>
-  </si>
-  <si>
-    <t>horseArcher_3_2810,catapult_3_1054,ballista_3_703;sentinel_3_5620,lancer_3_2108,ranger_3_1405;ranger_3_5620,horseArcher_3_2108,sentinel_3_2810</t>
-  </si>
-  <si>
-    <t>horseArcher_3_3150,ballista_3_1182,catapult_3_788;sentinel_3_6300,horseArcher_3_1575,catapult_3_788;ranger_3_6300,horseArcher_3_2363,catapult_3_788</t>
-  </si>
-  <si>
-    <t>catapult_3_1853,ballista_3_1390,sentinel_3_3705;lancer_3_3705,sentinel_3_3705,ballista_3_927;swordsman_3_7410,catapult_3_1390,lancer_3_1853</t>
-  </si>
-  <si>
-    <t>ballista_3_2163,catapult_3_1622,sentinel_3_4325;horseArcher_3_4325,catapult_3_1082,ranger_3_2163;sentinel_3_8650,ballista_3_1622,horseArcher_3_2163</t>
-  </si>
-  <si>
-    <t>ballista_3_2510,swordsman_3_7530,ranger_3_5020;lancer_3_5020,ballista_3_1255,crossbowman_3_5020;swordsman_3_10040,ranger_3_7530,ballista_3_1255</t>
-  </si>
-  <si>
-    <t>catapult_3_2903,swordsman_3_8708,ranger_3_5805;horseArcher_3_5805,crossbowman_3_5805,catapult_3_1452;sentinel_3_11610,lancer_3_4354,catapult_3_1452</t>
+    <t>crossbowman_2_10,ballista_2_2,swordsman_2_5;sentinel_2_10,lancer_2_4,horseArcher_2_3;horseArcher_2_5,catapult_2_2,sentinel_2_5</t>
+  </si>
+  <si>
+    <t>crossbowman_2_20,ballista_2_4,swordsman_2_10;sentinel_2_20,lancer_2_8,horseArcher_2_5;horseArcher_2_10,catapult_2_4,sentinel_2_10</t>
+  </si>
+  <si>
+    <t>crossbowman_2_30,ballista_2_6,swordsman_2_15;sentinel_2_30,lancer_2_12,horseArcher_2_8;horseArcher_2_15,catapult_2_6,sentinel_2_15</t>
+  </si>
+  <si>
+    <t>swordsman_2_40,crossbowman_2_30,ballista_2_5;lancer_2_20,horseArcher_2_15,swordsman_2_20;catapult_2_10,ballista_2_8,lancer_2_10</t>
+  </si>
+  <si>
+    <t>swordsman_2_70,crossbowman_2_53,ballista_2_9;lancer_2_35,horseArcher_2_27,swordsman_2_35;catapult_2_18,ballista_2_14,lancer_2_18</t>
+  </si>
+  <si>
+    <t>sentinel_2_90,swordsman_2_68,crossbowman_2_45;horseArcher_2_45,swordsman_2_68,catapult_2_12;ballista_2_23,lancer_2_34,horseArcher_2_23</t>
+  </si>
+  <si>
+    <t>sentinel_2_140,swordsman_2_105,crossbowman_2_70;horseArcher_2_70,swordsman_2_105,catapult_2_18;ballista_2_35,lancer_2_53,horseArcher_2_35</t>
+  </si>
+  <si>
+    <t>ranger_2_180,sentinel_2_135,swordsman_2_90;swordsman_2_180,catapult_2_34,ballista_2_23;lancer_2_90,ranger_2_135,swordsman_2_90</t>
+  </si>
+  <si>
+    <t>ranger_2_210,sentinel_2_158,swordsman_2_105;swordsman_2_210,catapult_2_40,ballista_2_27;lancer_2_105,ranger_2_158,swordsman_2_105</t>
+  </si>
+  <si>
+    <t>ranger_2_250,sentinel_2_188,swordsman_2_125;swordsman_2_250,catapult_2_47,ballista_2_32;lancer_2_125,ranger_2_188,swordsman_2_125</t>
+  </si>
+  <si>
+    <t>lancer_2_145,ranger_2_218,sentinel_2_145;catapult_2_73,ballista_2_55,swordsman_2_145;ranger_2_290,crossbowman_2_218,catapult_2_37</t>
+  </si>
+  <si>
+    <t>lancer_2_165,ranger_2_248,sentinel_2_165;catapult_2_83,ballista_2_62,swordsman_2_165;ranger_2_330,crossbowman_2_248,catapult_2_42</t>
+  </si>
+  <si>
+    <t>lancer_2_190,ranger_2_285,sentinel_2_190;catapult_2_95,ballista_2_72,swordsman_2_190;ranger_2_380,crossbowman_2_285,catapult_2_48</t>
+  </si>
+  <si>
+    <t>horseArcher_2_150,lancer_2_113,ranger_2_150;ballista_2_75,swordsman_2_225,sentinel_2_150;crossbowman_2_300,horseArcher_2_113,ballista_2_38</t>
+  </si>
+  <si>
+    <t>horseArcher_2_250,lancer_2_188,ranger_2_250;ballista_2_125,swordsman_2_375,sentinel_2_250;crossbowman_2_500,horseArcher_2_188,ballista_2_63</t>
+  </si>
+  <si>
+    <t>horseArcher_2_290,lancer_2_218,ranger_2_290;ballista_2_145,swordsman_2_435,sentinel_2_290;crossbowman_2_580,horseArcher_2_218,ballista_2_73</t>
+  </si>
+  <si>
+    <t>catapult_2_165,horseArcher_2_248,lancer_2_165;swordsman_2_660,sentinel_2_495,ranger_2_330;horseArcher_2_330,lancer_2_248,swordsman_2_330</t>
+  </si>
+  <si>
+    <t>catapult_2_188,horseArcher_2_282,lancer_2_188;swordsman_2_750,sentinel_2_563,ranger_2_375;horseArcher_2_375,lancer_2_282,swordsman_2_375</t>
+  </si>
+  <si>
+    <t>catapult_2_215,horseArcher_2_323,lancer_2_215;swordsman_2_860,sentinel_2_645,ranger_2_430;horseArcher_2_430,lancer_2_323,swordsman_2_430</t>
+  </si>
+  <si>
+    <t>ballista_2_245,catapult_2_184,horseArcher_2_245;sentinel_2_980,ranger_2_735,lancer_2_245;lancer_2_490,crossbowman_2_735,sentinel_2_490</t>
+  </si>
+  <si>
+    <t>ballista_2_275,catapult_2_207,horseArcher_2_275;sentinel_2_1100,ranger_2_825,lancer_2_275;lancer_2_550,crossbowman_2_825,sentinel_2_550</t>
+  </si>
+  <si>
+    <t>ballista_2_310,catapult_2_233,horseArcher_2_310;sentinel_2_1240,ranger_2_930,lancer_2_310;lancer_2_620,crossbowman_2_930,sentinel_2_620</t>
+  </si>
+  <si>
+    <t>swordsman_3_1000,sentinel_3_750,ranger_3_500;lancer_3_500,horseArcher_3_375,catapult_3_125;ballista_3_250,swordsman_3_750,horseArcher_3_250</t>
+  </si>
+  <si>
+    <t>swordsman_3_1110,sentinel_3_833,ranger_3_555;lancer_3_555,horseArcher_3_417,catapult_3_139;ballista_3_278,swordsman_3_833,horseArcher_3_278</t>
+  </si>
+  <si>
+    <t>sentinel_3_1290,ranger_3_968,crossbowman_3_645;horseArcher_3_645,catapult_3_242,ballista_3_162;catapult_3_323,sentinel_3_968,swordsman_3_645</t>
+  </si>
+  <si>
+    <t>sentinel_3_1490,ranger_3_1118,crossbowman_3_745;horseArcher_3_745,catapult_3_280,ballista_3_187;catapult_3_373,sentinel_3_1118,swordsman_3_745</t>
+  </si>
+  <si>
+    <t>ranger_3_1710,crossbowman_3_1283,lancer_3_428;catapult_3_428,ballista_3_321,swordsman_3_855;horseArcher_3_855,ranger_3_1283,sentinel_3_855</t>
+  </si>
+  <si>
+    <t>ranger_3_1940,crossbowman_3_1455,lancer_3_485;catapult_3_485,ballista_3_364,swordsman_3_970;horseArcher_3_970,ranger_3_1455,sentinel_3_970</t>
+  </si>
+  <si>
+    <t>crossbowman_3_2200,lancer_3_825,horseArcher_3_550;ballista_3_550,swordsman_3_1650,sentinel_3_1100;lancer_3_1100,crossbowman_3_1650,sentinel_3_1100</t>
+  </si>
+  <si>
+    <t>crossbowman_3_2480,lancer_3_930,horseArcher_3_620;ballista_3_620,swordsman_3_1860,sentinel_3_1240;lancer_3_1240,crossbowman_3_1860,catapult_3_310</t>
+  </si>
+  <si>
+    <t>lancer_3_1395,horseArcher_3_1047,catapult_3_349;swordsman_3_2790,sentinel_3_2093,lancer_3_698;crossbowman_3_2790,lancer_3_1047,ballista_3_349</t>
+  </si>
+  <si>
+    <t>lancer_3_1565,horseArcher_3_1174,ballista_3_392;swordsman_3_3130,sentinel_3_2348,horseArcher_3_783;crossbowman_3_3130,lancer_3_1174,swordsman_3_1565</t>
+  </si>
+  <si>
+    <t>horseArcher_3_1750,catapult_3_657,ballista_3_438;sentinel_3_3500,lancer_3_1313,ranger_3_875;ranger_3_3500,horseArcher_3_1313,sentinel_3_1750</t>
+  </si>
+  <si>
+    <t>horseArcher_3_1960,ballista_3_735,catapult_3_490;sentinel_3_3920,horseArcher_3_980,catapult_3_490;ranger_3_3920,horseArcher_3_1470,catapult_3_490</t>
+  </si>
+  <si>
+    <t>catapult_3_1148,ballista_3_861,sentinel_3_2295;lancer_3_2295,sentinel_3_2295,ballista_3_574;swordsman_3_4590,catapult_3_861,lancer_3_1148</t>
+  </si>
+  <si>
+    <t>ballista_3_1335,catapult_3_1002,sentinel_3_2670;horseArcher_3_2670,catapult_3_668,ranger_3_1335;sentinel_3_5340,ballista_3_1002,horseArcher_3_1335</t>
+  </si>
+  <si>
+    <t>ballista_3_1545,swordsman_3_4635,ranger_3_3090;lancer_3_3090,ballista_3_773,crossbowman_3_3090;swordsman_3_6180,ranger_3_4635,ballista_3_773</t>
+  </si>
+  <si>
+    <t>catapult_3_1780,swordsman_3_5340,ranger_3_3560;horseArcher_3_3560,crossbowman_3_3560,catapult_3_890;sentinel_3_7120,lancer_3_2670,catapult_3_890</t>
   </si>
 </sst>
 </file>
@@ -2250,7 +2250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="833">
+  <cellStyleXfs count="837">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2732,6 +2732,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3173,7 +3177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="833">
+  <cellStyles count="837">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -3592,6 +3596,8 @@
     <cellStyle name="超链接" xfId="827" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="829" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="835" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4003,6 +4009,8 @@
     <cellStyle name="访问过的超链接" xfId="828" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="830" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="836" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="476"/>
@@ -4455,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4550,7 +4558,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="8">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>71</v>
@@ -4627,7 +4635,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="8">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>57</v>
@@ -4638,7 +4646,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="8">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>77</v>
@@ -8387,8 +8395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8423,7 +8431,7 @@
         <v>290</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>401</v>
@@ -8437,7 +8445,7 @@
         <v>291</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>402</v>
@@ -8451,7 +8459,7 @@
         <v>292</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>403</v>
@@ -8465,7 +8473,7 @@
         <v>293</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>404</v>
@@ -8479,7 +8487,7 @@
         <v>294</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>405</v>
@@ -8493,7 +8501,7 @@
         <v>295</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>406</v>
@@ -8507,7 +8515,7 @@
         <v>296</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>407</v>
@@ -8521,7 +8529,7 @@
         <v>297</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>408</v>
@@ -8541,14 +8549,14 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="21" t="s">
         <v>540</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -8569,14 +8577,14 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="15" t="s">
         <v>542</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -8849,14 +8857,14 @@
         <v>431</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="15">
         <v>32</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="21" t="s">
         <v>562</v>
       </c>
       <c r="D33" s="17" t="s">

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4464,7 +4464,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4635,7 +4635,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="8">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>57</v>
@@ -4646,7 +4646,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="8">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>77</v>

--- a/datas/shared/AllianceInitData.xlsx
+++ b/datas/shared/AllianceInitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="27000" windowHeight="15760" tabRatio="539"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33020" windowHeight="19360" tabRatio="333" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="intInit" sheetId="2" r:id="rId1"/>
@@ -12,31 +12,26 @@
     <sheet name="right" sheetId="4" r:id="rId3"/>
     <sheet name="donate" sheetId="8" r:id="rId4"/>
     <sheet name="shrineStage" sheetId="12" r:id="rId5"/>
-    <sheet name="fightRewards" sheetId="13" r:id="rId6"/>
-    <sheet name="monsters" sheetId="14" r:id="rId7"/>
+    <sheet name="monsters" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -51,14 +46,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="568">
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>archon</t>
@@ -80,310 +75,302 @@
   </si>
   <si>
     <t>STR_title</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_titleLevel</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceBasicInfo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceNotice</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceDescription</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_kickAllianceMemberOff</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_sendAllianceMail</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceJoinType</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_inviteToJoinAlliance</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_type</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_loyalty</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_honour</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>FLOAT_extra</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_level</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood_200k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_200k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_type</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_count</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_resource</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_upgradeAllianceBuilding</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceTerrian</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_upgradeAllianceVillage</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_editAllianceMemberTitle</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_activateAllianceShrineStage</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_value</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_value</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_revengeAlliance</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_addItem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_giveLoyaltyToAllianceMember</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>true</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>false</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>dragonStrikeHpDecreasedPercent</t>
   </si>
   <si>
     <t>BOOL_approveJoinAllianceRequest</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_removeJoinAllianceReqeusts</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_desc</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceRevengeMaxMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>复仇最大时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceRegionMapWidth</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟地图宽度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceRegionMapHeight</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟地图高度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>龙突袭每次减少的血量百分比</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceFightFaiedProtectMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟战失败保护期时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>createAllianceGem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>创建联盟所需宝石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>buyArchonGem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>竞选盟主所需宝石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>editAllianceBasicInfoGem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>编辑联盟基础信息所需宝石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>editAllianceTerrianHonour</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>编辑联盟地形所需荣耀值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>activeShrineStageEventMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>圣地战激活后持续时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceFightPrepareMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟战准备期时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceFightTotalFightMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟战战争期时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceHelpDefenceTroopsMaxCount</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>协防玩家最大数量</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>citizenPerLeadership</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每一点龙的领导力带领多少兵力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>allianceFightSuccessProtectMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>联盟战成功保护期时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>KilledCitizenPerDragonExp</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>多少击杀积分获得一点龙经验</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>KilledCitizenPerBlood</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>多少击杀积分获得一点英雄之血</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>KilledCitizenPerWallHp</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>损失一点城墙血量获得多少击杀积分</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3_5</t>
@@ -444,175 +431,175 @@
   </si>
   <si>
     <t>wood_10k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood_20k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood_50k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood_100k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood_500k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>wood</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_10k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_20k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_50k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_100k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_200k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>stone_500k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_10k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_20k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_50k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_100k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>iron_500k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_10k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_20k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_50k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_100k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_200k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food_500k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>food</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_10k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_20k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_50k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_100k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_200k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>coin_500k</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1_1</t>
@@ -732,30 +719,8 @@
     <t>STR_playerRewards_3_iceField</t>
   </si>
   <si>
-    <t>INT_gem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>bronze</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>platinum</t>
-  </si>
-  <si>
-    <t>diamond</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
     <t>BOOL_getJoinRequestEvents</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>dragonMaterials:greenCrystal_1:1</t>
@@ -1002,235 +967,67 @@
   </si>
   <si>
     <t>villageRefreshMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>村落采空后多少分钟后刷新</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_100</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_200</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_500</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_1000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_2000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>gem_5000</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>INT_level</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_rewards</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_dragon</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>monsterRefreshMinutes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>区域地图野怪多少分钟后刷新</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>monstersPerPlayer</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个联盟玩家创建多少个野怪</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_4</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_5</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_6</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_7</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_8</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_9</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_1_10</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_11</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_12</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_13</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_14</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_15</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_16</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_17</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_18</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_19</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_2_20</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_21</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_22</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_23</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_24</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_25</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_26</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_27</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_28</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_29</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_3_30</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_31</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_32</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_33</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_34</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_35</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_36</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_37</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_38</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_39</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon_4_40</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>STR_soldiers</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>士兵战斗受伤士兵基础百分比</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>soldierFightWoundedPercent</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>dragonMaterials:greenSoul_2:1</t>
@@ -1396,47 +1193,11 @@
   </si>
   <si>
     <t>掠夺敌方村落资源比例</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LootVillagePercent</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_1_1,swordsman_1_8,lancer_1_3,catapult_1_1,ranger_1_2</t>
-  </si>
-  <si>
-    <t>dragon_1_2,lancer_1_21,ballista_1_7,ranger_1_21,swordsman_1_10</t>
-  </si>
-  <si>
-    <t>dragon_1_3,catapult_1_27,crossbowman_1_83,sentinel_1_55,horseArcher_1_13</t>
-  </si>
-  <si>
-    <t>dragon_1_4,crossbowman_1_222,sentinel_1_167,horseArcher_1_55,ballista_1_13</t>
-  </si>
-  <si>
-    <t>dragon_1_6,swordsman_1_380,lancer_1_142,catapult_1_47,ranger_1_95</t>
-  </si>
-  <si>
-    <t>dragon_1_8,lancer_1_294,ballista_1_110,ranger_1_294,swordsman_1_147</t>
-  </si>
-  <si>
-    <t>dragon_2_11,catapult_1_213,crossbowman_1_640,sentinel_1_426,horseArcher_1_106</t>
-  </si>
-  <si>
-    <t>dragon_2_12,crossbowman_1_1176,sentinel_1_882,horseArcher_1_294,ballista_1_73</t>
-  </si>
-  <si>
-    <t>dragon_2_13,swordsman_1_1560,lancer_1_585,catapult_1_195,ranger_1_390</t>
-  </si>
-  <si>
-    <t>dragon_2_14,lancer_1_1004,ballista_1_376,ranger_1_1004,swordsman_1_502</t>
-  </si>
-  <si>
-    <t>dragon_2_16,catapult_1_631,crossbowman_1_1894,sentinel_1_1262,horseArcher_1_315</t>
-  </si>
-  <si>
-    <t>dragon_2_18,crossbowman_1_3112,sentinel_1_2334,horseArcher_1_778,ballista_1_194</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>items:woodClass_1:4:9,items:stoneClass_1:4:9,items:ironClass_1:4:9,items:foodClass_1:4:9,items:coinClass_1:2:3,items:gemClass_1:1:1,buildingMaterials:blueprints:1:15</t>
@@ -1566,149 +1327,11 @@
   </si>
   <si>
     <t>BOOL_attackAlliance</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>BOOL_moveAlliance</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_21,swordsman_2_3771,lancer_2_1414,catapult_2_471,ranger_2_942</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_22,lancer_2_2253,ballista_2_844,ranger_2_2253,swordsman_2_1126</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_23,catapult_2_1329,crossbowman_2_3988,sentinel_2_2658,horseArcher_2_664</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_24,crossbowman_2_6208,sentinel_2_4656,horseArcher_2_1552,ballista_2_388</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_26,swordsman_2_7180,lancer_2_2692,catapult_2_897,ranger_2_1795</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_3_28,lancer_2_4118,ballista_2_1544,ranger_2_4118,swordsman_2_2059</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_31,catapult_2_2344,crossbowman_2_7033,sentinel_2_4688,horseArcher_2_1172</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_32,crossbowman_2_10606,sentinel_2_7954,horseArcher_2_2651,ballista_2_662</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_33,swordsman_2_11923,lancer_2_4471,catapult_2_1490,ranger_2_2980</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_34,lancer_2_6666,ballista_2_2499,ranger_2_6666,swordsman_2_3333</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_4_36,catapult_2_3708,crossbowman_2_11124,sentinel_2_7416,horseArcher_2_1854</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>dragon_4_38,crossbowman_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_16428,sentinel_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_12321,horseArcher_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_4107,ballista_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1026</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>dragonMaterials:greenCrystal_1:1,dragonMaterials:runes_1:1,allianceData:loyalty:800</t>
@@ -1928,131 +1551,356 @@
   </si>
   <si>
     <t>大地图的大小</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>bigMapLength</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_2_50,crossbowman_2_38,ballista_2_7;lancer_2_25,horseArcher_2_19,swordsman_2_25;catapult_2_13,ballista_2_10,lancer_2_13</t>
-  </si>
-  <si>
-    <t>sentinel_2_120,swordsman_2_90,crossbowman_2_60;horseArcher_2_60,swordsman_2_90,catapult_2_15;ballista_2_30,lancer_2_45,horseArcher_2_30</t>
-  </si>
-  <si>
-    <t>crossbowman_2_10,ballista_2_2,swordsman_2_5;sentinel_2_10,lancer_2_4,horseArcher_2_3;horseArcher_2_5,catapult_2_2,sentinel_2_5</t>
-  </si>
-  <si>
-    <t>crossbowman_2_20,ballista_2_4,swordsman_2_10;sentinel_2_20,lancer_2_8,horseArcher_2_5;horseArcher_2_10,catapult_2_4,sentinel_2_10</t>
-  </si>
-  <si>
-    <t>crossbowman_2_30,ballista_2_6,swordsman_2_15;sentinel_2_30,lancer_2_12,horseArcher_2_8;horseArcher_2_15,catapult_2_6,sentinel_2_15</t>
-  </si>
-  <si>
-    <t>swordsman_2_40,crossbowman_2_30,ballista_2_5;lancer_2_20,horseArcher_2_15,swordsman_2_20;catapult_2_10,ballista_2_8,lancer_2_10</t>
-  </si>
-  <si>
-    <t>swordsman_2_70,crossbowman_2_53,ballista_2_9;lancer_2_35,horseArcher_2_27,swordsman_2_35;catapult_2_18,ballista_2_14,lancer_2_18</t>
-  </si>
-  <si>
-    <t>sentinel_2_90,swordsman_2_68,crossbowman_2_45;horseArcher_2_45,swordsman_2_68,catapult_2_12;ballista_2_23,lancer_2_34,horseArcher_2_23</t>
-  </si>
-  <si>
-    <t>sentinel_2_140,swordsman_2_105,crossbowman_2_70;horseArcher_2_70,swordsman_2_105,catapult_2_18;ballista_2_35,lancer_2_53,horseArcher_2_35</t>
-  </si>
-  <si>
-    <t>ranger_2_180,sentinel_2_135,swordsman_2_90;swordsman_2_180,catapult_2_34,ballista_2_23;lancer_2_90,ranger_2_135,swordsman_2_90</t>
-  </si>
-  <si>
-    <t>ranger_2_210,sentinel_2_158,swordsman_2_105;swordsman_2_210,catapult_2_40,ballista_2_27;lancer_2_105,ranger_2_158,swordsman_2_105</t>
-  </si>
-  <si>
-    <t>ranger_2_250,sentinel_2_188,swordsman_2_125;swordsman_2_250,catapult_2_47,ballista_2_32;lancer_2_125,ranger_2_188,swordsman_2_125</t>
-  </si>
-  <si>
-    <t>lancer_2_145,ranger_2_218,sentinel_2_145;catapult_2_73,ballista_2_55,swordsman_2_145;ranger_2_290,crossbowman_2_218,catapult_2_37</t>
-  </si>
-  <si>
-    <t>lancer_2_165,ranger_2_248,sentinel_2_165;catapult_2_83,ballista_2_62,swordsman_2_165;ranger_2_330,crossbowman_2_248,catapult_2_42</t>
-  </si>
-  <si>
-    <t>lancer_2_190,ranger_2_285,sentinel_2_190;catapult_2_95,ballista_2_72,swordsman_2_190;ranger_2_380,crossbowman_2_285,catapult_2_48</t>
-  </si>
-  <si>
-    <t>horseArcher_2_150,lancer_2_113,ranger_2_150;ballista_2_75,swordsman_2_225,sentinel_2_150;crossbowman_2_300,horseArcher_2_113,ballista_2_38</t>
-  </si>
-  <si>
-    <t>horseArcher_2_250,lancer_2_188,ranger_2_250;ballista_2_125,swordsman_2_375,sentinel_2_250;crossbowman_2_500,horseArcher_2_188,ballista_2_63</t>
-  </si>
-  <si>
-    <t>horseArcher_2_290,lancer_2_218,ranger_2_290;ballista_2_145,swordsman_2_435,sentinel_2_290;crossbowman_2_580,horseArcher_2_218,ballista_2_73</t>
-  </si>
-  <si>
-    <t>catapult_2_165,horseArcher_2_248,lancer_2_165;swordsman_2_660,sentinel_2_495,ranger_2_330;horseArcher_2_330,lancer_2_248,swordsman_2_330</t>
-  </si>
-  <si>
-    <t>catapult_2_188,horseArcher_2_282,lancer_2_188;swordsman_2_750,sentinel_2_563,ranger_2_375;horseArcher_2_375,lancer_2_282,swordsman_2_375</t>
-  </si>
-  <si>
-    <t>catapult_2_215,horseArcher_2_323,lancer_2_215;swordsman_2_860,sentinel_2_645,ranger_2_430;horseArcher_2_430,lancer_2_323,swordsman_2_430</t>
-  </si>
-  <si>
-    <t>ballista_2_245,catapult_2_184,horseArcher_2_245;sentinel_2_980,ranger_2_735,lancer_2_245;lancer_2_490,crossbowman_2_735,sentinel_2_490</t>
-  </si>
-  <si>
-    <t>ballista_2_275,catapult_2_207,horseArcher_2_275;sentinel_2_1100,ranger_2_825,lancer_2_275;lancer_2_550,crossbowman_2_825,sentinel_2_550</t>
-  </si>
-  <si>
-    <t>ballista_2_310,catapult_2_233,horseArcher_2_310;sentinel_2_1240,ranger_2_930,lancer_2_310;lancer_2_620,crossbowman_2_930,sentinel_2_620</t>
-  </si>
-  <si>
-    <t>swordsman_3_1000,sentinel_3_750,ranger_3_500;lancer_3_500,horseArcher_3_375,catapult_3_125;ballista_3_250,swordsman_3_750,horseArcher_3_250</t>
-  </si>
-  <si>
-    <t>swordsman_3_1110,sentinel_3_833,ranger_3_555;lancer_3_555,horseArcher_3_417,catapult_3_139;ballista_3_278,swordsman_3_833,horseArcher_3_278</t>
-  </si>
-  <si>
-    <t>sentinel_3_1290,ranger_3_968,crossbowman_3_645;horseArcher_3_645,catapult_3_242,ballista_3_162;catapult_3_323,sentinel_3_968,swordsman_3_645</t>
-  </si>
-  <si>
-    <t>sentinel_3_1490,ranger_3_1118,crossbowman_3_745;horseArcher_3_745,catapult_3_280,ballista_3_187;catapult_3_373,sentinel_3_1118,swordsman_3_745</t>
-  </si>
-  <si>
-    <t>ranger_3_1710,crossbowman_3_1283,lancer_3_428;catapult_3_428,ballista_3_321,swordsman_3_855;horseArcher_3_855,ranger_3_1283,sentinel_3_855</t>
-  </si>
-  <si>
-    <t>ranger_3_1940,crossbowman_3_1455,lancer_3_485;catapult_3_485,ballista_3_364,swordsman_3_970;horseArcher_3_970,ranger_3_1455,sentinel_3_970</t>
-  </si>
-  <si>
-    <t>crossbowman_3_2200,lancer_3_825,horseArcher_3_550;ballista_3_550,swordsman_3_1650,sentinel_3_1100;lancer_3_1100,crossbowman_3_1650,sentinel_3_1100</t>
-  </si>
-  <si>
-    <t>crossbowman_3_2480,lancer_3_930,horseArcher_3_620;ballista_3_620,swordsman_3_1860,sentinel_3_1240;lancer_3_1240,crossbowman_3_1860,catapult_3_310</t>
-  </si>
-  <si>
-    <t>lancer_3_1395,horseArcher_3_1047,catapult_3_349;swordsman_3_2790,sentinel_3_2093,lancer_3_698;crossbowman_3_2790,lancer_3_1047,ballista_3_349</t>
-  </si>
-  <si>
-    <t>lancer_3_1565,horseArcher_3_1174,ballista_3_392;swordsman_3_3130,sentinel_3_2348,horseArcher_3_783;crossbowman_3_3130,lancer_3_1174,swordsman_3_1565</t>
-  </si>
-  <si>
-    <t>horseArcher_3_1750,catapult_3_657,ballista_3_438;sentinel_3_3500,lancer_3_1313,ranger_3_875;ranger_3_3500,horseArcher_3_1313,sentinel_3_1750</t>
-  </si>
-  <si>
-    <t>horseArcher_3_1960,ballista_3_735,catapult_3_490;sentinel_3_3920,horseArcher_3_980,catapult_3_490;ranger_3_3920,horseArcher_3_1470,catapult_3_490</t>
-  </si>
-  <si>
-    <t>catapult_3_1148,ballista_3_861,sentinel_3_2295;lancer_3_2295,sentinel_3_2295,ballista_3_574;swordsman_3_4590,catapult_3_861,lancer_3_1148</t>
-  </si>
-  <si>
-    <t>ballista_3_1335,catapult_3_1002,sentinel_3_2670;horseArcher_3_2670,catapult_3_668,ranger_3_1335;sentinel_3_5340,ballista_3_1002,horseArcher_3_1335</t>
-  </si>
-  <si>
-    <t>ballista_3_1545,swordsman_3_4635,ranger_3_3090;lancer_3_3090,ballista_3_773,crossbowman_3_3090;swordsman_3_6180,ranger_3_4635,ballista_3_773</t>
-  </si>
-  <si>
-    <t>catapult_3_1780,swordsman_3_5340,ranger_3_3560;horseArcher_3_3560,crossbowman_3_3560,catapult_3_890;sentinel_3_7120,lancer_3_2670,catapult_3_890</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightRewardGem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightRewardHonour</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战荣耀值奖励</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战宝石奖励</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:1:1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:1:2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:1:3</t>
+  </si>
+  <si>
+    <t>blackDragon:1:4</t>
+  </si>
+  <si>
+    <t>blackDragon:1:5</t>
+  </si>
+  <si>
+    <t>blackDragon:1:6</t>
+  </si>
+  <si>
+    <t>blackDragon:1:7</t>
+  </si>
+  <si>
+    <t>blackDragon:1:8</t>
+  </si>
+  <si>
+    <t>blackDragon:1:9</t>
+  </si>
+  <si>
+    <t>blackDragon:1:10</t>
+  </si>
+  <si>
+    <t>blackDragon:2:11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:2:12</t>
+  </si>
+  <si>
+    <t>blackDragon:2:13</t>
+  </si>
+  <si>
+    <t>blackDragon:2:14</t>
+  </si>
+  <si>
+    <t>blackDragon:2:15</t>
+  </si>
+  <si>
+    <t>blackDragon:2:16</t>
+  </si>
+  <si>
+    <t>blackDragon:2:17</t>
+  </si>
+  <si>
+    <t>blackDragon:2:18</t>
+  </si>
+  <si>
+    <t>blackDragon:2:19</t>
+  </si>
+  <si>
+    <t>blackDragon:2:20</t>
+  </si>
+  <si>
+    <t>blackDragon:3:21</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:3:22</t>
+  </si>
+  <si>
+    <t>blackDragon:3:23</t>
+  </si>
+  <si>
+    <t>blackDragon:3:24</t>
+  </si>
+  <si>
+    <t>blackDragon:3:25</t>
+  </si>
+  <si>
+    <t>blackDragon:3:26</t>
+  </si>
+  <si>
+    <t>blackDragon:3:27</t>
+  </si>
+  <si>
+    <t>blackDragon:3:28</t>
+  </si>
+  <si>
+    <t>blackDragon:3:29</t>
+  </si>
+  <si>
+    <t>blackDragon:3:30</t>
+  </si>
+  <si>
+    <t>blackDragon:4:31</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon:4:32</t>
+  </si>
+  <si>
+    <t>blackDragon:4:33</t>
+  </si>
+  <si>
+    <t>blackDragon:4:34</t>
+  </si>
+  <si>
+    <t>blackDragon:4:35</t>
+  </si>
+  <si>
+    <t>blackDragon:4:36</t>
+  </si>
+  <si>
+    <t>blackDragon:4:37</t>
+  </si>
+  <si>
+    <t>blackDragon:4:38</t>
+  </si>
+  <si>
+    <t>blackDragon:4:39</t>
+  </si>
+  <si>
+    <t>blackDragon:4:40</t>
+  </si>
+  <si>
+    <t>dragon:1:1,swordsman_1:1:32,lancer_1:1:12,catapult_1:1:8,ranger_1:1:8</t>
+  </si>
+  <si>
+    <t>dragon:1:2,lancer_1:1:36,ballista_1:1:27,ranger_1:1:36,swordsman_1:1:18</t>
+  </si>
+  <si>
+    <t>dragon:1:3,catapult_1:1:56,crossbowman_1:1:84,sentinel_1:1:56,horseArcher_1:1:14</t>
+  </si>
+  <si>
+    <t>dragon:1:4,crossbowman_1:2:192,sentinel_1:2:144,horseArcher_1:2:48,ballista_1:2:24</t>
+  </si>
+  <si>
+    <t>dragon:1:6,swordsman_1:2:321,lancer_1:2:121,catapult_1:2:81,ranger_1:2:81</t>
+  </si>
+  <si>
+    <t>dragon:1:8,lancer_1:2:221,ballista_1:2:166,ranger_1:2:221,swordsman_1:2:111</t>
+  </si>
+  <si>
+    <t>dragon:2:11,catapult_1:3:361,crossbowman_1:3:541,sentinel_1:3:361,horseArcher_1:3:91</t>
+  </si>
+  <si>
+    <t>dragon:2:12,crossbowman_1:3:921,sentinel_1:3:691,horseArcher_1:3:231,ballista_1:3:116</t>
+  </si>
+  <si>
+    <t>dragon:2:13,swordsman_1:3:1144,lancer_1:3:429,catapult_1:3:286,ranger_1:3:286</t>
+  </si>
+  <si>
+    <t>dragon:2:14,lancer_2:1:688,ballista_2:1:516,ranger_2:1:688,swordsman_2:1:344</t>
+  </si>
+  <si>
+    <t>dragon:2:16,catapult_2:1:820,crossbowman_2:1:1230,sentinel_2:1:820,horseArcher_2:1:205</t>
+  </si>
+  <si>
+    <t>dragon:2:18,crossbowman_2:1:1920,sentinel_2:1:1440,horseArcher_2:1:480,ballista_2:1:240</t>
+  </si>
+  <si>
+    <t>dragon:3:21,swordsman_2:2:2240,lancer_2:2:840,catapult_2:2:560,ranger_2:2:560</t>
+  </si>
+  <si>
+    <t>dragon:3:22,lancer_2:2:1240,ballista_2:2:930,ranger_2:2:1240,swordsman_2:2:620</t>
+  </si>
+  <si>
+    <t>dragon:3:23,catapult_2:2:1400,crossbowman_2:2:2100,sentinel_2:2:1400,horseArcher_2:2:350</t>
+  </si>
+  <si>
+    <t>dragon:3:24,crossbowman_2:3:3120,sentinel_2:3:2340,horseArcher_2:3:780,ballista_2:3:390</t>
+  </si>
+  <si>
+    <t>dragon:3:26,swordsman_2:3:3440,lancer_2:3:1290,catapult_2:3:860,ranger_2:3:860</t>
+  </si>
+  <si>
+    <t>dragon:3:28,lancer_2:3:1920,ballista_2:3:1440,ranger_2:3:1920,swordsman_2:3:960</t>
+  </si>
+  <si>
+    <t>dragon:4:31,catapult_3:1:2080,crossbowman_3:1:3120,sentinel_3:1:2080,horseArcher_3:1:520</t>
+  </si>
+  <si>
+    <t>dragon:4:32,crossbowman_3:1:4560,sentinel_3:1:3420,horseArcher_3:1:1140,ballista_3:1:570</t>
+  </si>
+  <si>
+    <t>dragon:4:33,swordsman_3:2:4880,lancer_3:2:1830,catapult_3:2:1220,ranger_3:2:1220</t>
+  </si>
+  <si>
+    <t>dragon:4:34,lancer_3:2:2640,ballista_3:2:1980,ranger_3:2:2640,swordsman_3:2:1320</t>
+  </si>
+  <si>
+    <t>dragon:4:36,catapult_3:3:2880,crossbowman_3:3:4320,sentinel_3:3:2880,horseArcher_3:3:720</t>
+  </si>
+  <si>
+    <t>dragon:4:38,crossbowman_3:3:6400,sentinel_3:3:4800,horseArcher_3:3:1600,ballista_3:3:800</t>
+  </si>
+  <si>
+    <t>区域地图村落多少分钟后刷新</t>
+  </si>
+  <si>
+    <t>villageRefreshTime</t>
+  </si>
+  <si>
+    <t>monsterCount</t>
+  </si>
+  <si>
+    <t>每个联盟多少个野怪</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:10,ballista_2:1:4,swordsman_2:1:5;sentinel_2:1:10,lancer_2:1:4,horseArcher_2:1:3;horseArcher_2:1:5,catapult_2:1:4,sentinel_2:1:5</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:30,ballista_2:1:12,swordsman_2:1:15;sentinel_2:1:30,lancer_2:1:12,horseArcher_2:1:8;horseArcher_2:1:15,catapult_2:1:12,sentinel_2:1:15</t>
+  </si>
+  <si>
+    <t>crossbowman_2:1:40,ballista_2:1:15,swordsman_2:1:20;sentinel_2:1:40,lancer_2:1:15,horseArcher_2:1:10;horseArcher_2:1:20,catapult_2:1:15,sentinel_2:1:20</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:50,crossbowman_2:1:38,ballista_2:1:13;lancer_2:1:25,horseArcher_2:1:19,swordsman_2:1:25;catapult_2:1:25,ballista_2:1:19,lancer_2:1:13</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:60,crossbowman_2:1:45,ballista_2:1:15;lancer_2:1:30,horseArcher_2:1:23,swordsman_2:1:30;catapult_2:1:30,ballista_2:1:23,lancer_2:1:15</t>
+  </si>
+  <si>
+    <t>swordsman_2:1:90,crossbowman_2:1:68,ballista_2:1:23;lancer_2:1:45,horseArcher_2:1:34,swordsman_2:1:45;catapult_2:1:45,ballista_2:1:34,lancer_2:1:23</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:120,swordsman_2:1:90,crossbowman_2:1:60;horseArcher_2:1:60,swordsman_2:1:90,catapult_2:1:30;ballista_2:1:60,lancer_2:1:45,horseArcher_2:1:30</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:150,swordsman_2:1:113,crossbowman_2:1:75;horseArcher_2:1:75,swordsman_2:1:113,catapult_2:1:38;ballista_2:1:75,lancer_2:1:57,horseArcher_2:1:38</t>
+  </si>
+  <si>
+    <t>sentinel_2:1:180,swordsman_2:1:135,crossbowman_2:1:90;horseArcher_2:1:90,swordsman_2:1:135,catapult_2:1:45;ballista_2:1:90,lancer_2:1:68,horseArcher_2:1:45</t>
+  </si>
+  <si>
+    <t>ranger_2:1:240,sentinel_2:1:180,swordsman_2:1:120;swordsman_2:1:240,catapult_2:1:90,ballista_2:1:60;lancer_2:1:120,ranger_2:1:180,swordsman_2:1:120</t>
+  </si>
+  <si>
+    <t>ranger_2:1:290,sentinel_2:1:218,swordsman_2:1:145;swordsman_2:1:290,catapult_2:1:109,ballista_2:1:73;lancer_2:1:145,ranger_2:1:218,swordsman_2:1:145</t>
+  </si>
+  <si>
+    <t>ranger_2:1:350,sentinel_2:1:263,swordsman_2:1:175;swordsman_2:1:350,catapult_2:1:132,ballista_2:1:88;lancer_2:1:175,ranger_2:1:263,swordsman_2:1:175</t>
+  </si>
+  <si>
+    <t>lancer_2:1:205,ranger_2:1:308,sentinel_2:1:205;catapult_2:1:205,ballista_2:1:154,swordsman_2:1:205;ranger_2:1:410,crossbowman_2:1:308,catapult_2:1:103</t>
+  </si>
+  <si>
+    <t>lancer_2:1:235,ranger_2:1:353,sentinel_2:1:235;catapult_2:1:235,ballista_2:1:177,swordsman_2:1:235;ranger_2:1:470,crossbowman_2:1:353,catapult_2:1:118</t>
+  </si>
+  <si>
+    <t>lancer_2:1:270,ranger_2:1:405,sentinel_2:1:270;catapult_2:1:270,ballista_2:1:203,swordsman_2:1:270;ranger_2:1:540,crossbowman_2:1:405,catapult_2:1:135</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:305,lancer_2:2:229,ranger_2:2:305;ballista_2:2:305,swordsman_2:2:458,sentinel_2:2:305;crossbowman_2:2:610,horseArcher_2:2:229,ballista_2:2:153</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:365,lancer_2:2:274,ranger_2:2:365;ballista_2:2:365,swordsman_2:2:548,sentinel_2:2:365;crossbowman_2:2:730,horseArcher_2:2:274,ballista_2:2:183</t>
+  </si>
+  <si>
+    <t>horseArcher_2:2:430,lancer_2:2:323,ranger_2:2:430;ballista_2:2:430,swordsman_2:2:645,sentinel_2:2:430;crossbowman_2:2:860,horseArcher_2:2:323,ballista_2:2:215</t>
+  </si>
+  <si>
+    <t>catapult_2:2:495,horseArcher_2:2:372,lancer_2:2:248;swordsman_2:2:990,sentinel_2:2:743,ranger_2:2:495;horseArcher_2:2:495,lancer_2:2:372,swordsman_2:2:495</t>
+  </si>
+  <si>
+    <t>catapult_2:2:565,horseArcher_2:2:424,lancer_2:2:283;swordsman_2:2:1130,sentinel_2:2:848,ranger_2:2:565;horseArcher_2:2:565,lancer_2:2:424,swordsman_2:2:565</t>
+  </si>
+  <si>
+    <t>catapult_2:2:610,horseArcher_2:2:458,lancer_2:2:305;swordsman_2:2:1220,sentinel_2:2:915,ranger_2:2:610;horseArcher_2:2:610,lancer_2:2:458,swordsman_2:2:610</t>
+  </si>
+  <si>
+    <t>ballista_2:2:660,catapult_2:2:495,horseArcher_2:2:330;sentinel_2:2:1320,ranger_2:2:990,lancer_2:2:330;lancer_2:2:660,crossbowman_2:2:990,sentinel_2:2:660</t>
+  </si>
+  <si>
+    <t>ballista_2:2:705,catapult_2:2:529,horseArcher_2:2:353;sentinel_2:2:1410,ranger_2:2:1058,lancer_2:2:353;lancer_2:2:705,crossbowman_2:2:1058,sentinel_2:2:705</t>
+  </si>
+  <si>
+    <t>ballista_2:2:745,catapult_2:2:559,horseArcher_2:2:373;sentinel_2:2:1490,ranger_2:2:1118,lancer_2:2:373;lancer_2:2:745,crossbowman_2:2:1118,sentinel_2:2:745</t>
+  </si>
+  <si>
+    <t>swordsman_2:2:1580,sentinel_2:2:1185,ranger_2:2:790;lancer_2:2:790,horseArcher_2:2:593,catapult_2:2:395;ballista_2:2:790,swordsman_2:2:1185,horseArcher_2:2:395</t>
+  </si>
+  <si>
+    <t>swordsman_2:3:1660,sentinel_2:3:1245,ranger_2:3:830;lancer_2:3:830,horseArcher_2:3:623,catapult_2:3:415;ballista_2:3:830,swordsman_2:3:1245,horseArcher_2:3:415</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:1840,ranger_2:3:1380,crossbowman_2:3:920;horseArcher_2:3:920,catapult_2:3:690,ballista_2:3:460;catapult_2:3:920,sentinel_2:3:1380,swordsman_2:3:920</t>
+  </si>
+  <si>
+    <t>sentinel_2:3:2020,ranger_2:3:1515,crossbowman_2:3:1010;horseArcher_2:3:1010,catapult_2:3:758,ballista_2:3:505;catapult_2:3:1010,sentinel_2:3:1515,swordsman_2:3:1010</t>
+  </si>
+  <si>
+    <t>ranger_2:3:2190,crossbowman_2:3:1643,lancer_2:3:548;catapult_2:3:1095,ballista_2:3:822,swordsman_2:3:1095;horseArcher_2:3:1095,ranger_2:3:1643,sentinel_2:3:1095</t>
+  </si>
+  <si>
+    <t>ranger_2:3:2360,crossbowman_2:3:1770,lancer_2:3:590;catapult_2:3:1180,ballista_2:3:885,swordsman_2:3:1180;horseArcher_2:3:1180,ranger_2:3:1770,sentinel_2:3:1180</t>
+  </si>
+  <si>
+    <t>crossbowman_3:1:2520,lancer_3:1:945,horseArcher_3:1:630;ballista_3:1:1260,swordsman_3:1:1890,sentinel_3:1:1260;lancer_3:1:1260,crossbowman_3:1:1890,sentinel_3:1:1260</t>
+  </si>
+  <si>
+    <t>crossbowman_3:1:2680,lancer_3:1:1005,horseArcher_3:1:670;ballista_3:1:1340,swordsman_3:1:2010,sentinel_3:1:1340;lancer_3:1:1340,crossbowman_3:1:2010,catapult_3:1:670</t>
+  </si>
+  <si>
+    <t>lancer_3:1:1425,horseArcher_3:1:1069,catapult_3:1:713;swordsman_3:1:2850,sentinel_3:1:2138,lancer_3:1:713;crossbowman_3:1:2850,lancer_3:1:1069,ballista_3:1:713</t>
+  </si>
+  <si>
+    <t>lancer_3:1:1505,horseArcher_3:1:1129,ballista_3:1:753;swordsman_3:1:3010,sentinel_3:1:2258,horseArcher_3:1:753;crossbowman_3:1:3010,lancer_3:1:1129,swordsman_3:1:1505</t>
+  </si>
+  <si>
+    <t>horseArcher_3:1:1580,catapult_3:1:1185,ballista_3:1:790;sentinel_3:1:3160,lancer_3:1:1185,ranger_3:1:790;ranger_3:1:3160,horseArcher_3:1:1185,sentinel_3:1:1580</t>
+  </si>
+  <si>
+    <t>horseArcher_3:2:1660,ballista_3:2:1245,catapult_3:2:830;sentinel_3:2:3320,horseArcher_3:2:830,catapult_3:2:830;ranger_3:2:3320,horseArcher_3:2:1245,catapult_3:2:830</t>
+  </si>
+  <si>
+    <t>catapult_3:2:1820,ballista_3:2:1365,sentinel_3:2:1820;lancer_3:2:1820,sentinel_3:2:1820,ballista_3:2:910;swordsman_3:2:3640,catapult_3:2:1365,lancer_3:2:910</t>
+  </si>
+  <si>
+    <t>ballista_3:2:1980,catapult_3:2:1485,sentinel_3:2:1980;horseArcher_3:2:1980,catapult_3:2:990,ranger_3:2:1980;sentinel_3:2:3960,ballista_3:2:1485,horseArcher_3:2:990</t>
+  </si>
+  <si>
+    <t>ballista_3:2:2140,swordsman_3:2:3210,ranger_3:2:2140;lancer_3:2:2140,ballista_3:2:1070,crossbowman_3:2:2140;swordsman_3:2:4280,ranger_3:2:3210,ballista_3:2:1070</t>
+  </si>
+  <si>
+    <t>catapult_3:3:2295,swordsman_3:3:3443,ranger_3:3:2295;horseArcher_3:3:2295,crossbowman_3:3:2295,catapult_3:3:1148;sentinel_3:3:4590,lancer_3:3:1722,catapult_3:3:1148</t>
   </si>
 </sst>
 </file>
@@ -2062,27 +1910,11 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0\%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2250,855 +2082,897 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="837">
+  <cellStyleXfs count="879">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat=